--- a/app/config/tables/GRAVIDA/forms/GRAVIDA/GRAVIDA.xlsx
+++ b/app/config/tables/GRAVIDA/forms/GRAVIDA/GRAVIDA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F7D832-2466-4148-B515-C425F96036C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF08F29-D059-4E9B-B9FF-2CF3C60B33C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -1919,8 +1919,8 @@
   <dimension ref="A1:M75"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D3" activeCellId="1" sqref="F3:F69 D3:D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2651,8 +2651,8 @@
   <dimension ref="A1:M81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D3" activeCellId="1" sqref="F3:F78 D3:D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4741,9 +4741,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9BD80F5-C430-4F23-B07C-4493C6C076E0}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5723,9 +5723,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
   <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D74" sqref="D74"/>
+      <selection pane="bottomLeft" activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5733,6 +5733,7 @@
     <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -5917,7 +5918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>389</v>
       </c>
@@ -5928,7 +5929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>329</v>
       </c>
@@ -5939,7 +5940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>326</v>
       </c>
@@ -5950,7 +5951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>327</v>
       </c>
@@ -5961,7 +5962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>357</v>
       </c>
@@ -5975,7 +5976,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>375</v>
       </c>
@@ -5986,7 +5987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>374</v>
       </c>
@@ -5997,7 +5998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>371</v>
       </c>
@@ -6008,7 +6009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>372</v>
       </c>
@@ -6019,7 +6020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>370</v>
       </c>
@@ -6030,7 +6031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>367</v>
       </c>
@@ -6041,7 +6042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>368</v>
       </c>
@@ -6052,7 +6053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>358</v>
       </c>
@@ -6063,7 +6064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>386</v>
       </c>
@@ -6074,7 +6075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>362</v>
       </c>
@@ -6084,6 +6085,8 @@
       <c r="C32" t="b">
         <v>0</v>
       </c>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -6095,6 +6098,7 @@
       <c r="C33" t="b">
         <v>0</v>
       </c>
+      <c r="G33" s="11"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -6106,6 +6110,7 @@
       <c r="C34" t="b">
         <v>0</v>
       </c>
+      <c r="G34" s="11"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -6117,6 +6122,7 @@
       <c r="C35" t="b">
         <v>1</v>
       </c>
+      <c r="G35" s="11"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -6128,6 +6134,7 @@
       <c r="C36" t="b">
         <v>0</v>
       </c>
+      <c r="G36" s="11"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -6139,6 +6146,7 @@
       <c r="C37" t="b">
         <v>0</v>
       </c>
+      <c r="G37" s="11"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -6150,6 +6158,7 @@
       <c r="C38" t="b">
         <v>0</v>
       </c>
+      <c r="G38" s="11"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -6175,6 +6184,10 @@
         <v>0</v>
       </c>
     </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+    </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>124</v>
@@ -6243,6 +6256,8 @@
       <c r="C47" t="b">
         <v>0</v>
       </c>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -6580,8 +6595,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A42:B72">
-    <sortCondition ref="A42"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H3:I166">
+    <sortCondition ref="H3"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/app/config/tables/GRAVIDA/forms/GRAVIDA/GRAVIDA.xlsx
+++ b/app/config/tables/GRAVIDA/forms/GRAVIDA/GRAVIDA.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF08F29-D059-4E9B-B9FF-2CF3C60B33C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900F55D9-C826-4482-AE49-2B207B9BF622}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -13,10 +13,11 @@
     <sheet name="1stvisit" sheetId="7" r:id="rId3"/>
     <sheet name="2ndvisit" sheetId="8" r:id="rId4"/>
     <sheet name="parto" sheetId="9" r:id="rId5"/>
-    <sheet name="queries" sheetId="6" r:id="rId6"/>
-    <sheet name="prompt_types" sheetId="5" r:id="rId7"/>
-    <sheet name="choices" sheetId="3" r:id="rId8"/>
-    <sheet name="model" sheetId="4" r:id="rId9"/>
+    <sheet name="calculates" sheetId="10" r:id="rId6"/>
+    <sheet name="queries" sheetId="6" r:id="rId7"/>
+    <sheet name="prompt_types" sheetId="5" r:id="rId8"/>
+    <sheet name="choices" sheetId="3" r:id="rId9"/>
+    <sheet name="model" sheetId="4" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="420">
   <si>
     <t>setting_name</t>
   </si>
@@ -760,9 +761,6 @@
   </si>
   <si>
     <t>Registro da 2ª criança</t>
-  </si>
-  <si>
-    <t>{PREGID: opendatakit.getCurrentInstanceId(), REGID: data('REGID'), REGDIA: data('PREGDIA'), OUTDATE: data('OUTDATE'), ASSISTPART: data('ASSISTPART'), CART_ANC: data('CART_ANC'), CDG_C: data('CDG_C'), CDG_M: data('CDG_M'), FEDEP_C: data('FEDEP_C'), FEDEP_M: data('FEDEP_M'), GRCONS: data('GRCONS'), GRINFOS: data('GRINFOS'), GRVAC: data('GRVAC'), LITTERSIZE: data('LITTERSIZE'), LOCPAR: data('LOCPAR'), QVFANSI_C: data('QVFANSI_C'), QVFANSI_M: data('QVFANSI_M'), TABPART: data('TABPART'), VACTTHI: data('VACTTHI')}</t>
   </si>
   <si>
     <t>select_multiple</t>
@@ -1255,6 +1253,60 @@
   <si>
     <t>MIF</t>
   </si>
+  <si>
+    <t>Comentário</t>
+  </si>
+  <si>
+    <t>OBSVIS1</t>
+  </si>
+  <si>
+    <t>OBSVIS2</t>
+  </si>
+  <si>
+    <t>OBSPART</t>
+  </si>
+  <si>
+    <t>{PREGID: opendatakit.getCurrentInstanceId(), REGID: data('REGID'), REGDIA: data('PREGDIA'), OBSPART: data('OBSPART'), OUTDATE: data('OUTDATE'), ASSISTPART: data('ASSISTPART'), CART_ANC: data('CART_ANC'), CDG_C: data('CDG_C'), CDG_M: data('CDG_M'), FEDEP_C: data('FEDEP_C'), FEDEP_M: data('FEDEP_M'), GRCONS: data('GRCONS'), GRINFOS: data('GRINFOS'), GRVAC: data('GRVAC'), LITTERSIZE: data('LITTERSIZE'), LOCPAR: data('LOCPAR'), QVFANSI_C: data('QVFANSI_C'), QVFANSI_M: data('QVFANSI_M'), TABPART: data('TABPART'), VACTTHI: data('VACTTHI')}</t>
+  </si>
+  <si>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>calculation_name</t>
+  </si>
+  <si>
+    <t>adate.display(data('mifdnasc'))</t>
+  </si>
+  <si>
+    <t>displayMifdnasc</t>
+  </si>
+  <si>
+    <t>mifdnasc</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Registration of pregnancy: {{data.nome}} - Dob: {{calculates.displayMifdnasc}}&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Registro de gravidez: {{data.nome}} - Nas: {{calculates.displayMifdnasc}}&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;2nd pregnancy visit: {{data.nome}} - Dob: {{calculates.displayMifdnasc}}&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;2ª visita de gravidez: {{data.nome}} - Nas: {{calculates.displayMifdnasc}}&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Pregnancy visit: {{data.nome}} - Dob: {{calculates.displayMifdnasc}}&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Visita de gravidez: {{data.nome}} - Nas: {{calculates.displayMifdnasc}}&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;After childbirth: {{data.nome}} - Dob: {{calculates.displayMifdnasc}}&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Depois de parto: {{data.nome}} - Nas: {{calculates.displayMifdnasc}}&lt;b&gt;</t>
+  </si>
 </sst>
 </file>
 
@@ -1263,7 +1315,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-406]General"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1312,6 +1364,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1379,7 +1438,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1409,6 +1468,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{C28CC074-D3A0-48A2-81F3-B6A5CA836B7C}"/>
@@ -1734,7 +1794,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1750,7 +1810,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1758,10 +1818,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1805,6 +1865,946 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
+  <dimension ref="A1:N83"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A81" sqref="A81"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>334</v>
+      </c>
+      <c r="B6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>332</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>329</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="12"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>330</v>
+      </c>
+      <c r="B9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>338</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="12"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>340</v>
+      </c>
+      <c r="B11" t="s">
+        <v>242</v>
+      </c>
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>324</v>
+      </c>
+      <c r="B13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>323</v>
+      </c>
+      <c r="B14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>379</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>380</v>
+      </c>
+      <c r="B16" t="s">
+        <v>242</v>
+      </c>
+      <c r="C16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>403</v>
+      </c>
+      <c r="B17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>328</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>325</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>326</v>
+      </c>
+      <c r="B21" t="s">
+        <v>242</v>
+      </c>
+      <c r="C21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>356</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>374</v>
+      </c>
+      <c r="B24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>373</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>370</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>371</v>
+      </c>
+      <c r="B27" t="s">
+        <v>242</v>
+      </c>
+      <c r="C27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>369</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>366</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>367</v>
+      </c>
+      <c r="B30" t="s">
+        <v>242</v>
+      </c>
+      <c r="C30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>357</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>385</v>
+      </c>
+      <c r="B32" t="s">
+        <v>242</v>
+      </c>
+      <c r="C32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>361</v>
+      </c>
+      <c r="B33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>358</v>
+      </c>
+      <c r="B34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" t="b">
+        <v>0</v>
+      </c>
+      <c r="G34" s="11"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>376</v>
+      </c>
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35" s="11"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>377</v>
+      </c>
+      <c r="B36" t="s">
+        <v>242</v>
+      </c>
+      <c r="C36" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36" s="11"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>353</v>
+      </c>
+      <c r="B37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" s="11"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38" s="11"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>365</v>
+      </c>
+      <c r="B39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39" s="11"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>362</v>
+      </c>
+      <c r="B40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" t="b">
+        <v>0</v>
+      </c>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>363</v>
+      </c>
+      <c r="B41" t="s">
+        <v>242</v>
+      </c>
+      <c r="C41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>124</v>
+      </c>
+      <c r="B44" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" t="b">
+        <v>0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>265</v>
+      </c>
+      <c r="B45" t="s">
+        <v>242</v>
+      </c>
+      <c r="C45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>164</v>
+      </c>
+      <c r="B46" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>145</v>
+      </c>
+      <c r="B47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>153</v>
+      </c>
+      <c r="B48" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>151</v>
+      </c>
+      <c r="B49" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>267</v>
+      </c>
+      <c r="B50" t="s">
+        <v>242</v>
+      </c>
+      <c r="C50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>155</v>
+      </c>
+      <c r="B51" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>154</v>
+      </c>
+      <c r="B52" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>269</v>
+      </c>
+      <c r="B53" t="s">
+        <v>242</v>
+      </c>
+      <c r="C53" t="b">
+        <v>1</v>
+      </c>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>143</v>
+      </c>
+      <c r="B54" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>138</v>
+      </c>
+      <c r="B55" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>146</v>
+      </c>
+      <c r="B56" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>129</v>
+      </c>
+      <c r="B57" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>133</v>
+      </c>
+      <c r="B58" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>127</v>
+      </c>
+      <c r="B59" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>161</v>
+      </c>
+      <c r="B60" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" t="s">
+        <v>107</v>
+      </c>
+      <c r="C62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>119</v>
+      </c>
+      <c r="B63" t="s">
+        <v>25</v>
+      </c>
+      <c r="C63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>285</v>
+      </c>
+      <c r="B64" t="s">
+        <v>281</v>
+      </c>
+      <c r="C64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>287</v>
+      </c>
+      <c r="B65" t="s">
+        <v>242</v>
+      </c>
+      <c r="C65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>289</v>
+      </c>
+      <c r="B66" t="s">
+        <v>106</v>
+      </c>
+      <c r="C66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>296</v>
+      </c>
+      <c r="B67" t="s">
+        <v>106</v>
+      </c>
+      <c r="C67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>292</v>
+      </c>
+      <c r="B68" t="s">
+        <v>25</v>
+      </c>
+      <c r="C68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>157</v>
+      </c>
+      <c r="B69" t="s">
+        <v>29</v>
+      </c>
+      <c r="C69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>156</v>
+      </c>
+      <c r="B70" t="s">
+        <v>29</v>
+      </c>
+      <c r="C70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>271</v>
+      </c>
+      <c r="B71" t="s">
+        <v>242</v>
+      </c>
+      <c r="C71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>283</v>
+      </c>
+      <c r="B72" t="s">
+        <v>281</v>
+      </c>
+      <c r="C72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>158</v>
+      </c>
+      <c r="B73" t="s">
+        <v>25</v>
+      </c>
+      <c r="C73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>149</v>
+      </c>
+      <c r="B74" t="s">
+        <v>29</v>
+      </c>
+      <c r="C74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>251</v>
+      </c>
+      <c r="B77" t="s">
+        <v>106</v>
+      </c>
+      <c r="C77" t="b">
+        <v>0</v>
+      </c>
+      <c r="D77" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>103</v>
+      </c>
+      <c r="B78" t="s">
+        <v>107</v>
+      </c>
+      <c r="C78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>344</v>
+      </c>
+      <c r="B79" t="s">
+        <v>25</v>
+      </c>
+      <c r="C79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>407</v>
+      </c>
+      <c r="B80" t="s">
+        <v>106</v>
+      </c>
+      <c r="C80" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>411</v>
+      </c>
+      <c r="B81" t="s">
+        <v>107</v>
+      </c>
+      <c r="C81" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>105</v>
+      </c>
+      <c r="B82" t="s">
+        <v>106</v>
+      </c>
+      <c r="C82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>231</v>
+      </c>
+      <c r="B83" t="s">
+        <v>106</v>
+      </c>
+      <c r="C83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A77:C83">
+    <sortCondition ref="A77"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1867,16 +2867,16 @@
         <v>35</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>312</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -1884,22 +2884,22 @@
         <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1916,11 +2916,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42B4652-1939-4CCD-AEEB-1868D449AB6E}">
-  <dimension ref="A1:M75"/>
+  <dimension ref="A1:M89"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" activeCellId="1" sqref="F3:F69 D3:D69"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1968,16 +2968,16 @@
         <v>26</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>312</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1990,31 +2990,27 @@
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
     </row>
-    <row r="3" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="D3" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="F3" t="s">
-        <v>110</v>
-      </c>
-      <c r="I3" s="10">
-        <v>1</v>
-      </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>412</v>
+      </c>
+      <c r="H3" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="4" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="D4" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>323</v>
+      <c r="F4" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4" s="10">
+        <v>1</v>
       </c>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
@@ -2023,620 +3019,769 @@
     <row r="5" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="D5" s="11" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>347</v>
-      </c>
-      <c r="I5" s="10"/>
+        <v>388</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>322</v>
+      </c>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
     </row>
     <row r="6" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
-      <c r="B6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
+      <c r="D6" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>346</v>
+      </c>
       <c r="I6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" t="s">
+    <row r="7" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="20"/>
+      <c r="B8" t="s">
         <v>81</v>
       </c>
-      <c r="C7" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" t="s">
-        <v>380</v>
-      </c>
-      <c r="G9" t="s">
-        <v>83</v>
-      </c>
-      <c r="H9" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>243</v>
-      </c>
-      <c r="E10" t="s">
-        <v>244</v>
-      </c>
-      <c r="F10" t="s">
-        <v>381</v>
+        <v>28</v>
+      </c>
+      <c r="G10" t="s">
+        <v>412</v>
+      </c>
+      <c r="H10" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" t="s">
-        <v>382</v>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s">
+        <v>379</v>
+      </c>
+      <c r="G11" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>137</v>
+        <v>242</v>
+      </c>
+      <c r="E12" t="s">
+        <v>243</v>
       </c>
       <c r="F12" t="s">
         <v>380</v>
       </c>
-      <c r="I12">
-        <v>555</v>
-      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="C13" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" t="s">
+        <v>379</v>
+      </c>
+      <c r="I14">
+        <v>555</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="B16" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="20"/>
+      <c r="B18" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" t="s">
+        <v>412</v>
+      </c>
+      <c r="H20" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E21" t="s">
         <v>49</v>
       </c>
-      <c r="F18" t="s">
-        <v>342</v>
-      </c>
-      <c r="G18" s="5"/>
-      <c r="H18" t="s">
+      <c r="F21" t="s">
+        <v>341</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" t="s">
+        <v>412</v>
+      </c>
+      <c r="H24" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
         <v>29</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F25" t="s">
+        <v>338</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="H25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>242</v>
+      </c>
+      <c r="E26" t="s">
+        <v>264</v>
+      </c>
+      <c r="F26" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" t="s">
         <v>339</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="H21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
-        <v>243</v>
-      </c>
-      <c r="E22" t="s">
-        <v>265</v>
-      </c>
-      <c r="F22" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>137</v>
+      </c>
+      <c r="F28" t="s">
+        <v>338</v>
+      </c>
+      <c r="I28">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" t="s">
+        <v>412</v>
+      </c>
+      <c r="H32" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" s="5"/>
+      <c r="H33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>107</v>
+      </c>
+      <c r="F34" t="s">
+        <v>323</v>
+      </c>
+      <c r="G34" t="s">
+        <v>85</v>
+      </c>
+      <c r="H34" t="s">
+        <v>43</v>
+      </c>
+      <c r="K34" t="s">
+        <v>393</v>
+      </c>
+      <c r="L34" t="s">
+        <v>313</v>
+      </c>
+      <c r="M34" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>81</v>
       </c>
-      <c r="C23" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>137</v>
-      </c>
-      <c r="F24" t="s">
-        <v>339</v>
-      </c>
-      <c r="I24">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+      <c r="C35" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>107</v>
+      </c>
+      <c r="F36" t="s">
+        <v>324</v>
+      </c>
+      <c r="G36" t="s">
+        <v>84</v>
+      </c>
+      <c r="H36" t="s">
+        <v>42</v>
+      </c>
+      <c r="K36" t="s">
+        <v>394</v>
+      </c>
+      <c r="L36" t="s">
+        <v>313</v>
+      </c>
+      <c r="M36" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
         <v>28</v>
       </c>
-      <c r="G28" s="5"/>
-      <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>107</v>
-      </c>
-      <c r="F29" t="s">
-        <v>324</v>
-      </c>
-      <c r="G29" t="s">
-        <v>85</v>
-      </c>
-      <c r="H29" t="s">
-        <v>43</v>
-      </c>
-      <c r="K29" t="s">
-        <v>394</v>
-      </c>
-      <c r="L29" t="s">
-        <v>314</v>
-      </c>
-      <c r="M29" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>81</v>
-      </c>
-      <c r="C30" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D31" t="s">
-        <v>107</v>
-      </c>
-      <c r="F31" t="s">
-        <v>325</v>
-      </c>
-      <c r="G31" t="s">
-        <v>84</v>
-      </c>
-      <c r="H31" t="s">
-        <v>42</v>
-      </c>
-      <c r="K31" t="s">
-        <v>395</v>
-      </c>
-      <c r="L31" t="s">
-        <v>314</v>
-      </c>
-      <c r="M31" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D35" t="s">
+      <c r="G40" t="s">
+        <v>412</v>
+      </c>
+      <c r="H40" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
         <v>28</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G41" t="s">
         <v>86</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H41" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D36" t="s">
-        <v>29</v>
-      </c>
-      <c r="F36" t="s">
-        <v>326</v>
-      </c>
-      <c r="G36" t="s">
-        <v>85</v>
-      </c>
-      <c r="H36" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D37" t="s">
-        <v>243</v>
-      </c>
-      <c r="E37" t="s">
-        <v>265</v>
-      </c>
-      <c r="F37" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>81</v>
-      </c>
-      <c r="C38" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D39" t="s">
-        <v>137</v>
-      </c>
-      <c r="F39" t="s">
-        <v>326</v>
-      </c>
-      <c r="I39">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>81</v>
-      </c>
-      <c r="C41" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
         <v>29</v>
       </c>
       <c r="F42" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G42" t="s">
+        <v>85</v>
+      </c>
+      <c r="H42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>242</v>
+      </c>
+      <c r="E43" t="s">
+        <v>264</v>
+      </c>
+      <c r="F43" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>137</v>
+      </c>
+      <c r="F45" t="s">
+        <v>325</v>
+      </c>
+      <c r="I45">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>29</v>
+      </c>
+      <c r="F48" t="s">
+        <v>328</v>
+      </c>
+      <c r="G48" t="s">
         <v>84</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H48" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D46" t="s">
-        <v>28</v>
-      </c>
-      <c r="G46" t="s">
-        <v>87</v>
-      </c>
-      <c r="H46" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D47" t="s">
-        <v>29</v>
-      </c>
-      <c r="F47" t="s">
-        <v>330</v>
-      </c>
-      <c r="G47" t="s">
-        <v>85</v>
-      </c>
-      <c r="H47" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D48" t="s">
-        <v>243</v>
-      </c>
-      <c r="E48" t="s">
-        <v>265</v>
-      </c>
-      <c r="F48" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>81</v>
-      </c>
-      <c r="C49" t="s">
-        <v>332</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D50" t="s">
-        <v>137</v>
-      </c>
-      <c r="F50" t="s">
-        <v>330</v>
-      </c>
-      <c r="I50">
-        <v>99</v>
+      <c r="B50" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>81</v>
-      </c>
-      <c r="C52" t="s">
-        <v>338</v>
+      <c r="D52" t="s">
+        <v>28</v>
+      </c>
+      <c r="G52" t="s">
+        <v>412</v>
+      </c>
+      <c r="H52" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
+        <v>28</v>
+      </c>
+      <c r="G53" t="s">
+        <v>87</v>
+      </c>
+      <c r="H53" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
         <v>29</v>
       </c>
-      <c r="F53" t="s">
-        <v>333</v>
-      </c>
-      <c r="G53" t="s">
-        <v>84</v>
-      </c>
-      <c r="H53" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>82</v>
+      <c r="F54" t="s">
+        <v>329</v>
+      </c>
+      <c r="G54" t="s">
+        <v>85</v>
+      </c>
+      <c r="H54" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>13</v>
+      <c r="D55" t="s">
+        <v>242</v>
+      </c>
+      <c r="E55" t="s">
+        <v>264</v>
+      </c>
+      <c r="F55" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>12</v>
+        <v>81</v>
+      </c>
+      <c r="C56" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
-        <v>28</v>
-      </c>
-      <c r="G57" s="5"/>
-      <c r="H57" t="s">
-        <v>45</v>
+        <v>137</v>
+      </c>
+      <c r="F57" t="s">
+        <v>329</v>
+      </c>
+      <c r="I57">
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D58" t="s">
+      <c r="B58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>81</v>
+      </c>
+      <c r="C59" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
         <v>29</v>
       </c>
-      <c r="F58" t="s">
-        <v>334</v>
-      </c>
-      <c r="G58" t="s">
-        <v>85</v>
-      </c>
-      <c r="H58" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D59" t="s">
-        <v>243</v>
-      </c>
-      <c r="E59" t="s">
-        <v>265</v>
-      </c>
-      <c r="F59" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>81</v>
-      </c>
-      <c r="C60" t="s">
-        <v>336</v>
+      <c r="F60" t="s">
+        <v>332</v>
+      </c>
+      <c r="G60" t="s">
+        <v>84</v>
+      </c>
+      <c r="H60" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D61" t="s">
-        <v>137</v>
-      </c>
-      <c r="F61" t="s">
-        <v>334</v>
-      </c>
-      <c r="I61">
-        <v>99</v>
+      <c r="B61" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>81</v>
-      </c>
-      <c r="C63" t="s">
-        <v>338</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
+        <v>28</v>
+      </c>
+      <c r="G64" t="s">
+        <v>412</v>
+      </c>
+      <c r="H64" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>28</v>
+      </c>
+      <c r="G65" s="5"/>
+      <c r="H65" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
         <v>29</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F66" t="s">
+        <v>333</v>
+      </c>
+      <c r="G66" t="s">
+        <v>85</v>
+      </c>
+      <c r="H66" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>242</v>
+      </c>
+      <c r="E67" t="s">
+        <v>264</v>
+      </c>
+      <c r="F67" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>81</v>
+      </c>
+      <c r="C68" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>137</v>
+      </c>
+      <c r="F69" t="s">
+        <v>333</v>
+      </c>
+      <c r="I69">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>81</v>
+      </c>
+      <c r="C71" t="s">
         <v>337</v>
       </c>
-      <c r="G64" t="s">
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>29</v>
+      </c>
+      <c r="F72" t="s">
+        <v>336</v>
+      </c>
+      <c r="G72" t="s">
         <v>84</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H72" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
         <v>81</v>
       </c>
-      <c r="C67" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
+      <c r="C75" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D69" t="s">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>28</v>
+      </c>
+      <c r="G77" t="s">
+        <v>412</v>
+      </c>
+      <c r="H77" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
         <v>107</v>
       </c>
-      <c r="F69" t="s">
-        <v>344</v>
-      </c>
-      <c r="G69" s="5"/>
-      <c r="H69" t="s">
+      <c r="F78" t="s">
+        <v>343</v>
+      </c>
+      <c r="G78" s="5"/>
+      <c r="H78" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D73" t="s">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
         <v>28</v>
       </c>
-      <c r="G73" s="5" t="s">
+      <c r="G82" t="s">
+        <v>412</v>
+      </c>
+      <c r="H82" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>28</v>
+      </c>
+      <c r="G83" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="H73" t="s">
+      <c r="H83" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D74" t="s">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
         <v>101</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E84" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>28</v>
+      </c>
+      <c r="G87" t="s">
+        <v>412</v>
+      </c>
+      <c r="H87" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
+        <v>106</v>
+      </c>
+      <c r="F88" t="s">
+        <v>403</v>
+      </c>
+      <c r="G88" t="s">
+        <v>397</v>
+      </c>
+      <c r="H88" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2648,11 +3793,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51D9F90A-DED8-4B84-AE76-A32853D141F5}">
-  <dimension ref="A1:M81"/>
+  <dimension ref="A1:M95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" activeCellId="1" sqref="F3:F78 D3:D78"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2701,16 +3846,16 @@
         <v>26</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>312</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -2725,35 +3870,34 @@
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
     </row>
-    <row r="3" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="D3" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="F3" t="s">
-        <v>110</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="I3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>416</v>
+      </c>
+      <c r="H3" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="4" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
-      <c r="B4" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
+      <c r="D4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>172</v>
+      </c>
       <c r="I4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
@@ -2762,10 +3906,7 @@
     <row r="5" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -2776,8 +3917,11 @@
     </row>
     <row r="6" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
-      <c r="B6" s="12" t="s">
-        <v>385</v>
+      <c r="B6" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>117</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
@@ -2789,7 +3933,7 @@
     <row r="7" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="12" t="s">
-        <v>82</v>
+        <v>384</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
@@ -2799,12 +3943,9 @@
       <c r="M7" s="10"/>
     </row>
     <row r="8" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
@@ -2814,10 +3955,15 @@
       <c r="M8" s="10"/>
     </row>
     <row r="9" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11" t="s">
-        <v>12</v>
-      </c>
+      <c r="A9" s="22"/>
+      <c r="B9" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
       <c r="I9" s="10"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
@@ -2825,174 +3971,181 @@
     </row>
     <row r="10" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
-      <c r="D10" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="I10" t="s">
-        <v>349</v>
-      </c>
+      <c r="B10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
     </row>
-    <row r="11" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="D11" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="I11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" t="s">
+        <v>414</v>
+      </c>
+      <c r="H11" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="12" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
-      <c r="B12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="10"/>
+      <c r="D12" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="I12" t="s">
+        <v>348</v>
+      </c>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" t="s">
-        <v>354</v>
-      </c>
-      <c r="G14" t="s">
-        <v>355</v>
-      </c>
-      <c r="H14" t="s">
-        <v>356</v>
-      </c>
+    <row r="13" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="D13" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="I13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+    </row>
+    <row r="14" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="B16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16" t="s">
-        <v>376</v>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" t="s">
+        <v>353</v>
+      </c>
+      <c r="G16" t="s">
+        <v>354</v>
+      </c>
+      <c r="H16" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="20"/>
+      <c r="B18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" t="s">
-        <v>377</v>
-      </c>
-      <c r="G18" t="s">
-        <v>83</v>
-      </c>
-      <c r="H18" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
-        <v>243</v>
-      </c>
-      <c r="E19" t="s">
-        <v>244</v>
-      </c>
-      <c r="F19" t="s">
-        <v>378</v>
-      </c>
-    </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" t="s">
-        <v>379</v>
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" t="s">
+        <v>414</v>
+      </c>
+      <c r="H20" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" t="s">
+        <v>376</v>
+      </c>
+      <c r="G21" t="s">
+        <v>83</v>
+      </c>
+      <c r="H21" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>242</v>
+      </c>
+      <c r="E22" t="s">
+        <v>243</v>
+      </c>
+      <c r="F22" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
         <v>137</v>
       </c>
-      <c r="F21" t="s">
-        <v>377</v>
-      </c>
-      <c r="I21">
+      <c r="F24" t="s">
+        <v>376</v>
+      </c>
+      <c r="I24">
         <v>555</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
       <c r="B25" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" t="s">
-        <v>357</v>
-      </c>
-      <c r="G27" s="5"/>
-      <c r="H27" t="s">
-        <v>39</v>
+      <c r="B27" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="20"/>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -3002,367 +4155,376 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>29</v>
-      </c>
-      <c r="F30" t="s">
-        <v>358</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>264</v>
+        <v>28</v>
+      </c>
+      <c r="G30" t="s">
+        <v>414</v>
       </c>
       <c r="H30" t="s">
-        <v>40</v>
+        <v>415</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>243</v>
+        <v>25</v>
       </c>
       <c r="E31" t="s">
-        <v>265</v>
+        <v>49</v>
       </c>
       <c r="F31" t="s">
-        <v>386</v>
+        <v>356</v>
+      </c>
+      <c r="G31" s="5"/>
+      <c r="H31" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" t="s">
+        <v>414</v>
+      </c>
+      <c r="H34" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" t="s">
+        <v>357</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="H35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>242</v>
+      </c>
+      <c r="E36" t="s">
+        <v>264</v>
+      </c>
+      <c r="F36" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>81</v>
       </c>
-      <c r="C32" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D33" t="s">
-        <v>137</v>
-      </c>
-      <c r="F33" t="s">
-        <v>358</v>
-      </c>
-      <c r="I33">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D37" t="s">
-        <v>28</v>
-      </c>
-      <c r="G37" s="5"/>
-      <c r="H37" t="s">
-        <v>41</v>
+      <c r="C37" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="F38" t="s">
-        <v>359</v>
-      </c>
-      <c r="G38" t="s">
-        <v>85</v>
-      </c>
-      <c r="H38" t="s">
-        <v>43</v>
-      </c>
-      <c r="K38" t="s">
-        <v>396</v>
-      </c>
-      <c r="L38" t="s">
-        <v>314</v>
-      </c>
-      <c r="M38" t="s">
-        <v>314</v>
+        <v>357</v>
+      </c>
+      <c r="I38">
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>81</v>
-      </c>
-      <c r="C39" t="s">
-        <v>361</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D40" t="s">
-        <v>107</v>
-      </c>
-      <c r="F40" t="s">
-        <v>362</v>
-      </c>
-      <c r="G40" t="s">
-        <v>84</v>
-      </c>
-      <c r="H40" t="s">
-        <v>42</v>
-      </c>
-      <c r="K40" t="s">
-        <v>397</v>
-      </c>
-      <c r="L40" t="s">
-        <v>314</v>
-      </c>
-      <c r="M40" t="s">
-        <v>314</v>
+      <c r="B40" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>13</v>
+      <c r="D42" t="s">
+        <v>28</v>
+      </c>
+      <c r="G42" t="s">
+        <v>414</v>
+      </c>
+      <c r="H42" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>12</v>
+      <c r="D43" t="s">
+        <v>28</v>
+      </c>
+      <c r="G43" s="5"/>
+      <c r="H43" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>28</v>
+        <v>107</v>
+      </c>
+      <c r="F44" t="s">
+        <v>358</v>
       </c>
       <c r="G44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="K44" t="s">
+        <v>395</v>
+      </c>
+      <c r="L44" t="s">
+        <v>313</v>
+      </c>
+      <c r="M44" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D45" t="s">
-        <v>29</v>
-      </c>
-      <c r="F45" t="s">
-        <v>363</v>
-      </c>
-      <c r="G45" t="s">
-        <v>85</v>
-      </c>
-      <c r="H45" t="s">
-        <v>43</v>
+      <c r="B45" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
-        <v>243</v>
-      </c>
-      <c r="E46" t="s">
-        <v>265</v>
+        <v>107</v>
       </c>
       <c r="F46" t="s">
-        <v>364</v>
+        <v>361</v>
+      </c>
+      <c r="G46" t="s">
+        <v>84</v>
+      </c>
+      <c r="H46" t="s">
+        <v>42</v>
+      </c>
+      <c r="K46" t="s">
+        <v>396</v>
+      </c>
+      <c r="L46" t="s">
+        <v>313</v>
+      </c>
+      <c r="M46" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>81</v>
-      </c>
-      <c r="C47" t="s">
-        <v>365</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D48" t="s">
-        <v>137</v>
-      </c>
-      <c r="F48" t="s">
-        <v>363</v>
-      </c>
-      <c r="I48">
-        <v>99</v>
+      <c r="B48" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>81</v>
-      </c>
-      <c r="C50" t="s">
-        <v>361</v>
+      <c r="D50" t="s">
+        <v>28</v>
+      </c>
+      <c r="G50" t="s">
+        <v>414</v>
+      </c>
+      <c r="H50" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
+        <v>28</v>
+      </c>
+      <c r="G51" t="s">
+        <v>86</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
         <v>29</v>
       </c>
-      <c r="F51" t="s">
-        <v>366</v>
-      </c>
-      <c r="G51" t="s">
-        <v>84</v>
-      </c>
-      <c r="H51" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>82</v>
+      <c r="F52" t="s">
+        <v>362</v>
+      </c>
+      <c r="G52" t="s">
+        <v>85</v>
+      </c>
+      <c r="H52" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>13</v>
+      <c r="D53" t="s">
+        <v>242</v>
+      </c>
+      <c r="E53" t="s">
+        <v>264</v>
+      </c>
+      <c r="F53" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>12</v>
+        <v>81</v>
+      </c>
+      <c r="C54" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
-        <v>28</v>
-      </c>
-      <c r="G55" t="s">
-        <v>87</v>
-      </c>
-      <c r="H55" t="s">
-        <v>44</v>
+        <v>137</v>
+      </c>
+      <c r="F55" t="s">
+        <v>362</v>
+      </c>
+      <c r="I55">
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D56" t="s">
+      <c r="B56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
         <v>29</v>
       </c>
-      <c r="F56" t="s">
-        <v>367</v>
-      </c>
-      <c r="G56" t="s">
-        <v>85</v>
-      </c>
-      <c r="H56" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D57" t="s">
-        <v>243</v>
-      </c>
-      <c r="E57" t="s">
-        <v>265</v>
-      </c>
-      <c r="F57" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>81</v>
-      </c>
-      <c r="C58" t="s">
-        <v>369</v>
+      <c r="F58" t="s">
+        <v>365</v>
+      </c>
+      <c r="G58" t="s">
+        <v>84</v>
+      </c>
+      <c r="H58" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D59" t="s">
-        <v>137</v>
-      </c>
-      <c r="F59" t="s">
-        <v>367</v>
-      </c>
-      <c r="I59">
-        <v>99</v>
+      <c r="B59" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>81</v>
-      </c>
-      <c r="C61" t="s">
-        <v>361</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
+        <v>28</v>
+      </c>
+      <c r="G62" t="s">
+        <v>414</v>
+      </c>
+      <c r="H62" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>28</v>
+      </c>
+      <c r="G63" t="s">
+        <v>87</v>
+      </c>
+      <c r="H63" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
         <v>29</v>
       </c>
-      <c r="F62" t="s">
-        <v>370</v>
-      </c>
-      <c r="G62" t="s">
-        <v>84</v>
-      </c>
-      <c r="H62" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>13</v>
+      <c r="F64" t="s">
+        <v>366</v>
+      </c>
+      <c r="G64" t="s">
+        <v>85</v>
+      </c>
+      <c r="H64" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>12</v>
+      <c r="D65" t="s">
+        <v>242</v>
+      </c>
+      <c r="E65" t="s">
+        <v>264</v>
+      </c>
+      <c r="F65" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D66" t="s">
-        <v>28</v>
-      </c>
-      <c r="G66" s="5"/>
-      <c r="H66" t="s">
-        <v>45</v>
+      <c r="B66" t="s">
+        <v>81</v>
+      </c>
+      <c r="C66" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
-        <v>29</v>
+        <v>137</v>
       </c>
       <c r="F67" t="s">
-        <v>371</v>
-      </c>
-      <c r="G67" t="s">
-        <v>85</v>
-      </c>
-      <c r="H67" t="s">
-        <v>43</v>
+        <v>366</v>
+      </c>
+      <c r="I67">
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D68" t="s">
-        <v>243</v>
-      </c>
-      <c r="E68" t="s">
-        <v>265</v>
-      </c>
-      <c r="F68" t="s">
-        <v>372</v>
+      <c r="B68" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
@@ -3370,18 +4532,21 @@
         <v>81</v>
       </c>
       <c r="C69" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
-        <v>137</v>
+        <v>29</v>
       </c>
       <c r="F70" t="s">
-        <v>371</v>
-      </c>
-      <c r="I70">
-        <v>99</v>
+        <v>369</v>
+      </c>
+      <c r="G70" t="s">
+        <v>84</v>
+      </c>
+      <c r="H70" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
@@ -3391,64 +4556,76 @@
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>28</v>
+      </c>
+      <c r="G74" t="s">
+        <v>414</v>
+      </c>
+      <c r="H74" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>28</v>
+      </c>
+      <c r="G75" s="5"/>
+      <c r="H75" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>29</v>
+      </c>
+      <c r="F76" t="s">
+        <v>370</v>
+      </c>
+      <c r="G76" t="s">
+        <v>85</v>
+      </c>
+      <c r="H76" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>242</v>
+      </c>
+      <c r="E77" t="s">
+        <v>264</v>
+      </c>
+      <c r="F77" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
         <v>81</v>
       </c>
-      <c r="C72" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D73" t="s">
-        <v>29</v>
-      </c>
-      <c r="F73" t="s">
-        <v>374</v>
-      </c>
-      <c r="G73" t="s">
-        <v>84</v>
-      </c>
-      <c r="H73" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>81</v>
-      </c>
-      <c r="C76" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D78" t="s">
-        <v>107</v>
-      </c>
-      <c r="F78" t="s">
-        <v>375</v>
-      </c>
-      <c r="G78" s="5"/>
-      <c r="H78" t="s">
-        <v>47</v>
+      <c r="C78" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>13</v>
+      <c r="D79" t="s">
+        <v>137</v>
+      </c>
+      <c r="F79" t="s">
+        <v>370</v>
+      </c>
+      <c r="I79">
+        <v>99</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
@@ -3456,9 +4633,122 @@
         <v>82</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="21"/>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
+        <v>81</v>
+      </c>
+      <c r="C81" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>29</v>
+      </c>
+      <c r="F82" t="s">
+        <v>373</v>
+      </c>
+      <c r="G82" t="s">
+        <v>84</v>
+      </c>
+      <c r="H82" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>81</v>
+      </c>
+      <c r="C85" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>28</v>
+      </c>
+      <c r="G87" t="s">
+        <v>414</v>
+      </c>
+      <c r="H87" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
+        <v>107</v>
+      </c>
+      <c r="F88" t="s">
+        <v>374</v>
+      </c>
+      <c r="G88" s="5"/>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>28</v>
+      </c>
+      <c r="G92" t="s">
+        <v>414</v>
+      </c>
+      <c r="H92" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>106</v>
+      </c>
+      <c r="F93" t="s">
+        <v>404</v>
+      </c>
+      <c r="G93" t="s">
+        <v>397</v>
+      </c>
+      <c r="H93" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="21"/>
+      <c r="B95" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3469,11 +4759,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D665D096-BD70-4F59-A80B-B0F9CAA299C4}">
-  <dimension ref="A1:M137"/>
+  <dimension ref="A1:M162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K21" sqref="K21"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3522,16 +4812,16 @@
         <v>26</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>312</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3544,80 +4834,77 @@
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
     </row>
-    <row r="3" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="D3" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="I3" t="s">
-        <v>349</v>
-      </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>418</v>
+      </c>
+      <c r="H3" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="4" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="D4" s="11" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>383</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="I4" s="10"/>
+        <v>386</v>
+      </c>
+      <c r="I4" t="s">
+        <v>348</v>
+      </c>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
-      <c r="B5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
+      <c r="D5" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>383</v>
+      </c>
       <c r="I5" s="10"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G7" t="s">
-        <v>130</v>
-      </c>
-      <c r="H7" t="s">
-        <v>131</v>
-      </c>
-    </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" t="s">
-        <v>132</v>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" t="s">
+        <v>418</v>
+      </c>
+      <c r="H8" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -3625,45 +4912,54 @@
         <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G9" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H9" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F11" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" t="s">
+        <v>134</v>
+      </c>
+      <c r="H11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
-        <v>137</v>
-      </c>
-      <c r="F12" t="s">
-        <v>138</v>
-      </c>
-      <c r="I12" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>140</v>
+        <v>81</v>
+      </c>
+      <c r="C13" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -3674,72 +4970,66 @@
         <v>138</v>
       </c>
       <c r="I14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>13</v>
+      <c r="D16" t="s">
+        <v>137</v>
+      </c>
+      <c r="F16" t="s">
+        <v>138</v>
+      </c>
+      <c r="I16" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" t="s">
-        <v>118</v>
-      </c>
-      <c r="F18" t="s">
-        <v>119</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="H18" t="s">
-        <v>254</v>
+      <c r="B18" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>12</v>
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" t="s">
+        <v>418</v>
+      </c>
+      <c r="H20" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>107</v>
+        <v>25</v>
+      </c>
+      <c r="E21" t="s">
+        <v>118</v>
       </c>
       <c r="F21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H21" t="s">
-        <v>255</v>
-      </c>
-      <c r="K21" t="s">
-        <v>388</v>
-      </c>
-      <c r="L21" t="s">
-        <v>315</v>
-      </c>
-      <c r="M21" t="s">
-        <v>315</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -3748,172 +5038,195 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
       <c r="B23" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" t="s">
-        <v>123</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>12</v>
+      <c r="D24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" t="s">
+        <v>418</v>
+      </c>
+      <c r="H24" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="F25" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H25" t="s">
-        <v>256</v>
+        <v>254</v>
+      </c>
+      <c r="K25" t="s">
+        <v>387</v>
+      </c>
+      <c r="L25" t="s">
+        <v>314</v>
+      </c>
+      <c r="M25" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
-        <v>243</v>
-      </c>
-      <c r="E26" t="s">
-        <v>265</v>
-      </c>
-      <c r="F26" t="s">
-        <v>266</v>
+      <c r="B26" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="20"/>
       <c r="B27" t="s">
         <v>81</v>
       </c>
       <c r="C27" t="s">
-        <v>267</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
-        <v>137</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" t="s">
+        <v>418</v>
+      </c>
+      <c r="H29" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" t="s">
         <v>124</v>
       </c>
-      <c r="I28">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>13</v>
+      <c r="G30" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H30" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="20"/>
-      <c r="B31" t="s">
-        <v>82</v>
+      <c r="D31" t="s">
+        <v>242</v>
+      </c>
+      <c r="E31" t="s">
+        <v>264</v>
+      </c>
+      <c r="F31" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="24"/>
       <c r="B32" t="s">
         <v>81</v>
       </c>
       <c r="C32" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D34" t="s">
-        <v>29</v>
-      </c>
-      <c r="F34" t="s">
-        <v>127</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="H34" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>137</v>
+      </c>
+      <c r="F33" t="s">
+        <v>124</v>
+      </c>
+      <c r="I33">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="20"/>
+      <c r="B36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="24"/>
       <c r="B37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D38" t="s">
-        <v>25</v>
-      </c>
-      <c r="E38" t="s">
-        <v>142</v>
-      </c>
-      <c r="F38" t="s">
-        <v>143</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="H38" s="23" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39" t="s">
+        <v>418</v>
+      </c>
+      <c r="H39" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" t="s">
+        <v>127</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H40" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D41" t="s">
-        <v>25</v>
-      </c>
-      <c r="E41" t="s">
-        <v>49</v>
-      </c>
-      <c r="F41" t="s">
-        <v>145</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H41" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>28</v>
+      </c>
+      <c r="G43" t="s">
+        <v>418</v>
+      </c>
+      <c r="H43" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
         <v>25</v>
       </c>
@@ -3921,84 +5234,87 @@
         <v>142</v>
       </c>
       <c r="F44" t="s">
-        <v>146</v>
-      </c>
-      <c r="G44" s="5"/>
-      <c r="H44" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="H44" s="23" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>81</v>
-      </c>
-      <c r="C45" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D46" t="s">
-        <v>29</v>
-      </c>
-      <c r="F46" t="s">
-        <v>149</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="H46" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>28</v>
+      </c>
+      <c r="G47" t="s">
+        <v>418</v>
+      </c>
+      <c r="H47" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" t="s">
+        <v>49</v>
+      </c>
+      <c r="F48" t="s">
+        <v>145</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H48" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D50" t="s">
-        <v>28</v>
-      </c>
-      <c r="G50" t="s">
-        <v>86</v>
-      </c>
-      <c r="H50" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
-        <v>29</v>
-      </c>
-      <c r="F51" t="s">
-        <v>151</v>
+        <v>28</v>
       </c>
       <c r="G51" t="s">
-        <v>85</v>
+        <v>418</v>
       </c>
       <c r="H51" t="s">
-        <v>43</v>
+        <v>419</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
-        <v>243</v>
+        <v>25</v>
       </c>
       <c r="E52" t="s">
-        <v>265</v>
+        <v>142</v>
       </c>
       <c r="F52" t="s">
-        <v>268</v>
+        <v>146</v>
+      </c>
+      <c r="G52" s="5"/>
+      <c r="H52" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
@@ -4006,18 +5322,21 @@
         <v>81</v>
       </c>
       <c r="C53" t="s">
-        <v>269</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
-        <v>137</v>
+        <v>29</v>
       </c>
       <c r="F54" t="s">
-        <v>151</v>
-      </c>
-      <c r="I54">
-        <v>99</v>
+        <v>149</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="H54" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
@@ -4027,709 +5346,957 @@
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>81</v>
-      </c>
-      <c r="C56" t="s">
-        <v>152</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D57" t="s">
+      <c r="B57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>28</v>
+      </c>
+      <c r="G58" t="s">
+        <v>418</v>
+      </c>
+      <c r="H58" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>28</v>
+      </c>
+      <c r="G59" t="s">
+        <v>86</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
         <v>29</v>
       </c>
-      <c r="F57" t="s">
-        <v>153</v>
-      </c>
-      <c r="G57" t="s">
-        <v>84</v>
-      </c>
-      <c r="H57" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>12</v>
+      <c r="F60" t="s">
+        <v>151</v>
+      </c>
+      <c r="G60" t="s">
+        <v>85</v>
+      </c>
+      <c r="H60" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
-        <v>28</v>
-      </c>
-      <c r="G61" t="s">
-        <v>87</v>
-      </c>
-      <c r="H61" t="s">
-        <v>44</v>
+        <v>242</v>
+      </c>
+      <c r="E61" t="s">
+        <v>264</v>
+      </c>
+      <c r="F61" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D62" t="s">
-        <v>29</v>
-      </c>
-      <c r="F62" t="s">
-        <v>154</v>
-      </c>
-      <c r="G62" t="s">
-        <v>85</v>
-      </c>
-      <c r="H62" t="s">
-        <v>43</v>
+      <c r="B62" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
-        <v>243</v>
-      </c>
-      <c r="E63" t="s">
-        <v>265</v>
+        <v>137</v>
       </c>
       <c r="F63" t="s">
-        <v>270</v>
+        <v>151</v>
+      </c>
+      <c r="I63">
+        <v>99</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
         <v>81</v>
       </c>
-      <c r="C64" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D65" t="s">
-        <v>137</v>
-      </c>
-      <c r="F65" t="s">
-        <v>154</v>
-      </c>
-      <c r="I65">
-        <v>99</v>
+      <c r="C65" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>82</v>
+      <c r="D66" t="s">
+        <v>29</v>
+      </c>
+      <c r="F66" t="s">
+        <v>153</v>
+      </c>
+      <c r="G66" t="s">
+        <v>84</v>
+      </c>
+      <c r="H66" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>81</v>
-      </c>
-      <c r="C67" t="s">
-        <v>152</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D68" t="s">
-        <v>29</v>
-      </c>
-      <c r="F68" t="s">
-        <v>155</v>
-      </c>
-      <c r="G68" t="s">
-        <v>84</v>
-      </c>
-      <c r="H68" t="s">
-        <v>42</v>
+      <c r="B68" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>13</v>
+      <c r="D70" t="s">
+        <v>28</v>
+      </c>
+      <c r="G70" t="s">
+        <v>418</v>
+      </c>
+      <c r="H70" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>12</v>
+      <c r="D71" t="s">
+        <v>28</v>
+      </c>
+      <c r="G71" t="s">
+        <v>87</v>
+      </c>
+      <c r="H71" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
-        <v>28</v>
-      </c>
-      <c r="G72" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="F72" t="s">
+        <v>154</v>
+      </c>
+      <c r="G72" t="s">
+        <v>85</v>
+      </c>
       <c r="H72" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
-        <v>29</v>
+        <v>242</v>
+      </c>
+      <c r="E73" t="s">
+        <v>264</v>
       </c>
       <c r="F73" t="s">
-        <v>156</v>
-      </c>
-      <c r="G73" t="s">
-        <v>85</v>
-      </c>
-      <c r="H73" t="s">
-        <v>43</v>
+        <v>269</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D74" t="s">
-        <v>243</v>
-      </c>
-      <c r="E74" t="s">
-        <v>265</v>
-      </c>
-      <c r="F74" t="s">
-        <v>272</v>
+      <c r="B74" t="s">
+        <v>81</v>
+      </c>
+      <c r="C74" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
-        <v>81</v>
-      </c>
-      <c r="C75" t="s">
-        <v>273</v>
+      <c r="D75" t="s">
+        <v>137</v>
+      </c>
+      <c r="F75" t="s">
+        <v>154</v>
+      </c>
+      <c r="I75">
+        <v>99</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D76" t="s">
-        <v>137</v>
-      </c>
-      <c r="F76" t="s">
-        <v>156</v>
-      </c>
-      <c r="I76">
-        <v>99</v>
+      <c r="B76" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
+        <v>81</v>
+      </c>
+      <c r="C77" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>29</v>
+      </c>
+      <c r="F78" t="s">
+        <v>155</v>
+      </c>
+      <c r="G78" t="s">
+        <v>84</v>
+      </c>
+      <c r="H78" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>81</v>
-      </c>
-      <c r="C78" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D79" t="s">
-        <v>29</v>
-      </c>
-      <c r="F79" t="s">
-        <v>157</v>
-      </c>
-      <c r="G79" t="s">
-        <v>84</v>
-      </c>
-      <c r="H79" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>28</v>
+      </c>
+      <c r="G82" t="s">
+        <v>418</v>
+      </c>
+      <c r="H82" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>28</v>
+      </c>
+      <c r="G83" s="5"/>
+      <c r="H83" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>29</v>
+      </c>
+      <c r="F84" t="s">
+        <v>156</v>
+      </c>
+      <c r="G84" t="s">
+        <v>85</v>
+      </c>
+      <c r="H84" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>242</v>
+      </c>
+      <c r="E85" t="s">
+        <v>264</v>
+      </c>
+      <c r="F85" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>81</v>
+      </c>
+      <c r="C86" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>137</v>
+      </c>
+      <c r="F87" t="s">
+        <v>156</v>
+      </c>
+      <c r="I87">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>81</v>
+      </c>
+      <c r="C89" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>29</v>
+      </c>
+      <c r="F90" t="s">
+        <v>157</v>
+      </c>
+      <c r="G90" t="s">
+        <v>84</v>
+      </c>
+      <c r="H90" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D83" t="s">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>28</v>
+      </c>
+      <c r="G94" t="s">
+        <v>418</v>
+      </c>
+      <c r="H94" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
         <v>25</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E95" t="s">
         <v>142</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F95" t="s">
         <v>158</v>
       </c>
-      <c r="G83" s="5" t="s">
+      <c r="G95" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="H83" t="s">
+      <c r="H95" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D98" t="s">
+        <v>28</v>
+      </c>
+      <c r="G98" t="s">
+        <v>418</v>
+      </c>
+      <c r="H98" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
+        <v>25</v>
+      </c>
+      <c r="E99" t="s">
+        <v>160</v>
+      </c>
+      <c r="F99" t="s">
+        <v>161</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="H99" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D86" t="s">
-        <v>25</v>
-      </c>
-      <c r="E86" t="s">
-        <v>160</v>
-      </c>
-      <c r="F86" t="s">
-        <v>161</v>
-      </c>
-      <c r="G86" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="H86" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B101" t="s">
+        <v>81</v>
+      </c>
+      <c r="C101" t="s">
         <v>278</v>
       </c>
-      <c r="B88" t="s">
-        <v>81</v>
-      </c>
-      <c r="C88" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="5"/>
-      <c r="B89" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="5"/>
-      <c r="D90" t="s">
-        <v>28</v>
-      </c>
-      <c r="G90" t="s">
-        <v>280</v>
-      </c>
-      <c r="H90" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="5"/>
-      <c r="D91" t="s">
-        <v>282</v>
-      </c>
-      <c r="E91" t="s">
-        <v>283</v>
-      </c>
-      <c r="F91" t="s">
-        <v>284</v>
-      </c>
-      <c r="G91" t="s">
-        <v>316</v>
-      </c>
-      <c r="H91" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="5"/>
-      <c r="D92" t="s">
-        <v>282</v>
-      </c>
-      <c r="E92" t="s">
-        <v>285</v>
-      </c>
-      <c r="F92" t="s">
-        <v>286</v>
-      </c>
-      <c r="G92" t="s">
-        <v>317</v>
-      </c>
-      <c r="H92" t="s">
-        <v>319</v>
-      </c>
-      <c r="J92" s="18" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="5"/>
-      <c r="D93" t="s">
-        <v>243</v>
-      </c>
-      <c r="E93" t="s">
-        <v>307</v>
-      </c>
-      <c r="F93" t="s">
-        <v>288</v>
-      </c>
-      <c r="K93" s="18"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="5"/>
-      <c r="B94" t="s">
-        <v>81</v>
-      </c>
-      <c r="C94" t="s">
-        <v>289</v>
-      </c>
-      <c r="K94" s="18"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="5"/>
-      <c r="D95" t="s">
-        <v>137</v>
-      </c>
-      <c r="F95" t="s">
-        <v>286</v>
-      </c>
-      <c r="I95" t="s">
-        <v>310</v>
-      </c>
-      <c r="K95" s="18"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="5"/>
-      <c r="B96" t="s">
-        <v>82</v>
-      </c>
-      <c r="K96" s="18"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="5"/>
-      <c r="B97" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="5"/>
-      <c r="B98" t="s">
-        <v>81</v>
-      </c>
-      <c r="C98" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="5"/>
-      <c r="B99" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="5"/>
-      <c r="D100" t="s">
-        <v>106</v>
-      </c>
-      <c r="F100" t="s">
-        <v>290</v>
-      </c>
-      <c r="G100" t="s">
-        <v>291</v>
-      </c>
-      <c r="H100" t="s">
-        <v>292</v>
-      </c>
-      <c r="J100" s="18"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="5"/>
-      <c r="B101" t="s">
-        <v>13</v>
-      </c>
-      <c r="J101" s="18"/>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="5"/>
       <c r="B102" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D103" t="s">
+        <v>28</v>
+      </c>
+      <c r="G103" t="s">
+        <v>418</v>
+      </c>
+      <c r="H103" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" s="5"/>
+      <c r="D104" t="s">
+        <v>28</v>
+      </c>
+      <c r="G104" t="s">
+        <v>279</v>
+      </c>
+      <c r="H104" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" s="5"/>
+      <c r="D105" t="s">
+        <v>281</v>
+      </c>
+      <c r="E105" t="s">
+        <v>282</v>
+      </c>
+      <c r="F105" t="s">
+        <v>283</v>
+      </c>
+      <c r="G105" t="s">
+        <v>315</v>
+      </c>
+      <c r="H105" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" s="5"/>
+      <c r="D106" t="s">
+        <v>281</v>
+      </c>
+      <c r="E106" t="s">
+        <v>284</v>
+      </c>
+      <c r="F106" t="s">
+        <v>285</v>
+      </c>
+      <c r="G106" t="s">
+        <v>316</v>
+      </c>
+      <c r="H106" t="s">
+        <v>318</v>
+      </c>
+      <c r="J106" s="18" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" s="5"/>
+      <c r="D107" t="s">
+        <v>242</v>
+      </c>
+      <c r="E107" t="s">
+        <v>306</v>
+      </c>
+      <c r="F107" t="s">
+        <v>287</v>
+      </c>
+      <c r="K107" s="18"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" s="5"/>
+      <c r="B108" t="s">
+        <v>81</v>
+      </c>
+      <c r="C108" t="s">
+        <v>288</v>
+      </c>
+      <c r="K108" s="18"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" s="5"/>
+      <c r="D109" t="s">
+        <v>137</v>
+      </c>
+      <c r="F109" t="s">
+        <v>285</v>
+      </c>
+      <c r="I109" t="s">
+        <v>309</v>
+      </c>
+      <c r="K109" s="18"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" s="5"/>
+      <c r="B110" t="s">
         <v>82</v>
       </c>
-      <c r="J102" s="18"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="19"/>
-      <c r="B103" t="s">
+      <c r="K110" s="18"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" s="5"/>
+      <c r="B111" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" s="5"/>
+      <c r="B112" t="s">
+        <v>81</v>
+      </c>
+      <c r="C112" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="5"/>
+      <c r="B113" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="19"/>
-      <c r="D104" t="s">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D114" t="s">
+        <v>28</v>
+      </c>
+      <c r="G114" t="s">
+        <v>418</v>
+      </c>
+      <c r="H114" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="5"/>
+      <c r="D115" t="s">
+        <v>106</v>
+      </c>
+      <c r="F115" t="s">
+        <v>289</v>
+      </c>
+      <c r="G115" t="s">
+        <v>290</v>
+      </c>
+      <c r="H115" t="s">
+        <v>291</v>
+      </c>
+      <c r="J115" s="18"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="5"/>
+      <c r="B116" t="s">
+        <v>13</v>
+      </c>
+      <c r="J116" s="18"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="5"/>
+      <c r="B117" t="s">
+        <v>82</v>
+      </c>
+      <c r="J117" s="18"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="19"/>
+      <c r="B118" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D119" t="s">
+        <v>28</v>
+      </c>
+      <c r="G119" t="s">
+        <v>418</v>
+      </c>
+      <c r="H119" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="19"/>
+      <c r="D120" t="s">
         <v>25</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E120" t="s">
         <v>142</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F120" t="s">
+        <v>292</v>
+      </c>
+      <c r="G120" t="s">
         <v>293</v>
       </c>
-      <c r="G104" t="s">
+      <c r="H120" t="s">
         <v>294</v>
       </c>
-      <c r="H104" t="s">
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="19"/>
+      <c r="B121" t="s">
+        <v>81</v>
+      </c>
+      <c r="C121" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="19"/>
-      <c r="B105" t="s">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" s="19"/>
+      <c r="D122" t="s">
+        <v>106</v>
+      </c>
+      <c r="F122" t="s">
+        <v>296</v>
+      </c>
+      <c r="G122" t="s">
+        <v>297</v>
+      </c>
+      <c r="H122" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" s="19"/>
+      <c r="B123" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="19"/>
+      <c r="B124" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="19"/>
+      <c r="B125" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D127" t="s">
+        <v>28</v>
+      </c>
+      <c r="G127" t="s">
+        <v>418</v>
+      </c>
+      <c r="H127" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D128" t="s">
+        <v>25</v>
+      </c>
+      <c r="E128" t="s">
+        <v>163</v>
+      </c>
+      <c r="F128" t="s">
+        <v>164</v>
+      </c>
+      <c r="G128" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="H128" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
         <v>81</v>
       </c>
-      <c r="C105" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="19"/>
-      <c r="D106" t="s">
+      <c r="C130" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D132" t="s">
+        <v>28</v>
+      </c>
+      <c r="G132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H132" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D133" t="s">
+        <v>28</v>
+      </c>
+      <c r="G133" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="H133" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D134" t="s">
+        <v>101</v>
+      </c>
+      <c r="E134" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>81</v>
+      </c>
+      <c r="C136" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D138" t="s">
+        <v>28</v>
+      </c>
+      <c r="G138" t="s">
+        <v>418</v>
+      </c>
+      <c r="H138" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D139" t="s">
+        <v>28</v>
+      </c>
+      <c r="G139" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="H139" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D140" t="s">
+        <v>101</v>
+      </c>
+      <c r="E140" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>81</v>
+      </c>
+      <c r="C142" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D144" t="s">
+        <v>28</v>
+      </c>
+      <c r="G144" t="s">
+        <v>418</v>
+      </c>
+      <c r="H144" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D145" t="s">
+        <v>28</v>
+      </c>
+      <c r="G145" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="H145" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D146" t="s">
+        <v>101</v>
+      </c>
+      <c r="E146" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
+        <v>81</v>
+      </c>
+      <c r="C148" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D150" t="s">
+        <v>28</v>
+      </c>
+      <c r="G150" t="s">
+        <v>418</v>
+      </c>
+      <c r="H150" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D151" t="s">
+        <v>28</v>
+      </c>
+      <c r="G151" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="H151" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D152" t="s">
+        <v>101</v>
+      </c>
+      <c r="E152" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B155" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="24"/>
+      <c r="B158" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D160" t="s">
+        <v>28</v>
+      </c>
+      <c r="G160" t="s">
+        <v>418</v>
+      </c>
+      <c r="H160" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="161" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D161" t="s">
         <v>106</v>
       </c>
-      <c r="F106" t="s">
-        <v>297</v>
-      </c>
-      <c r="G106" t="s">
-        <v>298</v>
-      </c>
-      <c r="H106" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="19"/>
-      <c r="B107" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="19"/>
-      <c r="B108" t="s">
+      <c r="F161" t="s">
+        <v>405</v>
+      </c>
+      <c r="G161" t="s">
+        <v>397</v>
+      </c>
+      <c r="H161" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="162" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B162" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="19"/>
-      <c r="B109" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B110" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D111" t="s">
-        <v>25</v>
-      </c>
-      <c r="E111" t="s">
-        <v>163</v>
-      </c>
-      <c r="F111" t="s">
-        <v>164</v>
-      </c>
-      <c r="G111" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="H111" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B112" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B113" t="s">
-        <v>81</v>
-      </c>
-      <c r="C113" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B114" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D115" t="s">
-        <v>28</v>
-      </c>
-      <c r="G115" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="H115" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D116" t="s">
-        <v>101</v>
-      </c>
-      <c r="E116" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B117" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B118" t="s">
-        <v>81</v>
-      </c>
-      <c r="C118" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B119" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D120" t="s">
-        <v>28</v>
-      </c>
-      <c r="G120" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="H120" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D121" t="s">
-        <v>101</v>
-      </c>
-      <c r="E121" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B122" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B123" t="s">
-        <v>81</v>
-      </c>
-      <c r="C123" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B124" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D125" t="s">
-        <v>28</v>
-      </c>
-      <c r="G125" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="H125" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D126" t="s">
-        <v>101</v>
-      </c>
-      <c r="E126" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B127" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B128" t="s">
-        <v>81</v>
-      </c>
-      <c r="C128" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B129" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D130" t="s">
-        <v>28</v>
-      </c>
-      <c r="G130" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="H130" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D131" t="s">
-        <v>101</v>
-      </c>
-      <c r="E131" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B132" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B133" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B134" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B135" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B136" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="24"/>
-      <c r="B137" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -4738,12 +6305,48 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3979F510-C769-4227-AA22-F1F6C93E2BBE}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>408</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>409</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9BD80F5-C430-4F23-B07C-4493C6C076E0}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4790,10 +6393,10 @@
         <v>100</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>305</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -4842,7 +6445,7 @@
         <v>236</v>
       </c>
       <c r="G3" t="s">
-        <v>242</v>
+        <v>406</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>102</v>
@@ -4850,30 +6453,30 @@
     </row>
     <row r="5" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B5" t="s">
+        <v>299</v>
+      </c>
+      <c r="J5" t="s">
         <v>300</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" s="4" t="s">
         <v>301</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B6" t="s">
+        <v>299</v>
+      </c>
+      <c r="J6" t="s">
         <v>300</v>
       </c>
-      <c r="J6" t="s">
-        <v>301</v>
-      </c>
       <c r="K6" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -4881,7 +6484,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E9C5AA-9540-45DB-BCC0-5EA98DDA6B0B}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -4953,7 +6556,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF3D0A7-17A8-4B35-89BF-E7F3088D1597}">
   <dimension ref="A1:D51"/>
   <sheetViews>
@@ -5114,10 +6717,10 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
+        <v>351</v>
+      </c>
+      <c r="D10" t="s">
         <v>352</v>
-      </c>
-      <c r="D10" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -5510,7 +7113,7 @@
         <v>201</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5518,10 +7121,10 @@
         <v>160</v>
       </c>
       <c r="B38" t="s">
+        <v>275</v>
+      </c>
+      <c r="C38" t="s">
         <v>276</v>
-      </c>
-      <c r="C38" t="s">
-        <v>277</v>
       </c>
       <c r="D38" t="s">
         <v>80</v>
@@ -5538,7 +7141,7 @@
         <v>203</v>
       </c>
       <c r="D39" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="40" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5630,7 +7233,7 @@
         <v>163</v>
       </c>
       <c r="B46" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C46" t="s">
         <v>222</v>
@@ -5644,10 +7247,10 @@
         <v>163</v>
       </c>
       <c r="B47" t="s">
+        <v>275</v>
+      </c>
+      <c r="C47" t="s">
         <v>276</v>
-      </c>
-      <c r="C47" t="s">
-        <v>277</v>
       </c>
       <c r="D47" t="s">
         <v>80</v>
@@ -5655,22 +7258,22 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B48" s="14" t="str">
         <f>"555"</f>
         <v>555</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B49" t="str">
         <f>"99"</f>
@@ -5685,22 +7288,22 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B50" t="str">
         <f>"8888"</f>
         <v>8888</v>
       </c>
       <c r="C50" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D50" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B51" t="str">
         <f>"9999"</f>
@@ -5717,887 +7320,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
-  <dimension ref="A1:N78"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E66" sqref="E66"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>342</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>337</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>334</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>335</v>
-      </c>
-      <c r="B6" t="s">
-        <v>243</v>
-      </c>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>333</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>330</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>331</v>
-      </c>
-      <c r="B9" t="s">
-        <v>243</v>
-      </c>
-      <c r="C9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>339</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>341</v>
-      </c>
-      <c r="B11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>325</v>
-      </c>
-      <c r="B13" t="s">
-        <v>107</v>
-      </c>
-      <c r="C13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>324</v>
-      </c>
-      <c r="B14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>380</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>381</v>
-      </c>
-      <c r="B16" t="s">
-        <v>243</v>
-      </c>
-      <c r="C16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>329</v>
-      </c>
-      <c r="B18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>326</v>
-      </c>
-      <c r="B19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>327</v>
-      </c>
-      <c r="B20" t="s">
-        <v>243</v>
-      </c>
-      <c r="C20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>357</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="b">
-        <v>0</v>
-      </c>
-      <c r="D22" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>375</v>
-      </c>
-      <c r="B23" t="s">
-        <v>107</v>
-      </c>
-      <c r="C23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>374</v>
-      </c>
-      <c r="B24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>371</v>
-      </c>
-      <c r="B25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>372</v>
-      </c>
-      <c r="B26" t="s">
-        <v>243</v>
-      </c>
-      <c r="C26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>370</v>
-      </c>
-      <c r="B27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>367</v>
-      </c>
-      <c r="B28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>368</v>
-      </c>
-      <c r="B29" t="s">
-        <v>243</v>
-      </c>
-      <c r="C29" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>358</v>
-      </c>
-      <c r="B30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>386</v>
-      </c>
-      <c r="B31" t="s">
-        <v>243</v>
-      </c>
-      <c r="C31" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>362</v>
-      </c>
-      <c r="B32" t="s">
-        <v>107</v>
-      </c>
-      <c r="C32" t="b">
-        <v>0</v>
-      </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>359</v>
-      </c>
-      <c r="B33" t="s">
-        <v>107</v>
-      </c>
-      <c r="C33" t="b">
-        <v>0</v>
-      </c>
-      <c r="G33" s="11"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>377</v>
-      </c>
-      <c r="B34" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" t="b">
-        <v>0</v>
-      </c>
-      <c r="G34" s="11"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>378</v>
-      </c>
-      <c r="B35" t="s">
-        <v>243</v>
-      </c>
-      <c r="C35" t="b">
-        <v>1</v>
-      </c>
-      <c r="G35" s="11"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>354</v>
-      </c>
-      <c r="B36" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" t="b">
-        <v>0</v>
-      </c>
-      <c r="G36" s="11"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>366</v>
-      </c>
-      <c r="B37" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" t="b">
-        <v>0</v>
-      </c>
-      <c r="G37" s="11"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>363</v>
-      </c>
-      <c r="B38" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38" t="b">
-        <v>0</v>
-      </c>
-      <c r="G38" s="11"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>364</v>
-      </c>
-      <c r="B39" t="s">
-        <v>243</v>
-      </c>
-      <c r="C39" t="b">
-        <v>1</v>
-      </c>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C40" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>124</v>
-      </c>
-      <c r="B42" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42" t="b">
-        <v>0</v>
-      </c>
-      <c r="D42" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>266</v>
-      </c>
-      <c r="B43" t="s">
-        <v>243</v>
-      </c>
-      <c r="C43" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>164</v>
-      </c>
-      <c r="B44" t="s">
-        <v>25</v>
-      </c>
-      <c r="C44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>145</v>
-      </c>
-      <c r="B45" t="s">
-        <v>25</v>
-      </c>
-      <c r="C45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>153</v>
-      </c>
-      <c r="B46" t="s">
-        <v>29</v>
-      </c>
-      <c r="C46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>151</v>
-      </c>
-      <c r="B47" t="s">
-        <v>29</v>
-      </c>
-      <c r="C47" t="b">
-        <v>0</v>
-      </c>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>268</v>
-      </c>
-      <c r="B48" t="s">
-        <v>243</v>
-      </c>
-      <c r="C48" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>155</v>
-      </c>
-      <c r="B49" t="s">
-        <v>29</v>
-      </c>
-      <c r="C49" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>154</v>
-      </c>
-      <c r="B50" t="s">
-        <v>29</v>
-      </c>
-      <c r="C50" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>270</v>
-      </c>
-      <c r="B51" t="s">
-        <v>243</v>
-      </c>
-      <c r="C51" t="b">
-        <v>1</v>
-      </c>
-      <c r="M51" s="11"/>
-      <c r="N51" s="11"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>143</v>
-      </c>
-      <c r="B52" t="s">
-        <v>25</v>
-      </c>
-      <c r="C52" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>138</v>
-      </c>
-      <c r="B53" t="s">
-        <v>25</v>
-      </c>
-      <c r="C53" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>146</v>
-      </c>
-      <c r="B54" t="s">
-        <v>25</v>
-      </c>
-      <c r="C54" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>129</v>
-      </c>
-      <c r="B55" t="s">
-        <v>25</v>
-      </c>
-      <c r="C55" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>133</v>
-      </c>
-      <c r="B56" t="s">
-        <v>25</v>
-      </c>
-      <c r="C56" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>127</v>
-      </c>
-      <c r="B57" t="s">
-        <v>29</v>
-      </c>
-      <c r="C57" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>161</v>
-      </c>
-      <c r="B58" t="s">
-        <v>25</v>
-      </c>
-      <c r="C58" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>121</v>
-      </c>
-      <c r="B59" t="s">
-        <v>107</v>
-      </c>
-      <c r="C59" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>119</v>
-      </c>
-      <c r="B60" t="s">
-        <v>25</v>
-      </c>
-      <c r="C60" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>286</v>
-      </c>
-      <c r="B61" t="s">
-        <v>282</v>
-      </c>
-      <c r="C61" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>288</v>
-      </c>
-      <c r="B62" t="s">
-        <v>243</v>
-      </c>
-      <c r="C62" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>290</v>
-      </c>
-      <c r="B63" t="s">
-        <v>106</v>
-      </c>
-      <c r="C63" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>297</v>
-      </c>
-      <c r="B64" t="s">
-        <v>106</v>
-      </c>
-      <c r="C64" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>293</v>
-      </c>
-      <c r="B65" t="s">
-        <v>25</v>
-      </c>
-      <c r="C65" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>157</v>
-      </c>
-      <c r="B66" t="s">
-        <v>29</v>
-      </c>
-      <c r="C66" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>156</v>
-      </c>
-      <c r="B67" t="s">
-        <v>29</v>
-      </c>
-      <c r="C67" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>272</v>
-      </c>
-      <c r="B68" t="s">
-        <v>243</v>
-      </c>
-      <c r="C68" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>284</v>
-      </c>
-      <c r="B69" t="s">
-        <v>282</v>
-      </c>
-      <c r="C69" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>158</v>
-      </c>
-      <c r="B70" t="s">
-        <v>25</v>
-      </c>
-      <c r="C70" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>149</v>
-      </c>
-      <c r="B71" t="s">
-        <v>29</v>
-      </c>
-      <c r="C71" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="B72" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C72" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>105</v>
-      </c>
-      <c r="B74" t="s">
-        <v>106</v>
-      </c>
-      <c r="C74" t="b">
-        <v>0</v>
-      </c>
-      <c r="D74" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>103</v>
-      </c>
-      <c r="B75" t="s">
-        <v>107</v>
-      </c>
-      <c r="C75" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>345</v>
-      </c>
-      <c r="B76" t="s">
-        <v>25</v>
-      </c>
-      <c r="C76" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>231</v>
-      </c>
-      <c r="B77" t="s">
-        <v>106</v>
-      </c>
-      <c r="C77" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>252</v>
-      </c>
-      <c r="B78" t="s">
-        <v>106</v>
-      </c>
-      <c r="C78" t="b">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H3:I166">
-    <sortCondition ref="H3"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/app/config/tables/GRAVIDA/forms/GRAVIDA/GRAVIDA.xlsx
+++ b/app/config/tables/GRAVIDA/forms/GRAVIDA/GRAVIDA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900F55D9-C826-4482-AE49-2B207B9BF622}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE6B52B-E57B-4F5E-BF5A-2E757AF09767}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="432">
   <si>
     <t>setting_name</t>
   </si>
@@ -154,9 +154,6 @@
     <t>Makes the date widget DD/MM/YYYY</t>
   </si>
   <si>
-    <t>Tem cartão de CPN</t>
-  </si>
-  <si>
     <t>Mes de gestação</t>
   </si>
   <si>
@@ -286,9 +283,6 @@
     <t>end if</t>
   </si>
   <si>
-    <t>Maternal MUAC</t>
-  </si>
-  <si>
     <t>Card</t>
   </si>
   <si>
@@ -298,9 +292,6 @@
     <t>How many prenatal consultations?</t>
   </si>
   <si>
-    <t>Number of times received iron/FA</t>
-  </si>
-  <si>
     <t>display.title.text.english</t>
   </si>
   <si>
@@ -397,15 +388,9 @@
     <t>OUTSTATUS</t>
   </si>
   <si>
-    <t>Status of pregnancy end</t>
-  </si>
-  <si>
     <t>OUTDATE</t>
   </si>
   <si>
-    <t>Date of pregnancy end</t>
-  </si>
-  <si>
     <t>data('OUTSTATUS') == '2'</t>
   </si>
   <si>
@@ -478,18 +463,12 @@
     <t>GRVAC</t>
   </si>
   <si>
-    <t>Vacina anti-tetánica durante esta gravidez?</t>
-  </si>
-  <si>
     <t>data('GRVAC') == '1'</t>
   </si>
   <si>
     <t>VACTTHI</t>
   </si>
   <si>
-    <t>vac. Hist</t>
-  </si>
-  <si>
     <t>CDG_M</t>
   </si>
   <si>
@@ -811,9 +790,6 @@
     <t>A mulher procurou consultas durante a gravidez?</t>
   </si>
   <si>
-    <t>A mulher deu à luz na aldeia?</t>
-  </si>
-  <si>
     <t>Onde é que a mulher deu à luz?</t>
   </si>
   <si>
@@ -907,18 +883,9 @@
     <t>PARTONDENS</t>
   </si>
   <si>
-    <t>Place of hospitalisation</t>
-  </si>
-  <si>
-    <t>Onde internou</t>
-  </si>
-  <si>
     <t>PARTPERTO</t>
   </si>
   <si>
-    <t>Closest hospital?</t>
-  </si>
-  <si>
     <t>Este é o hospital mais perto?</t>
   </si>
   <si>
@@ -926,9 +893,6 @@
   </si>
   <si>
     <t>PARTPERPORQ</t>
-  </si>
-  <si>
-    <t>Why not attending closest hospital</t>
   </si>
   <si>
     <t>Porque internou aqui?</t>
@@ -1254,9 +1218,6 @@
     <t>MIF</t>
   </si>
   <si>
-    <t>Comentário</t>
-  </si>
-  <si>
     <t>OBSVIS1</t>
   </si>
   <si>
@@ -1306,6 +1267,81 @@
   </si>
   <si>
     <t>&lt;b&gt;Depois de parto: {{data.nome}} - Nas: {{calculates.displayMifdnasc}}&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>Maternal middle upper arm circumference</t>
+  </si>
+  <si>
+    <t>Date of last period</t>
+  </si>
+  <si>
+    <t>Tem cartão de consulta pré-natal?</t>
+  </si>
+  <si>
+    <t>Have prenatal consultation card?</t>
+  </si>
+  <si>
+    <t>How many times did the pregnant woman receive iron tablets?</t>
+  </si>
+  <si>
+    <t>The pregnant received fansidar (TPI, SP) how many times?</t>
+  </si>
+  <si>
+    <t>Probable date of delivery indicated on the card?</t>
+  </si>
+  <si>
+    <t>Socioeconomic status</t>
+  </si>
+  <si>
+    <t>Status socioeconomico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments to pregnancy registration </t>
+  </si>
+  <si>
+    <t>Comentários ao registro de gravidez</t>
+  </si>
+  <si>
+    <t>Comments to 2nd pregnancy visit</t>
+  </si>
+  <si>
+    <t>Comentários à 2ª visita de gravidez</t>
+  </si>
+  <si>
+    <t>Final state of pregnancy</t>
+  </si>
+  <si>
+    <t>Date of end of pregnancy</t>
+  </si>
+  <si>
+    <t>Did the woman get any Tetanus vaccine during pregnancy?</t>
+  </si>
+  <si>
+    <t>A mulher recebeu alguma vacina anti-tetánica durante a gravidez?</t>
+  </si>
+  <si>
+    <t>Quantas vacinas?</t>
+  </si>
+  <si>
+    <t>How many vaccines?</t>
+  </si>
+  <si>
+    <t>How many antenatal visits during this pregnancy?</t>
+  </si>
+  <si>
+    <t>A mulher deu à luz na tabanca?</t>
+  </si>
+  <si>
+    <t>Is this the closest hospital?</t>
+  </si>
+  <si>
+    <t>Why not use the closest hospital?</t>
+  </si>
+  <si>
+    <t>Comments to after the childbirth</t>
+  </si>
+  <si>
+    <t>Comentários ao depois de parto</t>
   </si>
 </sst>
 </file>
@@ -1456,7 +1492,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1469,6 +1504,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{C28CC074-D3A0-48A2-81F3-B6A5CA836B7C}"/>
@@ -1777,13 +1813,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>18</v>
@@ -1794,7 +1830,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1810,7 +1846,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1818,10 +1854,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="D5" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1837,7 +1873,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
@@ -1859,7 +1895,7 @@
         <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1872,7 +1908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
   <dimension ref="A1:N83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A81" sqref="A81"/>
     </sheetView>
@@ -1896,12 +1932,12 @@
         <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -1910,15 +1946,15 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -1926,7 +1962,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -1937,7 +1973,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -1948,10 +1984,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="B6" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
@@ -1959,7 +1995,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -1970,7 +2006,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -1982,10 +2018,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="B9" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
@@ -1993,7 +2029,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -2005,10 +2041,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="B11" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
@@ -2016,7 +2052,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>25</v>
@@ -2027,10 +2063,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="B13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
@@ -2038,10 +2074,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="B14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -2049,7 +2085,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -2060,10 +2096,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="B16" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
@@ -2071,10 +2107,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="B17" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -2082,10 +2118,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -2093,7 +2129,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -2104,7 +2140,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -2115,10 +2151,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="B21" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
@@ -2126,7 +2162,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
@@ -2135,15 +2171,15 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="B24" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
@@ -2151,7 +2187,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="B25" t="s">
         <v>29</v>
@@ -2162,7 +2198,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="B26" t="s">
         <v>29</v>
@@ -2173,10 +2209,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="B27" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C27" t="b">
         <v>1</v>
@@ -2184,7 +2220,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
@@ -2195,7 +2231,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
@@ -2206,10 +2242,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="B30" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C30" t="b">
         <v>1</v>
@@ -2217,7 +2253,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="B31" t="s">
         <v>29</v>
@@ -2228,10 +2264,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="B32" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C32" t="b">
         <v>1</v>
@@ -2239,10 +2275,10 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="B33" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C33" t="b">
         <v>0</v>
@@ -2252,10 +2288,10 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="B34" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C34" t="b">
         <v>0</v>
@@ -2264,7 +2300,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="B35" t="s">
         <v>29</v>
@@ -2276,10 +2312,10 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="B36" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C36" t="b">
         <v>1</v>
@@ -2288,7 +2324,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="B37" t="s">
         <v>25</v>
@@ -2300,10 +2336,10 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C38" t="b">
         <v>0</v>
@@ -2312,7 +2348,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="B39" t="s">
         <v>29</v>
@@ -2324,7 +2360,7 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="B40" t="s">
         <v>29</v>
@@ -2337,10 +2373,10 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="B41" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C41" t="b">
         <v>1</v>
@@ -2348,10 +2384,10 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C42" t="b">
         <v>0</v>
@@ -2363,7 +2399,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B44" t="s">
         <v>29</v>
@@ -2372,15 +2408,15 @@
         <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B45" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C45" t="b">
         <v>1</v>
@@ -2388,7 +2424,7 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B46" t="s">
         <v>25</v>
@@ -2399,7 +2435,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B47" t="s">
         <v>25</v>
@@ -2410,7 +2446,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B48" t="s">
         <v>29</v>
@@ -2421,7 +2457,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B49" t="s">
         <v>29</v>
@@ -2434,10 +2470,10 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B50" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C50" t="b">
         <v>1</v>
@@ -2445,7 +2481,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B51" t="s">
         <v>29</v>
@@ -2456,7 +2492,7 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B52" t="s">
         <v>29</v>
@@ -2467,10 +2503,10 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B53" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C53" t="b">
         <v>1</v>
@@ -2480,7 +2516,7 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B54" t="s">
         <v>25</v>
@@ -2491,7 +2527,7 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B55" t="s">
         <v>25</v>
@@ -2502,7 +2538,7 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B56" t="s">
         <v>25</v>
@@ -2513,7 +2549,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B57" t="s">
         <v>25</v>
@@ -2524,7 +2560,7 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B58" t="s">
         <v>25</v>
@@ -2535,7 +2571,7 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B59" t="s">
         <v>29</v>
@@ -2546,7 +2582,7 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B60" t="s">
         <v>25</v>
@@ -2557,10 +2593,10 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C61" t="b">
         <v>0</v>
@@ -2568,10 +2604,10 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B62" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C62" t="b">
         <v>0</v>
@@ -2579,7 +2615,7 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B63" t="s">
         <v>25</v>
@@ -2590,10 +2626,10 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B64" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C64" t="b">
         <v>0</v>
@@ -2601,10 +2637,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B65" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C65" t="b">
         <v>1</v>
@@ -2612,10 +2648,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="B66" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C66" t="b">
         <v>0</v>
@@ -2623,10 +2659,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="B67" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C67" t="b">
         <v>0</v>
@@ -2634,7 +2670,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="B68" t="s">
         <v>25</v>
@@ -2645,7 +2681,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B69" t="s">
         <v>29</v>
@@ -2656,7 +2692,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B70" t="s">
         <v>29</v>
@@ -2667,10 +2703,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B71" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C71" t="b">
         <v>1</v>
@@ -2678,10 +2714,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B72" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C72" t="b">
         <v>1</v>
@@ -2689,7 +2725,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B73" t="s">
         <v>25</v>
@@ -2700,7 +2736,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B74" t="s">
         <v>29</v>
@@ -2711,10 +2747,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C75" t="b">
         <v>0</v>
@@ -2722,24 +2758,24 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B77" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C77" t="b">
         <v>0</v>
       </c>
       <c r="D77" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B78" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C78" t="b">
         <v>0</v>
@@ -2747,7 +2783,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="B79" t="s">
         <v>25</v>
@@ -2758,10 +2794,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="B80" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C80" t="b">
         <v>1</v>
@@ -2769,10 +2805,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="B81" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C81" t="b">
         <v>1</v>
@@ -2780,10 +2816,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B82" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C82" t="b">
         <v>0</v>
@@ -2791,10 +2827,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B83" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C83" t="b">
         <v>0</v>
@@ -2855,7 +2891,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>11</v>
@@ -2867,44 +2903,44 @@
         <v>35</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2919,8 +2955,8 @@
   <dimension ref="A1:M89"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G88" sqref="G88:H88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2959,7 +2995,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>11</v>
@@ -2968,16 +3004,16 @@
         <v>26</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -2995,19 +3031,19 @@
         <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="H3" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="D4" s="11" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I4" s="10">
         <v>1</v>
@@ -3019,13 +3055,13 @@
     <row r="5" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="D5" s="11" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
@@ -3034,16 +3070,16 @@
     <row r="6" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="D6" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="I6" s="10"/>
       <c r="K6" s="10"/>
@@ -3063,12 +3099,12 @@
       <c r="M7" s="10"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
+      <c r="A8" s="19"/>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -3081,10 +3117,10 @@
         <v>28</v>
       </c>
       <c r="G10" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="H10" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -3092,40 +3128,40 @@
         <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="G11" t="s">
-        <v>83</v>
+        <v>407</v>
       </c>
       <c r="H11" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="E12" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="F12" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F14" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="I14">
         <v>555</v>
@@ -3133,7 +3169,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -3142,9 +3178,9 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
+      <c r="A18" s="19"/>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -3157,10 +3193,10 @@
         <v>28</v>
       </c>
       <c r="G20" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="H20" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -3168,14 +3204,16 @@
         <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F21" t="s">
-        <v>341</v>
-      </c>
-      <c r="G21" s="5"/>
+        <v>329</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>410</v>
+      </c>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>409</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -3193,10 +3231,10 @@
         <v>28</v>
       </c>
       <c r="G24" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="H24" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -3204,40 +3242,40 @@
         <v>29</v>
       </c>
       <c r="F25" t="s">
-        <v>338</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>263</v>
+        <v>326</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>255</v>
       </c>
       <c r="H25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="E26" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="F26" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C27" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F28" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="I28">
         <v>99</v>
@@ -3245,7 +3283,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -3263,78 +3301,80 @@
         <v>28</v>
       </c>
       <c r="G32" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="H32" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>28</v>
       </c>
-      <c r="G33" s="5"/>
+      <c r="G33" s="9" t="s">
+        <v>408</v>
+      </c>
       <c r="H33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F34" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="G34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K34" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="L34" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="M34" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C35" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F36" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="G36" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K36" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="L36" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="M36" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
@@ -3352,10 +3392,10 @@
         <v>28</v>
       </c>
       <c r="G40" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="H40" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
@@ -3363,10 +3403,10 @@
         <v>28</v>
       </c>
       <c r="G41" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
@@ -3374,40 +3414,40 @@
         <v>29</v>
       </c>
       <c r="F42" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="G42" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="E43" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="F43" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C44" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F45" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="I45">
         <v>99</v>
@@ -3415,15 +3455,15 @@
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C47" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
@@ -3431,18 +3471,18 @@
         <v>29</v>
       </c>
       <c r="F48" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="G48" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
@@ -3460,10 +3500,10 @@
         <v>28</v>
       </c>
       <c r="G52" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="H52" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
@@ -3471,10 +3511,10 @@
         <v>28</v>
       </c>
       <c r="G53" t="s">
-        <v>87</v>
+        <v>411</v>
       </c>
       <c r="H53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
@@ -3482,40 +3522,40 @@
         <v>29</v>
       </c>
       <c r="F54" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="G54" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="E55" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="F55" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C56" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F57" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="I57">
         <v>99</v>
@@ -3523,15 +3563,15 @@
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C59" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
@@ -3539,18 +3579,18 @@
         <v>29</v>
       </c>
       <c r="F60" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G60" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
@@ -3568,19 +3608,21 @@
         <v>28</v>
       </c>
       <c r="G64" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="H64" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
         <v>28</v>
       </c>
-      <c r="G65" s="5"/>
+      <c r="G65" t="s">
+        <v>412</v>
+      </c>
       <c r="H65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
@@ -3588,40 +3630,40 @@
         <v>29</v>
       </c>
       <c r="F66" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="G66" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H66" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="E67" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="F67" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C68" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F69" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="I69">
         <v>99</v>
@@ -3629,15 +3671,15 @@
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C71" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
@@ -3645,18 +3687,18 @@
         <v>29</v>
       </c>
       <c r="F72" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="G72" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H72" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
@@ -3666,10 +3708,10 @@
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C75" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
@@ -3682,22 +3724,24 @@
         <v>28</v>
       </c>
       <c r="G77" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="H77" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F78" t="s">
-        <v>343</v>
-      </c>
-      <c r="G78" s="5"/>
+        <v>331</v>
+      </c>
+      <c r="G78" s="9" t="s">
+        <v>413</v>
+      </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
@@ -3707,7 +3751,7 @@
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
@@ -3720,29 +3764,29 @@
         <v>28</v>
       </c>
       <c r="G82" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="H82" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
         <v>28</v>
       </c>
-      <c r="G83" s="5" t="s">
-        <v>228</v>
+      <c r="G83" t="s">
+        <v>414</v>
       </c>
       <c r="H83" t="s">
-        <v>228</v>
+        <v>415</v>
       </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D84" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E84" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.25">
@@ -3760,24 +3804,24 @@
         <v>28</v>
       </c>
       <c r="G87" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="H87" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F88" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="G88" t="s">
-        <v>397</v>
+        <v>416</v>
       </c>
       <c r="H88" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.25">
@@ -3795,9 +3839,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51D9F90A-DED8-4B84-AE76-A32853D141F5}">
   <dimension ref="A1:M95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3837,7 +3881,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>11</v>
@@ -3846,16 +3890,16 @@
         <v>26</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3875,10 +3919,10 @@
         <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="H3" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3886,17 +3930,17 @@
       <c r="D4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>109</v>
+      <c r="E4" s="13" t="s">
+        <v>106</v>
       </c>
       <c r="F4" t="s">
-        <v>110</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>172</v>
+        <v>107</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>165</v>
       </c>
       <c r="I4" s="10"/>
       <c r="K4" s="10"/>
@@ -3918,10 +3962,10 @@
     <row r="6" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
@@ -3933,7 +3977,7 @@
     <row r="7" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="12" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
@@ -3945,7 +3989,7 @@
     <row r="8" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
@@ -3955,12 +3999,12 @@
       <c r="M8" s="10"/>
     </row>
     <row r="9" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
@@ -3984,22 +4028,22 @@
         <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H11" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="D12" s="11" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="I12" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
@@ -4008,16 +4052,16 @@
     <row r="13" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="D13" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="I13" s="10"/>
       <c r="K13" s="10"/>
@@ -4046,16 +4090,16 @@
         <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F16" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="G16" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="H16" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -4064,12 +4108,12 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
+      <c r="A18" s="19"/>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -4082,10 +4126,10 @@
         <v>28</v>
       </c>
       <c r="G20" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H20" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -4093,40 +4137,40 @@
         <v>29</v>
       </c>
       <c r="F21" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="G21" t="s">
-        <v>83</v>
+        <v>407</v>
       </c>
       <c r="H21" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="E22" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="F22" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C23" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F24" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="I24">
         <v>555</v>
@@ -4134,7 +4178,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -4143,9 +4187,9 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="20"/>
+      <c r="A28" s="19"/>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -4158,10 +4202,10 @@
         <v>28</v>
       </c>
       <c r="G30" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H30" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -4169,14 +4213,16 @@
         <v>25</v>
       </c>
       <c r="E31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F31" t="s">
-        <v>356</v>
-      </c>
-      <c r="G31" s="5"/>
+        <v>344</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>410</v>
+      </c>
       <c r="H31" t="s">
-        <v>39</v>
+        <v>409</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -4194,10 +4240,10 @@
         <v>28</v>
       </c>
       <c r="G34" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H34" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
@@ -4205,40 +4251,40 @@
         <v>29</v>
       </c>
       <c r="F35" t="s">
-        <v>357</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>263</v>
+        <v>345</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>255</v>
       </c>
       <c r="H35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="E36" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="F36" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F38" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="I38">
         <v>99</v>
@@ -4246,7 +4292,7 @@
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
@@ -4264,78 +4310,80 @@
         <v>28</v>
       </c>
       <c r="G42" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H42" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
         <v>28</v>
       </c>
-      <c r="G43" s="5"/>
+      <c r="G43" s="9" t="s">
+        <v>408</v>
+      </c>
       <c r="H43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F44" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="G44" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K44" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="L44" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="M44" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C45" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F46" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="G46" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K46" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="L46" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="M46" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
@@ -4353,10 +4401,10 @@
         <v>28</v>
       </c>
       <c r="G50" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H50" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
@@ -4364,10 +4412,10 @@
         <v>28</v>
       </c>
       <c r="G51" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
@@ -4375,40 +4423,40 @@
         <v>29</v>
       </c>
       <c r="F52" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="G52" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="E53" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="F53" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C54" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F55" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="I55">
         <v>99</v>
@@ -4416,15 +4464,15 @@
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C57" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
@@ -4432,18 +4480,18 @@
         <v>29</v>
       </c>
       <c r="F58" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="G58" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
@@ -4461,10 +4509,10 @@
         <v>28</v>
       </c>
       <c r="G62" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H62" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
@@ -4472,10 +4520,10 @@
         <v>28</v>
       </c>
       <c r="G63" t="s">
-        <v>87</v>
+        <v>411</v>
       </c>
       <c r="H63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
@@ -4483,40 +4531,40 @@
         <v>29</v>
       </c>
       <c r="F64" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="G64" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H64" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="E65" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="F65" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C66" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F67" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="I67">
         <v>99</v>
@@ -4524,15 +4572,15 @@
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C69" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
@@ -4540,18 +4588,18 @@
         <v>29</v>
       </c>
       <c r="F70" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="G70" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
@@ -4569,19 +4617,21 @@
         <v>28</v>
       </c>
       <c r="G74" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H74" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
         <v>28</v>
       </c>
-      <c r="G75" s="5"/>
+      <c r="G75" t="s">
+        <v>412</v>
+      </c>
       <c r="H75" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
@@ -4589,40 +4639,40 @@
         <v>29</v>
       </c>
       <c r="F76" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="G76" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H76" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="E77" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="F77" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F79" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="I79">
         <v>99</v>
@@ -4630,15 +4680,15 @@
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C81" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -4646,18 +4696,18 @@
         <v>29</v>
       </c>
       <c r="F82" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="G82" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H82" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -4667,10 +4717,10 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C85" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -4683,22 +4733,24 @@
         <v>28</v>
       </c>
       <c r="G87" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H87" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F88" t="s">
-        <v>374</v>
-      </c>
-      <c r="G88" s="5"/>
+        <v>362</v>
+      </c>
+      <c r="G88" s="9" t="s">
+        <v>413</v>
+      </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -4708,7 +4760,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -4721,24 +4773,24 @@
         <v>28</v>
       </c>
       <c r="G92" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H92" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D93" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F93" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="G93" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="H93" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -4747,9 +4799,9 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="21"/>
+      <c r="A95" s="20"/>
       <c r="B95" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -4762,8 +4814,8 @@
   <dimension ref="A1:M162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G161" sqref="G161:H161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4803,7 +4855,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>11</v>
@@ -4812,16 +4864,16 @@
         <v>26</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -4839,22 +4891,22 @@
         <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="H3" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="D4" s="11" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="I4" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
@@ -4863,16 +4915,16 @@
     <row r="5" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="D5" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="I5" s="10"/>
       <c r="K5" s="10"/>
@@ -4901,10 +4953,10 @@
         <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="H8" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -4912,24 +4964,24 @@
         <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F9" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G9" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H9" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -4937,61 +4989,61 @@
         <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F11" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G11" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H11" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F14" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I14" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F16" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I16" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -5009,10 +5061,10 @@
         <v>28</v>
       </c>
       <c r="G20" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="H20" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -5020,16 +5072,16 @@
         <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F21" t="s">
-        <v>119</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>420</v>
       </c>
       <c r="H21" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -5047,33 +5099,33 @@
         <v>28</v>
       </c>
       <c r="G24" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="H24" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F25" t="s">
-        <v>121</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>421</v>
       </c>
       <c r="H25" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="K25" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="L25" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="M25" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -5082,12 +5134,12 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
+      <c r="A27" s="19"/>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C27" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -5100,10 +5152,10 @@
         <v>28</v>
       </c>
       <c r="G29" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="H29" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -5111,40 +5163,40 @@
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>124</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>125</v>
+        <v>119</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>120</v>
       </c>
       <c r="H30" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="E31" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="F31" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C32" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F33" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="I33">
         <v>99</v>
@@ -5152,7 +5204,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -5161,18 +5213,18 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="20"/>
+      <c r="A36" s="19"/>
       <c r="B36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="24"/>
+      <c r="A37" s="23"/>
       <c r="B37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -5185,10 +5237,10 @@
         <v>28</v>
       </c>
       <c r="G39" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="H39" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -5196,13 +5248,13 @@
         <v>29</v>
       </c>
       <c r="F40" t="s">
-        <v>127</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>128</v>
+        <v>122</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>123</v>
       </c>
       <c r="H40" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -5220,10 +5272,10 @@
         <v>28</v>
       </c>
       <c r="G43" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="H43" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -5231,16 +5283,16 @@
         <v>25</v>
       </c>
       <c r="E44" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F44" t="s">
-        <v>143</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="H44" s="23" t="s">
-        <v>257</v>
+        <v>138</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="H44" s="22" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -5258,10 +5310,10 @@
         <v>28</v>
       </c>
       <c r="G47" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="H47" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -5269,16 +5321,16 @@
         <v>25</v>
       </c>
       <c r="E48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F48" t="s">
-        <v>145</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>84</v>
+        <v>140</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>82</v>
       </c>
       <c r="H48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
@@ -5296,10 +5348,10 @@
         <v>28</v>
       </c>
       <c r="G51" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="H51" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
@@ -5307,22 +5359,24 @@
         <v>25</v>
       </c>
       <c r="E52" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F52" t="s">
-        <v>146</v>
-      </c>
-      <c r="G52" s="5"/>
+        <v>141</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>422</v>
+      </c>
       <c r="H52" t="s">
-        <v>147</v>
+        <v>423</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C53" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
@@ -5330,18 +5384,18 @@
         <v>29</v>
       </c>
       <c r="F54" t="s">
-        <v>149</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>425</v>
       </c>
       <c r="H54" t="s">
-        <v>150</v>
+        <v>424</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
@@ -5359,10 +5413,10 @@
         <v>28</v>
       </c>
       <c r="G58" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="H58" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
@@ -5370,10 +5424,10 @@
         <v>28</v>
       </c>
       <c r="G59" t="s">
-        <v>86</v>
+        <v>426</v>
       </c>
       <c r="H59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
@@ -5381,40 +5435,40 @@
         <v>29</v>
       </c>
       <c r="F60" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="G60" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="E61" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="F61" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C62" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F63" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="I63">
         <v>99</v>
@@ -5422,15 +5476,15 @@
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C65" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
@@ -5438,18 +5492,18 @@
         <v>29</v>
       </c>
       <c r="F66" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="G66" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
@@ -5467,10 +5521,10 @@
         <v>28</v>
       </c>
       <c r="G70" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="H70" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
@@ -5478,10 +5532,10 @@
         <v>28</v>
       </c>
       <c r="G71" t="s">
-        <v>87</v>
+        <v>411</v>
       </c>
       <c r="H71" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
@@ -5489,40 +5543,40 @@
         <v>29</v>
       </c>
       <c r="F72" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="G72" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H72" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="E73" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="F73" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C74" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F75" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="I75">
         <v>99</v>
@@ -5530,15 +5584,15 @@
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
@@ -5546,18 +5600,18 @@
         <v>29</v>
       </c>
       <c r="F78" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="G78" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
@@ -5575,19 +5629,21 @@
         <v>28</v>
       </c>
       <c r="G82" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="H82" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
         <v>28</v>
       </c>
-      <c r="G83" s="5"/>
+      <c r="G83" t="s">
+        <v>412</v>
+      </c>
       <c r="H83" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
@@ -5595,40 +5651,40 @@
         <v>29</v>
       </c>
       <c r="F84" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="G84" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H84" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D85" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="E85" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="F85" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C86" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D87" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F87" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="I87">
         <v>99</v>
@@ -5636,15 +5692,15 @@
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C89" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
@@ -5652,18 +5708,18 @@
         <v>29</v>
       </c>
       <c r="F90" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="G90" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H90" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
@@ -5681,10 +5737,10 @@
         <v>28</v>
       </c>
       <c r="G94" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="H94" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
@@ -5692,16 +5748,16 @@
         <v>25</v>
       </c>
       <c r="E95" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F95" t="s">
-        <v>158</v>
-      </c>
-      <c r="G95" s="5" t="s">
-        <v>159</v>
+        <v>151</v>
+      </c>
+      <c r="G95" s="9" t="s">
+        <v>152</v>
       </c>
       <c r="H95" t="s">
-        <v>258</v>
+        <v>427</v>
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
@@ -5719,10 +5775,10 @@
         <v>28</v>
       </c>
       <c r="G98" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="H98" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -5730,16 +5786,16 @@
         <v>25</v>
       </c>
       <c r="E99" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F99" t="s">
-        <v>161</v>
-      </c>
-      <c r="G99" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
+      </c>
+      <c r="G99" s="9" t="s">
+        <v>155</v>
       </c>
       <c r="H99" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -5749,13 +5805,13 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B101" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C101" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
@@ -5765,14 +5821,15 @@
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="5"/>
       <c r="D103" t="s">
         <v>28</v>
       </c>
       <c r="G103" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="H103" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
@@ -5781,93 +5838,93 @@
         <v>28</v>
       </c>
       <c r="G104" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="H104" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="5"/>
       <c r="D105" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="E105" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="F105" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="G105" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="H105" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="5"/>
       <c r="D106" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="E106" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="F106" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="G106" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="H106" t="s">
-        <v>318</v>
-      </c>
-      <c r="J106" s="18" t="s">
-        <v>286</v>
+        <v>306</v>
+      </c>
+      <c r="J106" s="17" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="5"/>
       <c r="D107" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="E107" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="F107" t="s">
-        <v>287</v>
-      </c>
-      <c r="K107" s="18"/>
+        <v>279</v>
+      </c>
+      <c r="K107" s="17"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="5"/>
       <c r="B108" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C108" t="s">
-        <v>288</v>
-      </c>
-      <c r="K108" s="18"/>
+        <v>280</v>
+      </c>
+      <c r="K108" s="17"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="5"/>
       <c r="D109" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F109" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="I109" t="s">
-        <v>309</v>
-      </c>
-      <c r="K109" s="18"/>
+        <v>297</v>
+      </c>
+      <c r="K109" s="17"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="5"/>
       <c r="B110" t="s">
-        <v>82</v>
-      </c>
-      <c r="K110" s="18"/>
+        <v>81</v>
+      </c>
+      <c r="K110" s="17"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="5"/>
@@ -5878,10 +5935,10 @@
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="5"/>
       <c r="B112" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C112" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
@@ -5891,121 +5948,123 @@
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="5"/>
       <c r="D114" t="s">
         <v>28</v>
       </c>
       <c r="G114" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="H114" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="5"/>
       <c r="D115" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F115" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="G115" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="H115" t="s">
-        <v>291</v>
-      </c>
-      <c r="J115" s="18"/>
+        <v>272</v>
+      </c>
+      <c r="J115" s="17"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="5"/>
       <c r="B116" t="s">
         <v>13</v>
       </c>
-      <c r="J116" s="18"/>
+      <c r="J116" s="17"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="5"/>
       <c r="B117" t="s">
-        <v>82</v>
-      </c>
-      <c r="J117" s="18"/>
+        <v>81</v>
+      </c>
+      <c r="J117" s="17"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="19"/>
+      <c r="A118" s="18"/>
       <c r="B118" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="5"/>
       <c r="D119" t="s">
         <v>28</v>
       </c>
       <c r="G119" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="H119" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="19"/>
+      <c r="A120" s="18"/>
       <c r="D120" t="s">
         <v>25</v>
       </c>
       <c r="E120" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F120" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="G120" t="s">
-        <v>293</v>
+        <v>428</v>
       </c>
       <c r="H120" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="19"/>
+      <c r="A121" s="18"/>
       <c r="B121" t="s">
+        <v>80</v>
+      </c>
+      <c r="C121" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" s="18"/>
+      <c r="D122" t="s">
+        <v>103</v>
+      </c>
+      <c r="F122" t="s">
+        <v>285</v>
+      </c>
+      <c r="G122" t="s">
+        <v>429</v>
+      </c>
+      <c r="H122" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" s="18"/>
+      <c r="B123" t="s">
         <v>81</v>
       </c>
-      <c r="C121" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="19"/>
-      <c r="D122" t="s">
-        <v>106</v>
-      </c>
-      <c r="F122" t="s">
-        <v>296</v>
-      </c>
-      <c r="G122" t="s">
-        <v>297</v>
-      </c>
-      <c r="H122" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="19"/>
-      <c r="B123" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="19"/>
+      <c r="A124" s="18"/>
       <c r="B124" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="19"/>
+      <c r="A125" s="18"/>
       <c r="B125" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
@@ -6018,10 +6077,10 @@
         <v>28</v>
       </c>
       <c r="G127" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="H127" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
@@ -6029,16 +6088,16 @@
         <v>25</v>
       </c>
       <c r="E128" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="F128" t="s">
-        <v>164</v>
-      </c>
-      <c r="G128" s="5" t="s">
-        <v>165</v>
+        <v>157</v>
+      </c>
+      <c r="G128" s="9" t="s">
+        <v>158</v>
       </c>
       <c r="H128" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="129" spans="2:8" x14ac:dyDescent="0.25">
@@ -6048,10 +6107,10 @@
     </row>
     <row r="130" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C130" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="131" spans="2:8" x14ac:dyDescent="0.25">
@@ -6064,173 +6123,185 @@
         <v>28</v>
       </c>
       <c r="G132" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="H132" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
     </row>
     <row r="133" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D133" t="s">
         <v>28</v>
       </c>
-      <c r="G133" s="5" t="s">
-        <v>238</v>
+      <c r="G133" s="9" t="s">
+        <v>231</v>
       </c>
       <c r="H133" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="134" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D134" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E134" t="s">
-        <v>233</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="G134" s="9"/>
     </row>
     <row r="135" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>13</v>
       </c>
+      <c r="G135" s="9"/>
     </row>
     <row r="136" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C136" t="s">
-        <v>234</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="G136" s="9"/>
     </row>
     <row r="137" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>12</v>
       </c>
+      <c r="G137" s="9"/>
     </row>
     <row r="138" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D138" t="s">
         <v>28</v>
       </c>
-      <c r="G138" t="s">
-        <v>418</v>
+      <c r="G138" s="9" t="s">
+        <v>405</v>
       </c>
       <c r="H138" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
     </row>
     <row r="139" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D139" t="s">
         <v>28</v>
       </c>
-      <c r="G139" s="5" t="s">
-        <v>239</v>
+      <c r="G139" s="9" t="s">
+        <v>232</v>
       </c>
       <c r="H139" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="140" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D140" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E140" t="s">
-        <v>233</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="G140" s="9"/>
     </row>
     <row r="141" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>13</v>
       </c>
+      <c r="G141" s="9"/>
     </row>
     <row r="142" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C142" t="s">
-        <v>245</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="G142" s="9"/>
     </row>
     <row r="143" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>12</v>
       </c>
+      <c r="G143" s="9"/>
     </row>
     <row r="144" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D144" t="s">
         <v>28</v>
       </c>
-      <c r="G144" t="s">
-        <v>418</v>
+      <c r="G144" s="9" t="s">
+        <v>405</v>
       </c>
       <c r="H144" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D145" t="s">
         <v>28</v>
       </c>
-      <c r="G145" s="5" t="s">
-        <v>248</v>
+      <c r="G145" s="9" t="s">
+        <v>241</v>
       </c>
       <c r="H145" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D146" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E146" t="s">
-        <v>233</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="G146" s="9"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>13</v>
       </c>
+      <c r="G147" s="9"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C148" t="s">
-        <v>246</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G148" s="9"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>12</v>
       </c>
+      <c r="G149" s="9"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D150" t="s">
         <v>28</v>
       </c>
-      <c r="G150" t="s">
-        <v>418</v>
+      <c r="G150" s="9" t="s">
+        <v>405</v>
       </c>
       <c r="H150" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D151" t="s">
         <v>28</v>
       </c>
-      <c r="G151" s="5" t="s">
-        <v>249</v>
+      <c r="G151" s="9" t="s">
+        <v>242</v>
       </c>
       <c r="H151" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D152" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E152" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -6240,28 +6311,28 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="24"/>
+      <c r="A158" s="23"/>
       <c r="B158" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -6274,24 +6345,24 @@
         <v>28</v>
       </c>
       <c r="G160" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="H160" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
     </row>
     <row r="161" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D161" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F161" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="G161" t="s">
-        <v>397</v>
+        <v>430</v>
       </c>
       <c r="H161" t="s">
-        <v>402</v>
+        <v>431</v>
       </c>
     </row>
     <row r="162" spans="2:8" x14ac:dyDescent="0.25">
@@ -6320,19 +6391,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>408</v>
-      </c>
-      <c r="B1" s="25" t="s">
+      <c r="A1" s="24" t="s">
+        <v>395</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>410</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>409</v>
+        <v>397</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -6366,117 +6437,117 @@
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="H1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>100</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F2" t="s">
         <v>229</v>
       </c>
-      <c r="B2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>230</v>
       </c>
-      <c r="F2" t="s">
-        <v>236</v>
-      </c>
-      <c r="G2" t="s">
-        <v>237</v>
-      </c>
       <c r="H2" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E3" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="F3" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="G3" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B5" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="J5" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="B6" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="J6" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -6531,7 +6602,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>24</v>
@@ -6539,7 +6610,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
         <v>37</v>
@@ -6548,7 +6619,7 @@
         <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -6561,759 +6632,759 @@
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="14"/>
+    <col min="1" max="1" width="16.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D1" s="16" t="s">
+      <c r="C1" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="B2" s="14" t="str">
+      <c r="A2" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="13" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>225</v>
+      <c r="C2" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="B3" s="14" t="str">
+      <c r="A3" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="13" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>227</v>
+      <c r="C3" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="B4" s="14" t="str">
+      <c r="A4" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="13" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>79</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
         <v>50</v>
-      </c>
-      <c r="D5" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s">
         <v>52</v>
-      </c>
-      <c r="D6" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" t="s">
         <v>54</v>
-      </c>
-      <c r="D7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" t="s">
         <v>56</v>
-      </c>
-      <c r="D8" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" t="s">
         <v>58</v>
-      </c>
-      <c r="D9" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" t="str">
         <f>"7"</f>
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="D10" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="14" t="s">
+      <c r="A11" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="D11" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="14" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="D12" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="14" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="14" t="s">
+      <c r="C13" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="D13" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="14" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="14" t="s">
+      <c r="C14" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="D14" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="14" t="s">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="14" t="s">
+      <c r="C15" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="D15" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="14" t="s">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="14" t="s">
+      <c r="C16" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="D16" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="14" t="s">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="14" t="s">
+      <c r="C17" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="D17" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>80</v>
-      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="B18" s="14" t="str">
+      <c r="A18" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" s="13" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C18" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>112</v>
+      <c r="C18" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="B19" s="14" t="str">
+      <c r="A19" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="13" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>114</v>
+      <c r="C19" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="B20" s="14" t="str">
+      <c r="A20" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" s="13" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>171</v>
+      <c r="C20" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="B21" s="14" t="str">
+      <c r="A21" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B21" s="13" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C21" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>174</v>
+      <c r="C21" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="B22" s="14" t="str">
+      <c r="A22" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" s="13" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C22" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>167</v>
+      <c r="C22" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="B23" s="14" t="str">
+      <c r="A23" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" s="13" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C23" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>169</v>
+      <c r="C23" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="B24" s="14" t="str">
+      <c r="A24" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" s="13" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C24" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>43</v>
+      <c r="C24" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="B25" s="14" t="str">
+      <c r="A25" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25" s="13" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C25" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>176</v>
+      <c r="C25" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="B26" s="14" t="str">
+      <c r="A26" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B26" s="13" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C26" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>178</v>
+      <c r="C26" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="B27" s="14" t="str">
+      <c r="A27" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B27" s="13" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C27" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>180</v>
+      <c r="C27" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="B28" s="14" t="str">
+      <c r="A28" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" s="13" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C28" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>182</v>
+      <c r="C28" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="B29" s="14" t="str">
+      <c r="A29" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B29" s="13" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
-      <c r="C29" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>176</v>
+      <c r="C29" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="B30" s="14" t="str">
+      <c r="A30" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B30" s="13" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
-      <c r="C30" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>184</v>
+      <c r="C30" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="B31" s="14" t="str">
+      <c r="A31" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B31" s="13" t="str">
         <f>"88"</f>
         <v>88</v>
       </c>
-      <c r="C31" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>186</v>
+      <c r="C31" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="B32" s="14" t="str">
+      <c r="A32" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B32" s="13" t="str">
         <f>"99"</f>
         <v>99</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B35" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="C35" s="13" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="B33" s="14" t="s">
+      <c r="D35" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="C33" s="14" t="s">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B36" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="D33" s="14" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="B34" s="14" t="s">
+      <c r="C36" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="D36" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="D34" s="14" t="s">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B37" s="13" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="B35" s="14" t="s">
+      <c r="C37" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="C35" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>261</v>
+      <c r="D37" s="13" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="38" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B38" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C38" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B39" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C39" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D39" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="40" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B40" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C40" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D40" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B41" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C41" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D41" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="42" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B42" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C42" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D42" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="43" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B43" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C43" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D43" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="44" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B44" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C44" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D44" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="45" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B45" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C45" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D45" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="46" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B46" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C46" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D46" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="47" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B47" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C47" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="B48" s="14" t="str">
+      <c r="A48" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="B48" s="13" t="str">
         <f>"555"</f>
         <v>555</v>
       </c>
-      <c r="C48" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>262</v>
+      <c r="C48" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B49" t="str">
         <f>"99"</f>
         <v>99</v>
       </c>
       <c r="C49" t="s">
+        <v>78</v>
+      </c>
+      <c r="D49" t="s">
         <v>79</v>
-      </c>
-      <c r="D49" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="B50" t="str">
         <f>"8888"</f>
         <v>8888</v>
       </c>
       <c r="C50" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="D50" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="B51" t="str">
         <f>"9999"</f>
         <v>9999</v>
       </c>
       <c r="C51" t="s">
+        <v>78</v>
+      </c>
+      <c r="D51" t="s">
         <v>79</v>
-      </c>
-      <c r="D51" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/GRAVIDA/forms/GRAVIDA/GRAVIDA.xlsx
+++ b/app/config/tables/GRAVIDA/forms/GRAVIDA/GRAVIDA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE6B52B-E57B-4F5E-BF5A-2E757AF09767}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC8D661-9DA2-4AB6-8EF3-D5568D660C1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="438">
   <si>
     <t>setting_name</t>
   </si>
@@ -951,12 +951,6 @@
     <t>display.constraint_message.text</t>
   </si>
   <si>
-    <t>Cannot be in the future</t>
-  </si>
-  <si>
-    <t>Date of pregnancy end cannot be in the future</t>
-  </si>
-  <si>
     <t>Region: &lt;b&gt;{{data.regpar}}&lt;b&gt;</t>
   </si>
   <si>
@@ -1342,6 +1336,30 @@
   </si>
   <si>
     <t>Comentários ao depois de parto</t>
+  </si>
+  <si>
+    <t>Must be between 50 and 342 and a even number:</t>
+  </si>
+  <si>
+    <t>(data('MAEBRAC1')&gt;49 &amp;&amp; data('MAEBRAC1')&lt;343 &amp;&amp; data('MAEBRAC1')%2 == 0) ||data('MULPRESA1') != '1'</t>
+  </si>
+  <si>
+    <t>(data('MAEBRAC2')&gt;49 &amp;&amp; data('MAEBRAC2')&lt;343 &amp;&amp; data('MAEBRAC2')%2 == 0) ||data('MULPRESA2') != '1'</t>
+  </si>
+  <si>
+    <t>Deve estar entre 50 e 342 e um número par:</t>
+  </si>
+  <si>
+    <t>The date of last period cannot be in the future</t>
+  </si>
+  <si>
+    <t>A data do último período não pode estar no futuro</t>
+  </si>
+  <si>
+    <t>A data de término da gravidez não pode estar no futuro</t>
+  </si>
+  <si>
+    <t>The date of pregnancy end cannot be in the future</t>
   </si>
 </sst>
 </file>
@@ -1830,7 +1848,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1846,7 +1864,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1854,10 +1872,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1932,12 +1950,12 @@
         <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -1946,12 +1964,12 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B3" t="s">
         <v>104</v>
@@ -1962,7 +1980,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -1973,7 +1991,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -1984,7 +2002,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B6" t="s">
         <v>235</v>
@@ -1995,7 +2013,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -2006,7 +2024,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -2018,7 +2036,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B9" t="s">
         <v>235</v>
@@ -2029,7 +2047,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -2041,7 +2059,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B11" t="s">
         <v>235</v>
@@ -2063,7 +2081,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B13" t="s">
         <v>104</v>
@@ -2074,7 +2092,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B14" t="s">
         <v>104</v>
@@ -2085,7 +2103,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -2096,7 +2114,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B16" t="s">
         <v>235</v>
@@ -2107,7 +2125,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B17" t="s">
         <v>103</v>
@@ -2118,7 +2136,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>104</v>
@@ -2129,7 +2147,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -2140,7 +2158,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -2151,7 +2169,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B21" t="s">
         <v>235</v>
@@ -2162,7 +2180,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
@@ -2171,12 +2189,12 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B24" t="s">
         <v>104</v>
@@ -2187,7 +2205,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B25" t="s">
         <v>29</v>
@@ -2198,7 +2216,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B26" t="s">
         <v>29</v>
@@ -2209,7 +2227,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B27" t="s">
         <v>235</v>
@@ -2220,7 +2238,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
@@ -2231,7 +2249,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
@@ -2242,7 +2260,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B30" t="s">
         <v>235</v>
@@ -2253,7 +2271,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B31" t="s">
         <v>29</v>
@@ -2264,7 +2282,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B32" t="s">
         <v>235</v>
@@ -2275,7 +2293,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B33" t="s">
         <v>104</v>
@@ -2288,7 +2306,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B34" t="s">
         <v>104</v>
@@ -2300,7 +2318,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B35" t="s">
         <v>29</v>
@@ -2312,7 +2330,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B36" t="s">
         <v>235</v>
@@ -2324,7 +2342,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B37" t="s">
         <v>25</v>
@@ -2336,7 +2354,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>103</v>
@@ -2348,7 +2366,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B39" t="s">
         <v>29</v>
@@ -2360,7 +2378,7 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B40" t="s">
         <v>29</v>
@@ -2373,7 +2391,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B41" t="s">
         <v>235</v>
@@ -2384,7 +2402,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>104</v>
@@ -2408,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2593,7 +2611,7 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B61" s="12" t="s">
         <v>103</v>
@@ -2747,7 +2765,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B75" s="11" t="s">
         <v>104</v>
@@ -2767,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="D77" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -2783,7 +2801,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B79" t="s">
         <v>25</v>
@@ -2794,7 +2812,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B80" t="s">
         <v>103</v>
@@ -2805,7 +2823,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B81" t="s">
         <v>104</v>
@@ -2920,22 +2938,22 @@
         <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -2954,9 +2972,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42B4652-1939-4CCD-AEEB-1868D449AB6E}">
   <dimension ref="A1:M89"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G88" sqref="G88:H88"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L36" sqref="L36:M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3031,10 +3049,10 @@
         <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3058,10 +3076,10 @@
         <v>132</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
@@ -3073,13 +3091,13 @@
         <v>104</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I6" s="10"/>
       <c r="K6" s="10"/>
@@ -3104,7 +3122,7 @@
         <v>80</v>
       </c>
       <c r="C8" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -3117,10 +3135,10 @@
         <v>28</v>
       </c>
       <c r="G10" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -3128,13 +3146,22 @@
         <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G11" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H11" t="s">
         <v>245</v>
+      </c>
+      <c r="K11" t="s">
+        <v>431</v>
+      </c>
+      <c r="L11" t="s">
+        <v>430</v>
+      </c>
+      <c r="M11" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -3145,7 +3172,7 @@
         <v>236</v>
       </c>
       <c r="F12" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -3153,7 +3180,7 @@
         <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -3161,7 +3188,7 @@
         <v>132</v>
       </c>
       <c r="F14" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="I14">
         <v>555</v>
@@ -3193,10 +3220,10 @@
         <v>28</v>
       </c>
       <c r="G20" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H20" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -3207,13 +3234,13 @@
         <v>48</v>
       </c>
       <c r="F21" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H21" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -3231,10 +3258,10 @@
         <v>28</v>
       </c>
       <c r="G24" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H24" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -3242,7 +3269,7 @@
         <v>29</v>
       </c>
       <c r="F25" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G25" s="9" t="s">
         <v>255</v>
@@ -3259,7 +3286,7 @@
         <v>256</v>
       </c>
       <c r="F26" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -3267,7 +3294,7 @@
         <v>80</v>
       </c>
       <c r="C27" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -3275,7 +3302,7 @@
         <v>132</v>
       </c>
       <c r="F28" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I28">
         <v>99</v>
@@ -3301,10 +3328,10 @@
         <v>28</v>
       </c>
       <c r="G32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H32" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
@@ -3312,7 +3339,7 @@
         <v>28</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H33" t="s">
         <v>40</v>
@@ -3323,7 +3350,7 @@
         <v>104</v>
       </c>
       <c r="F34" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G34" t="s">
         <v>83</v>
@@ -3332,13 +3359,13 @@
         <v>42</v>
       </c>
       <c r="K34" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="L34" t="s">
-        <v>301</v>
+        <v>434</v>
       </c>
       <c r="M34" t="s">
-        <v>301</v>
+        <v>435</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
@@ -3346,7 +3373,7 @@
         <v>80</v>
       </c>
       <c r="C35" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
@@ -3354,7 +3381,7 @@
         <v>104</v>
       </c>
       <c r="F36" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G36" t="s">
         <v>82</v>
@@ -3363,13 +3390,13 @@
         <v>41</v>
       </c>
       <c r="K36" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="L36" t="s">
-        <v>301</v>
+        <v>434</v>
       </c>
       <c r="M36" t="s">
-        <v>301</v>
+        <v>435</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
@@ -3392,10 +3419,10 @@
         <v>28</v>
       </c>
       <c r="G40" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H40" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
@@ -3414,7 +3441,7 @@
         <v>29</v>
       </c>
       <c r="F42" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G42" t="s">
         <v>83</v>
@@ -3431,7 +3458,7 @@
         <v>256</v>
       </c>
       <c r="F43" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
@@ -3439,7 +3466,7 @@
         <v>80</v>
       </c>
       <c r="C44" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
@@ -3447,7 +3474,7 @@
         <v>132</v>
       </c>
       <c r="F45" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I45">
         <v>99</v>
@@ -3463,7 +3490,7 @@
         <v>80</v>
       </c>
       <c r="C47" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
@@ -3471,7 +3498,7 @@
         <v>29</v>
       </c>
       <c r="F48" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G48" t="s">
         <v>82</v>
@@ -3500,10 +3527,10 @@
         <v>28</v>
       </c>
       <c r="G52" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H52" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
@@ -3511,7 +3538,7 @@
         <v>28</v>
       </c>
       <c r="G53" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H53" t="s">
         <v>43</v>
@@ -3522,7 +3549,7 @@
         <v>29</v>
       </c>
       <c r="F54" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G54" t="s">
         <v>83</v>
@@ -3539,7 +3566,7 @@
         <v>256</v>
       </c>
       <c r="F55" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
@@ -3547,7 +3574,7 @@
         <v>80</v>
       </c>
       <c r="C56" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
@@ -3555,7 +3582,7 @@
         <v>132</v>
       </c>
       <c r="F57" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I57">
         <v>99</v>
@@ -3571,7 +3598,7 @@
         <v>80</v>
       </c>
       <c r="C59" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
@@ -3579,7 +3606,7 @@
         <v>29</v>
       </c>
       <c r="F60" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G60" t="s">
         <v>82</v>
@@ -3608,10 +3635,10 @@
         <v>28</v>
       </c>
       <c r="G64" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H64" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
@@ -3619,7 +3646,7 @@
         <v>28</v>
       </c>
       <c r="G65" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H65" t="s">
         <v>44</v>
@@ -3630,7 +3657,7 @@
         <v>29</v>
       </c>
       <c r="F66" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G66" t="s">
         <v>83</v>
@@ -3647,7 +3674,7 @@
         <v>256</v>
       </c>
       <c r="F67" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
@@ -3655,7 +3682,7 @@
         <v>80</v>
       </c>
       <c r="C68" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
@@ -3663,7 +3690,7 @@
         <v>132</v>
       </c>
       <c r="F69" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I69">
         <v>99</v>
@@ -3679,7 +3706,7 @@
         <v>80</v>
       </c>
       <c r="C71" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
@@ -3687,7 +3714,7 @@
         <v>29</v>
       </c>
       <c r="F72" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G72" t="s">
         <v>82</v>
@@ -3711,7 +3738,7 @@
         <v>80</v>
       </c>
       <c r="C75" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
@@ -3724,10 +3751,10 @@
         <v>28</v>
       </c>
       <c r="G77" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H77" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
@@ -3735,10 +3762,10 @@
         <v>104</v>
       </c>
       <c r="F78" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H78" t="s">
         <v>46</v>
@@ -3764,10 +3791,10 @@
         <v>28</v>
       </c>
       <c r="G82" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H82" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
@@ -3775,10 +3802,10 @@
         <v>28</v>
       </c>
       <c r="G83" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="H83" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
@@ -3804,10 +3831,10 @@
         <v>28</v>
       </c>
       <c r="G87" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H87" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
@@ -3815,13 +3842,13 @@
         <v>103</v>
       </c>
       <c r="F88" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G88" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H88" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.25">
@@ -3839,9 +3866,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51D9F90A-DED8-4B84-AE76-A32853D141F5}">
   <dimension ref="A1:M95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L46" sqref="L46:M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3919,10 +3946,10 @@
         <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3977,7 +4004,7 @@
     <row r="7" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="12" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
@@ -4028,10 +4055,10 @@
         <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H11" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -4040,10 +4067,10 @@
         <v>132</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I12" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
@@ -4055,13 +4082,13 @@
         <v>104</v>
       </c>
       <c r="F13" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="G13" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="G13" s="12" t="s">
-        <v>337</v>
-      </c>
       <c r="H13" s="12" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I13" s="10"/>
       <c r="K13" s="10"/>
@@ -4093,60 +4120,69 @@
         <v>47</v>
       </c>
       <c r="F16" t="s">
+        <v>339</v>
+      </c>
+      <c r="G16" t="s">
+        <v>340</v>
+      </c>
+      <c r="H16" t="s">
         <v>341</v>
       </c>
-      <c r="G16" t="s">
-        <v>342</v>
-      </c>
-      <c r="H16" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
       <c r="B18" t="s">
         <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>28</v>
       </c>
       <c r="G20" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H20" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>29</v>
       </c>
       <c r="F21" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G21" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H21" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K21" t="s">
+        <v>432</v>
+      </c>
+      <c r="L21" t="s">
+        <v>430</v>
+      </c>
+      <c r="M21" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>235</v>
       </c>
@@ -4154,61 +4190,61 @@
         <v>236</v>
       </c>
       <c r="F22" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>80</v>
       </c>
       <c r="C23" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>132</v>
       </c>
       <c r="F24" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I24">
         <v>555</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="19"/>
       <c r="B28" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>28</v>
       </c>
       <c r="G30" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H30" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>25</v>
       </c>
@@ -4216,16 +4252,16 @@
         <v>48</v>
       </c>
       <c r="F31" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H31" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>13</v>
       </c>
@@ -4240,10 +4276,10 @@
         <v>28</v>
       </c>
       <c r="G34" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H34" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
@@ -4251,7 +4287,7 @@
         <v>29</v>
       </c>
       <c r="F35" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G35" s="9" t="s">
         <v>255</v>
@@ -4268,7 +4304,7 @@
         <v>256</v>
       </c>
       <c r="F36" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
@@ -4276,7 +4312,7 @@
         <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
@@ -4284,7 +4320,7 @@
         <v>132</v>
       </c>
       <c r="F38" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I38">
         <v>99</v>
@@ -4310,10 +4346,10 @@
         <v>28</v>
       </c>
       <c r="G42" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H42" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
@@ -4321,7 +4357,7 @@
         <v>28</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H43" t="s">
         <v>40</v>
@@ -4332,7 +4368,7 @@
         <v>104</v>
       </c>
       <c r="F44" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G44" t="s">
         <v>83</v>
@@ -4341,13 +4377,13 @@
         <v>42</v>
       </c>
       <c r="K44" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="L44" t="s">
-        <v>301</v>
+        <v>434</v>
       </c>
       <c r="M44" t="s">
-        <v>301</v>
+        <v>435</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
@@ -4355,7 +4391,7 @@
         <v>80</v>
       </c>
       <c r="C45" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
@@ -4363,7 +4399,7 @@
         <v>104</v>
       </c>
       <c r="F46" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G46" t="s">
         <v>82</v>
@@ -4372,13 +4408,13 @@
         <v>41</v>
       </c>
       <c r="K46" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="L46" t="s">
-        <v>301</v>
+        <v>434</v>
       </c>
       <c r="M46" t="s">
-        <v>301</v>
+        <v>435</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
@@ -4401,10 +4437,10 @@
         <v>28</v>
       </c>
       <c r="G50" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H50" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
@@ -4423,7 +4459,7 @@
         <v>29</v>
       </c>
       <c r="F52" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G52" t="s">
         <v>83</v>
@@ -4440,7 +4476,7 @@
         <v>256</v>
       </c>
       <c r="F53" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
@@ -4448,7 +4484,7 @@
         <v>80</v>
       </c>
       <c r="C54" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
@@ -4456,7 +4492,7 @@
         <v>132</v>
       </c>
       <c r="F55" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I55">
         <v>99</v>
@@ -4472,7 +4508,7 @@
         <v>80</v>
       </c>
       <c r="C57" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
@@ -4480,7 +4516,7 @@
         <v>29</v>
       </c>
       <c r="F58" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G58" t="s">
         <v>82</v>
@@ -4509,10 +4545,10 @@
         <v>28</v>
       </c>
       <c r="G62" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H62" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
@@ -4520,7 +4556,7 @@
         <v>28</v>
       </c>
       <c r="G63" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H63" t="s">
         <v>43</v>
@@ -4531,7 +4567,7 @@
         <v>29</v>
       </c>
       <c r="F64" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G64" t="s">
         <v>83</v>
@@ -4548,7 +4584,7 @@
         <v>256</v>
       </c>
       <c r="F65" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
@@ -4556,7 +4592,7 @@
         <v>80</v>
       </c>
       <c r="C66" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
@@ -4564,7 +4600,7 @@
         <v>132</v>
       </c>
       <c r="F67" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I67">
         <v>99</v>
@@ -4580,7 +4616,7 @@
         <v>80</v>
       </c>
       <c r="C69" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
@@ -4588,7 +4624,7 @@
         <v>29</v>
       </c>
       <c r="F70" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G70" t="s">
         <v>82</v>
@@ -4617,10 +4653,10 @@
         <v>28</v>
       </c>
       <c r="G74" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H74" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
@@ -4628,7 +4664,7 @@
         <v>28</v>
       </c>
       <c r="G75" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H75" t="s">
         <v>44</v>
@@ -4639,7 +4675,7 @@
         <v>29</v>
       </c>
       <c r="F76" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G76" t="s">
         <v>83</v>
@@ -4656,7 +4692,7 @@
         <v>256</v>
       </c>
       <c r="F77" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
@@ -4664,7 +4700,7 @@
         <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
@@ -4672,7 +4708,7 @@
         <v>132</v>
       </c>
       <c r="F79" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="I79">
         <v>99</v>
@@ -4688,7 +4724,7 @@
         <v>80</v>
       </c>
       <c r="C81" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -4696,7 +4732,7 @@
         <v>29</v>
       </c>
       <c r="F82" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G82" t="s">
         <v>82</v>
@@ -4720,7 +4756,7 @@
         <v>80</v>
       </c>
       <c r="C85" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -4733,10 +4769,10 @@
         <v>28</v>
       </c>
       <c r="G87" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H87" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -4744,10 +4780,10 @@
         <v>104</v>
       </c>
       <c r="F88" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H88" t="s">
         <v>46</v>
@@ -4773,10 +4809,10 @@
         <v>28</v>
       </c>
       <c r="G92" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H92" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -4784,13 +4820,13 @@
         <v>103</v>
       </c>
       <c r="F93" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G93" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H93" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -4813,9 +4849,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D665D096-BD70-4F59-A80B-B0F9CAA299C4}">
   <dimension ref="A1:M162"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G161" sqref="G161:H161"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4891,10 +4927,10 @@
         <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -4903,10 +4939,10 @@
         <v>132</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
@@ -4918,13 +4954,13 @@
         <v>104</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I5" s="10"/>
       <c r="K5" s="10"/>
@@ -4953,10 +4989,10 @@
         <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H8" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -5061,10 +5097,10 @@
         <v>28</v>
       </c>
       <c r="G20" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H20" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -5078,7 +5114,7 @@
         <v>116</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H21" t="s">
         <v>246</v>
@@ -5099,10 +5135,10 @@
         <v>28</v>
       </c>
       <c r="G24" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H24" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -5113,19 +5149,19 @@
         <v>117</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H25" t="s">
         <v>247</v>
       </c>
       <c r="K25" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L25" t="s">
-        <v>302</v>
+        <v>437</v>
       </c>
       <c r="M25" t="s">
-        <v>302</v>
+        <v>436</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -5152,10 +5188,10 @@
         <v>28</v>
       </c>
       <c r="G29" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H29" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -5237,10 +5273,10 @@
         <v>28</v>
       </c>
       <c r="G39" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H39" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -5272,10 +5308,10 @@
         <v>28</v>
       </c>
       <c r="G43" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H43" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -5310,10 +5346,10 @@
         <v>28</v>
       </c>
       <c r="G47" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H47" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -5348,10 +5384,10 @@
         <v>28</v>
       </c>
       <c r="G51" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H51" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
@@ -5365,10 +5401,10 @@
         <v>141</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H52" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
@@ -5387,10 +5423,10 @@
         <v>143</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H54" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
@@ -5413,10 +5449,10 @@
         <v>28</v>
       </c>
       <c r="G58" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H58" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
@@ -5424,7 +5460,7 @@
         <v>28</v>
       </c>
       <c r="G59" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H59" t="s">
         <v>45</v>
@@ -5521,10 +5557,10 @@
         <v>28</v>
       </c>
       <c r="G70" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H70" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
@@ -5532,7 +5568,7 @@
         <v>28</v>
       </c>
       <c r="G71" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H71" t="s">
         <v>43</v>
@@ -5629,10 +5665,10 @@
         <v>28</v>
       </c>
       <c r="G82" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H82" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
@@ -5640,7 +5676,7 @@
         <v>28</v>
       </c>
       <c r="G83" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H83" t="s">
         <v>44</v>
@@ -5737,10 +5773,10 @@
         <v>28</v>
       </c>
       <c r="G94" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H94" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
@@ -5757,7 +5793,7 @@
         <v>152</v>
       </c>
       <c r="H95" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
@@ -5775,10 +5811,10 @@
         <v>28</v>
       </c>
       <c r="G98" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H98" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -5826,10 +5862,10 @@
         <v>28</v>
       </c>
       <c r="G103" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H103" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
@@ -5856,10 +5892,10 @@
         <v>275</v>
       </c>
       <c r="G105" t="s">
+        <v>301</v>
+      </c>
+      <c r="H105" t="s">
         <v>303</v>
-      </c>
-      <c r="H105" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
@@ -5874,10 +5910,10 @@
         <v>277</v>
       </c>
       <c r="G106" t="s">
+        <v>302</v>
+      </c>
+      <c r="H106" t="s">
         <v>304</v>
-      </c>
-      <c r="H106" t="s">
-        <v>306</v>
       </c>
       <c r="J106" s="17" t="s">
         <v>278</v>
@@ -5953,10 +5989,10 @@
         <v>28</v>
       </c>
       <c r="G114" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H114" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
@@ -6001,10 +6037,10 @@
         <v>28</v>
       </c>
       <c r="G119" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H119" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
@@ -6019,7 +6055,7 @@
         <v>282</v>
       </c>
       <c r="G120" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H120" t="s">
         <v>283</v>
@@ -6043,7 +6079,7 @@
         <v>285</v>
       </c>
       <c r="G122" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="H122" t="s">
         <v>286</v>
@@ -6077,10 +6113,10 @@
         <v>28</v>
       </c>
       <c r="G127" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H127" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
@@ -6123,10 +6159,10 @@
         <v>28</v>
       </c>
       <c r="G132" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H132" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="133" spans="2:8" x14ac:dyDescent="0.25">
@@ -6175,10 +6211,10 @@
         <v>28</v>
       </c>
       <c r="G138" s="9" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H138" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="139" spans="2:8" x14ac:dyDescent="0.25">
@@ -6227,10 +6263,10 @@
         <v>28</v>
       </c>
       <c r="G144" s="9" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H144" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -6279,10 +6315,10 @@
         <v>28</v>
       </c>
       <c r="G150" s="9" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H150" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -6345,10 +6381,10 @@
         <v>28</v>
       </c>
       <c r="G160" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H160" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="161" spans="2:8" x14ac:dyDescent="0.25">
@@ -6356,13 +6392,13 @@
         <v>103</v>
       </c>
       <c r="F161" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G161" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H161" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="162" spans="2:8" x14ac:dyDescent="0.25">
@@ -6381,7 +6417,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6392,7 +6428,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>26</v>
@@ -6400,10 +6436,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -6516,7 +6552,7 @@
         <v>229</v>
       </c>
       <c r="G3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>99</v>
@@ -6788,10 +6824,10 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D10" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">

--- a/app/config/tables/GRAVIDA/forms/GRAVIDA/GRAVIDA.xlsx
+++ b/app/config/tables/GRAVIDA/forms/GRAVIDA/GRAVIDA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC8D661-9DA2-4AB6-8EF3-D5568D660C1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1930E36-C9A5-4299-B18A-FB585B5C6EFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -16,8 +16,9 @@
     <sheet name="calculates" sheetId="10" r:id="rId6"/>
     <sheet name="queries" sheetId="6" r:id="rId7"/>
     <sheet name="prompt_types" sheetId="5" r:id="rId8"/>
-    <sheet name="choices" sheetId="3" r:id="rId9"/>
-    <sheet name="model" sheetId="4" r:id="rId10"/>
+    <sheet name="table_specific_translations" sheetId="11" r:id="rId9"/>
+    <sheet name="choices" sheetId="3" r:id="rId10"/>
+    <sheet name="model" sheetId="4" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="447">
   <si>
     <t>setting_name</t>
   </si>
@@ -1167,9 +1168,6 @@
     <t>VISDIAPARTO</t>
   </si>
   <si>
-    <t>adate.diffInDays(data('VISDIAPARTO'), data('OUTDATE'))&lt;1 || data('OUTDATE') == null</t>
-  </si>
-  <si>
     <t>PREGDIA</t>
   </si>
   <si>
@@ -1185,18 +1183,6 @@
     <t>GRAVIDA</t>
   </si>
   <si>
-    <t>adate.diffInDays(data('CONT'), data('LMP1_M'))&lt;1 || data('LMP1_M') == null</t>
-  </si>
-  <si>
-    <t>adate.diffInDays(data('CONT'), data('LMP1_C'))&lt;1 || data('LMP1_C') == null</t>
-  </si>
-  <si>
-    <t>adate.diffInDays(data('VISDIA2'), data('LMP2_M'))&lt;1 || data('LMP2_M') == null</t>
-  </si>
-  <si>
-    <t>adate.diffInDays(data('VISDIA2'), data('LMP2_C'))&lt;1 || data('LMP2_C') == null</t>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
@@ -1360,6 +1346,48 @@
   </si>
   <si>
     <t>The date of pregnancy end cannot be in the future</t>
+  </si>
+  <si>
+    <t>display.adate.toYear</t>
+  </si>
+  <si>
+    <t>nextYear</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('VISDIA2'), data('LMP2_M'))&lt;1 || data('LMP2_M') == null || adate.hasUncertainty(data('LMP2_M'))</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('VISDIA2'), data('LMP2_C'))&lt;1 || data('LMP2_C') == null || adate.hasUncertainty(data('LMP2_C'))</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('CONT'), data('LMP1_C'))&lt;1 || data('LMP1_C') == null || adate.hasUncertainty(data('LMP1_C'))</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('CONT'), data('LMP1_M'))&lt;1 || data('LMP1_M') == null || adate.hasUncertainty(data('LMP1_M'))</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('VISDIAPARTO'), data('OUTDATE'))&lt;1 || data('OUTDATE') == null || adate.hasUncertainty(data('VISDIAPARTO')) || adate.hasUncertainty(data('OUTDATE'))</t>
+  </si>
+  <si>
+    <t>string_token</t>
+  </si>
+  <si>
+    <t>text.english</t>
+  </si>
+  <si>
+    <t>text.default</t>
+  </si>
+  <si>
+    <t>linked_table_new_instance_label</t>
+  </si>
+  <si>
+    <t>New registration</t>
+  </si>
+  <si>
+    <t>Novo registro</t>
+  </si>
+  <si>
+    <t>display.hide_delete_button</t>
   </si>
 </sst>
 </file>
@@ -1848,7 +1876,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1864,7 +1892,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1872,10 +1900,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1923,6 +1951,772 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF3D0A7-17A8-4B35-89BF-E7F3088D1597}">
+  <dimension ref="A1:D51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="13" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="13" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="13" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="str">
+        <f>"5"</f>
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="str">
+        <f>"7"</f>
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>337</v>
+      </c>
+      <c r="D10" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" s="13" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="13" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" s="13" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B21" s="13" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" s="13" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" s="13" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" s="13" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25" s="13" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B26" s="13" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B27" s="13" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" s="13" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B29" s="13" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B30" s="13" t="str">
+        <f>"5"</f>
+        <v>5</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B31" s="13" t="str">
+        <f>"88"</f>
+        <v>88</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B32" s="13" t="str">
+        <f>"99"</f>
+        <v>99</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>153</v>
+      </c>
+      <c r="B38" t="s">
+        <v>267</v>
+      </c>
+      <c r="C38" t="s">
+        <v>268</v>
+      </c>
+      <c r="D38" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>156</v>
+      </c>
+      <c r="B39" t="s">
+        <v>195</v>
+      </c>
+      <c r="C39" t="s">
+        <v>196</v>
+      </c>
+      <c r="D39" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>156</v>
+      </c>
+      <c r="B40" t="s">
+        <v>197</v>
+      </c>
+      <c r="C40" t="s">
+        <v>198</v>
+      </c>
+      <c r="D40" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>156</v>
+      </c>
+      <c r="B41" t="s">
+        <v>200</v>
+      </c>
+      <c r="C41" t="s">
+        <v>201</v>
+      </c>
+      <c r="D41" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>156</v>
+      </c>
+      <c r="B42" t="s">
+        <v>203</v>
+      </c>
+      <c r="C42" t="s">
+        <v>204</v>
+      </c>
+      <c r="D42" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>156</v>
+      </c>
+      <c r="B43" t="s">
+        <v>206</v>
+      </c>
+      <c r="C43" t="s">
+        <v>207</v>
+      </c>
+      <c r="D43" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>156</v>
+      </c>
+      <c r="B44" t="s">
+        <v>209</v>
+      </c>
+      <c r="C44" t="s">
+        <v>210</v>
+      </c>
+      <c r="D44" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>156</v>
+      </c>
+      <c r="B45" t="s">
+        <v>212</v>
+      </c>
+      <c r="C45" t="s">
+        <v>213</v>
+      </c>
+      <c r="D45" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>156</v>
+      </c>
+      <c r="B46" t="s">
+        <v>266</v>
+      </c>
+      <c r="C46" t="s">
+        <v>215</v>
+      </c>
+      <c r="D46" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>156</v>
+      </c>
+      <c r="B47" t="s">
+        <v>267</v>
+      </c>
+      <c r="C47" t="s">
+        <v>268</v>
+      </c>
+      <c r="D47" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="B48" s="13" t="str">
+        <f>"555"</f>
+        <v>555</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>256</v>
+      </c>
+      <c r="B49" t="str">
+        <f>"99"</f>
+        <v>99</v>
+      </c>
+      <c r="C49" t="s">
+        <v>78</v>
+      </c>
+      <c r="D49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>294</v>
+      </c>
+      <c r="B50" t="str">
+        <f>"8888"</f>
+        <v>8888</v>
+      </c>
+      <c r="C50" t="s">
+        <v>295</v>
+      </c>
+      <c r="D50" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>294</v>
+      </c>
+      <c r="B51" t="str">
+        <f>"9999"</f>
+        <v>9999</v>
+      </c>
+      <c r="C51" t="s">
+        <v>78</v>
+      </c>
+      <c r="D51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
   <dimension ref="A1:N83"/>
   <sheetViews>
@@ -1950,7 +2744,7 @@
         <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1964,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -2125,7 +2919,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B17" t="s">
         <v>103</v>
@@ -2136,7 +2930,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>104</v>
@@ -2189,7 +2983,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2354,7 +3148,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>103</v>
@@ -2426,7 +3220,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2611,7 +3405,7 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B61" s="12" t="s">
         <v>103</v>
@@ -2785,7 +3579,7 @@
         <v>0</v>
       </c>
       <c r="D77" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -2812,7 +3606,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B80" t="s">
         <v>103</v>
@@ -2823,7 +3617,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B81" t="s">
         <v>104</v>
@@ -2938,7 +3732,7 @@
         <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -2970,11 +3764,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42B4652-1939-4CCD-AEEB-1868D449AB6E}">
-  <dimension ref="A1:M89"/>
+  <dimension ref="A1:O89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L36" sqref="L36:M36"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2991,9 +3785,11 @@
     <col min="11" max="11" width="34.7109375" customWidth="1"/>
     <col min="12" max="12" width="37.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.28515625" customWidth="1"/>
+    <col min="15" max="15" width="26.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>27</v>
       </c>
@@ -3033,8 +3829,14 @@
       <c r="M1" s="3" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N1" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="11" t="s">
         <v>12</v>
@@ -3043,19 +3845,20 @@
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="H3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="D4" s="11" t="s">
         <v>132</v>
@@ -3069,14 +3872,15 @@
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
-    </row>
-    <row r="5" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N4"/>
+    </row>
+    <row r="5" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="D5" s="11" t="s">
         <v>132</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>308</v>
@@ -3084,14 +3888,15 @@
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
-    </row>
-    <row r="6" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N5"/>
+    </row>
+    <row r="6" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="D6" s="11" t="s">
         <v>104</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>331</v>
@@ -3103,8 +3908,9 @@
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
-    </row>
-    <row r="7" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N6"/>
+    </row>
+    <row r="7" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="11" t="s">
         <v>13</v>
@@ -3115,8 +3921,9 @@
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" t="s">
         <v>80</v>
@@ -3125,23 +3932,23 @@
         <v>328</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>28</v>
       </c>
       <c r="G10" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="H10" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>29</v>
       </c>
@@ -3149,22 +3956,22 @@
         <v>365</v>
       </c>
       <c r="G11" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="H11" t="s">
         <v>245</v>
       </c>
       <c r="K11" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="L11" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="M11" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>235</v>
       </c>
@@ -3175,7 +3982,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>80</v>
       </c>
@@ -3183,7 +3990,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>132</v>
       </c>
@@ -3194,7 +4001,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>81</v>
       </c>
@@ -3220,10 +4027,10 @@
         <v>28</v>
       </c>
       <c r="G20" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="H20" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -3237,10 +4044,10 @@
         <v>327</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="H21" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -3258,10 +4065,10 @@
         <v>28</v>
       </c>
       <c r="G24" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="H24" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -3328,10 +4135,10 @@
         <v>28</v>
       </c>
       <c r="G32" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="H32" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
@@ -3339,7 +4146,7 @@
         <v>28</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="H33" t="s">
         <v>40</v>
@@ -3359,13 +4166,13 @@
         <v>42</v>
       </c>
       <c r="K34" t="s">
-        <v>379</v>
+        <v>438</v>
       </c>
       <c r="L34" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="M34" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
@@ -3390,13 +4197,13 @@
         <v>41</v>
       </c>
       <c r="K36" t="s">
-        <v>380</v>
+        <v>437</v>
       </c>
       <c r="L36" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="M36" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
@@ -3419,10 +4226,10 @@
         <v>28</v>
       </c>
       <c r="G40" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="H40" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
@@ -3527,10 +4334,10 @@
         <v>28</v>
       </c>
       <c r="G52" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="H52" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
@@ -3538,7 +4345,7 @@
         <v>28</v>
       </c>
       <c r="G53" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="H53" t="s">
         <v>43</v>
@@ -3635,24 +4442,24 @@
         <v>28</v>
       </c>
       <c r="G64" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="H64" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
         <v>28</v>
       </c>
       <c r="G65" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="H65" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
         <v>29</v>
       </c>
@@ -3666,7 +4473,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
         <v>235</v>
       </c>
@@ -3677,7 +4484,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>80</v>
       </c>
@@ -3685,7 +4492,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
         <v>132</v>
       </c>
@@ -3696,12 +4503,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>80</v>
       </c>
@@ -3709,7 +4516,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
         <v>29</v>
       </c>
@@ -3723,17 +4530,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>80</v>
       </c>
@@ -3741,23 +4548,23 @@
         <v>323</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
         <v>28</v>
       </c>
       <c r="G77" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="H77" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
         <v>104</v>
       </c>
@@ -3765,93 +4572,99 @@
         <v>329</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="H78" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N78" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
         <v>28</v>
       </c>
       <c r="G82" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="H82" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
         <v>28</v>
       </c>
       <c r="G83" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="H83" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="84" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D84" t="s">
         <v>98</v>
       </c>
       <c r="E84" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="O84" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D87" t="s">
         <v>28</v>
       </c>
       <c r="G87" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="H87" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
         <v>103</v>
       </c>
       <c r="F88" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="G88" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="H88" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>13</v>
       </c>
@@ -3864,11 +4677,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51D9F90A-DED8-4B84-AE76-A32853D141F5}">
-  <dimension ref="A1:M95"/>
+  <dimension ref="A1:N95"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L46" sqref="L46:M46"/>
+      <selection pane="bottomLeft" activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3886,9 +4699,10 @@
     <col min="11" max="11" width="38.140625" customWidth="1"/>
     <col min="12" max="12" width="37.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>27</v>
       </c>
@@ -3928,8 +4742,11 @@
       <c r="M1" s="3" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N1" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="12" t="s">
         <v>12</v>
@@ -3940,19 +4757,20 @@
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="H3" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="D4" s="11" t="s">
         <v>25</v>
@@ -3973,8 +4791,9 @@
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
-    </row>
-    <row r="5" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N4"/>
+    </row>
+    <row r="5" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
         <v>13</v>
@@ -3985,8 +4804,9 @@
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
-    </row>
-    <row r="6" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N5"/>
+    </row>
+    <row r="6" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="11" t="s">
         <v>80</v>
@@ -4000,8 +4820,9 @@
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
-    </row>
-    <row r="7" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N6"/>
+    </row>
+    <row r="7" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="12" t="s">
         <v>370</v>
@@ -4012,8 +4833,9 @@
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
-    </row>
-    <row r="8" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N7"/>
+    </row>
+    <row r="8" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="12" t="s">
         <v>81</v>
@@ -4024,8 +4846,9 @@
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
-    </row>
-    <row r="9" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N8"/>
+    </row>
+    <row r="9" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="12" t="s">
         <v>80</v>
@@ -4039,8 +4862,9 @@
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
-    </row>
-    <row r="10" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N9"/>
+    </row>
+    <row r="10" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="11" t="s">
         <v>12</v>
@@ -4049,19 +4873,20 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="H11" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="D12" s="11" t="s">
         <v>132</v>
@@ -4075,8 +4900,9 @@
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
-    </row>
-    <row r="13" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N12"/>
+    </row>
+    <row r="13" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="D13" s="11" t="s">
         <v>104</v>
@@ -4094,8 +4920,9 @@
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
-    </row>
-    <row r="14" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N13"/>
+    </row>
+    <row r="14" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="11" t="s">
         <v>13</v>
@@ -4106,13 +4933,14 @@
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>25</v>
       </c>
@@ -4153,10 +4981,10 @@
         <v>28</v>
       </c>
       <c r="G20" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="H20" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -4167,19 +4995,19 @@
         <v>362</v>
       </c>
       <c r="G21" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="H21" t="s">
         <v>245</v>
       </c>
       <c r="K21" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="L21" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="M21" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -4238,10 +5066,10 @@
         <v>28</v>
       </c>
       <c r="G30" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="H30" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -4255,10 +5083,10 @@
         <v>342</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="H31" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -4276,10 +5104,10 @@
         <v>28</v>
       </c>
       <c r="G34" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="H34" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
@@ -4346,10 +5174,10 @@
         <v>28</v>
       </c>
       <c r="G42" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="H42" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
@@ -4357,7 +5185,7 @@
         <v>28</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="H43" t="s">
         <v>40</v>
@@ -4377,13 +5205,13 @@
         <v>42</v>
       </c>
       <c r="K44" t="s">
-        <v>381</v>
+        <v>435</v>
       </c>
       <c r="L44" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="M44" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
@@ -4408,13 +5236,13 @@
         <v>41</v>
       </c>
       <c r="K46" t="s">
-        <v>382</v>
+        <v>436</v>
       </c>
       <c r="L46" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="M46" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
@@ -4437,10 +5265,10 @@
         <v>28</v>
       </c>
       <c r="G50" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="H50" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
@@ -4545,10 +5373,10 @@
         <v>28</v>
       </c>
       <c r="G62" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="H62" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
@@ -4556,7 +5384,7 @@
         <v>28</v>
       </c>
       <c r="G63" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="H63" t="s">
         <v>43</v>
@@ -4653,10 +5481,10 @@
         <v>28</v>
       </c>
       <c r="G74" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="H74" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
@@ -4664,7 +5492,7 @@
         <v>28</v>
       </c>
       <c r="G75" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="H75" t="s">
         <v>44</v>
@@ -4719,7 +5547,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>80</v>
       </c>
@@ -4727,7 +5555,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
         <v>29</v>
       </c>
@@ -4741,17 +5569,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>80</v>
       </c>
@@ -4759,23 +5587,23 @@
         <v>346</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D87" t="s">
         <v>28</v>
       </c>
       <c r="G87" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="H87" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
         <v>104</v>
       </c>
@@ -4783,58 +5611,61 @@
         <v>360</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="H88" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="N88" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D92" t="s">
         <v>28</v>
       </c>
       <c r="G92" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="H92" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D93" t="s">
         <v>103</v>
       </c>
       <c r="F93" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="G93" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="H93" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="20"/>
       <c r="B95" t="s">
         <v>81</v>
@@ -4847,11 +5678,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D665D096-BD70-4F59-A80B-B0F9CAA299C4}">
-  <dimension ref="A1:M162"/>
+  <dimension ref="A1:N162"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L19" sqref="L19"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4869,9 +5700,10 @@
     <col min="11" max="11" width="34.85546875" customWidth="1"/>
     <col min="12" max="12" width="37.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
@@ -4911,8 +5743,11 @@
       <c r="M1" s="2" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N1" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="11" t="s">
         <v>12</v>
@@ -4922,18 +5757,18 @@
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="H3" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="D4" s="11" t="s">
         <v>132</v>
@@ -4948,7 +5783,7 @@
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
     </row>
-    <row r="5" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="D5" s="11" t="s">
         <v>104</v>
@@ -4967,7 +5802,7 @@
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
     </row>
-    <row r="6" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="11" t="s">
         <v>13</v>
@@ -4979,23 +5814,23 @@
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="H8" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>25</v>
       </c>
@@ -5012,7 +5847,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>80</v>
       </c>
@@ -5020,7 +5855,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>25</v>
       </c>
@@ -5037,12 +5872,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>80</v>
       </c>
@@ -5050,7 +5885,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>132</v>
       </c>
@@ -5061,12 +5896,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>132</v>
       </c>
@@ -5097,10 +5932,10 @@
         <v>28</v>
       </c>
       <c r="G20" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="H20" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -5114,7 +5949,7 @@
         <v>116</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="H21" t="s">
         <v>246</v>
@@ -5135,10 +5970,10 @@
         <v>28</v>
       </c>
       <c r="G24" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="H24" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -5149,19 +5984,19 @@
         <v>117</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="H25" t="s">
         <v>247</v>
       </c>
       <c r="K25" t="s">
-        <v>373</v>
+        <v>439</v>
       </c>
       <c r="L25" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="M25" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -5188,10 +6023,10 @@
         <v>28</v>
       </c>
       <c r="G29" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="H29" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -5273,10 +6108,10 @@
         <v>28</v>
       </c>
       <c r="G39" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="H39" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -5308,10 +6143,10 @@
         <v>28</v>
       </c>
       <c r="G43" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="H43" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -5346,10 +6181,10 @@
         <v>28</v>
       </c>
       <c r="G47" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="H47" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -5384,10 +6219,10 @@
         <v>28</v>
       </c>
       <c r="G51" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="H51" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
@@ -5401,10 +6236,10 @@
         <v>141</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="H52" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
@@ -5423,10 +6258,10 @@
         <v>143</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="H54" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
@@ -5449,10 +6284,10 @@
         <v>28</v>
       </c>
       <c r="G58" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="H58" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
@@ -5460,7 +6295,7 @@
         <v>28</v>
       </c>
       <c r="G59" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="H59" t="s">
         <v>45</v>
@@ -5557,10 +6392,10 @@
         <v>28</v>
       </c>
       <c r="G70" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="H70" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
@@ -5568,7 +6403,7 @@
         <v>28</v>
       </c>
       <c r="G71" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="H71" t="s">
         <v>43</v>
@@ -5665,10 +6500,10 @@
         <v>28</v>
       </c>
       <c r="G82" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="H82" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
@@ -5676,7 +6511,7 @@
         <v>28</v>
       </c>
       <c r="G83" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="H83" t="s">
         <v>44</v>
@@ -5773,10 +6608,10 @@
         <v>28</v>
       </c>
       <c r="G94" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="H94" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
@@ -5793,7 +6628,7 @@
         <v>152</v>
       </c>
       <c r="H95" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
@@ -5811,10 +6646,10 @@
         <v>28</v>
       </c>
       <c r="G98" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="H98" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -5862,10 +6697,10 @@
         <v>28</v>
       </c>
       <c r="G103" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="H103" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
@@ -5989,10 +6824,10 @@
         <v>28</v>
       </c>
       <c r="G114" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="H114" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
@@ -6037,10 +6872,10 @@
         <v>28</v>
       </c>
       <c r="G119" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="H119" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
@@ -6055,7 +6890,7 @@
         <v>282</v>
       </c>
       <c r="G120" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="H120" t="s">
         <v>283</v>
@@ -6079,7 +6914,7 @@
         <v>285</v>
       </c>
       <c r="G122" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="H122" t="s">
         <v>286</v>
@@ -6113,10 +6948,10 @@
         <v>28</v>
       </c>
       <c r="G127" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="H127" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
@@ -6136,12 +6971,12 @@
         <v>252</v>
       </c>
     </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>80</v>
       </c>
@@ -6149,23 +6984,23 @@
         <v>225</v>
       </c>
     </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D132" t="s">
         <v>28</v>
       </c>
       <c r="G132" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="H132" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D133" t="s">
         <v>28</v>
       </c>
@@ -6176,7 +7011,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D134" t="s">
         <v>98</v>
       </c>
@@ -6184,14 +7019,17 @@
         <v>226</v>
       </c>
       <c r="G134" s="9"/>
-    </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="N134" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>13</v>
       </c>
       <c r="G135" s="9"/>
     </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>80</v>
       </c>
@@ -6200,24 +7038,24 @@
       </c>
       <c r="G136" s="9"/>
     </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>12</v>
       </c>
       <c r="G137" s="9"/>
     </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D138" t="s">
         <v>28</v>
       </c>
       <c r="G138" s="9" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="H138" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D139" t="s">
         <v>28</v>
       </c>
@@ -6228,7 +7066,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D140" t="s">
         <v>98</v>
       </c>
@@ -6236,14 +7074,17 @@
         <v>226</v>
       </c>
       <c r="G140" s="9"/>
-    </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="N140" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>13</v>
       </c>
       <c r="G141" s="9"/>
     </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>80</v>
       </c>
@@ -6252,24 +7093,24 @@
       </c>
       <c r="G142" s="9"/>
     </row>
-    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>12</v>
       </c>
       <c r="G143" s="9"/>
     </row>
-    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D144" t="s">
         <v>28</v>
       </c>
       <c r="G144" s="9" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="H144" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D145" t="s">
         <v>28</v>
       </c>
@@ -6280,7 +7121,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D146" t="s">
         <v>98</v>
       </c>
@@ -6288,14 +7129,17 @@
         <v>226</v>
       </c>
       <c r="G146" s="9"/>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="N146" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>13</v>
       </c>
       <c r="G147" s="9"/>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
         <v>80</v>
       </c>
@@ -6304,24 +7148,24 @@
       </c>
       <c r="G148" s="9"/>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>12</v>
       </c>
       <c r="G149" s="9"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D150" t="s">
         <v>28</v>
       </c>
       <c r="G150" s="9" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="H150" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D151" t="s">
         <v>28</v>
       </c>
@@ -6332,59 +7176,62 @@
         <v>243</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D152" t="s">
         <v>98</v>
       </c>
       <c r="E152" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="N152" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" s="23"/>
       <c r="B158" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D160" t="s">
         <v>28</v>
       </c>
       <c r="G160" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="H160" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="161" spans="2:8" x14ac:dyDescent="0.25">
@@ -6392,13 +7239,13 @@
         <v>103</v>
       </c>
       <c r="F161" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G161" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="H161" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="162" spans="2:8" x14ac:dyDescent="0.25">
@@ -6417,7 +7264,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6428,7 +7275,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>26</v>
@@ -6436,10 +7283,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -6552,7 +7399,7 @@
         <v>229</v>
       </c>
       <c r="G3" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>99</v>
@@ -6664,767 +7511,44 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF3D0A7-17A8-4B35-89BF-E7F3088D1597}">
-  <dimension ref="A1:D51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F400C0F-2F8A-4940-8B8F-D3223CEC21CC}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="B2" s="13" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="B3" s="13" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="B4" s="13" t="str">
-        <f>"3"</f>
-        <v>3</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" t="str">
-        <f>"3"</f>
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" t="str">
-        <f>"4"</f>
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" t="str">
-        <f>"5"</f>
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" t="str">
-        <f>"7"</f>
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>337</v>
-      </c>
-      <c r="D10" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="B18" s="13" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="B19" s="13" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="B20" s="13" t="str">
-        <f>"3"</f>
-        <v>3</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="B21" s="13" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="B22" s="13" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="B23" s="13" t="str">
-        <f>"3"</f>
-        <v>3</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="B24" s="13" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="B25" s="13" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="B26" s="13" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="B27" s="13" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="B28" s="13" t="str">
-        <f>"3"</f>
-        <v>3</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="B29" s="13" t="str">
-        <f>"4"</f>
-        <v>4</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="B30" s="13" t="str">
-        <f>"5"</f>
-        <v>5</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="B31" s="13" t="str">
-        <f>"88"</f>
-        <v>88</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="B32" s="13" t="str">
-        <f>"99"</f>
-        <v>99</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>153</v>
-      </c>
-      <c r="B38" t="s">
-        <v>267</v>
-      </c>
-      <c r="C38" t="s">
-        <v>268</v>
-      </c>
-      <c r="D38" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>156</v>
-      </c>
-      <c r="B39" t="s">
-        <v>195</v>
-      </c>
-      <c r="C39" t="s">
-        <v>196</v>
-      </c>
-      <c r="D39" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>156</v>
-      </c>
-      <c r="B40" t="s">
-        <v>197</v>
-      </c>
-      <c r="C40" t="s">
-        <v>198</v>
-      </c>
-      <c r="D40" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>156</v>
-      </c>
-      <c r="B41" t="s">
-        <v>200</v>
-      </c>
-      <c r="C41" t="s">
-        <v>201</v>
-      </c>
-      <c r="D41" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>156</v>
-      </c>
-      <c r="B42" t="s">
-        <v>203</v>
-      </c>
-      <c r="C42" t="s">
-        <v>204</v>
-      </c>
-      <c r="D42" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>156</v>
-      </c>
-      <c r="B43" t="s">
-        <v>206</v>
-      </c>
-      <c r="C43" t="s">
-        <v>207</v>
-      </c>
-      <c r="D43" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>156</v>
-      </c>
-      <c r="B44" t="s">
-        <v>209</v>
-      </c>
-      <c r="C44" t="s">
-        <v>210</v>
-      </c>
-      <c r="D44" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>156</v>
-      </c>
-      <c r="B45" t="s">
-        <v>212</v>
-      </c>
-      <c r="C45" t="s">
-        <v>213</v>
-      </c>
-      <c r="D45" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>156</v>
-      </c>
-      <c r="B46" t="s">
-        <v>266</v>
-      </c>
-      <c r="C46" t="s">
-        <v>215</v>
-      </c>
-      <c r="D46" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>156</v>
-      </c>
-      <c r="B47" t="s">
-        <v>267</v>
-      </c>
-      <c r="C47" t="s">
-        <v>268</v>
-      </c>
-      <c r="D47" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="B48" s="13" t="str">
-        <f>"555"</f>
-        <v>555</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>256</v>
-      </c>
-      <c r="B49" t="str">
-        <f>"99"</f>
-        <v>99</v>
-      </c>
-      <c r="C49" t="s">
-        <v>78</v>
-      </c>
-      <c r="D49" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>294</v>
-      </c>
-      <c r="B50" t="str">
-        <f>"8888"</f>
-        <v>8888</v>
-      </c>
-      <c r="C50" t="s">
-        <v>295</v>
-      </c>
-      <c r="D50" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>294</v>
-      </c>
-      <c r="B51" t="str">
-        <f>"9999"</f>
-        <v>9999</v>
-      </c>
-      <c r="C51" t="s">
-        <v>78</v>
-      </c>
-      <c r="D51" t="s">
-        <v>79</v>
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C2" t="s">
+        <v>445</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/app/config/tables/GRAVIDA/forms/GRAVIDA/GRAVIDA.xlsx
+++ b/app/config/tables/GRAVIDA/forms/GRAVIDA/GRAVIDA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1930E36-C9A5-4299-B18A-FB585B5C6EFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B796CE83-B8FE-41C4-AC60-E2204D746159}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="700" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="449">
   <si>
     <t>setting_name</t>
   </si>
@@ -1231,24 +1231,6 @@
     <t>&lt;b&gt;Registro de gravidez: {{data.nome}} - Nas: {{calculates.displayMifdnasc}}&lt;b&gt;</t>
   </si>
   <si>
-    <t>&lt;b&gt;2nd pregnancy visit: {{data.nome}} - Dob: {{calculates.displayMifdnasc}}&lt;b&gt;</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;2ª visita de gravidez: {{data.nome}} - Nas: {{calculates.displayMifdnasc}}&lt;b&gt;</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Pregnancy visit: {{data.nome}} - Dob: {{calculates.displayMifdnasc}}&lt;b&gt;</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Visita de gravidez: {{data.nome}} - Nas: {{calculates.displayMifdnasc}}&lt;b&gt;</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;After childbirth: {{data.nome}} - Dob: {{calculates.displayMifdnasc}}&lt;b&gt;</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Depois de parto: {{data.nome}} - Nas: {{calculates.displayMifdnasc}}&lt;b&gt;</t>
-  </si>
-  <si>
     <t>Maternal middle upper arm circumference</t>
   </si>
   <si>
@@ -1388,6 +1370,30 @@
   </si>
   <si>
     <t>display.hide_delete_button</t>
+  </si>
+  <si>
+    <t>adate.display(data('REGDIA'))</t>
+  </si>
+  <si>
+    <t>displayREGDIA</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Pregnancy visit: {{data.nome}} - Dob: {{calculates.displayREGDIA}}&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Visita de gravidez: {{data.nome}} - Nas: {{calculates.displayREGDIA}}&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;2nd pregnancy visit: {{data.nome}} - Dob: {{calculates.displayREGDIA}}&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;2ª visita de gravidez: {{data.nome}} - Nas: {{calculates.displayREGDIA}}&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;After childbirth: {{data.nome}} - Dob: {{calculates.displayREGDIA}}&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Depois de parto: {{data.nome}} - Nas: {{calculates.displayREGDIA}}&lt;b&gt;</t>
   </si>
 </sst>
 </file>
@@ -2720,9 +2726,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
   <dimension ref="A1:N83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A81" sqref="A81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3766,9 +3772,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42B4652-1939-4CCD-AEEB-1868D449AB6E}">
   <dimension ref="A1:O89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O1" sqref="O1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3830,10 +3836,10 @@
         <v>300</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3956,19 +3962,19 @@
         <v>365</v>
       </c>
       <c r="G11" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="H11" t="s">
         <v>245</v>
       </c>
       <c r="K11" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="L11" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="M11" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -4044,10 +4050,10 @@
         <v>327</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="H21" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -4146,7 +4152,7 @@
         <v>28</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H33" t="s">
         <v>40</v>
@@ -4166,13 +4172,13 @@
         <v>42</v>
       </c>
       <c r="K34" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="L34" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="M34" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
@@ -4197,13 +4203,13 @@
         <v>41</v>
       </c>
       <c r="K36" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="L36" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="M36" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
@@ -4345,7 +4351,7 @@
         <v>28</v>
       </c>
       <c r="G53" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="H53" t="s">
         <v>43</v>
@@ -4453,7 +4459,7 @@
         <v>28</v>
       </c>
       <c r="G65" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="H65" t="s">
         <v>44</v>
@@ -4572,13 +4578,13 @@
         <v>329</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="H78" t="s">
         <v>46</v>
       </c>
       <c r="N78" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="79" spans="2:14" x14ac:dyDescent="0.25">
@@ -4612,10 +4618,10 @@
         <v>28</v>
       </c>
       <c r="G83" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="H83" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="84" spans="2:15" x14ac:dyDescent="0.25">
@@ -4658,10 +4664,10 @@
         <v>383</v>
       </c>
       <c r="G88" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="H88" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="89" spans="2:15" x14ac:dyDescent="0.25">
@@ -4681,7 +4687,7 @@
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K46" sqref="K46"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4743,7 +4749,7 @@
         <v>300</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -4764,10 +4770,10 @@
         <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>396</v>
+        <v>443</v>
       </c>
       <c r="H3" t="s">
-        <v>397</v>
+        <v>444</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -4880,10 +4886,10 @@
         <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>394</v>
+        <v>445</v>
       </c>
       <c r="H11" t="s">
-        <v>395</v>
+        <v>446</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -4981,10 +4987,10 @@
         <v>28</v>
       </c>
       <c r="G20" t="s">
-        <v>394</v>
+        <v>445</v>
       </c>
       <c r="H20" t="s">
-        <v>395</v>
+        <v>446</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -4995,19 +5001,19 @@
         <v>362</v>
       </c>
       <c r="G21" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="H21" t="s">
         <v>245</v>
       </c>
       <c r="K21" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="L21" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="M21" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -5066,10 +5072,10 @@
         <v>28</v>
       </c>
       <c r="G30" t="s">
-        <v>394</v>
+        <v>445</v>
       </c>
       <c r="H30" t="s">
-        <v>395</v>
+        <v>446</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -5083,10 +5089,10 @@
         <v>342</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="H31" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -5104,10 +5110,10 @@
         <v>28</v>
       </c>
       <c r="G34" t="s">
-        <v>394</v>
+        <v>445</v>
       </c>
       <c r="H34" t="s">
-        <v>395</v>
+        <v>446</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
@@ -5174,10 +5180,10 @@
         <v>28</v>
       </c>
       <c r="G42" t="s">
-        <v>394</v>
+        <v>445</v>
       </c>
       <c r="H42" t="s">
-        <v>395</v>
+        <v>446</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
@@ -5185,7 +5191,7 @@
         <v>28</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H43" t="s">
         <v>40</v>
@@ -5205,13 +5211,13 @@
         <v>42</v>
       </c>
       <c r="K44" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="L44" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="M44" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
@@ -5236,13 +5242,13 @@
         <v>41</v>
       </c>
       <c r="K46" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="L46" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="M46" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
@@ -5265,10 +5271,10 @@
         <v>28</v>
       </c>
       <c r="G50" t="s">
-        <v>394</v>
+        <v>445</v>
       </c>
       <c r="H50" t="s">
-        <v>395</v>
+        <v>446</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
@@ -5373,10 +5379,10 @@
         <v>28</v>
       </c>
       <c r="G62" t="s">
-        <v>394</v>
+        <v>445</v>
       </c>
       <c r="H62" t="s">
-        <v>395</v>
+        <v>446</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
@@ -5384,7 +5390,7 @@
         <v>28</v>
       </c>
       <c r="G63" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="H63" t="s">
         <v>43</v>
@@ -5481,10 +5487,10 @@
         <v>28</v>
       </c>
       <c r="G74" t="s">
-        <v>394</v>
+        <v>445</v>
       </c>
       <c r="H74" t="s">
-        <v>395</v>
+        <v>446</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
@@ -5492,7 +5498,7 @@
         <v>28</v>
       </c>
       <c r="G75" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="H75" t="s">
         <v>44</v>
@@ -5597,10 +5603,10 @@
         <v>28</v>
       </c>
       <c r="G87" t="s">
-        <v>394</v>
+        <v>445</v>
       </c>
       <c r="H87" t="s">
-        <v>395</v>
+        <v>446</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
@@ -5611,13 +5617,13 @@
         <v>360</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="H88" t="s">
         <v>46</v>
       </c>
       <c r="N88" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
@@ -5640,10 +5646,10 @@
         <v>28</v>
       </c>
       <c r="G92" t="s">
-        <v>394</v>
+        <v>445</v>
       </c>
       <c r="H92" t="s">
-        <v>395</v>
+        <v>446</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
@@ -5654,10 +5660,10 @@
         <v>384</v>
       </c>
       <c r="G93" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="H93" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
@@ -5680,9 +5686,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D665D096-BD70-4F59-A80B-B0F9CAA299C4}">
   <dimension ref="A1:N162"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N1" sqref="N1"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5744,7 +5750,7 @@
         <v>300</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -5762,10 +5768,10 @@
         <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>398</v>
+        <v>447</v>
       </c>
       <c r="H3" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -5824,10 +5830,10 @@
         <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>398</v>
+        <v>447</v>
       </c>
       <c r="H8" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -5932,10 +5938,10 @@
         <v>28</v>
       </c>
       <c r="G20" t="s">
-        <v>398</v>
+        <v>447</v>
       </c>
       <c r="H20" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -5949,7 +5955,7 @@
         <v>116</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="H21" t="s">
         <v>246</v>
@@ -5970,10 +5976,10 @@
         <v>28</v>
       </c>
       <c r="G24" t="s">
-        <v>398</v>
+        <v>447</v>
       </c>
       <c r="H24" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -5984,19 +5990,19 @@
         <v>117</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="H25" t="s">
         <v>247</v>
       </c>
       <c r="K25" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="L25" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="M25" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -6023,10 +6029,10 @@
         <v>28</v>
       </c>
       <c r="G29" t="s">
-        <v>398</v>
+        <v>447</v>
       </c>
       <c r="H29" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -6108,10 +6114,10 @@
         <v>28</v>
       </c>
       <c r="G39" t="s">
-        <v>398</v>
+        <v>447</v>
       </c>
       <c r="H39" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -6143,10 +6149,10 @@
         <v>28</v>
       </c>
       <c r="G43" t="s">
-        <v>398</v>
+        <v>447</v>
       </c>
       <c r="H43" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -6181,10 +6187,10 @@
         <v>28</v>
       </c>
       <c r="G47" t="s">
-        <v>398</v>
+        <v>447</v>
       </c>
       <c r="H47" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -6219,10 +6225,10 @@
         <v>28</v>
       </c>
       <c r="G51" t="s">
-        <v>398</v>
+        <v>447</v>
       </c>
       <c r="H51" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
@@ -6236,10 +6242,10 @@
         <v>141</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="H52" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
@@ -6258,10 +6264,10 @@
         <v>143</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="H54" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
@@ -6284,10 +6290,10 @@
         <v>28</v>
       </c>
       <c r="G58" t="s">
-        <v>398</v>
+        <v>447</v>
       </c>
       <c r="H58" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
@@ -6295,7 +6301,7 @@
         <v>28</v>
       </c>
       <c r="G59" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="H59" t="s">
         <v>45</v>
@@ -6392,10 +6398,10 @@
         <v>28</v>
       </c>
       <c r="G70" t="s">
-        <v>398</v>
+        <v>447</v>
       </c>
       <c r="H70" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
@@ -6403,7 +6409,7 @@
         <v>28</v>
       </c>
       <c r="G71" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="H71" t="s">
         <v>43</v>
@@ -6500,10 +6506,10 @@
         <v>28</v>
       </c>
       <c r="G82" t="s">
-        <v>398</v>
+        <v>447</v>
       </c>
       <c r="H82" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
@@ -6511,7 +6517,7 @@
         <v>28</v>
       </c>
       <c r="G83" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="H83" t="s">
         <v>44</v>
@@ -6608,10 +6614,10 @@
         <v>28</v>
       </c>
       <c r="G94" t="s">
-        <v>398</v>
+        <v>447</v>
       </c>
       <c r="H94" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
@@ -6628,7 +6634,7 @@
         <v>152</v>
       </c>
       <c r="H95" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
@@ -6646,10 +6652,10 @@
         <v>28</v>
       </c>
       <c r="G98" t="s">
-        <v>398</v>
+        <v>447</v>
       </c>
       <c r="H98" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -6697,10 +6703,10 @@
         <v>28</v>
       </c>
       <c r="G103" t="s">
-        <v>398</v>
+        <v>447</v>
       </c>
       <c r="H103" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
@@ -6824,10 +6830,10 @@
         <v>28</v>
       </c>
       <c r="G114" t="s">
-        <v>398</v>
+        <v>447</v>
       </c>
       <c r="H114" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
@@ -6872,10 +6878,10 @@
         <v>28</v>
       </c>
       <c r="G119" t="s">
-        <v>398</v>
+        <v>447</v>
       </c>
       <c r="H119" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
@@ -6890,7 +6896,7 @@
         <v>282</v>
       </c>
       <c r="G120" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="H120" t="s">
         <v>283</v>
@@ -6914,7 +6920,7 @@
         <v>285</v>
       </c>
       <c r="G122" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="H122" t="s">
         <v>286</v>
@@ -6948,10 +6954,10 @@
         <v>28</v>
       </c>
       <c r="G127" t="s">
-        <v>398</v>
+        <v>447</v>
       </c>
       <c r="H127" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
@@ -6994,10 +7000,10 @@
         <v>28</v>
       </c>
       <c r="G132" t="s">
-        <v>398</v>
+        <v>447</v>
       </c>
       <c r="H132" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
     </row>
     <row r="133" spans="2:14" x14ac:dyDescent="0.25">
@@ -7049,10 +7055,10 @@
         <v>28</v>
       </c>
       <c r="G138" s="9" t="s">
-        <v>398</v>
+        <v>447</v>
       </c>
       <c r="H138" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
     </row>
     <row r="139" spans="2:14" x14ac:dyDescent="0.25">
@@ -7104,10 +7110,10 @@
         <v>28</v>
       </c>
       <c r="G144" s="9" t="s">
-        <v>398</v>
+        <v>447</v>
       </c>
       <c r="H144" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
@@ -7159,10 +7165,10 @@
         <v>28</v>
       </c>
       <c r="G150" s="9" t="s">
-        <v>398</v>
+        <v>447</v>
       </c>
       <c r="H150" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
@@ -7228,10 +7234,10 @@
         <v>28</v>
       </c>
       <c r="G160" t="s">
-        <v>398</v>
+        <v>447</v>
       </c>
       <c r="H160" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
     </row>
     <row r="161" spans="2:8" x14ac:dyDescent="0.25">
@@ -7242,10 +7248,10 @@
         <v>385</v>
       </c>
       <c r="G161" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="H161" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="162" spans="2:8" x14ac:dyDescent="0.25">
@@ -7260,11 +7266,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3979F510-C769-4227-AA22-F1F6C93E2BBE}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7287,6 +7293,14 @@
       </c>
       <c r="B2" s="17" t="s">
         <v>389</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>442</v>
+      </c>
+      <c r="B3" t="s">
+        <v>441</v>
       </c>
     </row>
   </sheetData>
@@ -7528,24 +7542,24 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B2" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="C2" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/GRAVIDA/forms/GRAVIDA/GRAVIDA.xlsx
+++ b/app/config/tables/GRAVIDA/forms/GRAVIDA/GRAVIDA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B796CE83-B8FE-41C4-AC60-E2204D746159}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84AF57B1-E6F2-423E-8471-CDAE677532D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="700" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="700" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,13 @@
     <sheet name="1stvisit" sheetId="7" r:id="rId3"/>
     <sheet name="2ndvisit" sheetId="8" r:id="rId4"/>
     <sheet name="parto" sheetId="9" r:id="rId5"/>
-    <sheet name="calculates" sheetId="10" r:id="rId6"/>
-    <sheet name="queries" sheetId="6" r:id="rId7"/>
-    <sheet name="prompt_types" sheetId="5" r:id="rId8"/>
-    <sheet name="table_specific_translations" sheetId="11" r:id="rId9"/>
-    <sheet name="choices" sheetId="3" r:id="rId10"/>
-    <sheet name="model" sheetId="4" r:id="rId11"/>
+    <sheet name="ses" sheetId="12" r:id="rId6"/>
+    <sheet name="calculates" sheetId="10" r:id="rId7"/>
+    <sheet name="queries" sheetId="6" r:id="rId8"/>
+    <sheet name="prompt_types" sheetId="5" r:id="rId9"/>
+    <sheet name="table_specific_translations" sheetId="11" r:id="rId10"/>
+    <sheet name="choices" sheetId="3" r:id="rId11"/>
+    <sheet name="model" sheetId="4" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="555">
   <si>
     <t>setting_name</t>
   </si>
@@ -245,12 +246,6 @@
     <t>NVC</t>
   </si>
   <si>
-    <t>Not brought card</t>
-  </si>
-  <si>
-    <t>Não trouxe o cartão</t>
-  </si>
-  <si>
     <t>PC</t>
   </si>
   <si>
@@ -263,9 +258,6 @@
     <t>VCN</t>
   </si>
   <si>
-    <t>Card seen and ANCs</t>
-  </si>
-  <si>
     <t>Cartão visto, mas sem consultas registadas</t>
   </si>
   <si>
@@ -455,9 +447,6 @@
     <t>GRCONS</t>
   </si>
   <si>
-    <t>Did the woman seek consultations during pregnancy?</t>
-  </si>
-  <si>
     <t>CART_ANC</t>
   </si>
   <si>
@@ -701,9 +690,6 @@
     <t>Não</t>
   </si>
   <si>
-    <t>SES</t>
-  </si>
-  <si>
     <t>ses</t>
   </si>
   <si>
@@ -728,9 +714,6 @@
     <t>[opendatakit.getCurrentInstanceId()]</t>
   </si>
   <si>
-    <t>{PREGID: opendatakit.getCurrentInstanceId(), REGID: data('REGID'), SESDATA: data('PREGDIA')}</t>
-  </si>
-  <si>
     <t>Registration of 1st child</t>
   </si>
   <si>
@@ -749,9 +732,6 @@
     <t>muac</t>
   </si>
   <si>
-    <t>More than 342 cm</t>
-  </si>
-  <si>
     <t>data('LITTERSIZE') &gt;='3'</t>
   </si>
   <si>
@@ -788,9 +768,6 @@
     <t>Número do nascimento da criança</t>
   </si>
   <si>
-    <t>A mulher procurou consultas durante a gravidez?</t>
-  </si>
-  <si>
     <t>Onde é que a mulher deu à luz?</t>
   </si>
   <si>
@@ -800,9 +777,6 @@
     <t>Outro lugar</t>
   </si>
   <si>
-    <t>Mais do que 342 cm</t>
-  </si>
-  <si>
     <t>Gestation month</t>
   </si>
   <si>
@@ -818,19 +792,10 @@
     <t>cdg_mns</t>
   </si>
   <si>
-    <t>data('cdg_mns') != null</t>
-  </si>
-  <si>
     <t>fedep_mns</t>
   </si>
   <si>
-    <t>data('fedep_mns') != null</t>
-  </si>
-  <si>
     <t>qvfansi_mns</t>
-  </si>
-  <si>
-    <t>data('qvfansi_mns') != null</t>
   </si>
   <si>
     <t>Medico</t>
@@ -988,9 +953,6 @@
     <t>qc1_mns</t>
   </si>
   <si>
-    <t>data('qc1_mns') != null</t>
-  </si>
-  <si>
     <t>QC1_C</t>
   </si>
   <si>
@@ -1000,9 +962,6 @@
     <t>fer1_mns</t>
   </si>
   <si>
-    <t>data('fer1_mns') != null</t>
-  </si>
-  <si>
     <t>FER1_C</t>
   </si>
   <si>
@@ -1012,9 +971,6 @@
     <t>fansi1_mns</t>
   </si>
   <si>
-    <t>data('fansi1_mns') != null</t>
-  </si>
-  <si>
     <t>FANSI1_C</t>
   </si>
   <si>
@@ -1099,9 +1055,6 @@
     <t>qc2_mns</t>
   </si>
   <si>
-    <t>data('qc2_mns') != null</t>
-  </si>
-  <si>
     <t>QC2_C</t>
   </si>
   <si>
@@ -1111,9 +1064,6 @@
     <t>fer2_mns</t>
   </si>
   <si>
-    <t>data('fer2_mns') != null</t>
-  </si>
-  <si>
     <t>FER2_C</t>
   </si>
   <si>
@@ -1123,9 +1073,6 @@
     <t>fansi2_mns</t>
   </si>
   <si>
-    <t>data('fansi2_mns') != null</t>
-  </si>
-  <si>
     <t>FANSI2_C</t>
   </si>
   <si>
@@ -1207,9 +1154,6 @@
     <t>OBSPART</t>
   </si>
   <si>
-    <t>{PREGID: opendatakit.getCurrentInstanceId(), REGID: data('REGID'), REGDIA: data('PREGDIA'), OBSPART: data('OBSPART'), OUTDATE: data('OUTDATE'), ASSISTPART: data('ASSISTPART'), CART_ANC: data('CART_ANC'), CDG_C: data('CDG_C'), CDG_M: data('CDG_M'), FEDEP_C: data('FEDEP_C'), FEDEP_M: data('FEDEP_M'), GRCONS: data('GRCONS'), GRINFOS: data('GRINFOS'), GRVAC: data('GRVAC'), LITTERSIZE: data('LITTERSIZE'), LOCPAR: data('LOCPAR'), QVFANSI_C: data('QVFANSI_C'), QVFANSI_M: data('QVFANSI_M'), TABPART: data('TABPART'), VACTTHI: data('VACTTHI')}</t>
-  </si>
-  <si>
     <t>nome</t>
   </si>
   <si>
@@ -1252,12 +1196,6 @@
     <t>Probable date of delivery indicated on the card?</t>
   </si>
   <si>
-    <t>Socioeconomic status</t>
-  </si>
-  <si>
-    <t>Status socioeconomico</t>
-  </si>
-  <si>
     <t xml:space="preserve">Comments to pregnancy registration </t>
   </si>
   <si>
@@ -1309,12 +1247,6 @@
     <t>Must be between 50 and 342 and a even number:</t>
   </si>
   <si>
-    <t>(data('MAEBRAC1')&gt;49 &amp;&amp; data('MAEBRAC1')&lt;343 &amp;&amp; data('MAEBRAC1')%2 == 0) ||data('MULPRESA1') != '1'</t>
-  </si>
-  <si>
-    <t>(data('MAEBRAC2')&gt;49 &amp;&amp; data('MAEBRAC2')&lt;343 &amp;&amp; data('MAEBRAC2')%2 == 0) ||data('MULPRESA2') != '1'</t>
-  </si>
-  <si>
     <t>Deve estar entre 50 e 342 e um número par:</t>
   </si>
   <si>
@@ -1394,6 +1326,393 @@
   </si>
   <si>
     <t>&lt;b&gt;Depois de parto: {{data.nome}} - Nas: {{calculates.displayREGDIA}}&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>data('GEST2')&lt;11</t>
+  </si>
+  <si>
+    <t>Gestation month must be less than 10</t>
+  </si>
+  <si>
+    <t>O mês de gestação deve ser inferior a 10</t>
+  </si>
+  <si>
+    <t>data('GEST1')&lt;11</t>
+  </si>
+  <si>
+    <t>(data('MAEBRAC1')&gt;49 &amp;&amp; data('MAEBRAC1')&lt;343 &amp;&amp; data('MAEBRAC1')%2 == 0) ||data('MULPRESA1') != '1' || data('MAEBRAC1')==555</t>
+  </si>
+  <si>
+    <t>(data('MAEBRAC2')&gt;49 &amp;&amp; data('MAEBRAC2')&lt;343 &amp;&amp; data('MAEBRAC2')%2 == 0) ||data('MULPRESA2') != '1' || data('MAEBRAC1')==555</t>
+  </si>
+  <si>
+    <t>Card not seen</t>
+  </si>
+  <si>
+    <t>Não vi cartão</t>
+  </si>
+  <si>
+    <t>Card seen and no ANCs</t>
+  </si>
+  <si>
+    <t>dontknowsome</t>
+  </si>
+  <si>
+    <t>More than 342 mm</t>
+  </si>
+  <si>
+    <t>Mais do que 342 mm</t>
+  </si>
+  <si>
+    <t>Can't remember how many</t>
+  </si>
+  <si>
+    <t>Não me lembro quantas</t>
+  </si>
+  <si>
+    <t>data('cdg_mns')</t>
+  </si>
+  <si>
+    <t>data('fedep_mns')</t>
+  </si>
+  <si>
+    <t>data('qc2_mns')</t>
+  </si>
+  <si>
+    <t>data('fer2_mns')</t>
+  </si>
+  <si>
+    <t>data('qvfansi_mns')</t>
+  </si>
+  <si>
+    <t>data('fansi2_mns')</t>
+  </si>
+  <si>
+    <t>data('qc1_mns')</t>
+  </si>
+  <si>
+    <t>data('fer1_mns')</t>
+  </si>
+  <si>
+    <t>data('fansi1_mns')</t>
+  </si>
+  <si>
+    <t>data('qc1_mns') == '88'</t>
+  </si>
+  <si>
+    <t>data('qc1_mns')  == '99'</t>
+  </si>
+  <si>
+    <t>data('fer1_mns') == '88'</t>
+  </si>
+  <si>
+    <t>data('fer1_mns')  == '99'</t>
+  </si>
+  <si>
+    <t>data('fansi1_mns') == '88'</t>
+  </si>
+  <si>
+    <t>data('fansi1_mns')  == '99'</t>
+  </si>
+  <si>
+    <t>data('qc2_mns')  == '99'</t>
+  </si>
+  <si>
+    <t>data('qc2_mns') == '88'</t>
+  </si>
+  <si>
+    <t>data('fer2_mns')  == '99'</t>
+  </si>
+  <si>
+    <t>data('fer2_mns')  == '88'</t>
+  </si>
+  <si>
+    <t>data('fansi2_mns')  == '99'</t>
+  </si>
+  <si>
+    <t>data('fansi2_mns') == '88'</t>
+  </si>
+  <si>
+    <t>data('cdg_mns') == '88'</t>
+  </si>
+  <si>
+    <t>data('cdg_mns') == '99'</t>
+  </si>
+  <si>
+    <t>data('fedep_mns') == '88'</t>
+  </si>
+  <si>
+    <t>data('fedep_mns') == '99'</t>
+  </si>
+  <si>
+    <t>data('qvfansi_mns') == '88'</t>
+  </si>
+  <si>
+    <t>data('qvfansi_mns') == '99'</t>
+  </si>
+  <si>
+    <t>FOGAO</t>
+  </si>
+  <si>
+    <t>REG</t>
+  </si>
+  <si>
+    <t>TAB</t>
+  </si>
+  <si>
+    <t>MOR</t>
+  </si>
+  <si>
+    <t>CASA</t>
+  </si>
+  <si>
+    <t>AMO</t>
+  </si>
+  <si>
+    <t>do section ses</t>
+  </si>
+  <si>
+    <t>data('SESDATA') == null</t>
+  </si>
+  <si>
+    <t>inputAttributes.type</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Socioeconomic status&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Status socioeconomico&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>tecto</t>
+  </si>
+  <si>
+    <t>TECTO</t>
+  </si>
+  <si>
+    <t>Type of roof</t>
+  </si>
+  <si>
+    <t>Tipo de telhado</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>CABA</t>
+  </si>
+  <si>
+    <t>Type of bathroom</t>
+  </si>
+  <si>
+    <t>Tipo de casa de banho</t>
+  </si>
+  <si>
+    <t>GERADOR</t>
+  </si>
+  <si>
+    <t>Do they have a electricity in the compound</t>
+  </si>
+  <si>
+    <t>Eles têm eletricidade na morança?</t>
+  </si>
+  <si>
+    <t>RADIO</t>
+  </si>
+  <si>
+    <t>Do they have a radio in the compound</t>
+  </si>
+  <si>
+    <t>Eles têm um rádio na morança?</t>
+  </si>
+  <si>
+    <t>TELEMOVEL</t>
+  </si>
+  <si>
+    <t>Does the mother or father own a telephone</t>
+  </si>
+  <si>
+    <t>A mãe ou o pai tem telemovel?</t>
+  </si>
+  <si>
+    <t>TELENUMERO</t>
+  </si>
+  <si>
+    <t>Phone number of mother or other</t>
+  </si>
+  <si>
+    <t>Número de telemovel da mãe ou outro</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>OBSSES</t>
+  </si>
+  <si>
+    <t>Comments to socioeconomic status</t>
+  </si>
+  <si>
+    <t>Comentários ao status socioeconômico</t>
+  </si>
+  <si>
+    <t>Straw</t>
+  </si>
+  <si>
+    <t>Palha</t>
+  </si>
+  <si>
+    <t>Zinc</t>
+  </si>
+  <si>
+    <t>Zinco</t>
+  </si>
+  <si>
+    <t>Tiles</t>
+  </si>
+  <si>
+    <t>Telha</t>
+  </si>
+  <si>
+    <t>Concrete</t>
+  </si>
+  <si>
+    <t>Fibra cimento</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t>Latrina</t>
+  </si>
+  <si>
+    <t>Inside</t>
+  </si>
+  <si>
+    <t>Dentro</t>
+  </si>
+  <si>
+    <t>SESDATA</t>
+  </si>
+  <si>
+    <t>data('VISDIA2')</t>
+  </si>
+  <si>
+    <t>data('PREGDIA')</t>
+  </si>
+  <si>
+    <t>data('VISDIA2') != null</t>
+  </si>
+  <si>
+    <t>Did the woman seek prenatal consultations during pregnancy?</t>
+  </si>
+  <si>
+    <t>A mulher procurou consultas pré-natal durante a gravidez?</t>
+  </si>
+  <si>
+    <t>Tem cartão do consulta pré-natal?</t>
+  </si>
+  <si>
+    <t>Si tiver cartão, tirar informações do cartão</t>
+  </si>
+  <si>
+    <t>Use information from prenatil consultation card if possible</t>
+  </si>
+  <si>
+    <t>Have vaccination  card?</t>
+  </si>
+  <si>
+    <t>Tem cartão de vacinas da mulher?</t>
+  </si>
+  <si>
+    <t>Vacina antitetânica durante esta gravidez</t>
+  </si>
+  <si>
+    <t>Tetanus vaccine during this pregnancy</t>
+  </si>
+  <si>
+    <t>Vaccine 1</t>
+  </si>
+  <si>
+    <t>Vaccine 2</t>
+  </si>
+  <si>
+    <t>Vaccine 3</t>
+  </si>
+  <si>
+    <t>Vaccine 4</t>
+  </si>
+  <si>
+    <t>Vacina 1</t>
+  </si>
+  <si>
+    <t>Vacina 2</t>
+  </si>
+  <si>
+    <t>Vacina 3</t>
+  </si>
+  <si>
+    <t>Vacina 4</t>
+  </si>
+  <si>
+    <t>notgiven</t>
+  </si>
+  <si>
+    <t>"D:2,M:2,Y:1922"</t>
+  </si>
+  <si>
+    <t>Not given</t>
+  </si>
+  <si>
+    <t>Não administrado</t>
+  </si>
+  <si>
+    <t>VACTT1</t>
+  </si>
+  <si>
+    <t>VACTT2</t>
+  </si>
+  <si>
+    <t>VACTT4</t>
+  </si>
+  <si>
+    <t>VACTT3</t>
+  </si>
+  <si>
+    <t>CARTON</t>
+  </si>
+  <si>
+    <t>data('CARTON') == '1'</t>
+  </si>
+  <si>
+    <t>vactt1ng</t>
+  </si>
+  <si>
+    <t>vactt4ng</t>
+  </si>
+  <si>
+    <t>vactt3ng</t>
+  </si>
+  <si>
+    <t>vactt2ng</t>
+  </si>
+  <si>
+    <t>data('vactt1ng') != null</t>
+  </si>
+  <si>
+    <t>data('vactt2ng') != null</t>
+  </si>
+  <si>
+    <t>data('vactt3ng') != null</t>
+  </si>
+  <si>
+    <t>data('vactt4ng') != null</t>
+  </si>
+  <si>
+    <t>{PREGID: opendatakit.getCurrentInstanceId(), REGID: data('REGID'), REGDIA: data('PREGDIA'), REG: data('REG'), TAB: data('TAB'), MOR: data('MOR'), CASA: data('CASA'), FOGAO: data('FOGAO'), AMO: data('AMO'), CABA: data('CABA'), GERADOR: data('GERADOR'), OBSSES: data('OBSSES'), RADIO: data('RADIO'), SESDATA: data('SESDATA'), TECTO: data('TECTO'), TELEMOVEL: data('TELEMOVEL'), TELENUMERO: data('TELENUMERO'), OBSPART: data('OBSPART'), OUTDATE: data('OUTDATE'), ASSISTPART: data('ASSISTPART'), CARTON: data('CARTON'), CART_ANC: data('CART_ANC'), CDG_C: data('CDG_C'), CDG_M: data('CDG_M'), FEDEP_C: data('FEDEP_C'), FEDEP_M: data('FEDEP_M'), GRCONS: data('GRCONS'), GRINFOS: data('GRINFOS'), GRVAC: data('GRVAC'), LITTERSIZE: data('LITTERSIZE'), LOCPAR: data('LOCPAR'), QVFANSI_C: data('QVFANSI_C'), QVFANSI_M: data('QVFANSI_M'), TABPART: data('TABPART'), VACTT1: data('VACTT1'), VACTT2: data('VACTT2'), VACTT3: data('VACTT3'), VACTT4: data('VACTT4'), VACTTHI: data('VACTTHI')}</t>
   </si>
 </sst>
 </file>
@@ -1485,12 +1804,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1498,6 +1811,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1547,16 +1866,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{C28CC074-D3A0-48A2-81F3-B6A5CA836B7C}"/>
@@ -1844,7 +2163,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1865,13 +2184,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>18</v>
@@ -1882,7 +2201,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1898,7 +2217,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1906,10 +2225,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="D5" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1925,7 +2244,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
@@ -1947,7 +2266,7 @@
         <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1957,12 +2276,55 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF3D0A7-17A8-4B35-89BF-E7F3088D1597}">
-  <dimension ref="A1:D51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F400C0F-2F8A-4940-8B8F-D3223CEC21CC}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF3D0A7-17A8-4B35-89BF-E7F3088D1597}">
+  <dimension ref="A1:D63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A63" sqref="A63:D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1982,7 +2344,7 @@
         <v>15</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>16</v>
@@ -1990,47 +2352,47 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B2" s="13" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B3" s="13" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B4" s="13" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2117,10 +2479,10 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="D10" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2172,11 +2534,11 @@
       <c r="B14" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>70</v>
+      <c r="C14" s="24" t="s">
+        <v>432</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2184,13 +2546,13 @@
         <v>48</v>
       </c>
       <c r="B15" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>71</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2198,13 +2560,13 @@
         <v>48</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>75</v>
+        <v>434</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2212,115 +2574,115 @@
         <v>48</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B18" s="13" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B19" s="13" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B20" s="13" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B21" s="13" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B22" s="13" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B23" s="13" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B24" s="13" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>42</v>
@@ -2328,392 +2690,572 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B25" s="13" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B26" s="13" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B27" s="13" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B28" s="13" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B29" s="13" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B30" s="13" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B31" s="13" t="str">
         <f>"88"</f>
         <v>88</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B32" s="13" t="str">
         <f>"99"</f>
         <v>99</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="38" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B38" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="C38" t="s">
-        <v>268</v>
+        <v>75</v>
       </c>
       <c r="D38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B39" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C39" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D39" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="40" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B40" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C40" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D40" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="41" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B41" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C41" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D41" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="42" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B42" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C42" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D42" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="43" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B43" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C43" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D43" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="44" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B44" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C44" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D44" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="45" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B45" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C45" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D45" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="46" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B46" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="C46" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D46" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="47" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B47" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="C47" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="D47" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B48" s="13" t="str">
         <f>"555"</f>
         <v>555</v>
       </c>
-      <c r="C48" s="16" t="s">
-        <v>237</v>
+      <c r="C48" s="24" t="s">
+        <v>436</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>254</v>
+        <v>437</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="B49" t="str">
         <f>"99"</f>
         <v>99</v>
       </c>
       <c r="C49" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D49" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="B50" t="str">
         <f>"8888"</f>
         <v>8888</v>
       </c>
       <c r="C50" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="D50" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="B51" t="str">
         <f>"9999"</f>
         <v>9999</v>
       </c>
       <c r="C51" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D51" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="B52" s="13" t="str">
+        <f>"88"</f>
+        <v>88</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>438</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="B53" s="13" t="str">
+        <f>"99"</f>
+        <v>99</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>478</v>
+      </c>
+      <c r="B54" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>502</v>
+      </c>
+      <c r="D54" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>478</v>
+      </c>
+      <c r="B55" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C55" t="s">
+        <v>504</v>
+      </c>
+      <c r="D55" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>478</v>
+      </c>
+      <c r="B56" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>506</v>
+      </c>
+      <c r="D56" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>478</v>
+      </c>
+      <c r="B57" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+      <c r="C57" t="s">
+        <v>508</v>
+      </c>
+      <c r="D57" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>478</v>
+      </c>
+      <c r="B58" t="str">
+        <f>"9"</f>
+        <v>9</v>
+      </c>
+      <c r="C58" t="s">
+        <v>75</v>
+      </c>
+      <c r="D58" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>482</v>
+      </c>
+      <c r="B59" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>510</v>
+      </c>
+      <c r="D59" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>482</v>
+      </c>
+      <c r="B60" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C60" t="s">
+        <v>512</v>
+      </c>
+      <c r="D60" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>482</v>
+      </c>
+      <c r="B61" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C61" t="s">
+        <v>513</v>
+      </c>
+      <c r="D61" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>482</v>
+      </c>
+      <c r="B62" t="str">
+        <f>"9"</f>
+        <v>9</v>
+      </c>
+      <c r="C62" t="s">
+        <v>75</v>
+      </c>
+      <c r="D62" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>536</v>
+      </c>
+      <c r="B63" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>538</v>
+      </c>
+      <c r="D63" t="s">
+        <v>539</v>
       </c>
     </row>
   </sheetData>
@@ -2722,13 +3264,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
-  <dimension ref="A1:N83"/>
+  <dimension ref="A1:M107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A48" sqref="A48:C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2736,10 +3278,9 @@
     <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -2750,12 +3291,12 @@
         <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -2764,23 +3305,23 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -2789,9 +3330,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -2800,20 +3341,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="B6" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -2822,9 +3363,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -2832,22 +3373,22 @@
       <c r="C8" t="b">
         <v>0</v>
       </c>
-      <c r="J8" s="12"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="B9" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -2855,22 +3396,22 @@
       <c r="C10" t="b">
         <v>0</v>
       </c>
-      <c r="J10" s="12"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="B11" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>25</v>
@@ -2879,31 +3420,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="B13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="B14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -2912,12 +3453,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="B16" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
@@ -2925,10 +3466,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -2936,10 +3477,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -2947,7 +3488,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -2958,7 +3499,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -2969,10 +3510,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="B21" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
@@ -2980,7 +3521,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
@@ -2989,15 +3530,15 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="B24" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
@@ -3005,7 +3546,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="B25" t="s">
         <v>29</v>
@@ -3016,7 +3557,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="B26" t="s">
         <v>29</v>
@@ -3027,10 +3568,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="B27" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C27" t="b">
         <v>1</v>
@@ -3038,7 +3579,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
@@ -3049,7 +3590,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
@@ -3060,10 +3601,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="B30" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C30" t="b">
         <v>1</v>
@@ -3071,7 +3612,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="B31" t="s">
         <v>29</v>
@@ -3082,21 +3623,21 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="B32" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C32" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="B33" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C33" t="b">
         <v>0</v>
@@ -3104,21 +3645,21 @@
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="B34" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C34" t="b">
         <v>0</v>
       </c>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="B35" t="s">
         <v>29</v>
@@ -3128,21 +3669,21 @@
       </c>
       <c r="G35" s="11"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="B36" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C36" t="b">
         <v>1</v>
       </c>
       <c r="G36" s="11"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="B37" t="s">
         <v>25</v>
@@ -3152,21 +3693,21 @@
       </c>
       <c r="G37" s="11"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C38" t="b">
         <v>0</v>
       </c>
       <c r="G38" s="11"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="B39" t="s">
         <v>29</v>
@@ -3176,9 +3717,9 @@
       </c>
       <c r="G39" s="11"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="B40" t="s">
         <v>29</v>
@@ -3186,38 +3727,38 @@
       <c r="C40" t="b">
         <v>0</v>
       </c>
+      <c r="K40" s="11"/>
       <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="B41" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C41" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C42" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B44" t="s">
         <v>29</v>
@@ -3226,23 +3767,23 @@
         <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="B45" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C45" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B46" t="s">
         <v>25</v>
@@ -3251,9 +3792,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B47" t="s">
         <v>25</v>
@@ -3262,20 +3803,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>146</v>
-      </c>
-      <c r="B48" t="s">
-        <v>29</v>
+        <v>544</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="C48" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B49" t="s">
         <v>29</v>
@@ -3283,34 +3824,32 @@
       <c r="C49" t="b">
         <v>0</v>
       </c>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>259</v>
+        <v>140</v>
       </c>
       <c r="B50" t="s">
-        <v>235</v>
+        <v>29</v>
       </c>
       <c r="C50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>250</v>
+      </c>
+      <c r="B51" t="s">
+        <v>229</v>
+      </c>
+      <c r="C51" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>148</v>
-      </c>
-      <c r="B51" t="s">
-        <v>29</v>
-      </c>
-      <c r="C51" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B52" t="s">
         <v>29</v>
@@ -3319,33 +3858,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>261</v>
+        <v>143</v>
       </c>
       <c r="B53" t="s">
-        <v>235</v>
+        <v>29</v>
       </c>
       <c r="C53" t="b">
+        <v>0</v>
+      </c>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>251</v>
+      </c>
+      <c r="B54" t="s">
+        <v>229</v>
+      </c>
+      <c r="C54" t="b">
         <v>1</v>
       </c>
-      <c r="M53" s="11"/>
-      <c r="N53" s="11"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>138</v>
-      </c>
-      <c r="B54" t="s">
-        <v>25</v>
-      </c>
-      <c r="C54" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B55" t="s">
         <v>25</v>
@@ -3354,9 +3893,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B56" t="s">
         <v>25</v>
@@ -3365,20 +3904,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="B57" t="s">
         <v>25</v>
       </c>
       <c r="C57" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B58" t="s">
         <v>25</v>
@@ -3387,130 +3926,130 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>119</v>
+      </c>
+      <c r="B60" t="s">
         <v>29</v>
-      </c>
-      <c r="C59" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>154</v>
-      </c>
-      <c r="B60" t="s">
-        <v>25</v>
       </c>
       <c r="C60" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="12" t="s">
-        <v>385</v>
-      </c>
-      <c r="B61" s="12" t="s">
-        <v>103</v>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>150</v>
+      </c>
+      <c r="B61" t="s">
+        <v>25</v>
       </c>
       <c r="C61" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>117</v>
-      </c>
-      <c r="B62" t="s">
-        <v>104</v>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>100</v>
       </c>
       <c r="C62" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B63" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="C63" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>277</v>
+        <v>113</v>
       </c>
       <c r="B64" t="s">
-        <v>273</v>
+        <v>25</v>
       </c>
       <c r="C64" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="B65" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="C65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>267</v>
+      </c>
+      <c r="B66" t="s">
+        <v>229</v>
+      </c>
+      <c r="C66" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>281</v>
-      </c>
-      <c r="B66" t="s">
-        <v>103</v>
-      </c>
-      <c r="C66" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="B67" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C67" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="B68" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="C68" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>150</v>
+        <v>270</v>
       </c>
       <c r="B69" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C69" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B70" t="s">
         <v>29</v>
@@ -3519,144 +4058,400 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>263</v>
+        <v>145</v>
       </c>
       <c r="B71" t="s">
-        <v>235</v>
+        <v>29</v>
       </c>
       <c r="C71" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="B72" t="s">
-        <v>273</v>
+        <v>229</v>
       </c>
       <c r="C72" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>151</v>
+        <v>263</v>
       </c>
       <c r="B73" t="s">
+        <v>261</v>
+      </c>
+      <c r="C73" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>147</v>
+      </c>
+      <c r="B74" t="s">
         <v>25</v>
-      </c>
-      <c r="C73" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>143</v>
-      </c>
-      <c r="B74" t="s">
-        <v>29</v>
       </c>
       <c r="C74" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="B75" s="11" t="s">
-        <v>104</v>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>540</v>
+      </c>
+      <c r="B75" t="s">
+        <v>101</v>
       </c>
       <c r="C75" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>546</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="C76" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>244</v>
+        <v>541</v>
       </c>
       <c r="B77" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C77" t="b">
         <v>0</v>
       </c>
-      <c r="D77" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>100</v>
-      </c>
-      <c r="B78" t="s">
-        <v>104</v>
+        <v>549</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>229</v>
       </c>
       <c r="C78" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>330</v>
+        <v>543</v>
       </c>
       <c r="B79" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="C79" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>387</v>
-      </c>
-      <c r="B80" t="s">
-        <v>103</v>
+        <v>548</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>229</v>
       </c>
       <c r="C80" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>391</v>
+        <v>542</v>
       </c>
       <c r="B81" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>547</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="C82" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>102</v>
-      </c>
-      <c r="B82" t="s">
-        <v>103</v>
-      </c>
-      <c r="C82" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>224</v>
+        <v>139</v>
       </c>
       <c r="B83" t="s">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="C83" t="b">
         <v>0</v>
       </c>
     </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>483</v>
+      </c>
+      <c r="B86" t="s">
+        <v>25</v>
+      </c>
+      <c r="C86" t="b">
+        <v>0</v>
+      </c>
+      <c r="D86" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>486</v>
+      </c>
+      <c r="B87" t="s">
+        <v>25</v>
+      </c>
+      <c r="C87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>499</v>
+      </c>
+      <c r="B88" t="s">
+        <v>100</v>
+      </c>
+      <c r="C88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>489</v>
+      </c>
+      <c r="B89" t="s">
+        <v>25</v>
+      </c>
+      <c r="C89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>515</v>
+      </c>
+      <c r="B90" t="s">
+        <v>101</v>
+      </c>
+      <c r="C90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>479</v>
+      </c>
+      <c r="B91" t="s">
+        <v>25</v>
+      </c>
+      <c r="C91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>492</v>
+      </c>
+      <c r="B92" t="s">
+        <v>25</v>
+      </c>
+      <c r="C92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>495</v>
+      </c>
+      <c r="B93" t="s">
+        <v>100</v>
+      </c>
+      <c r="C93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>472</v>
+      </c>
+      <c r="B95" t="s">
+        <v>29</v>
+      </c>
+      <c r="C95" t="b">
+        <v>0</v>
+      </c>
+      <c r="D95" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>237</v>
+      </c>
+      <c r="B96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>471</v>
+      </c>
+      <c r="B97" t="s">
+        <v>29</v>
+      </c>
+      <c r="C97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>101</v>
+      </c>
+      <c r="C98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>467</v>
+      </c>
+      <c r="B99" t="s">
+        <v>29</v>
+      </c>
+      <c r="C99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>372</v>
+      </c>
+      <c r="B100" t="s">
+        <v>101</v>
+      </c>
+      <c r="C100" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>470</v>
+      </c>
+      <c r="B101" t="s">
+        <v>29</v>
+      </c>
+      <c r="C101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>315</v>
+      </c>
+      <c r="B102" t="s">
+        <v>25</v>
+      </c>
+      <c r="C102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>368</v>
+      </c>
+      <c r="B103" t="s">
+        <v>100</v>
+      </c>
+      <c r="C103" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>468</v>
+      </c>
+      <c r="B104" t="s">
+        <v>29</v>
+      </c>
+      <c r="C104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>99</v>
+      </c>
+      <c r="B105" t="s">
+        <v>100</v>
+      </c>
+      <c r="C105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>469</v>
+      </c>
+      <c r="B106" t="s">
+        <v>29</v>
+      </c>
+      <c r="C106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>219</v>
+      </c>
+      <c r="B107" t="s">
+        <v>100</v>
+      </c>
+      <c r="C107" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A77:C83">
-    <sortCondition ref="A77"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A45:C84">
+    <sortCondition ref="A44"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3709,7 +4504,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>11</v>
@@ -3721,44 +4516,44 @@
         <v>35</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -3770,20 +4565,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42B4652-1939-4CCD-AEEB-1868D449AB6E}">
-  <dimension ref="A1:O89"/>
+  <dimension ref="A1:O96"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="N87" sqref="N87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="35" customWidth="1"/>
@@ -3815,7 +4609,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>11</v>
@@ -3824,22 +4618,22 @@
         <v>26</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>427</v>
+        <v>404</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>440</v>
+        <v>417</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3858,19 +4652,19 @@
         <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="H3" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="D4" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I4" s="10">
         <v>1</v>
@@ -3883,13 +4677,13 @@
     <row r="5" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="D5" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
@@ -3899,16 +4693,16 @@
     <row r="6" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="D6" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="I6" s="10"/>
       <c r="K6" s="10"/>
@@ -3930,12 +4724,12 @@
       <c r="N7"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
+      <c r="A8" s="18"/>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -3948,10 +4742,10 @@
         <v>28</v>
       </c>
       <c r="G10" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="H10" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -3959,49 +4753,49 @@
         <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="G11" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="H11" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="K11" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="L11" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="M11" t="s">
-        <v>422</v>
+        <v>399</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E12" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F12" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F14" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="I14">
         <v>555</v>
@@ -4009,37 +4803,37 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
       <c r="B18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>28</v>
       </c>
       <c r="G20" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="H20" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>25</v>
       </c>
@@ -4047,104 +4841,113 @@
         <v>48</v>
       </c>
       <c r="F21" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>397</v>
+        <v>378</v>
       </c>
       <c r="H21" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>28</v>
       </c>
       <c r="G24" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="H24" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>29</v>
       </c>
       <c r="F25" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="H25" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K25" t="s">
+        <v>429</v>
+      </c>
+      <c r="L25" t="s">
+        <v>427</v>
+      </c>
+      <c r="M25" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E26" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="F26" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F28" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="I28">
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>28</v>
       </c>
       <c r="G32" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="H32" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
@@ -4152,7 +4955,7 @@
         <v>28</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="H33" t="s">
         <v>40</v>
@@ -4160,61 +4963,61 @@
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F34" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="G34" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H34" t="s">
         <v>42</v>
       </c>
       <c r="K34" t="s">
-        <v>432</v>
+        <v>409</v>
       </c>
       <c r="L34" t="s">
-        <v>423</v>
+        <v>400</v>
       </c>
       <c r="M34" t="s">
-        <v>424</v>
+        <v>401</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F36" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="G36" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s">
         <v>41</v>
       </c>
       <c r="K36" t="s">
-        <v>431</v>
+        <v>408</v>
       </c>
       <c r="L36" t="s">
-        <v>423</v>
+        <v>400</v>
       </c>
       <c r="M36" t="s">
-        <v>424</v>
+        <v>401</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
@@ -4232,10 +5035,10 @@
         <v>28</v>
       </c>
       <c r="G40" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="H40" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
@@ -4243,7 +5046,7 @@
         <v>28</v>
       </c>
       <c r="G41" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H41" t="s">
         <v>45</v>
@@ -4254,10 +5057,10 @@
         <v>29</v>
       </c>
       <c r="F42" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="G42" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H42" t="s">
         <v>42</v>
@@ -4265,413 +5068,462 @@
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E43" t="s">
-        <v>256</v>
+        <v>435</v>
       </c>
       <c r="F43" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C44" t="s">
-        <v>313</v>
+        <v>449</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F45" t="s">
-        <v>311</v>
-      </c>
-      <c r="I45">
-        <v>99</v>
+        <v>299</v>
+      </c>
+      <c r="I45" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C47" t="s">
-        <v>323</v>
+        <v>450</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="F48" t="s">
-        <v>314</v>
-      </c>
-      <c r="G48" t="s">
-        <v>82</v>
-      </c>
-      <c r="H48" t="s">
-        <v>41</v>
+        <v>299</v>
+      </c>
+      <c r="I48" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
+        <v>77</v>
+      </c>
+      <c r="C50" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>29</v>
+      </c>
+      <c r="F51" t="s">
+        <v>301</v>
+      </c>
+      <c r="G51" t="s">
+        <v>79</v>
+      </c>
+      <c r="H51" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D52" t="s">
-        <v>28</v>
-      </c>
-      <c r="G52" t="s">
-        <v>392</v>
-      </c>
-      <c r="H52" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D53" t="s">
-        <v>28</v>
-      </c>
-      <c r="G53" t="s">
-        <v>398</v>
-      </c>
-      <c r="H53" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D54" t="s">
-        <v>29</v>
-      </c>
-      <c r="F54" t="s">
-        <v>315</v>
-      </c>
-      <c r="G54" t="s">
-        <v>83</v>
-      </c>
-      <c r="H54" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
-        <v>235</v>
-      </c>
-      <c r="E55" t="s">
-        <v>256</v>
-      </c>
-      <c r="F55" t="s">
-        <v>316</v>
+        <v>28</v>
+      </c>
+      <c r="G55" t="s">
+        <v>373</v>
+      </c>
+      <c r="H55" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>80</v>
-      </c>
-      <c r="C56" t="s">
-        <v>317</v>
+      <c r="D56" t="s">
+        <v>28</v>
+      </c>
+      <c r="G56" t="s">
+        <v>379</v>
+      </c>
+      <c r="H56" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
-        <v>132</v>
+        <v>29</v>
       </c>
       <c r="F57" t="s">
-        <v>315</v>
-      </c>
-      <c r="I57">
-        <v>99</v>
+        <v>302</v>
+      </c>
+      <c r="G57" t="s">
+        <v>80</v>
+      </c>
+      <c r="H57" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>81</v>
+      <c r="D58" t="s">
+        <v>229</v>
+      </c>
+      <c r="E58" t="s">
+        <v>435</v>
+      </c>
+      <c r="F58" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C59" t="s">
-        <v>323</v>
+        <v>451</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="F60" t="s">
-        <v>318</v>
-      </c>
-      <c r="G60" t="s">
-        <v>82</v>
-      </c>
-      <c r="H60" t="s">
-        <v>41</v>
+        <v>302</v>
+      </c>
+      <c r="I60" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>13</v>
+        <v>77</v>
+      </c>
+      <c r="C62" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>12</v>
+      <c r="D63" t="s">
+        <v>129</v>
+      </c>
+      <c r="F63" t="s">
+        <v>302</v>
+      </c>
+      <c r="I63" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D64" t="s">
-        <v>28</v>
-      </c>
-      <c r="G64" t="s">
-        <v>392</v>
-      </c>
-      <c r="H64" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D65" t="s">
-        <v>28</v>
-      </c>
-      <c r="G65" t="s">
-        <v>399</v>
-      </c>
-      <c r="H65" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
         <v>29</v>
       </c>
       <c r="F66" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="G66" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H66" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D67" t="s">
-        <v>235</v>
-      </c>
-      <c r="E67" t="s">
-        <v>256</v>
-      </c>
-      <c r="F67" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>80</v>
-      </c>
-      <c r="C68" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D69" t="s">
-        <v>132</v>
-      </c>
-      <c r="F69" t="s">
-        <v>319</v>
-      </c>
-      <c r="I69">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>80</v>
-      </c>
-      <c r="C71" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>28</v>
+      </c>
+      <c r="G70" t="s">
+        <v>373</v>
+      </c>
+      <c r="H70" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>28</v>
+      </c>
+      <c r="G71" t="s">
+        <v>380</v>
+      </c>
+      <c r="H71" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
         <v>29</v>
       </c>
       <c r="F72" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="G72" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H72" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>229</v>
+      </c>
+      <c r="E73" t="s">
+        <v>435</v>
+      </c>
+      <c r="F73" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C74" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>129</v>
+      </c>
+      <c r="F75" t="s">
+        <v>305</v>
+      </c>
+      <c r="I75" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>77</v>
+      </c>
+      <c r="C77" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>129</v>
+      </c>
+      <c r="F78" t="s">
+        <v>305</v>
+      </c>
+      <c r="I78" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>77</v>
+      </c>
+      <c r="C80" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>29</v>
+      </c>
+      <c r="F81" t="s">
+        <v>307</v>
+      </c>
+      <c r="G81" t="s">
+        <v>79</v>
+      </c>
+      <c r="H81" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
-        <v>80</v>
-      </c>
-      <c r="C75" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>77</v>
+      </c>
+      <c r="C84" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D77" t="s">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
         <v>28</v>
       </c>
-      <c r="G77" t="s">
-        <v>392</v>
-      </c>
-      <c r="H77" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D78" t="s">
-        <v>104</v>
-      </c>
-      <c r="F78" t="s">
-        <v>329</v>
-      </c>
-      <c r="G78" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="H78" t="s">
+      <c r="G86" t="s">
+        <v>373</v>
+      </c>
+      <c r="H86" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>101</v>
+      </c>
+      <c r="F87" t="s">
+        <v>314</v>
+      </c>
+      <c r="G87" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="H87" t="s">
         <v>46</v>
       </c>
-      <c r="N78" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
+      <c r="N87" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90" s="25"/>
+      <c r="B90" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C90" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B91" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92" s="25"/>
+      <c r="B92" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D82" t="s">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
         <v>28</v>
       </c>
-      <c r="G82" t="s">
-        <v>392</v>
-      </c>
-      <c r="H82" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D83" t="s">
-        <v>28</v>
-      </c>
-      <c r="G83" t="s">
-        <v>401</v>
-      </c>
-      <c r="H83" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D84" t="s">
-        <v>98</v>
-      </c>
-      <c r="E84" t="s">
-        <v>222</v>
-      </c>
-      <c r="O84" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D87" t="s">
-        <v>28</v>
-      </c>
-      <c r="G87" t="s">
-        <v>392</v>
-      </c>
-      <c r="H87" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D88" t="s">
-        <v>103</v>
-      </c>
-      <c r="F88" t="s">
+      <c r="G94" t="s">
+        <v>373</v>
+      </c>
+      <c r="H94" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>100</v>
+      </c>
+      <c r="F95" t="s">
+        <v>365</v>
+      </c>
+      <c r="G95" t="s">
+        <v>382</v>
+      </c>
+      <c r="H95" t="s">
         <v>383</v>
       </c>
-      <c r="G88" t="s">
-        <v>403</v>
-      </c>
-      <c r="H88" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4683,11 +5535,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51D9F90A-DED8-4B84-AE76-A32853D141F5}">
-  <dimension ref="A1:N95"/>
+  <dimension ref="A1:N107"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1:H1048576"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A100" sqref="A100:XFD102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4695,8 +5547,7 @@
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36" customWidth="1"/>
@@ -4728,7 +5579,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>11</v>
@@ -4737,19 +5588,19 @@
         <v>26</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>427</v>
+        <v>404</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -4770,10 +5621,10 @@
         <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>443</v>
+        <v>420</v>
       </c>
       <c r="H3" t="s">
-        <v>444</v>
+        <v>421</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -4782,16 +5633,16 @@
         <v>25</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>165</v>
+        <v>104</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>161</v>
       </c>
       <c r="I4" s="10"/>
       <c r="K4" s="10"/>
@@ -4815,10 +5666,10 @@
     <row r="6" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
@@ -4831,7 +5682,7 @@
     <row r="7" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="12" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
@@ -4844,7 +5695,7 @@
     <row r="8" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
@@ -4855,12 +5706,12 @@
       <c r="N8"/>
     </row>
     <row r="9" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
@@ -4886,22 +5737,22 @@
         <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>445</v>
+        <v>422</v>
       </c>
       <c r="H11" t="s">
-        <v>446</v>
+        <v>423</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="D12" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="I12" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
@@ -4911,16 +5762,16 @@
     <row r="13" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="D13" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="I13" s="10"/>
       <c r="K13" s="10"/>
@@ -4954,13 +5805,13 @@
         <v>47</v>
       </c>
       <c r="F16" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="G16" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="H16" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -4969,12 +5820,12 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
+      <c r="A18" s="18"/>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -4987,10 +5838,10 @@
         <v>28</v>
       </c>
       <c r="G20" t="s">
-        <v>445</v>
+        <v>422</v>
       </c>
       <c r="H20" t="s">
-        <v>446</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -4998,49 +5849,49 @@
         <v>29</v>
       </c>
       <c r="F21" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="G21" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="H21" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="K21" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="L21" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="M21" t="s">
-        <v>422</v>
+        <v>399</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E22" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F22" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C23" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F24" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="I24">
         <v>555</v>
@@ -5048,7 +5899,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -5057,9 +5908,9 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
+      <c r="A28" s="18"/>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -5072,10 +5923,10 @@
         <v>28</v>
       </c>
       <c r="G30" t="s">
-        <v>445</v>
+        <v>422</v>
       </c>
       <c r="H30" t="s">
-        <v>446</v>
+        <v>423</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -5086,13 +5937,13 @@
         <v>48</v>
       </c>
       <c r="F31" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>397</v>
+        <v>378</v>
       </c>
       <c r="H31" t="s">
-        <v>396</v>
+        <v>377</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -5110,10 +5961,10 @@
         <v>28</v>
       </c>
       <c r="G34" t="s">
-        <v>445</v>
+        <v>422</v>
       </c>
       <c r="H34" t="s">
-        <v>446</v>
+        <v>423</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
@@ -5121,40 +5972,49 @@
         <v>29</v>
       </c>
       <c r="F35" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="H35" t="s">
         <v>39</v>
       </c>
+      <c r="K35" t="s">
+        <v>426</v>
+      </c>
+      <c r="L35" t="s">
+        <v>427</v>
+      </c>
+      <c r="M35" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E36" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="F36" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F38" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="I38">
         <v>99</v>
@@ -5162,7 +6022,7 @@
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
@@ -5180,10 +6040,10 @@
         <v>28</v>
       </c>
       <c r="G42" t="s">
-        <v>445</v>
+        <v>422</v>
       </c>
       <c r="H42" t="s">
-        <v>446</v>
+        <v>423</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
@@ -5191,7 +6051,7 @@
         <v>28</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="H43" t="s">
         <v>40</v>
@@ -5199,61 +6059,61 @@
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F44" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="G44" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H44" t="s">
         <v>42</v>
       </c>
       <c r="K44" t="s">
-        <v>429</v>
+        <v>406</v>
       </c>
       <c r="L44" t="s">
-        <v>423</v>
+        <v>400</v>
       </c>
       <c r="M44" t="s">
-        <v>424</v>
+        <v>401</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C45" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F46" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="G46" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s">
         <v>41</v>
       </c>
       <c r="K46" t="s">
-        <v>430</v>
+        <v>407</v>
       </c>
       <c r="L46" t="s">
-        <v>423</v>
+        <v>400</v>
       </c>
       <c r="M46" t="s">
-        <v>424</v>
+        <v>401</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
@@ -5271,10 +6131,10 @@
         <v>28</v>
       </c>
       <c r="G50" t="s">
-        <v>445</v>
+        <v>422</v>
       </c>
       <c r="H50" t="s">
-        <v>446</v>
+        <v>423</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
@@ -5282,7 +6142,7 @@
         <v>28</v>
       </c>
       <c r="G51" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H51" t="s">
         <v>45</v>
@@ -5293,10 +6153,10 @@
         <v>29</v>
       </c>
       <c r="F52" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="G52" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H52" t="s">
         <v>42</v>
@@ -5304,204 +6164,201 @@
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E53" t="s">
-        <v>256</v>
+        <v>435</v>
       </c>
       <c r="F53" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C54" t="s">
-        <v>350</v>
+        <v>456</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F55" t="s">
-        <v>348</v>
-      </c>
-      <c r="I55">
-        <v>99</v>
+        <v>333</v>
+      </c>
+      <c r="I55" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C57" t="s">
-        <v>346</v>
+        <v>455</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="F58" t="s">
-        <v>351</v>
-      </c>
-      <c r="G58" t="s">
-        <v>82</v>
-      </c>
-      <c r="H58" t="s">
-        <v>41</v>
+        <v>333</v>
+      </c>
+      <c r="I58" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>29</v>
+      </c>
+      <c r="F61" t="s">
+        <v>335</v>
+      </c>
+      <c r="G61" t="s">
+        <v>79</v>
+      </c>
+      <c r="H61" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D62" t="s">
-        <v>28</v>
-      </c>
-      <c r="G62" t="s">
-        <v>445</v>
-      </c>
-      <c r="H62" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D63" t="s">
-        <v>28</v>
-      </c>
-      <c r="G63" t="s">
-        <v>398</v>
-      </c>
-      <c r="H63" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D64" t="s">
-        <v>29</v>
-      </c>
-      <c r="F64" t="s">
-        <v>352</v>
-      </c>
-      <c r="G64" t="s">
-        <v>83</v>
-      </c>
-      <c r="H64" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
-        <v>235</v>
-      </c>
-      <c r="E65" t="s">
-        <v>256</v>
-      </c>
-      <c r="F65" t="s">
-        <v>353</v>
+        <v>28</v>
+      </c>
+      <c r="G65" t="s">
+        <v>422</v>
+      </c>
+      <c r="H65" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>80</v>
-      </c>
-      <c r="C66" t="s">
-        <v>354</v>
+      <c r="D66" t="s">
+        <v>28</v>
+      </c>
+      <c r="G66" t="s">
+        <v>379</v>
+      </c>
+      <c r="H66" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
-        <v>132</v>
+        <v>29</v>
       </c>
       <c r="F67" t="s">
-        <v>352</v>
-      </c>
-      <c r="I67">
-        <v>99</v>
+        <v>336</v>
+      </c>
+      <c r="G67" t="s">
+        <v>80</v>
+      </c>
+      <c r="H67" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>81</v>
+      <c r="D68" t="s">
+        <v>229</v>
+      </c>
+      <c r="E68" t="s">
+        <v>435</v>
+      </c>
+      <c r="F68" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C69" t="s">
-        <v>346</v>
+        <v>458</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="F70" t="s">
-        <v>355</v>
-      </c>
-      <c r="G70" t="s">
-        <v>82</v>
-      </c>
-      <c r="H70" t="s">
-        <v>41</v>
+        <v>336</v>
+      </c>
+      <c r="I70" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>13</v>
+        <v>77</v>
+      </c>
+      <c r="C72" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>12</v>
+      <c r="D73" t="s">
+        <v>129</v>
+      </c>
+      <c r="F73" t="s">
+        <v>336</v>
+      </c>
+      <c r="I73" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D74" t="s">
-        <v>28</v>
-      </c>
-      <c r="G74" t="s">
-        <v>445</v>
-      </c>
-      <c r="H74" t="s">
-        <v>446</v>
+      <c r="B74" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D75" t="s">
-        <v>28</v>
-      </c>
-      <c r="G75" t="s">
-        <v>399</v>
-      </c>
-      <c r="H75" t="s">
-        <v>44</v>
+      <c r="B75" t="s">
+        <v>77</v>
+      </c>
+      <c r="C75" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
@@ -5509,172 +6366,267 @@
         <v>29</v>
       </c>
       <c r="F76" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="G76" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D77" t="s">
-        <v>235</v>
-      </c>
-      <c r="E77" t="s">
-        <v>256</v>
-      </c>
-      <c r="F77" t="s">
-        <v>357</v>
+      <c r="B77" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>80</v>
-      </c>
-      <c r="C78" t="s">
-        <v>358</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D79" t="s">
-        <v>132</v>
-      </c>
-      <c r="F79" t="s">
-        <v>356</v>
-      </c>
-      <c r="I79">
-        <v>99</v>
+      <c r="B79" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
-        <v>80</v>
-      </c>
-      <c r="C81" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>28</v>
+      </c>
+      <c r="G80" t="s">
+        <v>422</v>
+      </c>
+      <c r="H80" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>28</v>
+      </c>
+      <c r="G81" t="s">
+        <v>380</v>
+      </c>
+      <c r="H81" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
         <v>29</v>
       </c>
       <c r="F82" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="G82" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H82" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>229</v>
+      </c>
+      <c r="E83" t="s">
+        <v>435</v>
+      </c>
+      <c r="F83" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>77</v>
+      </c>
+      <c r="C84" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>129</v>
+      </c>
+      <c r="F85" t="s">
+        <v>339</v>
+      </c>
+      <c r="I85" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>77</v>
+      </c>
+      <c r="C87" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
+        <v>129</v>
+      </c>
+      <c r="F88" t="s">
+        <v>339</v>
+      </c>
+      <c r="I88" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>77</v>
+      </c>
+      <c r="C90" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>29</v>
+      </c>
+      <c r="F91" t="s">
+        <v>341</v>
+      </c>
+      <c r="G91" t="s">
+        <v>79</v>
+      </c>
+      <c r="H91" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
-        <v>80</v>
-      </c>
-      <c r="C85" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>77</v>
+      </c>
+      <c r="C94" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D87" t="s">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
         <v>28</v>
       </c>
-      <c r="G87" t="s">
-        <v>445</v>
-      </c>
-      <c r="H87" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D88" t="s">
-        <v>104</v>
-      </c>
-      <c r="F88" t="s">
-        <v>360</v>
-      </c>
-      <c r="G88" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="H88" t="s">
+      <c r="G96" t="s">
+        <v>422</v>
+      </c>
+      <c r="H96" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
+        <v>101</v>
+      </c>
+      <c r="F97" t="s">
+        <v>342</v>
+      </c>
+      <c r="G97" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="H97" t="s">
         <v>46</v>
       </c>
-      <c r="N88" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
+      <c r="N97" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A100" s="25"/>
+      <c r="B100" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C100" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B101" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A102" s="25"/>
+      <c r="B102" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D92" t="s">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D104" t="s">
         <v>28</v>
       </c>
-      <c r="G92" t="s">
-        <v>445</v>
-      </c>
-      <c r="H92" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D93" t="s">
-        <v>103</v>
-      </c>
-      <c r="F93" t="s">
+      <c r="G104" t="s">
+        <v>422</v>
+      </c>
+      <c r="H104" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D105" t="s">
+        <v>100</v>
+      </c>
+      <c r="F105" t="s">
+        <v>366</v>
+      </c>
+      <c r="G105" t="s">
         <v>384</v>
       </c>
-      <c r="G93" t="s">
-        <v>405</v>
-      </c>
-      <c r="H93" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
+      <c r="H105" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95" s="20"/>
-      <c r="B95" t="s">
-        <v>81</v>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A107" s="19"/>
+      <c r="B107" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -5684,11 +6636,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D665D096-BD70-4F59-A80B-B0F9CAA299C4}">
-  <dimension ref="A1:N162"/>
+  <dimension ref="A1:N201"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1:H1048576"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5696,8 +6648,7 @@
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="40.42578125" customWidth="1"/>
@@ -5729,7 +6680,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>11</v>
@@ -5738,19 +6689,19 @@
         <v>26</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>440</v>
+        <v>417</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -5768,22 +6719,22 @@
         <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>447</v>
+        <v>424</v>
       </c>
       <c r="H3" t="s">
-        <v>448</v>
+        <v>425</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="D4" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="I4" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
@@ -5792,16 +6743,16 @@
     <row r="5" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="D5" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="I5" s="10"/>
       <c r="K5" s="10"/>
@@ -5830,10 +6781,10 @@
         <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>447</v>
+        <v>424</v>
       </c>
       <c r="H8" t="s">
-        <v>448</v>
+        <v>425</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -5841,24 +6792,24 @@
         <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -5866,61 +6817,61 @@
         <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F16" t="s">
+        <v>130</v>
+      </c>
+      <c r="I16" t="s">
         <v>133</v>
-      </c>
-      <c r="I16" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -5938,10 +6889,10 @@
         <v>28</v>
       </c>
       <c r="G20" t="s">
-        <v>447</v>
+        <v>424</v>
       </c>
       <c r="H20" t="s">
-        <v>448</v>
+        <v>425</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -5949,16 +6900,16 @@
         <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F21" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="H21" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -5976,33 +6927,33 @@
         <v>28</v>
       </c>
       <c r="G24" t="s">
-        <v>447</v>
+        <v>424</v>
       </c>
       <c r="H24" t="s">
-        <v>448</v>
+        <v>425</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F25" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="H25" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="K25" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="L25" t="s">
-        <v>426</v>
+        <v>403</v>
       </c>
       <c r="M25" t="s">
-        <v>425</v>
+        <v>402</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -6011,12 +6962,12 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
+      <c r="A27" s="18"/>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -6029,10 +6980,10 @@
         <v>28</v>
       </c>
       <c r="G29" t="s">
-        <v>447</v>
+        <v>424</v>
       </c>
       <c r="H29" t="s">
-        <v>448</v>
+        <v>425</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -6040,40 +6991,40 @@
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H30" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E31" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="F31" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C32" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F33" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I33">
         <v>99</v>
@@ -6081,7 +7032,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -6090,18 +7041,18 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
+      <c r="A36" s="18"/>
       <c r="B36" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
+      <c r="A37" s="21"/>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -6114,10 +7065,10 @@
         <v>28</v>
       </c>
       <c r="G39" t="s">
-        <v>447</v>
+        <v>424</v>
       </c>
       <c r="H39" t="s">
-        <v>448</v>
+        <v>425</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -6125,13 +7076,13 @@
         <v>29</v>
       </c>
       <c r="F40" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H40" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -6149,10 +7100,10 @@
         <v>28</v>
       </c>
       <c r="G43" t="s">
-        <v>447</v>
+        <v>424</v>
       </c>
       <c r="H43" t="s">
-        <v>448</v>
+        <v>425</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -6160,16 +7111,16 @@
         <v>25</v>
       </c>
       <c r="E44" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F44" t="s">
-        <v>138</v>
+        <v>544</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="H44" s="22" t="s">
-        <v>250</v>
+        <v>524</v>
+      </c>
+      <c r="H44" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -6187,10 +7138,10 @@
         <v>28</v>
       </c>
       <c r="G47" t="s">
-        <v>447</v>
+        <v>424</v>
       </c>
       <c r="H47" t="s">
-        <v>448</v>
+        <v>425</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -6198,1064 +7149,1737 @@
         <v>25</v>
       </c>
       <c r="E48" t="s">
-        <v>48</v>
+        <v>134</v>
       </c>
       <c r="F48" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>82</v>
+        <v>388</v>
       </c>
       <c r="H48" t="s">
-        <v>41</v>
+        <v>389</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>29</v>
+      </c>
+      <c r="F50" t="s">
+        <v>139</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="H50" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D51" t="s">
-        <v>28</v>
-      </c>
-      <c r="G51" t="s">
-        <v>447</v>
-      </c>
-      <c r="H51" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D52" t="s">
-        <v>25</v>
-      </c>
-      <c r="E52" t="s">
-        <v>137</v>
-      </c>
-      <c r="F52" t="s">
-        <v>141</v>
-      </c>
-      <c r="G52" s="9" t="s">
-        <v>409</v>
-      </c>
-      <c r="H52" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C53" t="s">
-        <v>142</v>
+        <v>545</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D54" t="s">
-        <v>29</v>
-      </c>
-      <c r="F54" t="s">
-        <v>143</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>412</v>
-      </c>
-      <c r="H54" t="s">
-        <v>411</v>
+      <c r="B54" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>81</v>
+      <c r="D55" t="s">
+        <v>28</v>
+      </c>
+      <c r="G55" t="s">
+        <v>424</v>
+      </c>
+      <c r="H55" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>13</v>
+      <c r="D56" t="s">
+        <v>28</v>
+      </c>
+      <c r="G56" t="s">
+        <v>527</v>
+      </c>
+      <c r="H56" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>12</v>
+      <c r="D57" t="s">
+        <v>101</v>
+      </c>
+      <c r="F57" t="s">
+        <v>540</v>
+      </c>
+      <c r="G57" t="s">
+        <v>528</v>
+      </c>
+      <c r="H57" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
-        <v>28</v>
-      </c>
-      <c r="G58" t="s">
-        <v>447</v>
-      </c>
-      <c r="H58" t="s">
-        <v>448</v>
+        <v>229</v>
+      </c>
+      <c r="E58" t="s">
+        <v>536</v>
+      </c>
+      <c r="F58" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D59" t="s">
-        <v>28</v>
-      </c>
-      <c r="G59" t="s">
-        <v>413</v>
-      </c>
-      <c r="H59" t="s">
-        <v>45</v>
+      <c r="B59" t="s">
+        <v>77</v>
+      </c>
+      <c r="C59" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="F60" t="s">
-        <v>144</v>
-      </c>
-      <c r="G60" t="s">
-        <v>83</v>
-      </c>
-      <c r="H60" t="s">
-        <v>42</v>
+        <v>540</v>
+      </c>
+      <c r="I60" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D61" t="s">
-        <v>235</v>
-      </c>
-      <c r="E61" t="s">
-        <v>256</v>
-      </c>
-      <c r="F61" t="s">
-        <v>259</v>
+      <c r="B61" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>80</v>
-      </c>
-      <c r="C62" t="s">
-        <v>260</v>
+      <c r="D62" t="s">
+        <v>101</v>
+      </c>
+      <c r="F62" t="s">
+        <v>541</v>
+      </c>
+      <c r="G62" t="s">
+        <v>529</v>
+      </c>
+      <c r="H62" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
-        <v>132</v>
+        <v>229</v>
+      </c>
+      <c r="E63" t="s">
+        <v>536</v>
       </c>
       <c r="F63" t="s">
-        <v>144</v>
-      </c>
-      <c r="I63">
-        <v>99</v>
+        <v>549</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>81</v>
+        <v>77</v>
+      </c>
+      <c r="C64" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>80</v>
-      </c>
-      <c r="C65" t="s">
-        <v>145</v>
+      <c r="D65" t="s">
+        <v>129</v>
+      </c>
+      <c r="F65" t="s">
+        <v>541</v>
+      </c>
+      <c r="I65" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D66" t="s">
-        <v>29</v>
-      </c>
-      <c r="F66" t="s">
-        <v>146</v>
-      </c>
-      <c r="G66" t="s">
-        <v>82</v>
-      </c>
-      <c r="H66" t="s">
-        <v>41</v>
+      <c r="B66" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>81</v>
+      <c r="D67" t="s">
+        <v>101</v>
+      </c>
+      <c r="F67" t="s">
+        <v>543</v>
+      </c>
+      <c r="G67" t="s">
+        <v>530</v>
+      </c>
+      <c r="H67" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>13</v>
+      <c r="D68" t="s">
+        <v>229</v>
+      </c>
+      <c r="E68" t="s">
+        <v>536</v>
+      </c>
+      <c r="F68" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>12</v>
+        <v>77</v>
+      </c>
+      <c r="C69" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
-        <v>28</v>
-      </c>
-      <c r="G70" t="s">
-        <v>447</v>
-      </c>
-      <c r="H70" t="s">
-        <v>448</v>
+        <v>129</v>
+      </c>
+      <c r="F70" t="s">
+        <v>543</v>
+      </c>
+      <c r="I70" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D71" t="s">
-        <v>28</v>
-      </c>
-      <c r="G71" t="s">
-        <v>398</v>
-      </c>
-      <c r="H71" t="s">
-        <v>43</v>
+      <c r="B71" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="F72" t="s">
-        <v>147</v>
+        <v>542</v>
       </c>
       <c r="G72" t="s">
-        <v>83</v>
+        <v>531</v>
       </c>
       <c r="H72" t="s">
-        <v>42</v>
+        <v>535</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E73" t="s">
-        <v>256</v>
+        <v>536</v>
       </c>
       <c r="F73" t="s">
-        <v>261</v>
+        <v>547</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>262</v>
+        <v>553</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F75" t="s">
-        <v>147</v>
-      </c>
-      <c r="I75">
-        <v>99</v>
+        <v>542</v>
+      </c>
+      <c r="I75" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>80</v>
-      </c>
-      <c r="C77" t="s">
-        <v>145</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D78" t="s">
-        <v>29</v>
-      </c>
-      <c r="F78" t="s">
-        <v>148</v>
-      </c>
-      <c r="G78" t="s">
-        <v>82</v>
-      </c>
-      <c r="H78" t="s">
-        <v>41</v>
+      <c r="B78" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
+      <c r="D80" t="s">
+        <v>28</v>
+      </c>
+      <c r="G80" t="s">
+        <v>424</v>
+      </c>
+      <c r="H80" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>25</v>
+      </c>
+      <c r="E81" t="s">
+        <v>48</v>
+      </c>
+      <c r="F81" t="s">
+        <v>136</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="H81" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
+    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D82" t="s">
+    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
         <v>28</v>
       </c>
-      <c r="G82" t="s">
-        <v>447</v>
-      </c>
-      <c r="H82" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D83" t="s">
+      <c r="G84" t="s">
+        <v>424</v>
+      </c>
+      <c r="H84" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>25</v>
+      </c>
+      <c r="E85" t="s">
+        <v>134</v>
+      </c>
+      <c r="F85" t="s">
+        <v>135</v>
+      </c>
+      <c r="G85" t="s">
+        <v>519</v>
+      </c>
+      <c r="H85" s="16" t="s">
+        <v>520</v>
+      </c>
+      <c r="L85" t="s">
+        <v>523</v>
+      </c>
+      <c r="M85" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
         <v>28</v>
       </c>
-      <c r="G83" t="s">
-        <v>399</v>
-      </c>
-      <c r="H83" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D84" t="s">
-        <v>29</v>
-      </c>
-      <c r="F84" t="s">
-        <v>149</v>
-      </c>
-      <c r="G84" t="s">
-        <v>83</v>
-      </c>
-      <c r="H84" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D85" t="s">
-        <v>235</v>
-      </c>
-      <c r="E85" t="s">
-        <v>256</v>
-      </c>
-      <c r="F85" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
-        <v>80</v>
-      </c>
-      <c r="C86" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D87" t="s">
-        <v>132</v>
-      </c>
-      <c r="F87" t="s">
-        <v>149</v>
-      </c>
-      <c r="I87">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
-        <v>80</v>
-      </c>
-      <c r="C89" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G88" t="s">
+        <v>424</v>
+      </c>
+      <c r="H88" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>28</v>
+      </c>
+      <c r="G89" t="s">
+        <v>392</v>
+      </c>
+      <c r="H89" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D90" t="s">
         <v>29</v>
       </c>
       <c r="F90" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="G90" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H90" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>229</v>
+      </c>
+      <c r="E91" t="s">
+        <v>435</v>
+      </c>
+      <c r="F91" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>77</v>
+      </c>
+      <c r="C92" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>129</v>
+      </c>
+      <c r="F93" t="s">
+        <v>140</v>
+      </c>
+      <c r="I93" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>77</v>
+      </c>
+      <c r="C95" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>129</v>
+      </c>
+      <c r="F96" t="s">
+        <v>140</v>
+      </c>
+      <c r="I96" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>77</v>
+      </c>
+      <c r="C98" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
+        <v>29</v>
+      </c>
+      <c r="F99" t="s">
+        <v>142</v>
+      </c>
+      <c r="G99" t="s">
+        <v>79</v>
+      </c>
+      <c r="H99" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D94" t="s">
-        <v>28</v>
-      </c>
-      <c r="G94" t="s">
-        <v>447</v>
-      </c>
-      <c r="H94" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D95" t="s">
-        <v>25</v>
-      </c>
-      <c r="E95" t="s">
-        <v>137</v>
-      </c>
-      <c r="F95" t="s">
-        <v>151</v>
-      </c>
-      <c r="G95" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="H95" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D98" t="s">
-        <v>28</v>
-      </c>
-      <c r="G98" t="s">
-        <v>447</v>
-      </c>
-      <c r="H98" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D99" t="s">
-        <v>25</v>
-      </c>
-      <c r="E99" t="s">
-        <v>153</v>
-      </c>
-      <c r="F99" t="s">
-        <v>154</v>
-      </c>
-      <c r="G99" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="H99" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="B101" t="s">
-        <v>80</v>
-      </c>
-      <c r="C101" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="5"/>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="5"/>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D103" t="s">
         <v>28</v>
       </c>
       <c r="G103" t="s">
-        <v>447</v>
+        <v>424</v>
       </c>
       <c r="H103" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="5"/>
+        <v>425</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D104" t="s">
         <v>28</v>
       </c>
       <c r="G104" t="s">
-        <v>271</v>
+        <v>379</v>
       </c>
       <c r="H104" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="5"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D105" t="s">
-        <v>273</v>
-      </c>
-      <c r="E105" t="s">
-        <v>274</v>
+        <v>29</v>
       </c>
       <c r="F105" t="s">
-        <v>275</v>
+        <v>143</v>
       </c>
       <c r="G105" t="s">
-        <v>301</v>
+        <v>80</v>
       </c>
       <c r="H105" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="5"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D106" t="s">
-        <v>273</v>
+        <v>229</v>
       </c>
       <c r="E106" t="s">
-        <v>276</v>
+        <v>435</v>
       </c>
       <c r="F106" t="s">
-        <v>277</v>
-      </c>
-      <c r="G106" t="s">
-        <v>302</v>
-      </c>
-      <c r="H106" t="s">
-        <v>304</v>
-      </c>
-      <c r="J106" s="17" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="D107" t="s">
-        <v>235</v>
-      </c>
-      <c r="E107" t="s">
-        <v>294</v>
-      </c>
-      <c r="F107" t="s">
-        <v>279</v>
-      </c>
-      <c r="K107" s="17"/>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="5"/>
-      <c r="B108" t="s">
-        <v>80</v>
-      </c>
-      <c r="C108" t="s">
-        <v>280</v>
-      </c>
-      <c r="K108" s="17"/>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="5"/>
-      <c r="D109" t="s">
-        <v>132</v>
-      </c>
-      <c r="F109" t="s">
-        <v>277</v>
-      </c>
-      <c r="I109" t="s">
-        <v>297</v>
-      </c>
-      <c r="K109" s="17"/>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="5"/>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>77</v>
+      </c>
+      <c r="C107" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D108" t="s">
+        <v>129</v>
+      </c>
+      <c r="F108" t="s">
+        <v>143</v>
+      </c>
+      <c r="I108" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>81</v>
-      </c>
-      <c r="K110" s="17"/>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="5"/>
-      <c r="B111" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="5"/>
+        <v>77</v>
+      </c>
+      <c r="C110" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D111" t="s">
+        <v>129</v>
+      </c>
+      <c r="F111" t="s">
+        <v>143</v>
+      </c>
+      <c r="I111" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>80</v>
-      </c>
-      <c r="C112" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="5"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="5"/>
+        <v>77</v>
+      </c>
+      <c r="C113" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D114" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="F114" t="s">
+        <v>144</v>
       </c>
       <c r="G114" t="s">
-        <v>447</v>
+        <v>79</v>
       </c>
       <c r="H114" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="5"/>
-      <c r="D115" t="s">
-        <v>103</v>
-      </c>
-      <c r="F115" t="s">
-        <v>281</v>
-      </c>
-      <c r="G115" t="s">
-        <v>271</v>
-      </c>
-      <c r="H115" t="s">
-        <v>272</v>
-      </c>
-      <c r="J115" s="17"/>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="5"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>13</v>
       </c>
-      <c r="J116" s="17"/>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="5"/>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>81</v>
-      </c>
-      <c r="J117" s="17"/>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="18"/>
-      <c r="B118" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="5"/>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D118" t="s">
+        <v>28</v>
+      </c>
+      <c r="G118" t="s">
+        <v>424</v>
+      </c>
+      <c r="H118" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D119" t="s">
         <v>28</v>
       </c>
       <c r="G119" t="s">
-        <v>447</v>
+        <v>380</v>
       </c>
       <c r="H119" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="18"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D120" t="s">
-        <v>25</v>
-      </c>
-      <c r="E120" t="s">
-        <v>137</v>
+        <v>29</v>
       </c>
       <c r="F120" t="s">
-        <v>282</v>
+        <v>145</v>
       </c>
       <c r="G120" t="s">
-        <v>415</v>
+        <v>80</v>
       </c>
       <c r="H120" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="18"/>
-      <c r="B121" t="s">
-        <v>80</v>
-      </c>
-      <c r="C121" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="18"/>
-      <c r="D122" t="s">
-        <v>103</v>
-      </c>
-      <c r="F122" t="s">
-        <v>285</v>
-      </c>
-      <c r="G122" t="s">
-        <v>416</v>
-      </c>
-      <c r="H122" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="18"/>
-      <c r="B123" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="18"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D121" t="s">
+        <v>229</v>
+      </c>
+      <c r="E121" t="s">
+        <v>435</v>
+      </c>
+      <c r="F121" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>77</v>
+      </c>
+      <c r="C122" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D123" t="s">
+        <v>129</v>
+      </c>
+      <c r="F123" t="s">
+        <v>145</v>
+      </c>
+      <c r="I123" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>77</v>
+      </c>
+      <c r="C125" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D126" t="s">
+        <v>129</v>
+      </c>
+      <c r="F126" t="s">
+        <v>145</v>
+      </c>
+      <c r="I126" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>77</v>
+      </c>
+      <c r="C128" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D129" t="s">
+        <v>29</v>
+      </c>
+      <c r="F129" t="s">
+        <v>146</v>
+      </c>
+      <c r="G129" t="s">
+        <v>79</v>
+      </c>
+      <c r="H129" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="18"/>
-      <c r="B125" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B126" t="s">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D127" t="s">
-        <v>28</v>
-      </c>
-      <c r="G127" t="s">
-        <v>447</v>
-      </c>
-      <c r="H127" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D128" t="s">
-        <v>25</v>
-      </c>
-      <c r="E128" t="s">
-        <v>156</v>
-      </c>
-      <c r="F128" t="s">
-        <v>157</v>
-      </c>
-      <c r="G128" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="H128" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B129" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B130" t="s">
-        <v>80</v>
-      </c>
-      <c r="C130" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B131" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D132" t="s">
-        <v>28</v>
-      </c>
-      <c r="G132" t="s">
-        <v>447</v>
-      </c>
-      <c r="H132" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D133" t="s">
         <v>28</v>
       </c>
-      <c r="G133" s="9" t="s">
-        <v>231</v>
+      <c r="G133" t="s">
+        <v>424</v>
       </c>
       <c r="H133" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D134" t="s">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="E134" t="s">
-        <v>226</v>
-      </c>
-      <c r="G134" s="9"/>
-      <c r="N134" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="F134" t="s">
+        <v>147</v>
+      </c>
+      <c r="G134" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="H134" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>13</v>
       </c>
-      <c r="G135" s="9"/>
-    </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>80</v>
-      </c>
-      <c r="C136" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D137" t="s">
+        <v>28</v>
+      </c>
+      <c r="G137" t="s">
+        <v>424</v>
+      </c>
+      <c r="H137" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D138" t="s">
+        <v>25</v>
+      </c>
+      <c r="E138" t="s">
+        <v>149</v>
+      </c>
+      <c r="F138" t="s">
+        <v>150</v>
+      </c>
+      <c r="G138" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="H138" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B140" t="s">
+        <v>77</v>
+      </c>
+      <c r="C140" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="5"/>
+      <c r="B141" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="5"/>
+      <c r="D142" t="s">
+        <v>28</v>
+      </c>
+      <c r="G142" t="s">
+        <v>424</v>
+      </c>
+      <c r="H142" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="5"/>
+      <c r="D143" t="s">
+        <v>28</v>
+      </c>
+      <c r="G143" t="s">
+        <v>259</v>
+      </c>
+      <c r="H143" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="5"/>
+      <c r="D144" t="s">
+        <v>261</v>
+      </c>
+      <c r="E144" t="s">
+        <v>262</v>
+      </c>
+      <c r="F144" t="s">
+        <v>263</v>
+      </c>
+      <c r="G144" t="s">
+        <v>289</v>
+      </c>
+      <c r="H144" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145" s="5"/>
+      <c r="D145" t="s">
+        <v>261</v>
+      </c>
+      <c r="E145" t="s">
+        <v>264</v>
+      </c>
+      <c r="F145" t="s">
+        <v>265</v>
+      </c>
+      <c r="G145" t="s">
+        <v>290</v>
+      </c>
+      <c r="H145" t="s">
+        <v>292</v>
+      </c>
+      <c r="J145" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146" s="5"/>
+      <c r="D146" t="s">
+        <v>229</v>
+      </c>
+      <c r="E146" t="s">
+        <v>282</v>
+      </c>
+      <c r="F146" t="s">
+        <v>267</v>
+      </c>
+      <c r="K146" s="16"/>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147" s="5"/>
+      <c r="B147" t="s">
+        <v>77</v>
+      </c>
+      <c r="C147" t="s">
+        <v>268</v>
+      </c>
+      <c r="K147" s="16"/>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148" s="5"/>
+      <c r="D148" t="s">
+        <v>129</v>
+      </c>
+      <c r="F148" t="s">
+        <v>265</v>
+      </c>
+      <c r="I148" t="s">
+        <v>285</v>
+      </c>
+      <c r="K148" s="16"/>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149" s="5"/>
+      <c r="B149" t="s">
+        <v>78</v>
+      </c>
+      <c r="K149" s="16"/>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150" s="5"/>
+      <c r="B150" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151" s="5"/>
+      <c r="B151" t="s">
+        <v>77</v>
+      </c>
+      <c r="C151" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152" s="5"/>
+      <c r="B152" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A153" s="5"/>
+      <c r="D153" t="s">
+        <v>28</v>
+      </c>
+      <c r="G153" t="s">
+        <v>424</v>
+      </c>
+      <c r="H153" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A154" s="5"/>
+      <c r="D154" t="s">
+        <v>100</v>
+      </c>
+      <c r="F154" t="s">
+        <v>269</v>
+      </c>
+      <c r="G154" t="s">
+        <v>259</v>
+      </c>
+      <c r="H154" t="s">
+        <v>260</v>
+      </c>
+      <c r="J154" s="16"/>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A155" s="5"/>
+      <c r="B155" t="s">
+        <v>13</v>
+      </c>
+      <c r="J155" s="16"/>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A156" s="5"/>
+      <c r="B156" t="s">
+        <v>78</v>
+      </c>
+      <c r="J156" s="16"/>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A157" s="17"/>
+      <c r="B157" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A158" s="5"/>
+      <c r="D158" t="s">
+        <v>28</v>
+      </c>
+      <c r="G158" t="s">
+        <v>424</v>
+      </c>
+      <c r="H158" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A159" s="17"/>
+      <c r="D159" t="s">
+        <v>25</v>
+      </c>
+      <c r="E159" t="s">
+        <v>134</v>
+      </c>
+      <c r="F159" t="s">
+        <v>270</v>
+      </c>
+      <c r="G159" t="s">
+        <v>394</v>
+      </c>
+      <c r="H159" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A160" s="17"/>
+      <c r="B160" t="s">
+        <v>77</v>
+      </c>
+      <c r="C160" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A161" s="17"/>
+      <c r="D161" t="s">
+        <v>100</v>
+      </c>
+      <c r="F161" t="s">
+        <v>273</v>
+      </c>
+      <c r="G161" t="s">
+        <v>395</v>
+      </c>
+      <c r="H161" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A162" s="17"/>
+      <c r="B162" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A163" s="17"/>
+      <c r="B163" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A164" s="17"/>
+      <c r="B164" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D166" t="s">
+        <v>28</v>
+      </c>
+      <c r="G166" t="s">
+        <v>424</v>
+      </c>
+      <c r="H166" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D167" t="s">
+        <v>25</v>
+      </c>
+      <c r="E167" t="s">
+        <v>152</v>
+      </c>
+      <c r="F167" t="s">
+        <v>153</v>
+      </c>
+      <c r="G167" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="H167" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B168" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B169" t="s">
+        <v>77</v>
+      </c>
+      <c r="C169" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B170" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D171" t="s">
+        <v>28</v>
+      </c>
+      <c r="G171" t="s">
+        <v>424</v>
+      </c>
+      <c r="H171" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D172" t="s">
+        <v>28</v>
+      </c>
+      <c r="G172" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="H172" t="s">
         <v>227</v>
       </c>
-      <c r="G136" s="9"/>
-    </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B137" t="s">
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D173" t="s">
+        <v>95</v>
+      </c>
+      <c r="E173" t="s">
+        <v>221</v>
+      </c>
+      <c r="G173" s="9"/>
+      <c r="N173" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B174" t="s">
+        <v>13</v>
+      </c>
+      <c r="G174" s="9"/>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B175" t="s">
+        <v>77</v>
+      </c>
+      <c r="C175" t="s">
+        <v>222</v>
+      </c>
+      <c r="G175" s="9"/>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
         <v>12</v>
       </c>
-      <c r="G137" s="9"/>
-    </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D138" t="s">
+      <c r="G176" s="9"/>
+    </row>
+    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D177" t="s">
         <v>28</v>
       </c>
-      <c r="G138" s="9" t="s">
-        <v>447</v>
-      </c>
-      <c r="H138" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D139" t="s">
+      <c r="G177" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="H177" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D178" t="s">
         <v>28</v>
       </c>
-      <c r="G139" s="9" t="s">
+      <c r="G178" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="H178" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="179" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D179" t="s">
+        <v>95</v>
+      </c>
+      <c r="E179" t="s">
+        <v>221</v>
+      </c>
+      <c r="G179" s="9"/>
+      <c r="N179" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B180" t="s">
+        <v>13</v>
+      </c>
+      <c r="G180" s="9"/>
+    </row>
+    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B181" t="s">
+        <v>77</v>
+      </c>
+      <c r="C181" t="s">
+        <v>231</v>
+      </c>
+      <c r="G181" s="9"/>
+    </row>
+    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B182" t="s">
+        <v>12</v>
+      </c>
+      <c r="G182" s="9"/>
+    </row>
+    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D183" t="s">
+        <v>28</v>
+      </c>
+      <c r="G183" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="H183" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D184" t="s">
+        <v>28</v>
+      </c>
+      <c r="G184" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="H184" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D185" t="s">
+        <v>95</v>
+      </c>
+      <c r="E185" t="s">
+        <v>221</v>
+      </c>
+      <c r="G185" s="9"/>
+      <c r="N185" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B186" t="s">
+        <v>13</v>
+      </c>
+      <c r="G186" s="9"/>
+    </row>
+    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B187" t="s">
+        <v>77</v>
+      </c>
+      <c r="C187" t="s">
         <v>232</v>
       </c>
-      <c r="H139" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D140" t="s">
-        <v>98</v>
-      </c>
-      <c r="E140" t="s">
-        <v>226</v>
-      </c>
-      <c r="G140" s="9"/>
-      <c r="N140" t="b">
+      <c r="G187" s="9"/>
+    </row>
+    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B188" t="s">
+        <v>12</v>
+      </c>
+      <c r="G188" s="9"/>
+    </row>
+    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D189" t="s">
+        <v>28</v>
+      </c>
+      <c r="G189" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="H189" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D190" t="s">
+        <v>28</v>
+      </c>
+      <c r="G190" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="H190" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D191" t="s">
+        <v>95</v>
+      </c>
+      <c r="E191" t="s">
+        <v>221</v>
+      </c>
+      <c r="N191" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B141" t="s">
+    <row r="192" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B192" t="s">
         <v>13</v>
       </c>
-      <c r="G141" s="9"/>
-    </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B142" t="s">
-        <v>80</v>
-      </c>
-      <c r="C142" t="s">
-        <v>238</v>
-      </c>
-      <c r="G142" s="9"/>
-    </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B143" t="s">
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B193" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B194" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B195" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B196" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197" s="21"/>
+      <c r="B197" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B198" t="s">
         <v>12</v>
       </c>
-      <c r="G143" s="9"/>
-    </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D144" t="s">
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D199" t="s">
         <v>28</v>
       </c>
-      <c r="G144" s="9" t="s">
-        <v>447</v>
-      </c>
-      <c r="H144" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D145" t="s">
+      <c r="G199" t="s">
+        <v>424</v>
+      </c>
+      <c r="H199" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D200" t="s">
+        <v>100</v>
+      </c>
+      <c r="F200" t="s">
+        <v>367</v>
+      </c>
+      <c r="G200" t="s">
+        <v>396</v>
+      </c>
+      <c r="H200" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B201" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58519026-E717-4EE6-BCBC-22D3FC032B06}">
+  <dimension ref="A1:J25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:J25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="D3" t="s">
         <v>28</v>
       </c>
-      <c r="G145" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="H145" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D146" t="s">
-        <v>98</v>
-      </c>
-      <c r="E146" t="s">
-        <v>226</v>
-      </c>
-      <c r="G146" s="9"/>
-      <c r="N146" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B147" t="s">
+      <c r="G3" t="s">
+        <v>476</v>
+      </c>
+      <c r="H3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>478</v>
+      </c>
+      <c r="F4" t="s">
+        <v>479</v>
+      </c>
+      <c r="G4" t="s">
+        <v>480</v>
+      </c>
+      <c r="H4" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>482</v>
+      </c>
+      <c r="F5" t="s">
+        <v>483</v>
+      </c>
+      <c r="G5" t="s">
+        <v>484</v>
+      </c>
+      <c r="H5" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="G147" s="9"/>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B148" t="s">
-        <v>80</v>
-      </c>
-      <c r="C148" t="s">
-        <v>239</v>
-      </c>
-      <c r="G148" s="9"/>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B149" t="s">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="G149" s="9"/>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D150" t="s">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="D8" t="s">
         <v>28</v>
       </c>
-      <c r="G150" s="9" t="s">
-        <v>447</v>
-      </c>
-      <c r="H150" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D151" t="s">
+      <c r="G8" t="s">
+        <v>476</v>
+      </c>
+      <c r="H8" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>134</v>
+      </c>
+      <c r="F9" t="s">
+        <v>486</v>
+      </c>
+      <c r="G9" t="s">
+        <v>487</v>
+      </c>
+      <c r="H9" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F10" t="s">
+        <v>489</v>
+      </c>
+      <c r="G10" t="s">
+        <v>490</v>
+      </c>
+      <c r="H10" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="D13" t="s">
         <v>28</v>
       </c>
-      <c r="G151" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="H151" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D152" t="s">
-        <v>98</v>
-      </c>
-      <c r="E152" t="s">
-        <v>226</v>
-      </c>
-      <c r="N152" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B153" t="s">
+      <c r="G13" t="s">
+        <v>476</v>
+      </c>
+      <c r="H13" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" t="s">
+        <v>134</v>
+      </c>
+      <c r="F14" t="s">
+        <v>492</v>
+      </c>
+      <c r="G14" t="s">
+        <v>493</v>
+      </c>
+      <c r="H14" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="D15" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" t="s">
+        <v>495</v>
+      </c>
+      <c r="G15" t="s">
+        <v>496</v>
+      </c>
+      <c r="H15" t="s">
+        <v>497</v>
+      </c>
+      <c r="J15" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B154" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B155" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B156" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B157" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A158" s="23"/>
-      <c r="B158" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B159" t="s">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D160" t="s">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
         <v>28</v>
       </c>
-      <c r="G160" t="s">
-        <v>447</v>
-      </c>
-      <c r="H160" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="161" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D161" t="s">
-        <v>103</v>
-      </c>
-      <c r="F161" t="s">
-        <v>385</v>
-      </c>
-      <c r="G161" t="s">
-        <v>417</v>
-      </c>
-      <c r="H161" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="162" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B162" t="s">
+      <c r="G18" t="s">
+        <v>476</v>
+      </c>
+      <c r="H18" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" t="s">
+        <v>499</v>
+      </c>
+      <c r="G19" t="s">
+        <v>500</v>
+      </c>
+      <c r="H19" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>129</v>
+      </c>
+      <c r="F21" t="s">
+        <v>515</v>
+      </c>
+      <c r="I21" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>129</v>
+      </c>
+      <c r="F23" t="s">
+        <v>515</v>
+      </c>
+      <c r="I23" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7264,7 +8888,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3979F510-C769-4227-AA22-F1F6C93E2BBE}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -7280,27 +8904,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
-        <v>388</v>
-      </c>
-      <c r="B1" s="24" t="s">
+      <c r="A1" s="22" t="s">
+        <v>369</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>390</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>389</v>
+        <v>371</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
       <c r="B3" t="s">
-        <v>441</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -7308,13 +8932,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9BD80F5-C430-4F23-B07C-4493C6C076E0}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7334,117 +8958,91 @@
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="H1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>97</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="G2" t="s">
-        <v>230</v>
+        <v>554</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>226</v>
-      </c>
-      <c r="B3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D3" t="s">
-        <v>228</v>
-      </c>
-      <c r="E3" t="s">
-        <v>223</v>
-      </c>
-      <c r="F3" t="s">
-        <v>229</v>
-      </c>
-      <c r="G3" t="s">
-        <v>386</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B4" t="s">
+        <v>275</v>
+      </c>
+      <c r="J4" t="s">
+        <v>276</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="B5" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="J5" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>276</v>
-      </c>
-      <c r="B6" t="s">
-        <v>287</v>
-      </c>
-      <c r="J6" t="s">
-        <v>288</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -7452,7 +9050,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E9C5AA-9540-45DB-BCC0-5EA98DDA6B0B}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -7499,7 +9097,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>24</v>
@@ -7507,7 +9105,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
         <v>37</v>
@@ -7516,50 +9114,7 @@
         <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F400C0F-2F8A-4940-8B8F-D3223CEC21CC}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>437</v>
-      </c>
-      <c r="B2" t="s">
-        <v>438</v>
-      </c>
-      <c r="C2" t="s">
-        <v>439</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/GRAVIDA/forms/GRAVIDA/GRAVIDA.xlsx
+++ b/app/config/tables/GRAVIDA/forms/GRAVIDA/GRAVIDA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84AF57B1-E6F2-423E-8471-CDAE677532D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B66311-50CB-4439-BF95-A0CC698E2CA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="700" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="700" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -3269,7 +3269,7 @@
   <dimension ref="A1:M107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A48" sqref="A48:C48"/>
     </sheetView>
   </sheetViews>
@@ -5537,9 +5537,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51D9F90A-DED8-4B84-AE76-A32853D141F5}">
   <dimension ref="A1:N107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A100" sqref="A100:XFD102"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6639,7 +6639,7 @@
   <dimension ref="A1:N201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
@@ -8936,7 +8936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9BD80F5-C430-4F23-B07C-4493C6C076E0}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>

--- a/app/config/tables/GRAVIDA/forms/GRAVIDA/GRAVIDA.xlsx
+++ b/app/config/tables/GRAVIDA/forms/GRAVIDA/GRAVIDA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B66311-50CB-4439-BF95-A0CC698E2CA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D48C08-1D71-402A-94D2-BBD8B93E14A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="700" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" tabRatio="700" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1673" uniqueCount="572">
   <si>
     <t>setting_name</t>
   </si>
@@ -1271,12 +1271,6 @@
     <t>adate.diffInDays(data('VISDIA2'), data('LMP2_M'))&lt;1 || data('LMP2_M') == null || adate.hasUncertainty(data('LMP2_M'))</t>
   </si>
   <si>
-    <t>adate.diffInDays(data('VISDIA2'), data('LMP2_C'))&lt;1 || data('LMP2_C') == null || adate.hasUncertainty(data('LMP2_C'))</t>
-  </si>
-  <si>
-    <t>adate.diffInDays(data('CONT'), data('LMP1_C'))&lt;1 || data('LMP1_C') == null || adate.hasUncertainty(data('LMP1_C'))</t>
-  </si>
-  <si>
     <t>adate.diffInDays(data('CONT'), data('LMP1_M'))&lt;1 || data('LMP1_M') == null || adate.hasUncertainty(data('LMP1_M'))</t>
   </si>
   <si>
@@ -1328,18 +1322,6 @@
     <t>&lt;b&gt;Depois de parto: {{data.nome}} - Nas: {{calculates.displayREGDIA}}&lt;b&gt;</t>
   </si>
   <si>
-    <t>data('GEST2')&lt;11</t>
-  </si>
-  <si>
-    <t>Gestation month must be less than 10</t>
-  </si>
-  <si>
-    <t>O mês de gestação deve ser inferior a 10</t>
-  </si>
-  <si>
-    <t>data('GEST1')&lt;11</t>
-  </si>
-  <si>
     <t>(data('MAEBRAC1')&gt;49 &amp;&amp; data('MAEBRAC1')&lt;343 &amp;&amp; data('MAEBRAC1')%2 == 0) ||data('MULPRESA1') != '1' || data('MAEBRAC1')==555</t>
   </si>
   <si>
@@ -1616,12 +1598,6 @@
     <t>Tem cartão do consulta pré-natal?</t>
   </si>
   <si>
-    <t>Si tiver cartão, tirar informações do cartão</t>
-  </si>
-  <si>
-    <t>Use information from prenatil consultation card if possible</t>
-  </si>
-  <si>
     <t>Have vaccination  card?</t>
   </si>
   <si>
@@ -1713,6 +1689,81 @@
   </si>
   <si>
     <t>{PREGID: opendatakit.getCurrentInstanceId(), REGID: data('REGID'), REGDIA: data('PREGDIA'), REG: data('REG'), TAB: data('TAB'), MOR: data('MOR'), CASA: data('CASA'), FOGAO: data('FOGAO'), AMO: data('AMO'), CABA: data('CABA'), GERADOR: data('GERADOR'), OBSSES: data('OBSSES'), RADIO: data('RADIO'), SESDATA: data('SESDATA'), TECTO: data('TECTO'), TELEMOVEL: data('TELEMOVEL'), TELENUMERO: data('TELENUMERO'), OBSPART: data('OBSPART'), OUTDATE: data('OUTDATE'), ASSISTPART: data('ASSISTPART'), CARTON: data('CARTON'), CART_ANC: data('CART_ANC'), CDG_C: data('CDG_C'), CDG_M: data('CDG_M'), FEDEP_C: data('FEDEP_C'), FEDEP_M: data('FEDEP_M'), GRCONS: data('GRCONS'), GRINFOS: data('GRINFOS'), GRVAC: data('GRVAC'), LITTERSIZE: data('LITTERSIZE'), LOCPAR: data('LOCPAR'), QVFANSI_C: data('QVFANSI_C'), QVFANSI_M: data('QVFANSI_M'), TABPART: data('TABPART'), VACTT1: data('VACTT1'), VACTT2: data('VACTT2'), VACTT3: data('VACTT3'), VACTT4: data('VACTT4'), VACTTHI: data('VACTTHI')}</t>
+  </si>
+  <si>
+    <t>gestpu</t>
+  </si>
+  <si>
+    <t>gestpup</t>
+  </si>
+  <si>
+    <t>&lt;font color = "red"&gt;Gestation month&lt;/font&gt;</t>
+  </si>
+  <si>
+    <t>&lt;font color = "red"&gt;Mes de gestação&lt;/font&gt;</t>
+  </si>
+  <si>
+    <t>{{calculates.gestpu}}</t>
+  </si>
+  <si>
+    <t>{{calculates.gestpup}}</t>
+  </si>
+  <si>
+    <t>data('GEST1')&gt;10 &amp;&amp; data('GEST1') !='99' &amp;&amp; data('gest1obs') !='2'</t>
+  </si>
+  <si>
+    <t>gest1obs</t>
+  </si>
+  <si>
+    <t>gest2obs</t>
+  </si>
+  <si>
+    <t>data('GEST2')&gt;10 &amp;&amp; data('GEST2') !='99' &amp;&amp; data('gest2obs') !='2'</t>
+  </si>
+  <si>
+    <t>&lt;font color = "red"&gt;Card&lt;/font&gt;</t>
+  </si>
+  <si>
+    <t>&lt;font color = "red"&gt;Cartão&lt;/font&gt;</t>
+  </si>
+  <si>
+    <t>lmp1_cobs</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('CONT'), data('LMP1_C'))&gt;1 &amp;&amp; !adate.hasUncertainty(data('LMP1_C')) &amp;&amp; data('lmp1_cobs') !="2"</t>
+  </si>
+  <si>
+    <t>lmp2_cobs</t>
+  </si>
+  <si>
+    <t>freebase.echo('The date of last period is in the future')</t>
+  </si>
+  <si>
+    <t>freebase.echo('Gestation month is more than 10')</t>
+  </si>
+  <si>
+    <t>freebase.echo('O mês da gestação é superior a 10')</t>
+  </si>
+  <si>
+    <t>freebase.echo('A data do último período está no futuro')</t>
+  </si>
+  <si>
+    <t>lmp_cpu</t>
+  </si>
+  <si>
+    <t>lmp_cpup</t>
+  </si>
+  <si>
+    <t>{{calculates.lmp_cpu}}</t>
+  </si>
+  <si>
+    <t>{{calculates.lmp_cpup}}</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('CONT'), data('LMP2_M'))&lt;2 || data('LMP2_M') == null || adate.hasUncertainty(data('LMP2_M'))</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('VISDIA2'), data('LMP2_C'))&gt;1 &amp;&amp; !adate.hasUncertainty(data('LMP2_C')) &amp;&amp; data('lmp2_cobs') !="2"</t>
   </si>
 </sst>
 </file>
@@ -2293,24 +2344,24 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C2" t="s">
         <v>414</v>
-      </c>
-      <c r="B2" t="s">
-        <v>415</v>
-      </c>
-      <c r="C2" t="s">
-        <v>416</v>
       </c>
     </row>
   </sheetData>
@@ -2535,10 +2586,10 @@
         <v>68</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2563,7 +2614,7 @@
         <v>72</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>73</v>
@@ -3027,10 +3078,10 @@
         <v>555</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -3080,22 +3131,22 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B52" s="13" t="str">
         <f>"88"</f>
         <v>88</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B53" s="13" t="str">
         <f>"99"</f>
@@ -3110,67 +3161,67 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="B54" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D54" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="B55" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C55" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="D55" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="B56" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C56" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="D56" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="B57" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C57" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="D57" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="B58" t="str">
         <f>"9"</f>
@@ -3185,52 +3236,52 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B59" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="D59" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B60" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C60" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="D60" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B61" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C61" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="D61" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B62" t="str">
         <f>"9"</f>
@@ -3245,17 +3296,17 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="B63" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="D63" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
     </row>
   </sheetData>
@@ -3266,11 +3317,11 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
-  <dimension ref="A1:M107"/>
+  <dimension ref="A1:M111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A48" sqref="A48:C48"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3411,21 +3462,21 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>104</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>25</v>
+        <v>554</v>
+      </c>
+      <c r="B12" t="s">
+        <v>129</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>298</v>
-      </c>
-      <c r="B13" t="s">
-        <v>101</v>
+        <v>104</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
@@ -3433,7 +3484,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B14" t="s">
         <v>101</v>
@@ -3444,65 +3495,65 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>347</v>
+        <v>559</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>348</v>
+        <v>297</v>
       </c>
       <c r="B16" t="s">
-        <v>229</v>
+        <v>101</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>355</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>101</v>
+      <c r="A18" t="s">
+        <v>348</v>
+      </c>
+      <c r="B18" t="s">
+        <v>229</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>301</v>
+        <v>365</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>299</v>
-      </c>
-      <c r="B20" t="s">
-        <v>29</v>
+      <c r="A20" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>101</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -3510,57 +3561,57 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B21" t="s">
-        <v>229</v>
+        <v>29</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>299</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>327</v>
+        <v>300</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>229</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
-      </c>
-      <c r="D23" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>342</v>
-      </c>
-      <c r="B24" t="s">
-        <v>101</v>
-      </c>
-      <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
       </c>
+      <c r="D25" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
@@ -3568,18 +3619,18 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B27" t="s">
-        <v>229</v>
+        <v>29</v>
       </c>
       <c r="C27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
@@ -3590,29 +3641,29 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="C29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B30" t="s">
-        <v>229</v>
+        <v>29</v>
       </c>
       <c r="C30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="B31" t="s">
         <v>29</v>
@@ -3623,7 +3674,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="B32" t="s">
         <v>229</v>
@@ -3634,71 +3685,67 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="C33" t="b">
         <v>0</v>
       </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>329</v>
+        <v>353</v>
       </c>
       <c r="B34" t="s">
-        <v>101</v>
+        <v>229</v>
       </c>
       <c r="C34" t="b">
-        <v>0</v>
-      </c>
-      <c r="G34" s="11"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>344</v>
+        <v>555</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="C35" t="b">
-        <v>0</v>
-      </c>
-      <c r="G35" s="11"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="B36" t="s">
-        <v>229</v>
+        <v>101</v>
       </c>
       <c r="C36" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F36" s="11"/>
       <c r="G36" s="11"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>324</v>
+        <v>561</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="C37" t="b">
-        <v>0</v>
-      </c>
-      <c r="G37" s="11"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
-        <v>366</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>100</v>
+      <c r="A38" t="s">
+        <v>329</v>
+      </c>
+      <c r="B38" t="s">
+        <v>101</v>
       </c>
       <c r="C38" t="b">
         <v>0</v>
@@ -3707,7 +3754,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="B39" t="s">
         <v>29</v>
@@ -3719,46 +3766,55 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="B40" t="s">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="C40" t="b">
-        <v>0</v>
-      </c>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="G40" s="11"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="B41" t="s">
-        <v>229</v>
+        <v>25</v>
       </c>
       <c r="C41" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G41" s="11"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>101</v>
+      <c r="A42" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>100</v>
       </c>
       <c r="C42" t="b">
         <v>0</v>
       </c>
+      <c r="G42" s="11"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
+      <c r="A43" t="s">
+        <v>335</v>
+      </c>
+      <c r="B43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" t="b">
+        <v>0</v>
+      </c>
+      <c r="G43" s="11"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>116</v>
+        <v>333</v>
       </c>
       <c r="B44" t="s">
         <v>29</v>
@@ -3766,13 +3822,12 @@
       <c r="C44" t="b">
         <v>0</v>
       </c>
-      <c r="D44" t="s">
-        <v>363</v>
-      </c>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>248</v>
+        <v>334</v>
       </c>
       <c r="B45" t="s">
         <v>229</v>
@@ -3782,55 +3837,51 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>153</v>
-      </c>
-      <c r="B46" t="s">
-        <v>25</v>
+      <c r="A46" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>101</v>
       </c>
       <c r="C46" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>136</v>
-      </c>
-      <c r="B47" t="s">
-        <v>25</v>
-      </c>
-      <c r="C47" t="b">
-        <v>0</v>
-      </c>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>544</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>25</v>
+        <v>116</v>
+      </c>
+      <c r="B48" t="s">
+        <v>29</v>
       </c>
       <c r="C48" t="b">
         <v>0</v>
       </c>
+      <c r="D48" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>142</v>
+        <v>248</v>
       </c>
       <c r="B49" t="s">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="C49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="B50" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C50" t="b">
         <v>0</v>
@@ -3838,21 +3889,21 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>250</v>
+        <v>136</v>
       </c>
       <c r="B51" t="s">
-        <v>229</v>
+        <v>25</v>
       </c>
       <c r="C51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>144</v>
-      </c>
-      <c r="B52" t="s">
-        <v>29</v>
+        <v>536</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="C52" t="b">
         <v>0</v>
@@ -3860,7 +3911,7 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B53" t="s">
         <v>29</v>
@@ -3868,37 +3919,35 @@
       <c r="C53" t="b">
         <v>0</v>
       </c>
-      <c r="L53" s="11"/>
-      <c r="M53" s="11"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>251</v>
+        <v>140</v>
       </c>
       <c r="B54" t="s">
-        <v>229</v>
+        <v>29</v>
       </c>
       <c r="C54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>135</v>
+        <v>250</v>
       </c>
       <c r="B55" t="s">
-        <v>25</v>
+        <v>229</v>
       </c>
       <c r="C55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="B56" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C56" t="b">
         <v>0</v>
@@ -3906,21 +3955,23 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B57" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C57" t="b">
         <v>0</v>
       </c>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>121</v>
+        <v>251</v>
       </c>
       <c r="B58" t="s">
-        <v>25</v>
+        <v>229</v>
       </c>
       <c r="C58" t="b">
         <v>1</v>
@@ -3928,21 +3979,21 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="B59" t="s">
         <v>25</v>
       </c>
       <c r="C59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="B60" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C60" t="b">
         <v>0</v>
@@ -3950,7 +4001,7 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="B61" t="s">
         <v>25</v>
@@ -3960,33 +4011,33 @@
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="12" t="s">
-        <v>367</v>
-      </c>
-      <c r="B62" s="12" t="s">
-        <v>100</v>
+      <c r="A62" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" t="s">
+        <v>25</v>
       </c>
       <c r="C62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="B63" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="C63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B64" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C64" t="b">
         <v>0</v>
@@ -3994,32 +4045,32 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>265</v>
+        <v>150</v>
       </c>
       <c r="B65" t="s">
-        <v>261</v>
+        <v>25</v>
       </c>
       <c r="C65" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>267</v>
-      </c>
-      <c r="B66" t="s">
-        <v>229</v>
+      <c r="A66" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>100</v>
       </c>
       <c r="C66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>269</v>
+        <v>114</v>
       </c>
       <c r="B67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C67" t="b">
         <v>0</v>
@@ -4027,10 +4078,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>273</v>
+        <v>113</v>
       </c>
       <c r="B68" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="C68" t="b">
         <v>0</v>
@@ -4038,10 +4089,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B69" t="s">
-        <v>25</v>
+        <v>261</v>
       </c>
       <c r="C69" t="b">
         <v>0</v>
@@ -4049,21 +4100,21 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>146</v>
+        <v>267</v>
       </c>
       <c r="B70" t="s">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="C70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>145</v>
+        <v>269</v>
       </c>
       <c r="B71" t="s">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="C71" t="b">
         <v>0</v>
@@ -4071,32 +4122,32 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="B72" t="s">
-        <v>229</v>
+        <v>100</v>
       </c>
       <c r="C72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="B73" t="s">
-        <v>261</v>
+        <v>25</v>
       </c>
       <c r="C73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B74" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C74" t="b">
         <v>0</v>
@@ -4104,10 +4155,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>540</v>
+        <v>145</v>
       </c>
       <c r="B75" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="C75" t="b">
         <v>0</v>
@@ -4115,9 +4166,9 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>546</v>
-      </c>
-      <c r="B76" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="B76" t="s">
         <v>229</v>
       </c>
       <c r="C76" t="b">
@@ -4126,29 +4177,29 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>541</v>
+        <v>263</v>
       </c>
       <c r="B77" t="s">
-        <v>101</v>
+        <v>261</v>
       </c>
       <c r="C77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>549</v>
-      </c>
-      <c r="B78" s="12" t="s">
-        <v>229</v>
+        <v>147</v>
+      </c>
+      <c r="B78" t="s">
+        <v>25</v>
       </c>
       <c r="C78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="B79" t="s">
         <v>101</v>
@@ -4159,7 +4210,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="B80" s="12" t="s">
         <v>229</v>
@@ -4170,7 +4221,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="B81" t="s">
         <v>101</v>
@@ -4181,7 +4232,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="B82" s="12" t="s">
         <v>229</v>
@@ -4192,87 +4243,87 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>139</v>
+        <v>535</v>
       </c>
       <c r="B83" t="s">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="C83" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="B84" s="11" t="s">
+      <c r="A84" t="s">
+        <v>540</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="C84" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>534</v>
+      </c>
+      <c r="B85" t="s">
         <v>101</v>
       </c>
-      <c r="C84" t="b">
+      <c r="C85" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>483</v>
-      </c>
-      <c r="B86" t="s">
-        <v>25</v>
+        <v>539</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>229</v>
       </c>
       <c r="C86" t="b">
-        <v>0</v>
-      </c>
-      <c r="D86" t="s">
-        <v>217</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>486</v>
+        <v>139</v>
       </c>
       <c r="B87" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C87" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>499</v>
-      </c>
-      <c r="B88" t="s">
-        <v>100</v>
+      <c r="A88" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>101</v>
       </c>
       <c r="C88" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>489</v>
-      </c>
-      <c r="B89" t="s">
-        <v>25</v>
-      </c>
-      <c r="C89" t="b">
-        <v>0</v>
-      </c>
-    </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>515</v>
+        <v>477</v>
       </c>
       <c r="B90" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="C90" t="b">
         <v>0</v>
       </c>
+      <c r="D90" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B91" t="s">
         <v>25</v>
@@ -4283,10 +4334,10 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B92" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="C92" t="b">
         <v>0</v>
@@ -4294,65 +4345,62 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="B93" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="C93" t="b">
         <v>0</v>
       </c>
     </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>509</v>
+      </c>
+      <c r="B94" t="s">
+        <v>101</v>
+      </c>
+      <c r="C94" t="b">
+        <v>0</v>
+      </c>
+    </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B95" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C95" t="b">
         <v>0</v>
       </c>
-      <c r="D95" t="s">
-        <v>364</v>
-      </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>237</v>
+        <v>486</v>
       </c>
       <c r="B96" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="C96" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>471</v>
+        <v>489</v>
       </c>
       <c r="B97" t="s">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="C97" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>97</v>
-      </c>
-      <c r="B98" t="s">
-        <v>101</v>
-      </c>
-      <c r="C98" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B99" t="s">
         <v>29</v>
@@ -4360,21 +4408,24 @@
       <c r="C99" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>372</v>
+        <v>237</v>
       </c>
       <c r="B100" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C100" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="B101" t="s">
         <v>29</v>
@@ -4383,75 +4434,119 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>315</v>
+        <v>97</v>
       </c>
       <c r="B102" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="C102" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>368</v>
+        <v>461</v>
       </c>
       <c r="B103" t="s">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="C103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>372</v>
+      </c>
+      <c r="B104" t="s">
+        <v>101</v>
+      </c>
+      <c r="C104" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>468</v>
-      </c>
-      <c r="B104" t="s">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>464</v>
+      </c>
+      <c r="B105" t="s">
         <v>29</v>
-      </c>
-      <c r="C104" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>99</v>
-      </c>
-      <c r="B105" t="s">
-        <v>100</v>
       </c>
       <c r="C105" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>469</v>
+        <v>315</v>
       </c>
       <c r="B106" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C106" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>219</v>
+        <v>368</v>
       </c>
       <c r="B107" t="s">
         <v>100</v>
       </c>
       <c r="C107" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>462</v>
+      </c>
+      <c r="B108" t="s">
+        <v>29</v>
+      </c>
+      <c r="C108" t="b">
         <v>0</v>
       </c>
     </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>99</v>
+      </c>
+      <c r="B109" t="s">
+        <v>100</v>
+      </c>
+      <c r="C109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>463</v>
+      </c>
+      <c r="B110" t="s">
+        <v>29</v>
+      </c>
+      <c r="C110" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>219</v>
+      </c>
+      <c r="B111" t="s">
+        <v>100</v>
+      </c>
+      <c r="C111" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A45:C84">
-    <sortCondition ref="A44"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C23">
+    <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4565,11 +4660,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42B4652-1939-4CCD-AEEB-1868D449AB6E}">
-  <dimension ref="A1:O96"/>
+  <dimension ref="A1:O120"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N87" sqref="N87"/>
+      <selection pane="bottomLeft" activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4633,7 +4728,7 @@
         <v>404</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -4762,7 +4857,7 @@
         <v>238</v>
       </c>
       <c r="K11" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="L11" t="s">
         <v>398</v>
@@ -4806,23 +4901,23 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
       <c r="B18" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>28</v>
       </c>
@@ -4833,7 +4928,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>25</v>
       </c>
@@ -4850,17 +4945,17 @@
         <v>377</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>28</v>
       </c>
@@ -4871,7 +4966,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>29</v>
       </c>
@@ -4884,17 +4979,8 @@
       <c r="H25" t="s">
         <v>39</v>
       </c>
-      <c r="K25" t="s">
-        <v>429</v>
-      </c>
-      <c r="L25" t="s">
-        <v>427</v>
-      </c>
-      <c r="M25" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>229</v>
       </c>
@@ -4905,7 +4991,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>77</v>
       </c>
@@ -4913,7 +4999,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>129</v>
       </c>
@@ -4924,181 +5010,169 @@
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D32" t="s">
-        <v>28</v>
-      </c>
-      <c r="G32" t="s">
-        <v>373</v>
-      </c>
-      <c r="H32" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>28</v>
       </c>
-      <c r="G33" s="9" t="s">
-        <v>376</v>
+      <c r="G33" t="s">
+        <v>551</v>
       </c>
       <c r="H33" t="s">
-        <v>40</v>
+        <v>552</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>101</v>
-      </c>
-      <c r="F34" t="s">
-        <v>297</v>
+        <v>28</v>
       </c>
       <c r="G34" t="s">
-        <v>80</v>
+        <v>373</v>
       </c>
       <c r="H34" t="s">
-        <v>42</v>
-      </c>
-      <c r="K34" t="s">
-        <v>409</v>
-      </c>
-      <c r="L34" t="s">
-        <v>400</v>
-      </c>
-      <c r="M34" t="s">
-        <v>401</v>
+        <v>374</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" t="s">
-        <v>308</v>
+      <c r="D35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" t="s">
+        <v>309</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="H35" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>101</v>
+        <v>229</v>
+      </c>
+      <c r="E36" t="s">
+        <v>247</v>
       </c>
       <c r="F36" t="s">
-        <v>298</v>
-      </c>
-      <c r="G36" t="s">
-        <v>79</v>
-      </c>
-      <c r="H36" t="s">
-        <v>41</v>
-      </c>
-      <c r="K36" t="s">
-        <v>408</v>
-      </c>
-      <c r="L36" t="s">
-        <v>400</v>
-      </c>
-      <c r="M36" t="s">
-        <v>401</v>
+        <v>311</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="C37" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>13</v>
+      <c r="D38" t="s">
+        <v>129</v>
+      </c>
+      <c r="F38" t="s">
+        <v>309</v>
+      </c>
+      <c r="I38">
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
+        <v>129</v>
+      </c>
+      <c r="F40" t="s">
+        <v>554</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
         <v>28</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G44" t="s">
         <v>373</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H44" t="s">
         <v>374</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D41" t="s">
-        <v>28</v>
-      </c>
-      <c r="G41" t="s">
-        <v>81</v>
-      </c>
-      <c r="H41" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D42" t="s">
-        <v>29</v>
-      </c>
-      <c r="F42" t="s">
-        <v>299</v>
-      </c>
-      <c r="G42" t="s">
-        <v>80</v>
-      </c>
-      <c r="H42" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D43" t="s">
-        <v>229</v>
-      </c>
-      <c r="E43" t="s">
-        <v>435</v>
-      </c>
-      <c r="F43" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>77</v>
-      </c>
-      <c r="C44" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
-        <v>129</v>
-      </c>
-      <c r="F45" t="s">
-        <v>299</v>
-      </c>
-      <c r="I45" t="s">
-        <v>446</v>
+        <v>28</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="H45" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>78</v>
+      <c r="D46" t="s">
+        <v>101</v>
+      </c>
+      <c r="F46" t="s">
+        <v>297</v>
+      </c>
+      <c r="G46" t="s">
+        <v>80</v>
+      </c>
+      <c r="H46" t="s">
+        <v>42</v>
+      </c>
+      <c r="K46" t="s">
+        <v>407</v>
+      </c>
+      <c r="L46" t="s">
+        <v>400</v>
+      </c>
+      <c r="M46" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
@@ -5106,163 +5180,175 @@
         <v>77</v>
       </c>
       <c r="C47" t="s">
-        <v>450</v>
+        <v>308</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="F48" t="s">
-        <v>299</v>
-      </c>
-      <c r="I48" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+      <c r="G48" t="s">
+        <v>79</v>
+      </c>
+      <c r="H48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
         <v>77</v>
       </c>
-      <c r="C50" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D51" t="s">
-        <v>29</v>
-      </c>
-      <c r="F51" t="s">
-        <v>301</v>
-      </c>
-      <c r="G51" t="s">
-        <v>79</v>
-      </c>
-      <c r="H51" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>28</v>
+      </c>
+      <c r="G53" t="s">
+        <v>568</v>
+      </c>
+      <c r="H53" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>28</v>
+      </c>
+      <c r="G54" t="s">
+        <v>373</v>
+      </c>
+      <c r="H54" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
         <v>28</v>
       </c>
-      <c r="G55" t="s">
-        <v>373</v>
+      <c r="G55" s="9" t="s">
+        <v>376</v>
       </c>
       <c r="H55" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
-        <v>28</v>
+        <v>101</v>
+      </c>
+      <c r="F56" t="s">
+        <v>297</v>
       </c>
       <c r="G56" t="s">
-        <v>379</v>
+        <v>80</v>
       </c>
       <c r="H56" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D57" t="s">
-        <v>29</v>
-      </c>
-      <c r="F57" t="s">
-        <v>302</v>
-      </c>
-      <c r="G57" t="s">
-        <v>80</v>
-      </c>
-      <c r="H57" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K56" t="s">
+        <v>407</v>
+      </c>
+      <c r="L56" t="s">
+        <v>400</v>
+      </c>
+      <c r="M56" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>77</v>
+      </c>
+      <c r="C57" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
-        <v>229</v>
-      </c>
-      <c r="E58" t="s">
-        <v>435</v>
+        <v>101</v>
       </c>
       <c r="F58" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+      <c r="G58" t="s">
+        <v>557</v>
+      </c>
+      <c r="H58" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>77</v>
-      </c>
-      <c r="C59" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
         <v>129</v>
       </c>
       <c r="F60" t="s">
-        <v>302</v>
-      </c>
-      <c r="I60" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+      <c r="I60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C62" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D63" t="s">
-        <v>129</v>
-      </c>
-      <c r="F63" t="s">
-        <v>302</v>
-      </c>
-      <c r="I63" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>78</v>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>28</v>
+      </c>
+      <c r="G64" t="s">
+        <v>373</v>
+      </c>
+      <c r="H64" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>77</v>
-      </c>
-      <c r="C65" t="s">
-        <v>308</v>
+      <c r="D65" t="s">
+        <v>28</v>
+      </c>
+      <c r="G65" t="s">
+        <v>81</v>
+      </c>
+      <c r="H65" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
@@ -5270,75 +5356,72 @@
         <v>29</v>
       </c>
       <c r="F66" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G66" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H66" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>78</v>
+      <c r="D67" t="s">
+        <v>229</v>
+      </c>
+      <c r="E67" t="s">
+        <v>429</v>
+      </c>
+      <c r="F67" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>13</v>
+        <v>77</v>
+      </c>
+      <c r="C68" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>12</v>
+      <c r="D69" t="s">
+        <v>129</v>
+      </c>
+      <c r="F69" t="s">
+        <v>299</v>
+      </c>
+      <c r="I69" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D70" t="s">
-        <v>28</v>
-      </c>
-      <c r="G70" t="s">
-        <v>373</v>
-      </c>
-      <c r="H70" t="s">
-        <v>374</v>
+      <c r="B70" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D71" t="s">
-        <v>28</v>
-      </c>
-      <c r="G71" t="s">
-        <v>380</v>
-      </c>
-      <c r="H71" t="s">
-        <v>44</v>
+      <c r="B71" t="s">
+        <v>77</v>
+      </c>
+      <c r="C71" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="F72" t="s">
-        <v>305</v>
-      </c>
-      <c r="G72" t="s">
-        <v>80</v>
-      </c>
-      <c r="H72" t="s">
-        <v>42</v>
+        <v>299</v>
+      </c>
+      <c r="I72" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D73" t="s">
-        <v>229</v>
-      </c>
-      <c r="E73" t="s">
-        <v>435</v>
-      </c>
-      <c r="F73" t="s">
-        <v>306</v>
+      <c r="B73" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
@@ -5346,18 +5429,21 @@
         <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>453</v>
+        <v>308</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="F75" t="s">
-        <v>305</v>
-      </c>
-      <c r="I75" t="s">
-        <v>448</v>
+        <v>301</v>
+      </c>
+      <c r="G75" t="s">
+        <v>79</v>
+      </c>
+      <c r="H75" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
@@ -5367,137 +5453,147 @@
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>77</v>
-      </c>
-      <c r="C77" t="s">
-        <v>454</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D78" t="s">
-        <v>129</v>
-      </c>
-      <c r="F78" t="s">
-        <v>305</v>
-      </c>
-      <c r="I78" t="s">
-        <v>448</v>
+      <c r="B78" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>78</v>
+      <c r="D79" t="s">
+        <v>28</v>
+      </c>
+      <c r="G79" t="s">
+        <v>373</v>
+      </c>
+      <c r="H79" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>77</v>
-      </c>
-      <c r="C80" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>28</v>
+      </c>
+      <c r="G80" t="s">
+        <v>379</v>
+      </c>
+      <c r="H80" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
         <v>29</v>
       </c>
       <c r="F81" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="G81" t="s">
+        <v>80</v>
+      </c>
+      <c r="H81" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>229</v>
+      </c>
+      <c r="E82" t="s">
+        <v>429</v>
+      </c>
+      <c r="F82" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>77</v>
+      </c>
+      <c r="C83" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>129</v>
+      </c>
+      <c r="F84" t="s">
+        <v>302</v>
+      </c>
+      <c r="I84" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>77</v>
+      </c>
+      <c r="C86" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>129</v>
+      </c>
+      <c r="F87" t="s">
+        <v>302</v>
+      </c>
+      <c r="I87" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>77</v>
+      </c>
+      <c r="C89" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>29</v>
+      </c>
+      <c r="F90" t="s">
+        <v>304</v>
+      </c>
+      <c r="G90" t="s">
         <v>79</v>
       </c>
-      <c r="H81" t="s">
+      <c r="H90" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
-        <v>77</v>
-      </c>
-      <c r="C84" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D86" t="s">
-        <v>28</v>
-      </c>
-      <c r="G86" t="s">
-        <v>373</v>
-      </c>
-      <c r="H86" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D87" t="s">
-        <v>101</v>
-      </c>
-      <c r="F87" t="s">
-        <v>314</v>
-      </c>
-      <c r="G87" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="H87" t="s">
-        <v>46</v>
-      </c>
-      <c r="N87" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A90" s="25"/>
-      <c r="B90" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C90" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B91" s="12" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A92" s="25"/>
-      <c r="B92" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D94" t="s">
         <v>28</v>
       </c>
@@ -5508,22 +5604,225 @@
         <v>374</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D95" t="s">
+        <v>28</v>
+      </c>
+      <c r="G95" t="s">
+        <v>380</v>
+      </c>
+      <c r="H95" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>29</v>
+      </c>
+      <c r="F96" t="s">
+        <v>305</v>
+      </c>
+      <c r="G96" t="s">
+        <v>80</v>
+      </c>
+      <c r="H96" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
+        <v>229</v>
+      </c>
+      <c r="E97" t="s">
+        <v>429</v>
+      </c>
+      <c r="F97" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>77</v>
+      </c>
+      <c r="C98" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
+        <v>129</v>
+      </c>
+      <c r="F99" t="s">
+        <v>305</v>
+      </c>
+      <c r="I99" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>77</v>
+      </c>
+      <c r="C101" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D102" t="s">
+        <v>129</v>
+      </c>
+      <c r="F102" t="s">
+        <v>305</v>
+      </c>
+      <c r="I102" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>77</v>
+      </c>
+      <c r="C104" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D105" t="s">
+        <v>29</v>
+      </c>
+      <c r="F105" t="s">
+        <v>307</v>
+      </c>
+      <c r="G105" t="s">
+        <v>79</v>
+      </c>
+      <c r="H105" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>77</v>
+      </c>
+      <c r="C108" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D110" t="s">
+        <v>28</v>
+      </c>
+      <c r="G110" t="s">
+        <v>373</v>
+      </c>
+      <c r="H110" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D111" t="s">
+        <v>101</v>
+      </c>
+      <c r="F111" t="s">
+        <v>314</v>
+      </c>
+      <c r="G111" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="H111" t="s">
+        <v>46</v>
+      </c>
+      <c r="N111" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="25"/>
+      <c r="B114" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C114" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B115" s="12" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="25"/>
+      <c r="B116" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D118" t="s">
+        <v>28</v>
+      </c>
+      <c r="G118" t="s">
+        <v>373</v>
+      </c>
+      <c r="H118" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D119" t="s">
         <v>100</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F119" t="s">
         <v>365</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G119" t="s">
         <v>382</v>
       </c>
-      <c r="H95" t="s">
+      <c r="H119" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5535,11 +5834,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51D9F90A-DED8-4B84-AE76-A32853D141F5}">
-  <dimension ref="A1:N107"/>
+  <dimension ref="A1:N131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5621,10 +5920,10 @@
         <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -5737,10 +6036,10 @@
         <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -5838,10 +6137,10 @@
         <v>28</v>
       </c>
       <c r="G20" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H20" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -5858,7 +6157,7 @@
         <v>238</v>
       </c>
       <c r="K21" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="L21" t="s">
         <v>398</v>
@@ -5923,10 +6222,10 @@
         <v>28</v>
       </c>
       <c r="G30" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H30" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -5951,23 +6250,23 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>28</v>
       </c>
       <c r="G34" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H34" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>29</v>
       </c>
@@ -5980,17 +6279,8 @@
       <c r="H35" t="s">
         <v>39</v>
       </c>
-      <c r="K35" t="s">
-        <v>426</v>
-      </c>
-      <c r="L35" t="s">
-        <v>427</v>
-      </c>
-      <c r="M35" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>229</v>
       </c>
@@ -6001,7 +6291,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>77</v>
       </c>
@@ -6009,7 +6299,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
         <v>129</v>
       </c>
@@ -6020,421 +6310,418 @@
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D42" t="s">
-        <v>28</v>
-      </c>
-      <c r="G42" t="s">
-        <v>422</v>
-      </c>
-      <c r="H42" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
         <v>28</v>
       </c>
-      <c r="G43" s="9" t="s">
+      <c r="G43" t="s">
+        <v>551</v>
+      </c>
+      <c r="H43" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>28</v>
+      </c>
+      <c r="G44" t="s">
+        <v>420</v>
+      </c>
+      <c r="H44" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" t="s">
+        <v>328</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="H45" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>229</v>
+      </c>
+      <c r="E46" t="s">
+        <v>247</v>
+      </c>
+      <c r="F46" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>129</v>
+      </c>
+      <c r="F48" t="s">
+        <v>328</v>
+      </c>
+      <c r="I48">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>129</v>
+      </c>
+      <c r="F50" t="s">
+        <v>555</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>28</v>
+      </c>
+      <c r="G54" t="s">
+        <v>420</v>
+      </c>
+      <c r="H54" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>28</v>
+      </c>
+      <c r="G55" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H55" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D44" t="s">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
         <v>101</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F56" t="s">
         <v>329</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G56" t="s">
         <v>80</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H56" t="s">
         <v>42</v>
       </c>
-      <c r="K44" t="s">
+      <c r="K56" t="s">
         <v>406</v>
       </c>
-      <c r="L44" t="s">
+      <c r="L56" t="s">
         <v>400</v>
       </c>
-      <c r="M44" t="s">
+      <c r="M56" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>77</v>
-      </c>
-      <c r="C45" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D46" t="s">
-        <v>101</v>
-      </c>
-      <c r="F46" t="s">
-        <v>332</v>
-      </c>
-      <c r="G46" t="s">
-        <v>79</v>
-      </c>
-      <c r="H46" t="s">
-        <v>41</v>
-      </c>
-      <c r="K46" t="s">
-        <v>407</v>
-      </c>
-      <c r="L46" t="s">
-        <v>400</v>
-      </c>
-      <c r="M46" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D50" t="s">
-        <v>28</v>
-      </c>
-      <c r="G50" t="s">
-        <v>422</v>
-      </c>
-      <c r="H50" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D51" t="s">
-        <v>28</v>
-      </c>
-      <c r="G51" t="s">
-        <v>81</v>
-      </c>
-      <c r="H51" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D52" t="s">
-        <v>29</v>
-      </c>
-      <c r="F52" t="s">
-        <v>333</v>
-      </c>
-      <c r="G52" t="s">
-        <v>80</v>
-      </c>
-      <c r="H52" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D53" t="s">
-        <v>229</v>
-      </c>
-      <c r="E53" t="s">
-        <v>435</v>
-      </c>
-      <c r="F53" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>77</v>
-      </c>
-      <c r="C54" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D55" t="s">
-        <v>129</v>
-      </c>
-      <c r="F55" t="s">
-        <v>333</v>
-      </c>
-      <c r="I55" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>77</v>
       </c>
       <c r="C57" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="F58" t="s">
-        <v>333</v>
-      </c>
-      <c r="I58" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+      <c r="G58" t="s">
+        <v>79</v>
+      </c>
+      <c r="H58" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
         <v>77</v>
       </c>
-      <c r="C60" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D61" t="s">
-        <v>29</v>
-      </c>
-      <c r="F61" t="s">
-        <v>335</v>
-      </c>
-      <c r="G61" t="s">
-        <v>79</v>
-      </c>
-      <c r="H61" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>28</v>
+      </c>
+      <c r="G63" t="s">
+        <v>568</v>
+      </c>
+      <c r="H63" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>28</v>
+      </c>
+      <c r="G64" t="s">
+        <v>420</v>
+      </c>
+      <c r="H64" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
         <v>28</v>
       </c>
-      <c r="G65" t="s">
-        <v>422</v>
+      <c r="G65" s="9" t="s">
+        <v>376</v>
       </c>
       <c r="H65" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
-        <v>28</v>
+        <v>101</v>
+      </c>
+      <c r="F66" t="s">
+        <v>329</v>
       </c>
       <c r="G66" t="s">
-        <v>379</v>
+        <v>80</v>
       </c>
       <c r="H66" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D67" t="s">
-        <v>29</v>
-      </c>
-      <c r="F67" t="s">
-        <v>336</v>
-      </c>
-      <c r="G67" t="s">
-        <v>80</v>
-      </c>
-      <c r="H67" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K66" t="s">
+        <v>570</v>
+      </c>
+      <c r="L66" t="s">
+        <v>400</v>
+      </c>
+      <c r="M66" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>77</v>
+      </c>
+      <c r="C67" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
-        <v>229</v>
-      </c>
-      <c r="E68" t="s">
-        <v>435</v>
+        <v>101</v>
       </c>
       <c r="F68" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+      <c r="G68" t="s">
+        <v>557</v>
+      </c>
+      <c r="H68" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>77</v>
-      </c>
-      <c r="C69" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
         <v>129</v>
       </c>
       <c r="F70" t="s">
-        <v>336</v>
-      </c>
-      <c r="I70" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+        <v>561</v>
+      </c>
+      <c r="I70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>77</v>
-      </c>
-      <c r="C72" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D73" t="s">
-        <v>129</v>
-      </c>
-      <c r="F73" t="s">
-        <v>336</v>
-      </c>
-      <c r="I73" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
-        <v>77</v>
-      </c>
-      <c r="C75" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>28</v>
+      </c>
+      <c r="G74" t="s">
+        <v>420</v>
+      </c>
+      <c r="H74" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>28</v>
+      </c>
+      <c r="G75" t="s">
+        <v>81</v>
+      </c>
+      <c r="H75" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
         <v>29</v>
       </c>
       <c r="F76" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="G76" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H76" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>229</v>
+      </c>
+      <c r="E77" t="s">
+        <v>429</v>
+      </c>
+      <c r="F77" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>77</v>
+      </c>
+      <c r="C78" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>129</v>
+      </c>
+      <c r="F79" t="s">
+        <v>333</v>
+      </c>
+      <c r="I79" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D80" t="s">
-        <v>28</v>
-      </c>
-      <c r="G80" t="s">
-        <v>422</v>
-      </c>
-      <c r="H80" t="s">
-        <v>423</v>
-      </c>
-    </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D81" t="s">
-        <v>28</v>
-      </c>
-      <c r="G81" t="s">
-        <v>380</v>
-      </c>
-      <c r="H81" t="s">
-        <v>44</v>
+      <c r="B81" t="s">
+        <v>77</v>
+      </c>
+      <c r="C81" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="F82" t="s">
-        <v>339</v>
-      </c>
-      <c r="G82" t="s">
-        <v>80</v>
-      </c>
-      <c r="H82" t="s">
-        <v>42</v>
+        <v>333</v>
+      </c>
+      <c r="I82" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D83" t="s">
-        <v>229</v>
-      </c>
-      <c r="E83" t="s">
-        <v>435</v>
-      </c>
-      <c r="F83" t="s">
-        <v>340</v>
+      <c r="B83" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
@@ -6442,18 +6729,21 @@
         <v>77</v>
       </c>
       <c r="C84" t="s">
-        <v>460</v>
+        <v>331</v>
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D85" t="s">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="F85" t="s">
-        <v>339</v>
-      </c>
-      <c r="I85" t="s">
-        <v>445</v>
+        <v>335</v>
+      </c>
+      <c r="G85" t="s">
+        <v>79</v>
+      </c>
+      <c r="H85" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
@@ -6463,34 +6753,34 @@
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>77</v>
-      </c>
-      <c r="C87" t="s">
-        <v>459</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D88" t="s">
-        <v>129</v>
-      </c>
-      <c r="F88" t="s">
-        <v>339</v>
-      </c>
-      <c r="I88" t="s">
-        <v>445</v>
+      <c r="B88" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
-        <v>78</v>
+      <c r="D89" t="s">
+        <v>28</v>
+      </c>
+      <c r="G89" t="s">
+        <v>420</v>
+      </c>
+      <c r="H89" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
-        <v>77</v>
-      </c>
-      <c r="C90" t="s">
-        <v>331</v>
+      <c r="D90" t="s">
+        <v>28</v>
+      </c>
+      <c r="G90" t="s">
+        <v>379</v>
+      </c>
+      <c r="H90" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
@@ -6498,134 +6788,347 @@
         <v>29</v>
       </c>
       <c r="F91" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="G91" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H91" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
-        <v>78</v>
+      <c r="D92" t="s">
+        <v>229</v>
+      </c>
+      <c r="E92" t="s">
+        <v>429</v>
+      </c>
+      <c r="F92" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>13</v>
+        <v>77</v>
+      </c>
+      <c r="C93" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
-        <v>77</v>
-      </c>
-      <c r="C94" t="s">
-        <v>331</v>
+      <c r="D94" t="s">
+        <v>129</v>
+      </c>
+      <c r="F94" t="s">
+        <v>336</v>
+      </c>
+      <c r="I94" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D96" t="s">
-        <v>28</v>
-      </c>
-      <c r="G96" t="s">
-        <v>422</v>
-      </c>
-      <c r="H96" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>77</v>
+      </c>
+      <c r="C96" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D97" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="F97" t="s">
-        <v>342</v>
-      </c>
-      <c r="G97" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="H97" t="s">
-        <v>46</v>
-      </c>
-      <c r="N97" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+      <c r="I97" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>77</v>
+      </c>
+      <c r="C99" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
+        <v>29</v>
+      </c>
+      <c r="F100" t="s">
+        <v>338</v>
+      </c>
+      <c r="G100" t="s">
+        <v>79</v>
+      </c>
+      <c r="H100" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B99" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A100" s="25"/>
-      <c r="B100" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C100" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B101" s="12" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A102" s="25"/>
-      <c r="B102" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D104" t="s">
         <v>28</v>
       </c>
       <c r="G104" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H104" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D105" t="s">
+        <v>28</v>
+      </c>
+      <c r="G105" t="s">
+        <v>380</v>
+      </c>
+      <c r="H105" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D106" t="s">
+        <v>29</v>
+      </c>
+      <c r="F106" t="s">
+        <v>339</v>
+      </c>
+      <c r="G106" t="s">
+        <v>80</v>
+      </c>
+      <c r="H106" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D107" t="s">
+        <v>229</v>
+      </c>
+      <c r="E107" t="s">
+        <v>429</v>
+      </c>
+      <c r="F107" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>77</v>
+      </c>
+      <c r="C108" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D109" t="s">
+        <v>129</v>
+      </c>
+      <c r="F109" t="s">
+        <v>339</v>
+      </c>
+      <c r="I109" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>77</v>
+      </c>
+      <c r="C111" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D112" t="s">
+        <v>129</v>
+      </c>
+      <c r="F112" t="s">
+        <v>339</v>
+      </c>
+      <c r="I112" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>77</v>
+      </c>
+      <c r="C114" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D115" t="s">
+        <v>29</v>
+      </c>
+      <c r="F115" t="s">
+        <v>341</v>
+      </c>
+      <c r="G115" t="s">
+        <v>79</v>
+      </c>
+      <c r="H115" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>77</v>
+      </c>
+      <c r="C118" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D120" t="s">
+        <v>28</v>
+      </c>
+      <c r="G120" t="s">
+        <v>420</v>
+      </c>
+      <c r="H120" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D121" t="s">
+        <v>101</v>
+      </c>
+      <c r="F121" t="s">
+        <v>342</v>
+      </c>
+      <c r="G121" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="H121" t="s">
+        <v>46</v>
+      </c>
+      <c r="N121" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A124" s="25"/>
+      <c r="B124" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C124" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B125" s="12" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A126" s="25"/>
+      <c r="B126" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D128" t="s">
+        <v>28</v>
+      </c>
+      <c r="G128" t="s">
+        <v>420</v>
+      </c>
+      <c r="H128" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D129" t="s">
         <v>100</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F129" t="s">
         <v>366</v>
       </c>
-      <c r="G105" t="s">
+      <c r="G129" t="s">
         <v>384</v>
       </c>
-      <c r="H105" t="s">
+      <c r="H129" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B106" t="s">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A107" s="19"/>
-      <c r="B107" t="s">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="19"/>
+      <c r="B131" t="s">
         <v>78</v>
       </c>
     </row>
@@ -6640,7 +7143,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F56" sqref="F56"/>
+      <selection pane="bottomLeft" activeCell="L85" sqref="L85:M85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6701,7 +7204,7 @@
         <v>288</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -6719,10 +7222,10 @@
         <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -6781,10 +7284,10 @@
         <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H8" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -6889,10 +7392,10 @@
         <v>28</v>
       </c>
       <c r="G20" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H20" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -6927,10 +7430,10 @@
         <v>28</v>
       </c>
       <c r="G24" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H24" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -6947,7 +7450,7 @@
         <v>240</v>
       </c>
       <c r="K25" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="L25" t="s">
         <v>403</v>
@@ -6980,10 +7483,10 @@
         <v>28</v>
       </c>
       <c r="G29" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H29" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -7065,10 +7568,10 @@
         <v>28</v>
       </c>
       <c r="G39" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H39" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -7100,10 +7603,10 @@
         <v>28</v>
       </c>
       <c r="G43" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H43" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -7114,13 +7617,13 @@
         <v>134</v>
       </c>
       <c r="F44" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="H44" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -7138,10 +7641,10 @@
         <v>28</v>
       </c>
       <c r="G47" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H47" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -7198,7 +7701,7 @@
         <v>77</v>
       </c>
       <c r="C53" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
@@ -7211,10 +7714,10 @@
         <v>28</v>
       </c>
       <c r="G55" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H55" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
@@ -7222,10 +7725,10 @@
         <v>28</v>
       </c>
       <c r="G56" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="H56" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
@@ -7233,13 +7736,13 @@
         <v>101</v>
       </c>
       <c r="F57" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="G57" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="H57" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
@@ -7247,10 +7750,10 @@
         <v>229</v>
       </c>
       <c r="E58" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="F58" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
@@ -7258,7 +7761,7 @@
         <v>77</v>
       </c>
       <c r="C59" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
@@ -7266,10 +7769,10 @@
         <v>129</v>
       </c>
       <c r="F60" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="I60" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
@@ -7282,13 +7785,13 @@
         <v>101</v>
       </c>
       <c r="F62" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="G62" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="H62" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
@@ -7296,10 +7799,10 @@
         <v>229</v>
       </c>
       <c r="E63" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="F63" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
@@ -7307,7 +7810,7 @@
         <v>77</v>
       </c>
       <c r="C64" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
@@ -7315,10 +7818,10 @@
         <v>129</v>
       </c>
       <c r="F65" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="I65" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
@@ -7331,13 +7834,13 @@
         <v>101</v>
       </c>
       <c r="F67" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="G67" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="H67" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
@@ -7345,10 +7848,10 @@
         <v>229</v>
       </c>
       <c r="E68" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="F68" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
@@ -7356,7 +7859,7 @@
         <v>77</v>
       </c>
       <c r="C69" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
@@ -7364,10 +7867,10 @@
         <v>129</v>
       </c>
       <c r="F70" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="I70" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
@@ -7380,13 +7883,13 @@
         <v>101</v>
       </c>
       <c r="F72" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="G72" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="H72" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
@@ -7394,10 +7897,10 @@
         <v>229</v>
       </c>
       <c r="E73" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="F73" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
@@ -7405,7 +7908,7 @@
         <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
@@ -7413,10 +7916,10 @@
         <v>129</v>
       </c>
       <c r="F75" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="I75" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
@@ -7444,13 +7947,13 @@
         <v>28</v>
       </c>
       <c r="G80" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H80" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
         <v>25</v>
       </c>
@@ -7464,31 +7967,31 @@
         <v>378</v>
       </c>
       <c r="H81" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D84" t="s">
         <v>28</v>
       </c>
       <c r="G84" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H84" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D85" t="s">
         <v>25</v>
       </c>
@@ -7499,40 +8002,34 @@
         <v>135</v>
       </c>
       <c r="G85" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="H85" s="16" t="s">
-        <v>520</v>
-      </c>
-      <c r="L85" t="s">
-        <v>523</v>
-      </c>
-      <c r="M85" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
         <v>28</v>
       </c>
       <c r="G88" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H88" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D89" t="s">
         <v>28</v>
       </c>
@@ -7543,7 +8040,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D90" t="s">
         <v>29</v>
       </c>
@@ -7557,26 +8054,26 @@
         <v>42</v>
       </c>
     </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D91" t="s">
         <v>229</v>
       </c>
       <c r="E91" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="F91" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>77</v>
       </c>
       <c r="C92" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D93" t="s">
         <v>129</v>
       </c>
@@ -7584,23 +8081,23 @@
         <v>140</v>
       </c>
       <c r="I93" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>77</v>
       </c>
       <c r="C95" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D96" t="s">
         <v>129</v>
       </c>
@@ -7608,7 +8105,7 @@
         <v>140</v>
       </c>
       <c r="I96" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.25">
@@ -7658,10 +8155,10 @@
         <v>28</v>
       </c>
       <c r="G103" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H103" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.25">
@@ -7694,7 +8191,7 @@
         <v>229</v>
       </c>
       <c r="E106" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="F106" t="s">
         <v>251</v>
@@ -7705,7 +8202,7 @@
         <v>77</v>
       </c>
       <c r="C107" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.25">
@@ -7716,7 +8213,7 @@
         <v>143</v>
       </c>
       <c r="I108" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.25">
@@ -7729,7 +8226,7 @@
         <v>77</v>
       </c>
       <c r="C110" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.25">
@@ -7740,7 +8237,7 @@
         <v>143</v>
       </c>
       <c r="I111" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.25">
@@ -7790,10 +8287,10 @@
         <v>28</v>
       </c>
       <c r="G118" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H118" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.25">
@@ -7826,7 +8323,7 @@
         <v>229</v>
       </c>
       <c r="E121" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="F121" t="s">
         <v>252</v>
@@ -7837,7 +8334,7 @@
         <v>77</v>
       </c>
       <c r="C122" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
     <row r="123" spans="2:9" x14ac:dyDescent="0.25">
@@ -7848,7 +8345,7 @@
         <v>145</v>
       </c>
       <c r="I123" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.25">
@@ -7861,7 +8358,7 @@
         <v>77</v>
       </c>
       <c r="C125" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.25">
@@ -7872,7 +8369,7 @@
         <v>145</v>
       </c>
       <c r="I126" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="127" spans="2:9" x14ac:dyDescent="0.25">
@@ -7922,10 +8419,10 @@
         <v>28</v>
       </c>
       <c r="G133" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H133" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
@@ -7960,10 +8457,10 @@
         <v>28</v>
       </c>
       <c r="G137" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H137" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
@@ -8011,10 +8508,10 @@
         <v>28</v>
       </c>
       <c r="G142" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H142" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -8138,10 +8635,10 @@
         <v>28</v>
       </c>
       <c r="G153" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H153" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
@@ -8186,10 +8683,10 @@
         <v>28</v>
       </c>
       <c r="G158" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H158" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
@@ -8262,10 +8759,10 @@
         <v>28</v>
       </c>
       <c r="G166" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H166" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.25">
@@ -8308,10 +8805,10 @@
         <v>28</v>
       </c>
       <c r="G171" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H171" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
@@ -8363,10 +8860,10 @@
         <v>28</v>
       </c>
       <c r="G177" s="9" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H177" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="178" spans="2:14" x14ac:dyDescent="0.25">
@@ -8418,10 +8915,10 @@
         <v>28</v>
       </c>
       <c r="G183" s="9" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H183" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="184" spans="2:14" x14ac:dyDescent="0.25">
@@ -8473,10 +8970,10 @@
         <v>28</v>
       </c>
       <c r="G189" s="9" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H189" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="190" spans="2:14" x14ac:dyDescent="0.25">
@@ -8542,10 +9039,10 @@
         <v>28</v>
       </c>
       <c r="G199" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H199" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
@@ -8625,7 +9122,7 @@
         <v>26</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -8640,10 +9137,10 @@
         <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="H3" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -8652,16 +9149,16 @@
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="F4" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="G4" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="H4" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -8670,16 +9167,16 @@
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="F5" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="G5" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="H5" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -8700,10 +9197,10 @@
         <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="H8" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -8715,13 +9212,13 @@
         <v>134</v>
       </c>
       <c r="F9" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="G9" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="H9" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -8733,13 +9230,13 @@
         <v>134</v>
       </c>
       <c r="F10" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="G10" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="H10" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -8760,10 +9257,10 @@
         <v>28</v>
       </c>
       <c r="G13" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="H13" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -8775,13 +9272,13 @@
         <v>134</v>
       </c>
       <c r="F14" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="G14" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="H14" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -8790,16 +9287,16 @@
         <v>100</v>
       </c>
       <c r="F15" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="G15" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="H15" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="J15" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -8818,10 +9315,10 @@
         <v>28</v>
       </c>
       <c r="G18" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="H18" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -8829,13 +9326,13 @@
         <v>100</v>
       </c>
       <c r="F19" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="G19" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="H19" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -8843,7 +9340,7 @@
         <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
@@ -8851,10 +9348,10 @@
         <v>129</v>
       </c>
       <c r="F21" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="I21" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
@@ -8867,10 +9364,10 @@
         <v>129</v>
       </c>
       <c r="F23" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="I23" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
@@ -8890,17 +9387,17 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3979F510-C769-4227-AA22-F1F6C93E2BBE}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -8921,10 +9418,42 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B3" t="s">
-        <v>418</v>
+        <v>416</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>547</v>
+      </c>
+      <c r="B4" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>548</v>
+      </c>
+      <c r="B5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>566</v>
+      </c>
+      <c r="B6" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>567</v>
+      </c>
+      <c r="B7" t="s">
+        <v>565</v>
       </c>
     </row>
   </sheetData>
@@ -9011,7 +9540,7 @@
         <v>224</v>
       </c>
       <c r="G2" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>96</v>

--- a/app/config/tables/GRAVIDA/forms/GRAVIDA/GRAVIDA.xlsx
+++ b/app/config/tables/GRAVIDA/forms/GRAVIDA/GRAVIDA.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D48C08-1D71-402A-94D2-BBD8B93E14A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15119EAC-00CF-4E42-BBC1-4B91872D6B63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" tabRatio="700" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" tabRatio="700" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1673" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="588">
   <si>
     <t>setting_name</t>
   </si>
@@ -1764,6 +1766,54 @@
   </si>
   <si>
     <t>adate.diffInDays(data('VISDIA2'), data('LMP2_C'))&gt;1 &amp;&amp; !adate.hasUncertainty(data('LMP2_C')) &amp;&amp; data('lmp2_cobs') !="2"</t>
+  </si>
+  <si>
+    <t>noinfo</t>
+  </si>
+  <si>
+    <t>No information</t>
+  </si>
+  <si>
+    <t>Sem informação</t>
+  </si>
+  <si>
+    <t>dataest1ni</t>
+  </si>
+  <si>
+    <t>data('dataest1') != null</t>
+  </si>
+  <si>
+    <t>dataest2ni</t>
+  </si>
+  <si>
+    <t>data('dataest2') != null</t>
+  </si>
+  <si>
+    <t>lmp1_mns</t>
+  </si>
+  <si>
+    <t>data('lmp1_mns') != null</t>
+  </si>
+  <si>
+    <t>"D:NS,M:NS,Y:NS"</t>
+  </si>
+  <si>
+    <t>lmp1_cns</t>
+  </si>
+  <si>
+    <t>data('lmp1_cns') != null</t>
+  </si>
+  <si>
+    <t>lmp2_mns</t>
+  </si>
+  <si>
+    <t>data('lmp2_mns') != null</t>
+  </si>
+  <si>
+    <t>lmp2_cns</t>
+  </si>
+  <si>
+    <t>data('lmp2_cns') != null</t>
   </si>
 </sst>
 </file>
@@ -2371,11 +2421,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF3D0A7-17A8-4B35-89BF-E7F3088D1597}">
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A63" sqref="A63:D63"/>
+      <selection pane="bottomLeft" activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3309,6 +3359,21 @@
         <v>531</v>
       </c>
     </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>572</v>
+      </c>
+      <c r="B64" s="13" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>573</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>574</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3317,11 +3382,11 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
-  <dimension ref="A1:M111"/>
+  <dimension ref="A1:M117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3372,18 +3437,18 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>307</v>
+        <v>575</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="C4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -3394,29 +3459,29 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B6" t="s">
-        <v>229</v>
+        <v>29</v>
       </c>
       <c r="C6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -3428,44 +3493,44 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B9" t="s">
-        <v>229</v>
+        <v>29</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="12"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B11" t="s">
-        <v>229</v>
+        <v>29</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>554</v>
+        <v>311</v>
       </c>
       <c r="B12" t="s">
-        <v>129</v>
+        <v>229</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
@@ -3473,21 +3538,21 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>104</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>25</v>
+        <v>554</v>
+      </c>
+      <c r="B13" t="s">
+        <v>129</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>298</v>
-      </c>
-      <c r="B14" t="s">
-        <v>101</v>
+        <v>104</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -3495,65 +3560,65 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>559</v>
+        <v>298</v>
       </c>
       <c r="B15" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>297</v>
+        <v>582</v>
       </c>
       <c r="B16" t="s">
-        <v>101</v>
+        <v>229</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>347</v>
+        <v>559</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>348</v>
+        <v>297</v>
       </c>
       <c r="B18" t="s">
-        <v>229</v>
+        <v>101</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>365</v>
+        <v>579</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>229</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>355</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>101</v>
+      <c r="A20" t="s">
+        <v>347</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -3561,109 +3626,109 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>301</v>
+        <v>348</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>299</v>
+        <v>365</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>300</v>
-      </c>
-      <c r="B23" t="s">
-        <v>229</v>
+      <c r="A23" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>101</v>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>301</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
       </c>
-      <c r="D25" t="s">
-        <v>362</v>
-      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>342</v>
+        <v>300</v>
       </c>
       <c r="B26" t="s">
-        <v>101</v>
+        <v>229</v>
       </c>
       <c r="C26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>341</v>
-      </c>
-      <c r="B27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
       </c>
+      <c r="D28" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B29" t="s">
-        <v>229</v>
+        <v>101</v>
       </c>
       <c r="C29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>338</v>
+        <v>577</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="C30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="B31" t="s">
         <v>29</v>
@@ -3674,214 +3739,218 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>339</v>
+      </c>
+      <c r="B32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>340</v>
+      </c>
+      <c r="B33" t="s">
+        <v>229</v>
+      </c>
+      <c r="C33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>338</v>
+      </c>
+      <c r="B34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>336</v>
+      </c>
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>337</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B36" t="s">
         <v>229</v>
       </c>
-      <c r="C32" t="b">
+      <c r="C36" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>328</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B37" t="s">
         <v>29</v>
       </c>
-      <c r="C33" t="b">
+      <c r="C37" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>353</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B38" t="s">
         <v>229</v>
       </c>
-      <c r="C34" t="b">
+      <c r="C38" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>555</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B39" t="s">
         <v>129</v>
       </c>
-      <c r="C35" t="b">
+      <c r="C39" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>332</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B40" t="s">
         <v>101</v>
       </c>
-      <c r="C36" t="b">
+      <c r="C40" t="b">
         <v>0</v>
       </c>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>586</v>
+      </c>
+      <c r="B41" t="s">
+        <v>229</v>
+      </c>
+      <c r="C41" t="b">
+        <v>1</v>
+      </c>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>561</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B42" t="s">
         <v>129</v>
       </c>
-      <c r="C37" t="b">
+      <c r="C42" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>329</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B43" t="s">
         <v>101</v>
-      </c>
-      <c r="C38" t="b">
-        <v>0</v>
-      </c>
-      <c r="G38" s="11"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>344</v>
-      </c>
-      <c r="B39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" t="b">
-        <v>0</v>
-      </c>
-      <c r="G39" s="11"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>345</v>
-      </c>
-      <c r="B40" t="s">
-        <v>229</v>
-      </c>
-      <c r="C40" t="b">
-        <v>1</v>
-      </c>
-      <c r="G40" s="11"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>324</v>
-      </c>
-      <c r="B41" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41" t="b">
-        <v>0</v>
-      </c>
-      <c r="G41" s="11"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
-        <v>366</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C42" t="b">
-        <v>0</v>
-      </c>
-      <c r="G42" s="11"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>335</v>
-      </c>
-      <c r="B43" t="s">
-        <v>29</v>
       </c>
       <c r="C43" t="b">
         <v>0</v>
       </c>
       <c r="G43" s="11"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>333</v>
+        <v>584</v>
       </c>
       <c r="B44" t="s">
+        <v>229</v>
+      </c>
+      <c r="C44" t="b">
+        <v>1</v>
+      </c>
+      <c r="G44" s="11"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>344</v>
+      </c>
+      <c r="B45" t="s">
         <v>29</v>
       </c>
-      <c r="C44" t="b">
+      <c r="C45" t="b">
         <v>0</v>
       </c>
-      <c r="K44" s="11"/>
-      <c r="L44" s="11"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>334</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="G45" s="11"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>345</v>
+      </c>
+      <c r="B46" t="s">
         <v>229</v>
       </c>
-      <c r="C45" t="b">
+      <c r="C46" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C46" t="b">
+      <c r="G46" s="11"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>324</v>
+      </c>
+      <c r="B47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>116</v>
-      </c>
-      <c r="B48" t="s">
-        <v>29</v>
+      <c r="G47" s="11"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>100</v>
       </c>
       <c r="C48" t="b">
         <v>0</v>
       </c>
-      <c r="D48" t="s">
-        <v>363</v>
-      </c>
+      <c r="G48" s="11"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>248</v>
+        <v>335</v>
       </c>
       <c r="B49" t="s">
-        <v>229</v>
+        <v>29</v>
       </c>
       <c r="C49" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>153</v>
+        <v>333</v>
       </c>
       <c r="B50" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C50" t="b">
         <v>0</v>
@@ -3889,40 +3958,35 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>136</v>
+        <v>334</v>
       </c>
       <c r="B51" t="s">
-        <v>25</v>
+        <v>229</v>
       </c>
       <c r="C51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>536</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>25</v>
+      <c r="A52" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>101</v>
       </c>
       <c r="C52" t="b">
         <v>0</v>
       </c>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>142</v>
-      </c>
-      <c r="B53" t="s">
-        <v>29</v>
-      </c>
-      <c r="C53" t="b">
-        <v>0</v>
-      </c>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="B54" t="s">
         <v>29</v>
@@ -3930,10 +3994,13 @@
       <c r="C54" t="b">
         <v>0</v>
       </c>
+      <c r="D54" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B55" t="s">
         <v>229</v>
@@ -3944,10 +4011,10 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="B56" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C56" t="b">
         <v>0</v>
@@ -3955,34 +4022,32 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B57" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C57" t="b">
         <v>0</v>
       </c>
-      <c r="L57" s="11"/>
-      <c r="M57" s="11"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>251</v>
-      </c>
-      <c r="B58" t="s">
-        <v>229</v>
+        <v>536</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="C58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B59" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C59" t="b">
         <v>0</v>
@@ -3990,10 +4055,10 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B60" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C60" t="b">
         <v>0</v>
@@ -4001,51 +4066,53 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>137</v>
+        <v>250</v>
       </c>
       <c r="B61" t="s">
-        <v>25</v>
+        <v>229</v>
       </c>
       <c r="C61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="B62" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="B63" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C63" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L63" s="11"/>
+      <c r="M63" s="11"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>119</v>
+        <v>251</v>
       </c>
       <c r="B64" t="s">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="C64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="B65" t="s">
         <v>25</v>
@@ -4055,11 +4122,11 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="12" t="s">
-        <v>367</v>
-      </c>
-      <c r="B66" s="12" t="s">
-        <v>100</v>
+      <c r="A66" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" t="s">
+        <v>25</v>
       </c>
       <c r="C66" t="b">
         <v>0</v>
@@ -4067,10 +4134,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="B67" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="C67" t="b">
         <v>0</v>
@@ -4078,53 +4145,53 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B68" t="s">
         <v>25</v>
       </c>
       <c r="C68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>265</v>
+        <v>125</v>
       </c>
       <c r="B69" t="s">
-        <v>261</v>
+        <v>25</v>
       </c>
       <c r="C69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>267</v>
+        <v>119</v>
       </c>
       <c r="B70" t="s">
-        <v>229</v>
+        <v>29</v>
       </c>
       <c r="C70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>269</v>
+        <v>150</v>
       </c>
       <c r="B71" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="C71" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>273</v>
-      </c>
-      <c r="B72" t="s">
+      <c r="A72" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="B72" s="12" t="s">
         <v>100</v>
       </c>
       <c r="C72" t="b">
@@ -4133,10 +4200,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>270</v>
+        <v>114</v>
       </c>
       <c r="B73" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="C73" t="b">
         <v>0</v>
@@ -4144,10 +4211,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="B74" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C74" t="b">
         <v>0</v>
@@ -4155,10 +4222,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>145</v>
+        <v>265</v>
       </c>
       <c r="B75" t="s">
-        <v>29</v>
+        <v>261</v>
       </c>
       <c r="C75" t="b">
         <v>0</v>
@@ -4166,7 +4233,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="B76" t="s">
         <v>229</v>
@@ -4177,21 +4244,21 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="B77" t="s">
-        <v>261</v>
+        <v>100</v>
       </c>
       <c r="C77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>147</v>
+        <v>273</v>
       </c>
       <c r="B78" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="C78" t="b">
         <v>0</v>
@@ -4199,10 +4266,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>532</v>
+        <v>270</v>
       </c>
       <c r="B79" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="C79" t="b">
         <v>0</v>
@@ -4210,21 +4277,21 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>538</v>
-      </c>
-      <c r="B80" s="12" t="s">
-        <v>229</v>
+        <v>146</v>
+      </c>
+      <c r="B80" t="s">
+        <v>29</v>
       </c>
       <c r="C80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>533</v>
+        <v>145</v>
       </c>
       <c r="B81" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="C81" t="b">
         <v>0</v>
@@ -4232,9 +4299,9 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>541</v>
-      </c>
-      <c r="B82" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="B82" t="s">
         <v>229</v>
       </c>
       <c r="C82" t="b">
@@ -4243,29 +4310,29 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>535</v>
+        <v>263</v>
       </c>
       <c r="B83" t="s">
-        <v>101</v>
+        <v>261</v>
       </c>
       <c r="C83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>540</v>
-      </c>
-      <c r="B84" s="12" t="s">
-        <v>229</v>
+        <v>147</v>
+      </c>
+      <c r="B84" t="s">
+        <v>25</v>
       </c>
       <c r="C84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B85" t="s">
         <v>101</v>
@@ -4276,7 +4343,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B86" s="12" t="s">
         <v>229</v>
@@ -4287,46 +4354,54 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>139</v>
+        <v>533</v>
       </c>
       <c r="B87" t="s">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="C87" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="B88" s="11" t="s">
+      <c r="A88" t="s">
+        <v>541</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="C88" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>535</v>
+      </c>
+      <c r="B89" t="s">
         <v>101</v>
       </c>
-      <c r="C88" t="b">
+      <c r="C89" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>477</v>
-      </c>
-      <c r="B90" t="s">
-        <v>25</v>
+        <v>540</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>229</v>
       </c>
       <c r="C90" t="b">
-        <v>0</v>
-      </c>
-      <c r="D90" t="s">
-        <v>217</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>480</v>
+        <v>534</v>
       </c>
       <c r="B91" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="C91" t="b">
         <v>0</v>
@@ -4334,51 +4409,40 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>493</v>
-      </c>
-      <c r="B92" t="s">
-        <v>100</v>
+        <v>539</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>229</v>
       </c>
       <c r="C92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>483</v>
+        <v>139</v>
       </c>
       <c r="B93" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C93" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>509</v>
-      </c>
-      <c r="B94" t="s">
+      <c r="A94" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="B94" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C94" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>473</v>
-      </c>
-      <c r="B95" t="s">
-        <v>25</v>
-      </c>
-      <c r="C95" t="b">
-        <v>0</v>
-      </c>
-    </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="B96" t="s">
         <v>25</v>
@@ -4386,38 +4450,49 @@
       <c r="C96" t="b">
         <v>0</v>
       </c>
+      <c r="D96" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="B97" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="C97" t="b">
         <v>0</v>
       </c>
     </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>493</v>
+      </c>
+      <c r="B98" t="s">
+        <v>100</v>
+      </c>
+      <c r="C98" t="b">
+        <v>0</v>
+      </c>
+    </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>466</v>
+        <v>483</v>
       </c>
       <c r="B99" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C99" t="b">
         <v>0</v>
       </c>
-      <c r="D99" t="s">
-        <v>364</v>
-      </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>237</v>
+        <v>509</v>
       </c>
       <c r="B100" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C100" t="b">
         <v>0</v>
@@ -4425,10 +4500,10 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="B101" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C101" t="b">
         <v>0</v>
@@ -4436,10 +4511,10 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>97</v>
+        <v>486</v>
       </c>
       <c r="B102" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="C102" t="b">
         <v>0</v>
@@ -4447,29 +4522,18 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>461</v>
+        <v>489</v>
       </c>
       <c r="B103" t="s">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="C103" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>372</v>
-      </c>
-      <c r="B104" t="s">
-        <v>101</v>
-      </c>
-      <c r="C104" t="b">
-        <v>1</v>
-      </c>
-    </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B105" t="s">
         <v>29</v>
@@ -4477,13 +4541,16 @@
       <c r="C105" t="b">
         <v>0</v>
       </c>
+      <c r="D105" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>315</v>
+        <v>237</v>
       </c>
       <c r="B106" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="C106" t="b">
         <v>0</v>
@@ -4491,21 +4558,21 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>368</v>
+        <v>465</v>
       </c>
       <c r="B107" t="s">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="C107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>462</v>
+        <v>97</v>
       </c>
       <c r="B108" t="s">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="C108" t="b">
         <v>0</v>
@@ -4513,10 +4580,10 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>99</v>
+        <v>461</v>
       </c>
       <c r="B109" t="s">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="C109" t="b">
         <v>0</v>
@@ -4524,29 +4591,95 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>463</v>
+        <v>372</v>
       </c>
       <c r="B110" t="s">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="C110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>219</v>
+        <v>464</v>
       </c>
       <c r="B111" t="s">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="C111" t="b">
         <v>0</v>
       </c>
     </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>315</v>
+      </c>
+      <c r="B112" t="s">
+        <v>25</v>
+      </c>
+      <c r="C112" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>368</v>
+      </c>
+      <c r="B113" t="s">
+        <v>100</v>
+      </c>
+      <c r="C113" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>462</v>
+      </c>
+      <c r="B114" t="s">
+        <v>29</v>
+      </c>
+      <c r="C114" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>99</v>
+      </c>
+      <c r="B115" t="s">
+        <v>100</v>
+      </c>
+      <c r="C115" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>463</v>
+      </c>
+      <c r="B116" t="s">
+        <v>29</v>
+      </c>
+      <c r="C116" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>219</v>
+      </c>
+      <c r="B117" t="s">
+        <v>100</v>
+      </c>
+      <c r="C117" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C23">
-    <sortCondition ref="A2"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A29:C52">
+    <sortCondition ref="A28"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4660,11 +4793,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42B4652-1939-4CCD-AEEB-1868D449AB6E}">
-  <dimension ref="A1:O120"/>
+  <dimension ref="A1:O140"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A52" sqref="A52"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5176,35 +5309,38 @@
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+      <c r="D47" t="s">
+        <v>229</v>
+      </c>
+      <c r="E47" t="s">
+        <v>247</v>
+      </c>
+      <c r="F47" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
         <v>77</v>
       </c>
-      <c r="C47" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D48" t="s">
-        <v>101</v>
-      </c>
-      <c r="F48" t="s">
-        <v>298</v>
-      </c>
-      <c r="G48" t="s">
-        <v>79</v>
-      </c>
-      <c r="H48" t="s">
-        <v>41</v>
+      <c r="C48" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>78</v>
+      <c r="D49" t="s">
+        <v>129</v>
+      </c>
+      <c r="F49" t="s">
+        <v>297</v>
+      </c>
+      <c r="I49" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
@@ -5212,243 +5348,243 @@
         <v>77</v>
       </c>
       <c r="C51" t="s">
-        <v>560</v>
+        <v>308</v>
       </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>12</v>
+      <c r="D52" t="s">
+        <v>101</v>
+      </c>
+      <c r="F52" t="s">
+        <v>298</v>
+      </c>
+      <c r="G52" t="s">
+        <v>79</v>
+      </c>
+      <c r="H52" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
-        <v>28</v>
-      </c>
-      <c r="G53" t="s">
-        <v>568</v>
-      </c>
-      <c r="H53" t="s">
-        <v>569</v>
+        <v>229</v>
+      </c>
+      <c r="E53" t="s">
+        <v>572</v>
+      </c>
+      <c r="F53" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D54" t="s">
-        <v>28</v>
-      </c>
-      <c r="G54" t="s">
-        <v>373</v>
-      </c>
-      <c r="H54" t="s">
-        <v>374</v>
+      <c r="B54" t="s">
+        <v>77</v>
+      </c>
+      <c r="C54" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
-        <v>28</v>
-      </c>
-      <c r="G55" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="H55" t="s">
-        <v>40</v>
+        <v>129</v>
+      </c>
+      <c r="F55" t="s">
+        <v>298</v>
+      </c>
+      <c r="I55" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D56" t="s">
-        <v>101</v>
-      </c>
-      <c r="F56" t="s">
-        <v>297</v>
-      </c>
-      <c r="G56" t="s">
-        <v>80</v>
-      </c>
-      <c r="H56" t="s">
-        <v>42</v>
-      </c>
-      <c r="K56" t="s">
-        <v>407</v>
-      </c>
-      <c r="L56" t="s">
-        <v>400</v>
-      </c>
-      <c r="M56" t="s">
-        <v>401</v>
+      <c r="B56" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>77</v>
-      </c>
-      <c r="C57" t="s">
-        <v>308</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D58" t="s">
-        <v>101</v>
-      </c>
-      <c r="F58" t="s">
-        <v>298</v>
-      </c>
-      <c r="G58" t="s">
-        <v>557</v>
-      </c>
-      <c r="H58" t="s">
-        <v>558</v>
+      <c r="B58" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="C59" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D60" t="s">
-        <v>129</v>
-      </c>
-      <c r="F60" t="s">
-        <v>559</v>
-      </c>
-      <c r="I60">
-        <v>2</v>
+      <c r="B60" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>13</v>
+      <c r="D61" t="s">
+        <v>28</v>
+      </c>
+      <c r="G61" t="s">
+        <v>568</v>
+      </c>
+      <c r="H61" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>78</v>
+      <c r="D62" t="s">
+        <v>28</v>
+      </c>
+      <c r="G62" t="s">
+        <v>373</v>
+      </c>
+      <c r="H62" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>12</v>
+      <c r="D63" t="s">
+        <v>28</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="H63" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
-        <v>28</v>
+        <v>101</v>
+      </c>
+      <c r="F64" t="s">
+        <v>297</v>
       </c>
       <c r="G64" t="s">
-        <v>373</v>
+        <v>80</v>
       </c>
       <c r="H64" t="s">
-        <v>374</v>
+        <v>42</v>
+      </c>
+      <c r="K64" t="s">
+        <v>407</v>
+      </c>
+      <c r="L64" t="s">
+        <v>400</v>
+      </c>
+      <c r="M64" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
-        <v>28</v>
-      </c>
-      <c r="G65" t="s">
-        <v>81</v>
-      </c>
-      <c r="H65" t="s">
-        <v>45</v>
+        <v>229</v>
+      </c>
+      <c r="E65" t="s">
+        <v>247</v>
+      </c>
+      <c r="F65" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D66" t="s">
-        <v>29</v>
-      </c>
-      <c r="F66" t="s">
-        <v>299</v>
-      </c>
-      <c r="G66" t="s">
-        <v>80</v>
-      </c>
-      <c r="H66" t="s">
-        <v>42</v>
+      <c r="B66" t="s">
+        <v>77</v>
+      </c>
+      <c r="C66" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
-        <v>229</v>
-      </c>
-      <c r="E67" t="s">
-        <v>429</v>
+        <v>129</v>
       </c>
       <c r="F67" t="s">
-        <v>300</v>
+        <v>297</v>
+      </c>
+      <c r="I67" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
         <v>77</v>
       </c>
-      <c r="C68" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D69" t="s">
+      <c r="C69" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>101</v>
+      </c>
+      <c r="F70" t="s">
+        <v>298</v>
+      </c>
+      <c r="G70" t="s">
+        <v>557</v>
+      </c>
+      <c r="H70" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>229</v>
+      </c>
+      <c r="E71" t="s">
+        <v>572</v>
+      </c>
+      <c r="F71" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>77</v>
+      </c>
+      <c r="C72" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
         <v>129</v>
       </c>
-      <c r="F69" t="s">
-        <v>299</v>
-      </c>
-      <c r="I69" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>77</v>
-      </c>
-      <c r="C71" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D72" t="s">
-        <v>129</v>
-      </c>
-      <c r="F72" t="s">
-        <v>299</v>
-      </c>
-      <c r="I72" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>78</v>
+      <c r="F73" t="s">
+        <v>298</v>
+      </c>
+      <c r="I73" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>77</v>
-      </c>
-      <c r="C74" t="s">
-        <v>308</v>
+        <v>78</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D75" t="s">
-        <v>29</v>
-      </c>
-      <c r="F75" t="s">
-        <v>301</v>
-      </c>
-      <c r="G75" t="s">
-        <v>79</v>
-      </c>
-      <c r="H75" t="s">
-        <v>41</v>
+      <c r="B75" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>78</v>
+      <c r="D76" t="s">
+        <v>129</v>
+      </c>
+      <c r="F76" t="s">
+        <v>559</v>
+      </c>
+      <c r="I76">
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
@@ -5458,18 +5594,12 @@
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D79" t="s">
-        <v>28</v>
-      </c>
-      <c r="G79" t="s">
-        <v>373</v>
-      </c>
-      <c r="H79" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
@@ -5477,131 +5607,131 @@
         <v>28</v>
       </c>
       <c r="G80" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="H80" t="s">
-        <v>43</v>
+        <v>374</v>
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
-        <v>29</v>
-      </c>
-      <c r="F81" t="s">
-        <v>302</v>
+        <v>28</v>
       </c>
       <c r="G81" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H81" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
+        <v>29</v>
+      </c>
+      <c r="F82" t="s">
+        <v>299</v>
+      </c>
+      <c r="G82" t="s">
+        <v>80</v>
+      </c>
+      <c r="H82" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
         <v>229</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E83" t="s">
         <v>429</v>
       </c>
-      <c r="F82" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
+      <c r="F83" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
         <v>77</v>
       </c>
-      <c r="C83" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D84" t="s">
+      <c r="C84" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
         <v>129</v>
       </c>
-      <c r="F84" t="s">
-        <v>302</v>
-      </c>
-      <c r="I84" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
-        <v>78</v>
+      <c r="F85" t="s">
+        <v>299</v>
+      </c>
+      <c r="I85" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
         <v>77</v>
       </c>
-      <c r="C86" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D87" t="s">
+      <c r="C87" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
         <v>129</v>
       </c>
-      <c r="F87" t="s">
-        <v>302</v>
-      </c>
-      <c r="I87" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
-        <v>78</v>
+      <c r="F88" t="s">
+        <v>299</v>
+      </c>
+      <c r="I88" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
         <v>77</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C90" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D90" t="s">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
         <v>29</v>
       </c>
-      <c r="F90" t="s">
-        <v>304</v>
-      </c>
-      <c r="G90" t="s">
+      <c r="F91" t="s">
+        <v>301</v>
+      </c>
+      <c r="G91" t="s">
         <v>79</v>
       </c>
-      <c r="H90" t="s">
+      <c r="H91" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D94" t="s">
-        <v>28</v>
-      </c>
-      <c r="G94" t="s">
-        <v>373</v>
-      </c>
-      <c r="H94" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
@@ -5609,131 +5739,134 @@
         <v>28</v>
       </c>
       <c r="G95" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="H95" t="s">
-        <v>44</v>
+        <v>374</v>
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D96" t="s">
+        <v>28</v>
+      </c>
+      <c r="G96" t="s">
+        <v>379</v>
+      </c>
+      <c r="H96" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
         <v>29</v>
       </c>
-      <c r="F96" t="s">
-        <v>305</v>
-      </c>
-      <c r="G96" t="s">
+      <c r="F97" t="s">
+        <v>302</v>
+      </c>
+      <c r="G97" t="s">
         <v>80</v>
       </c>
-      <c r="H96" t="s">
+      <c r="H97" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D97" t="s">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D98" t="s">
         <v>229</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E98" t="s">
         <v>429</v>
       </c>
-      <c r="F97" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B98" t="s">
+      <c r="F98" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
         <v>77</v>
       </c>
-      <c r="C98" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D99" t="s">
+      <c r="C99" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
         <v>129</v>
       </c>
-      <c r="F99" t="s">
-        <v>305</v>
-      </c>
-      <c r="I99" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
+      <c r="F100" t="s">
+        <v>302</v>
+      </c>
+      <c r="I100" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B101" t="s">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
         <v>77</v>
       </c>
-      <c r="C101" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D102" t="s">
+      <c r="C102" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D103" t="s">
         <v>129</v>
       </c>
-      <c r="F102" t="s">
-        <v>305</v>
-      </c>
-      <c r="I102" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B103" t="s">
+      <c r="F103" t="s">
+        <v>302</v>
+      </c>
+      <c r="I103" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B104" t="s">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
         <v>77</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C105" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D105" t="s">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D106" t="s">
         <v>29</v>
       </c>
-      <c r="F105" t="s">
-        <v>307</v>
-      </c>
-      <c r="G105" t="s">
+      <c r="F106" t="s">
+        <v>304</v>
+      </c>
+      <c r="G106" t="s">
         <v>79</v>
       </c>
-      <c r="H105" t="s">
+      <c r="H106" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B106" t="s">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B107" t="s">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
-        <v>77</v>
-      </c>
-      <c r="C108" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D110" t="s">
         <v>28</v>
       </c>
@@ -5744,85 +5877,264 @@
         <v>374</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D111" t="s">
+        <v>28</v>
+      </c>
+      <c r="G111" t="s">
+        <v>380</v>
+      </c>
+      <c r="H111" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D112" t="s">
+        <v>29</v>
+      </c>
+      <c r="F112" t="s">
+        <v>305</v>
+      </c>
+      <c r="G112" t="s">
+        <v>80</v>
+      </c>
+      <c r="H112" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D113" t="s">
+        <v>229</v>
+      </c>
+      <c r="E113" t="s">
+        <v>429</v>
+      </c>
+      <c r="F113" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>77</v>
+      </c>
+      <c r="C114" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D115" t="s">
+        <v>129</v>
+      </c>
+      <c r="F115" t="s">
+        <v>305</v>
+      </c>
+      <c r="I115" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>77</v>
+      </c>
+      <c r="C117" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D118" t="s">
+        <v>129</v>
+      </c>
+      <c r="F118" t="s">
+        <v>305</v>
+      </c>
+      <c r="I118" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>77</v>
+      </c>
+      <c r="C120" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D121" t="s">
+        <v>29</v>
+      </c>
+      <c r="F121" t="s">
+        <v>307</v>
+      </c>
+      <c r="G121" t="s">
+        <v>79</v>
+      </c>
+      <c r="H121" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>77</v>
+      </c>
+      <c r="C124" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D126" t="s">
+        <v>28</v>
+      </c>
+      <c r="G126" t="s">
+        <v>373</v>
+      </c>
+      <c r="H126" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D127" t="s">
         <v>101</v>
       </c>
-      <c r="F111" t="s">
+      <c r="F127" t="s">
         <v>314</v>
       </c>
-      <c r="G111" s="9" t="s">
+      <c r="G127" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="H111" t="s">
+      <c r="H127" t="s">
         <v>46</v>
       </c>
-      <c r="N111" t="s">
+      <c r="N127" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B112" t="s">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D128" t="s">
+        <v>229</v>
+      </c>
+      <c r="E128" t="s">
+        <v>572</v>
+      </c>
+      <c r="F128" t="s">
+        <v>575</v>
+      </c>
+      <c r="G128" s="9"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>77</v>
+      </c>
+      <c r="C129" t="s">
+        <v>576</v>
+      </c>
+      <c r="G129" s="9"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D130" t="s">
+        <v>129</v>
+      </c>
+      <c r="F130" t="s">
+        <v>314</v>
+      </c>
+      <c r="G130" s="9"/>
+      <c r="I130" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>78</v>
+      </c>
+      <c r="G131" s="9"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B113" t="s">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="25"/>
-      <c r="B114" s="11" t="s">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" s="25"/>
+      <c r="B134" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C134" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B115" s="12" t="s">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B135" s="12" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="25"/>
-      <c r="B116" s="12" t="s">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" s="25"/>
+      <c r="B136" s="12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B117" t="s">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D118" t="s">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D138" t="s">
         <v>28</v>
       </c>
-      <c r="G118" t="s">
+      <c r="G138" t="s">
         <v>373</v>
       </c>
-      <c r="H118" t="s">
+      <c r="H138" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D119" t="s">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D139" t="s">
         <v>100</v>
       </c>
-      <c r="F119" t="s">
+      <c r="F139" t="s">
         <v>365</v>
       </c>
-      <c r="G119" t="s">
+      <c r="G139" t="s">
         <v>382</v>
       </c>
-      <c r="H119" t="s">
+      <c r="H139" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B120" t="s">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5834,11 +6146,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51D9F90A-DED8-4B84-AE76-A32853D141F5}">
-  <dimension ref="A1:N131"/>
+  <dimension ref="A1:N151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F47" sqref="F47"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6476,35 +6788,38 @@
       </c>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
+      <c r="D57" t="s">
+        <v>229</v>
+      </c>
+      <c r="E57" t="s">
+        <v>247</v>
+      </c>
+      <c r="F57" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
         <v>77</v>
       </c>
-      <c r="C57" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D58" t="s">
-        <v>101</v>
-      </c>
-      <c r="F58" t="s">
-        <v>332</v>
-      </c>
-      <c r="G58" t="s">
-        <v>79</v>
-      </c>
-      <c r="H58" t="s">
-        <v>41</v>
+      <c r="C58" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>78</v>
+      <c r="D59" t="s">
+        <v>129</v>
+      </c>
+      <c r="F59" t="s">
+        <v>329</v>
+      </c>
+      <c r="I59" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.25">
@@ -6512,243 +6827,243 @@
         <v>77</v>
       </c>
       <c r="C61" t="s">
-        <v>571</v>
+        <v>331</v>
       </c>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>12</v>
+      <c r="D62" t="s">
+        <v>101</v>
+      </c>
+      <c r="F62" t="s">
+        <v>332</v>
+      </c>
+      <c r="G62" t="s">
+        <v>79</v>
+      </c>
+      <c r="H62" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
-        <v>28</v>
-      </c>
-      <c r="G63" t="s">
-        <v>568</v>
-      </c>
-      <c r="H63" t="s">
-        <v>569</v>
+        <v>229</v>
+      </c>
+      <c r="E63" t="s">
+        <v>572</v>
+      </c>
+      <c r="F63" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D64" t="s">
-        <v>28</v>
-      </c>
-      <c r="G64" t="s">
-        <v>420</v>
-      </c>
-      <c r="H64" t="s">
-        <v>421</v>
+      <c r="B64" t="s">
+        <v>77</v>
+      </c>
+      <c r="C64" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
-        <v>28</v>
-      </c>
-      <c r="G65" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="H65" t="s">
-        <v>40</v>
+        <v>129</v>
+      </c>
+      <c r="F65" t="s">
+        <v>332</v>
+      </c>
+      <c r="I65" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D66" t="s">
-        <v>101</v>
-      </c>
-      <c r="F66" t="s">
-        <v>329</v>
-      </c>
-      <c r="G66" t="s">
-        <v>80</v>
-      </c>
-      <c r="H66" t="s">
-        <v>42</v>
-      </c>
-      <c r="K66" t="s">
-        <v>570</v>
-      </c>
-      <c r="L66" t="s">
-        <v>400</v>
-      </c>
-      <c r="M66" t="s">
-        <v>401</v>
+      <c r="B66" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>77</v>
-      </c>
-      <c r="C67" t="s">
-        <v>331</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D68" t="s">
-        <v>101</v>
-      </c>
-      <c r="F68" t="s">
-        <v>332</v>
-      </c>
-      <c r="G68" t="s">
-        <v>557</v>
-      </c>
-      <c r="H68" t="s">
-        <v>558</v>
+      <c r="B68" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="C69" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D70" t="s">
-        <v>129</v>
-      </c>
-      <c r="F70" t="s">
-        <v>561</v>
-      </c>
-      <c r="I70">
-        <v>2</v>
+      <c r="B70" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>13</v>
+      <c r="D71" t="s">
+        <v>28</v>
+      </c>
+      <c r="G71" t="s">
+        <v>568</v>
+      </c>
+      <c r="H71" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>78</v>
+      <c r="D72" t="s">
+        <v>28</v>
+      </c>
+      <c r="G72" t="s">
+        <v>420</v>
+      </c>
+      <c r="H72" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>12</v>
+      <c r="D73" t="s">
+        <v>28</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="H73" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
-        <v>28</v>
+        <v>101</v>
+      </c>
+      <c r="F74" t="s">
+        <v>329</v>
       </c>
       <c r="G74" t="s">
-        <v>420</v>
+        <v>80</v>
       </c>
       <c r="H74" t="s">
-        <v>421</v>
+        <v>42</v>
+      </c>
+      <c r="K74" t="s">
+        <v>570</v>
+      </c>
+      <c r="L74" t="s">
+        <v>400</v>
+      </c>
+      <c r="M74" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
-        <v>28</v>
-      </c>
-      <c r="G75" t="s">
-        <v>81</v>
-      </c>
-      <c r="H75" t="s">
-        <v>45</v>
+        <v>229</v>
+      </c>
+      <c r="E75" t="s">
+        <v>247</v>
+      </c>
+      <c r="F75" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D76" t="s">
-        <v>29</v>
-      </c>
-      <c r="F76" t="s">
-        <v>333</v>
-      </c>
-      <c r="G76" t="s">
-        <v>80</v>
-      </c>
-      <c r="H76" t="s">
-        <v>42</v>
+      <c r="B76" t="s">
+        <v>77</v>
+      </c>
+      <c r="C76" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
-        <v>229</v>
-      </c>
-      <c r="E77" t="s">
-        <v>429</v>
+        <v>129</v>
       </c>
       <c r="F77" t="s">
-        <v>334</v>
+        <v>329</v>
+      </c>
+      <c r="I77" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
         <v>77</v>
       </c>
-      <c r="C78" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D79" t="s">
+      <c r="C79" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>101</v>
+      </c>
+      <c r="F80" t="s">
+        <v>332</v>
+      </c>
+      <c r="G80" t="s">
+        <v>557</v>
+      </c>
+      <c r="H80" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>229</v>
+      </c>
+      <c r="E81" t="s">
+        <v>572</v>
+      </c>
+      <c r="F81" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>77</v>
+      </c>
+      <c r="C82" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
         <v>129</v>
       </c>
-      <c r="F79" t="s">
-        <v>333</v>
-      </c>
-      <c r="I79" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
-        <v>77</v>
-      </c>
-      <c r="C81" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D82" t="s">
-        <v>129</v>
-      </c>
-      <c r="F82" t="s">
-        <v>333</v>
-      </c>
-      <c r="I82" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
-        <v>78</v>
+      <c r="F83" t="s">
+        <v>332</v>
+      </c>
+      <c r="I83" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>77</v>
-      </c>
-      <c r="C84" t="s">
-        <v>331</v>
+        <v>78</v>
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D85" t="s">
-        <v>29</v>
-      </c>
-      <c r="F85" t="s">
-        <v>335</v>
-      </c>
-      <c r="G85" t="s">
-        <v>79</v>
-      </c>
-      <c r="H85" t="s">
-        <v>41</v>
+      <c r="B85" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
-        <v>78</v>
+      <c r="D86" t="s">
+        <v>129</v>
+      </c>
+      <c r="F86" t="s">
+        <v>561</v>
+      </c>
+      <c r="I86">
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
@@ -6758,18 +7073,12 @@
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D89" t="s">
-        <v>28</v>
-      </c>
-      <c r="G89" t="s">
-        <v>420</v>
-      </c>
-      <c r="H89" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
@@ -6777,131 +7086,131 @@
         <v>28</v>
       </c>
       <c r="G90" t="s">
-        <v>379</v>
+        <v>420</v>
       </c>
       <c r="H90" t="s">
-        <v>43</v>
+        <v>421</v>
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D91" t="s">
-        <v>29</v>
-      </c>
-      <c r="F91" t="s">
-        <v>336</v>
+        <v>28</v>
       </c>
       <c r="G91" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H91" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D92" t="s">
+        <v>29</v>
+      </c>
+      <c r="F92" t="s">
+        <v>333</v>
+      </c>
+      <c r="G92" t="s">
+        <v>80</v>
+      </c>
+      <c r="H92" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
         <v>229</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E93" t="s">
         <v>429</v>
       </c>
-      <c r="F92" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
+      <c r="F93" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
         <v>77</v>
       </c>
-      <c r="C93" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D94" t="s">
+      <c r="C94" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
         <v>129</v>
       </c>
-      <c r="F94" t="s">
-        <v>336</v>
-      </c>
-      <c r="I94" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
-        <v>78</v>
+      <c r="F95" t="s">
+        <v>333</v>
+      </c>
+      <c r="I95" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
         <v>77</v>
       </c>
-      <c r="C96" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D97" t="s">
+      <c r="C97" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D98" t="s">
         <v>129</v>
       </c>
-      <c r="F97" t="s">
-        <v>336</v>
-      </c>
-      <c r="I97" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B98" t="s">
-        <v>78</v>
+      <c r="F98" t="s">
+        <v>333</v>
+      </c>
+      <c r="I98" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
         <v>77</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C100" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D100" t="s">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D101" t="s">
         <v>29</v>
       </c>
-      <c r="F100" t="s">
-        <v>338</v>
-      </c>
-      <c r="G100" t="s">
+      <c r="F101" t="s">
+        <v>335</v>
+      </c>
+      <c r="G101" t="s">
         <v>79</v>
       </c>
-      <c r="H100" t="s">
+      <c r="H101" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B101" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D104" t="s">
-        <v>28</v>
-      </c>
-      <c r="G104" t="s">
-        <v>420</v>
-      </c>
-      <c r="H104" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.25">
@@ -6909,131 +7218,134 @@
         <v>28</v>
       </c>
       <c r="G105" t="s">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="H105" t="s">
-        <v>44</v>
+        <v>421</v>
       </c>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D106" t="s">
-        <v>29</v>
-      </c>
-      <c r="F106" t="s">
-        <v>339</v>
+        <v>28</v>
       </c>
       <c r="G106" t="s">
-        <v>80</v>
+        <v>379</v>
       </c>
       <c r="H106" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D107" t="s">
+        <v>29</v>
+      </c>
+      <c r="F107" t="s">
+        <v>336</v>
+      </c>
+      <c r="G107" t="s">
+        <v>80</v>
+      </c>
+      <c r="H107" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D108" t="s">
         <v>229</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E108" t="s">
         <v>429</v>
       </c>
-      <c r="F107" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
+      <c r="F108" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
         <v>77</v>
       </c>
-      <c r="C108" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D109" t="s">
+      <c r="C109" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D110" t="s">
         <v>129</v>
       </c>
-      <c r="F109" t="s">
-        <v>339</v>
-      </c>
-      <c r="I109" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B110" t="s">
-        <v>78</v>
+      <c r="F110" t="s">
+        <v>336</v>
+      </c>
+      <c r="I110" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
         <v>77</v>
       </c>
-      <c r="C111" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D112" t="s">
+      <c r="C112" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D113" t="s">
         <v>129</v>
       </c>
-      <c r="F112" t="s">
-        <v>339</v>
-      </c>
-      <c r="I112" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B113" t="s">
+      <c r="F113" t="s">
+        <v>336</v>
+      </c>
+      <c r="I113" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B114" t="s">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
         <v>77</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C115" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D115" t="s">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D116" t="s">
         <v>29</v>
       </c>
-      <c r="F115" t="s">
-        <v>341</v>
-      </c>
-      <c r="G115" t="s">
+      <c r="F116" t="s">
+        <v>338</v>
+      </c>
+      <c r="G116" t="s">
         <v>79</v>
       </c>
-      <c r="H115" t="s">
+      <c r="H116" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B116" t="s">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B117" t="s">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B118" t="s">
-        <v>77</v>
-      </c>
-      <c r="C118" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D120" t="s">
         <v>28</v>
       </c>
@@ -7044,91 +7356,270 @@
         <v>421</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D121" t="s">
+        <v>28</v>
+      </c>
+      <c r="G121" t="s">
+        <v>380</v>
+      </c>
+      <c r="H121" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D122" t="s">
+        <v>29</v>
+      </c>
+      <c r="F122" t="s">
+        <v>339</v>
+      </c>
+      <c r="G122" t="s">
+        <v>80</v>
+      </c>
+      <c r="H122" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D123" t="s">
+        <v>229</v>
+      </c>
+      <c r="E123" t="s">
+        <v>429</v>
+      </c>
+      <c r="F123" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>77</v>
+      </c>
+      <c r="C124" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D125" t="s">
+        <v>129</v>
+      </c>
+      <c r="F125" t="s">
+        <v>339</v>
+      </c>
+      <c r="I125" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>77</v>
+      </c>
+      <c r="C127" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D128" t="s">
+        <v>129</v>
+      </c>
+      <c r="F128" t="s">
+        <v>339</v>
+      </c>
+      <c r="I128" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>77</v>
+      </c>
+      <c r="C130" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D131" t="s">
+        <v>29</v>
+      </c>
+      <c r="F131" t="s">
+        <v>341</v>
+      </c>
+      <c r="G131" t="s">
+        <v>79</v>
+      </c>
+      <c r="H131" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>77</v>
+      </c>
+      <c r="C134" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D136" t="s">
+        <v>28</v>
+      </c>
+      <c r="G136" t="s">
+        <v>420</v>
+      </c>
+      <c r="H136" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D137" t="s">
         <v>101</v>
       </c>
-      <c r="F121" t="s">
+      <c r="F137" t="s">
         <v>342</v>
       </c>
-      <c r="G121" s="9" t="s">
+      <c r="G137" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="H121" t="s">
+      <c r="H137" t="s">
         <v>46</v>
       </c>
-      <c r="N121" t="s">
+      <c r="N137" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B122" t="s">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D138" t="s">
+        <v>229</v>
+      </c>
+      <c r="E138" t="s">
+        <v>572</v>
+      </c>
+      <c r="F138" t="s">
+        <v>577</v>
+      </c>
+      <c r="G138" s="9"/>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>77</v>
+      </c>
+      <c r="C139" t="s">
+        <v>578</v>
+      </c>
+      <c r="G139" s="9"/>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D140" t="s">
+        <v>129</v>
+      </c>
+      <c r="F140" t="s">
+        <v>342</v>
+      </c>
+      <c r="G140" s="9"/>
+      <c r="I140" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>78</v>
+      </c>
+      <c r="G141" s="9"/>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B123" t="s">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A124" s="25"/>
-      <c r="B124" s="11" t="s">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A144" s="25"/>
+      <c r="B144" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C144" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B125" s="12" t="s">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B145" s="12" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A126" s="25"/>
-      <c r="B126" s="12" t="s">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="25"/>
+      <c r="B146" s="12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B127" t="s">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D128" t="s">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D148" t="s">
         <v>28</v>
       </c>
-      <c r="G128" t="s">
+      <c r="G148" t="s">
         <v>420</v>
       </c>
-      <c r="H128" t="s">
+      <c r="H148" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D129" t="s">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D149" t="s">
         <v>100</v>
       </c>
-      <c r="F129" t="s">
+      <c r="F149" t="s">
         <v>366</v>
       </c>
-      <c r="G129" t="s">
+      <c r="G149" t="s">
         <v>384</v>
       </c>
-      <c r="H129" t="s">
+      <c r="H149" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B130" t="s">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="19"/>
-      <c r="B131" t="s">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="19"/>
+      <c r="B151" t="s">
         <v>78</v>
       </c>
     </row>
@@ -7142,7 +7633,7 @@
   <dimension ref="A1:N201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L85" sqref="L85:M85"/>
     </sheetView>
   </sheetViews>

--- a/app/config/tables/GRAVIDA/forms/GRAVIDA/GRAVIDA.xlsx
+++ b/app/config/tables/GRAVIDA/forms/GRAVIDA/GRAVIDA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15119EAC-00CF-4E42-BBC1-4B91872D6B63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748F194D-A03A-4E95-98AF-DF0AFC60FB60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" tabRatio="700" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1791" uniqueCount="592">
   <si>
     <t>setting_name</t>
   </si>
@@ -765,9 +765,6 @@
   </si>
   <si>
     <t>Duração da gravidez antes do aborto espontâneo</t>
-  </si>
-  <si>
-    <t>Número do nascimento da criança</t>
   </si>
   <si>
     <t>Onde é que a mulher deu à luz?</t>
@@ -1156,9 +1153,6 @@
     <t>OBSPART</t>
   </si>
   <si>
-    <t>nome</t>
-  </si>
-  <si>
     <t>calculation_name</t>
   </si>
   <si>
@@ -1600,12 +1594,6 @@
     <t>Tem cartão do consulta pré-natal?</t>
   </si>
   <si>
-    <t>Have vaccination  card?</t>
-  </si>
-  <si>
-    <t>Tem cartão de vacinas da mulher?</t>
-  </si>
-  <si>
     <t>Vacina antitetânica durante esta gravidez</t>
   </si>
   <si>
@@ -1690,9 +1678,6 @@
     <t>data('vactt4ng') != null</t>
   </si>
   <si>
-    <t>{PREGID: opendatakit.getCurrentInstanceId(), REGID: data('REGID'), REGDIA: data('PREGDIA'), REG: data('REG'), TAB: data('TAB'), MOR: data('MOR'), CASA: data('CASA'), FOGAO: data('FOGAO'), AMO: data('AMO'), CABA: data('CABA'), GERADOR: data('GERADOR'), OBSSES: data('OBSSES'), RADIO: data('RADIO'), SESDATA: data('SESDATA'), TECTO: data('TECTO'), TELEMOVEL: data('TELEMOVEL'), TELENUMERO: data('TELENUMERO'), OBSPART: data('OBSPART'), OUTDATE: data('OUTDATE'), ASSISTPART: data('ASSISTPART'), CARTON: data('CARTON'), CART_ANC: data('CART_ANC'), CDG_C: data('CDG_C'), CDG_M: data('CDG_M'), FEDEP_C: data('FEDEP_C'), FEDEP_M: data('FEDEP_M'), GRCONS: data('GRCONS'), GRINFOS: data('GRINFOS'), GRVAC: data('GRVAC'), LITTERSIZE: data('LITTERSIZE'), LOCPAR: data('LOCPAR'), QVFANSI_C: data('QVFANSI_C'), QVFANSI_M: data('QVFANSI_M'), TABPART: data('TABPART'), VACTT1: data('VACTT1'), VACTT2: data('VACTT2'), VACTT3: data('VACTT3'), VACTT4: data('VACTT4'), VACTTHI: data('VACTTHI')}</t>
-  </si>
-  <si>
     <t>gestpu</t>
   </si>
   <si>
@@ -1814,6 +1799,33 @@
   </si>
   <si>
     <t>data('lmp2_cns') != null</t>
+  </si>
+  <si>
+    <t>display.hint.text.english</t>
+  </si>
+  <si>
+    <t>display.hint.text</t>
+  </si>
+  <si>
+    <t>First day of last period</t>
+  </si>
+  <si>
+    <t>Primeiro dia do último período</t>
+  </si>
+  <si>
+    <t>Quantas crianças estavam na barriga</t>
+  </si>
+  <si>
+    <t>Vaccination card</t>
+  </si>
+  <si>
+    <t>Vartão de vacinas da mulher</t>
+  </si>
+  <si>
+    <t>NOME</t>
+  </si>
+  <si>
+    <t>{PREGID: opendatakit.getCurrentInstanceId(), REGID: data('REGID'), REGDIA: data('PREGDIA'), REG: data('REG'), TAB: data('TAB'), MOR: data('MOR'), CASA: data('CASA'), FOGAO: data('FOGAO'), AMO: data('AMO'), NOMEMAE: data('NOME'), CABA: data('CABA'), GERADOR: data('GERADOR'), OBSSES: data('OBSSES'), RADIO: data('RADIO'), SESDATA: data('SESDATA'), TECTO: data('TECTO'), TELEMOVEL: data('TELEMOVEL'), TELENUMERO: data('TELENUMERO'), OBSPART: data('OBSPART'), OUTDATE: data('OUTDATE'), ASSISTPART: data('ASSISTPART'), CARTON: data('CARTON'), CART_ANC: data('CART_ANC'), CDG_C: data('CDG_C'), CDG_M: data('CDG_M'), FEDEP_C: data('FEDEP_C'), FEDEP_M: data('FEDEP_M'), GRCONS: data('GRCONS'), GRINFOS: data('GRINFOS'), GRVAC: data('GRVAC'), LITTERSIZE: data('LITTERSIZE'), LOCPAR: data('LOCPAR'), QVFANSI_C: data('QVFANSI_C'), QVFANSI_M: data('QVFANSI_M'), TABPART: data('TABPART'), VACTT1: data('VACTT1'), VACTT2: data('VACTT2'), VACTT3: data('VACTT3'), VACTT4: data('VACTT4'), VACTTHI: data('VACTTHI')}</t>
   </si>
 </sst>
 </file>
@@ -1946,7 +1958,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1977,6 +1989,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{C28CC074-D3A0-48A2-81F3-B6A5CA836B7C}"/>
@@ -2302,7 +2315,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2318,7 +2331,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2326,10 +2339,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2394,24 +2407,24 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>409</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C2" t="s">
         <v>412</v>
-      </c>
-      <c r="B2" t="s">
-        <v>413</v>
-      </c>
-      <c r="C2" t="s">
-        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -2580,10 +2593,10 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
+        <v>321</v>
+      </c>
+      <c r="D10" t="s">
         <v>322</v>
-      </c>
-      <c r="D10" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2636,10 +2649,10 @@
         <v>68</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2664,7 +2677,7 @@
         <v>72</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>73</v>
@@ -2976,7 +2989,7 @@
         <v>190</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="38" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2984,7 +2997,7 @@
         <v>149</v>
       </c>
       <c r="B38" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C38" t="s">
         <v>75</v>
@@ -3004,7 +3017,7 @@
         <v>192</v>
       </c>
       <c r="D39" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="40" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3096,7 +3109,7 @@
         <v>152</v>
       </c>
       <c r="B46" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C46" t="s">
         <v>211</v>
@@ -3110,10 +3123,10 @@
         <v>152</v>
       </c>
       <c r="B47" t="s">
+        <v>254</v>
+      </c>
+      <c r="C47" t="s">
         <v>255</v>
-      </c>
-      <c r="C47" t="s">
-        <v>256</v>
       </c>
       <c r="D47" t="s">
         <v>76</v>
@@ -3128,15 +3141,15 @@
         <v>555</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B49" t="str">
         <f>"99"</f>
@@ -3151,22 +3164,22 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B50" t="str">
         <f>"8888"</f>
         <v>8888</v>
       </c>
       <c r="C50" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D50" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B51" t="str">
         <f>"9999"</f>
@@ -3181,22 +3194,22 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B52" s="13" t="str">
         <f>"88"</f>
         <v>88</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B53" s="13" t="str">
         <f>"99"</f>
@@ -3211,67 +3224,67 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B54" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D54" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B55" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C55" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D55" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B56" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C56" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D56" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B57" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C57" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D57" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B58" t="str">
         <f>"9"</f>
@@ -3286,52 +3299,52 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B59" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D59" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B60" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C60" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D60" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B61" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C61" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D61" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B62" t="str">
         <f>"9"</f>
@@ -3346,32 +3359,32 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B63" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D63" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="B64" s="13" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
   </sheetData>
@@ -3385,8 +3398,8 @@
   <dimension ref="A1:M117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A113" sqref="A113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3407,12 +3420,12 @@
         <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -3421,12 +3434,12 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B3" t="s">
         <v>101</v>
@@ -3437,7 +3450,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B4" t="s">
         <v>229</v>
@@ -3448,7 +3461,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -3459,7 +3472,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -3470,7 +3483,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B7" t="s">
         <v>229</v>
@@ -3481,7 +3494,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -3493,7 +3506,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -3504,7 +3517,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B10" t="s">
         <v>229</v>
@@ -3516,7 +3529,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -3527,7 +3540,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B12" t="s">
         <v>229</v>
@@ -3538,7 +3551,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B13" t="s">
         <v>129</v>
@@ -3560,7 +3573,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B15" t="s">
         <v>101</v>
@@ -3571,7 +3584,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="B16" t="s">
         <v>229</v>
@@ -3582,7 +3595,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="B17" t="s">
         <v>129</v>
@@ -3593,7 +3606,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B18" t="s">
         <v>101</v>
@@ -3604,7 +3617,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B19" t="s">
         <v>229</v>
@@ -3615,7 +3628,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -3626,7 +3639,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B21" t="s">
         <v>229</v>
@@ -3637,7 +3650,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B22" t="s">
         <v>100</v>
@@ -3648,7 +3661,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>101</v>
@@ -3659,7 +3672,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
@@ -3670,7 +3683,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B25" t="s">
         <v>29</v>
@@ -3681,7 +3694,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B26" t="s">
         <v>229</v>
@@ -3692,7 +3705,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B28" t="s">
         <v>25</v>
@@ -3701,12 +3714,12 @@
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B29" t="s">
         <v>101</v>
@@ -3717,7 +3730,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="B30" t="s">
         <v>229</v>
@@ -3728,7 +3741,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B31" t="s">
         <v>29</v>
@@ -3739,7 +3752,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B32" t="s">
         <v>29</v>
@@ -3750,7 +3763,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B33" t="s">
         <v>229</v>
@@ -3761,7 +3774,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B34" t="s">
         <v>29</v>
@@ -3772,7 +3785,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B35" t="s">
         <v>29</v>
@@ -3783,7 +3796,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B36" t="s">
         <v>229</v>
@@ -3794,7 +3807,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B37" t="s">
         <v>29</v>
@@ -3805,7 +3818,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B38" t="s">
         <v>229</v>
@@ -3816,7 +3829,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="B39" t="s">
         <v>129</v>
@@ -3827,7 +3840,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B40" t="s">
         <v>101</v>
@@ -3838,7 +3851,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="B41" t="s">
         <v>229</v>
@@ -3851,7 +3864,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="B42" t="s">
         <v>129</v>
@@ -3862,7 +3875,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B43" t="s">
         <v>101</v>
@@ -3874,7 +3887,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="B44" t="s">
         <v>229</v>
@@ -3886,7 +3899,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B45" t="s">
         <v>29</v>
@@ -3898,7 +3911,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B46" t="s">
         <v>229</v>
@@ -3910,7 +3923,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B47" t="s">
         <v>25</v>
@@ -3922,7 +3935,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B48" s="12" t="s">
         <v>100</v>
@@ -3934,7 +3947,7 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B49" t="s">
         <v>29</v>
@@ -3947,7 +3960,7 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B50" t="s">
         <v>29</v>
@@ -3958,7 +3971,7 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B51" t="s">
         <v>229</v>
@@ -3969,7 +3982,7 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B52" s="11" t="s">
         <v>101</v>
@@ -3995,12 +4008,12 @@
         <v>0</v>
       </c>
       <c r="D54" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B55" t="s">
         <v>229</v>
@@ -4033,7 +4046,7 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B58" s="12" t="s">
         <v>25</v>
@@ -4066,7 +4079,7 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B61" t="s">
         <v>229</v>
@@ -4101,7 +4114,7 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B64" t="s">
         <v>229</v>
@@ -4189,7 +4202,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B72" s="12" t="s">
         <v>100</v>
@@ -4222,10 +4235,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B75" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C75" t="b">
         <v>0</v>
@@ -4233,7 +4246,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B76" t="s">
         <v>229</v>
@@ -4244,7 +4257,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B77" t="s">
         <v>100</v>
@@ -4255,7 +4268,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B78" t="s">
         <v>100</v>
@@ -4266,7 +4279,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B79" t="s">
         <v>25</v>
@@ -4299,7 +4312,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B82" t="s">
         <v>229</v>
@@ -4310,10 +4323,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B83" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C83" t="b">
         <v>1</v>
@@ -4332,7 +4345,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B85" t="s">
         <v>101</v>
@@ -4343,7 +4356,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B86" s="12" t="s">
         <v>229</v>
@@ -4354,7 +4367,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B87" t="s">
         <v>101</v>
@@ -4365,7 +4378,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B88" s="12" t="s">
         <v>229</v>
@@ -4376,7 +4389,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B89" t="s">
         <v>101</v>
@@ -4387,7 +4400,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B90" s="12" t="s">
         <v>229</v>
@@ -4398,7 +4411,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B91" t="s">
         <v>101</v>
@@ -4409,7 +4422,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B92" s="12" t="s">
         <v>229</v>
@@ -4431,7 +4444,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B94" s="11" t="s">
         <v>101</v>
@@ -4442,7 +4455,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B96" t="s">
         <v>25</v>
@@ -4456,7 +4469,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B97" t="s">
         <v>25</v>
@@ -4467,7 +4480,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B98" t="s">
         <v>100</v>
@@ -4478,7 +4491,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B99" t="s">
         <v>25</v>
@@ -4489,7 +4502,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B100" t="s">
         <v>101</v>
@@ -4500,7 +4513,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B101" t="s">
         <v>25</v>
@@ -4511,7 +4524,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B102" t="s">
         <v>25</v>
@@ -4522,7 +4535,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B103" t="s">
         <v>100</v>
@@ -4533,7 +4546,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B105" t="s">
         <v>29</v>
@@ -4542,7 +4555,7 @@
         <v>0</v>
       </c>
       <c r="D105" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -4558,7 +4571,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B107" t="s">
         <v>29</v>
@@ -4580,7 +4593,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B109" t="s">
         <v>29</v>
@@ -4591,7 +4604,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B110" t="s">
         <v>101</v>
@@ -4602,7 +4615,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B111" t="s">
         <v>29</v>
@@ -4613,7 +4626,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B112" t="s">
         <v>25</v>
@@ -4624,18 +4637,18 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>368</v>
+        <v>590</v>
       </c>
       <c r="B113" t="s">
         <v>100</v>
       </c>
       <c r="C113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B114" t="s">
         <v>29</v>
@@ -4657,7 +4670,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B116" t="s">
         <v>29</v>
@@ -4744,16 +4757,16 @@
         <v>35</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>287</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -4761,22 +4774,22 @@
         <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -4793,11 +4806,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42B4652-1939-4CCD-AEEB-1868D449AB6E}">
-  <dimension ref="A1:O140"/>
+  <dimension ref="A1:Q140"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F71" sqref="F71"/>
+    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O45" sqref="O45:P45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4814,10 +4827,12 @@
     <col min="12" max="12" width="37.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20.28515625" customWidth="1"/>
-    <col min="15" max="15" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>27</v>
       </c>
@@ -4846,25 +4861,31 @@
         <v>26</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>288</v>
-      </c>
       <c r="N1" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+      <c r="O1" s="26" t="s">
+        <v>583</v>
+      </c>
+      <c r="P1" s="26" t="s">
+        <v>584</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="11" t="s">
         <v>12</v>
@@ -4875,18 +4896,18 @@
       <c r="M2" s="10"/>
       <c r="N2"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H3" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="D4" s="11" t="s">
         <v>129</v>
@@ -4902,35 +4923,35 @@
       <c r="M4" s="10"/>
       <c r="N4"/>
     </row>
-    <row r="5" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="D5" s="11" t="s">
         <v>129</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
       <c r="N5"/>
     </row>
-    <row r="6" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="D6" s="11" t="s">
         <v>101</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G6" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="H6" s="12" t="s">
         <v>316</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>317</v>
       </c>
       <c r="I6" s="10"/>
       <c r="K6" s="10"/>
@@ -4938,7 +4959,7 @@
       <c r="M6" s="10"/>
       <c r="N6"/>
     </row>
-    <row r="7" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="11" t="s">
         <v>13</v>
@@ -4951,55 +4972,55 @@
       <c r="M7" s="10"/>
       <c r="N7"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
       <c r="B8" t="s">
         <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>28</v>
       </c>
       <c r="G10" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H10" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G11" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H11" t="s">
         <v>238</v>
       </c>
       <c r="K11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="L11" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="M11" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>229</v>
       </c>
@@ -5007,29 +5028,29 @@
         <v>230</v>
       </c>
       <c r="F12" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>77</v>
       </c>
       <c r="C13" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>129</v>
       </c>
       <c r="F14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I14">
         <v>555</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>78</v>
       </c>
@@ -5055,10 +5076,10 @@
         <v>28</v>
       </c>
       <c r="G20" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H20" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -5069,13 +5090,13 @@
         <v>48</v>
       </c>
       <c r="F21" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H21" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -5093,10 +5114,10 @@
         <v>28</v>
       </c>
       <c r="G24" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H24" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -5104,10 +5125,10 @@
         <v>29</v>
       </c>
       <c r="F25" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H25" t="s">
         <v>39</v>
@@ -5118,10 +5139,10 @@
         <v>229</v>
       </c>
       <c r="E26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F26" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -5129,7 +5150,7 @@
         <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -5137,7 +5158,7 @@
         <v>129</v>
       </c>
       <c r="F28" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I28">
         <v>99</v>
@@ -5158,7 +5179,7 @@
         <v>77</v>
       </c>
       <c r="C31" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -5166,131 +5187,137 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>28</v>
       </c>
       <c r="G33" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="H33" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>28</v>
       </c>
       <c r="G34" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H34" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>29</v>
       </c>
       <c r="F35" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="H35" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>229</v>
       </c>
       <c r="E36" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F36" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
         <v>129</v>
       </c>
       <c r="F38" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I38">
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
         <v>129</v>
       </c>
       <c r="F40" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="I40">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
         <v>28</v>
       </c>
       <c r="G44" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H44" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
         <v>28</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H45" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="O45" t="s">
+        <v>585</v>
+      </c>
+      <c r="P45" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
         <v>101</v>
       </c>
       <c r="F46" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G46" t="s">
         <v>80</v>
@@ -5299,64 +5326,64 @@
         <v>42</v>
       </c>
       <c r="K46" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="L46" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="M46" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
         <v>229</v>
       </c>
       <c r="E47" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F47" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>77</v>
       </c>
       <c r="C48" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
         <v>129</v>
       </c>
       <c r="F49" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I49" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>77</v>
       </c>
       <c r="C51" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
         <v>101</v>
       </c>
       <c r="F52" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G52" t="s">
         <v>79</v>
@@ -5365,103 +5392,109 @@
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
         <v>229</v>
       </c>
       <c r="E53" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="F53" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>77</v>
       </c>
       <c r="C54" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
         <v>129</v>
       </c>
       <c r="F55" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I55" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>77</v>
       </c>
       <c r="C59" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
         <v>28</v>
       </c>
       <c r="G61" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="H61" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
         <v>28</v>
       </c>
       <c r="G62" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H62" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
         <v>28</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H63" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="O63" t="s">
+        <v>585</v>
+      </c>
+      <c r="P63" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
         <v>101</v>
       </c>
       <c r="F64" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G64" t="s">
         <v>80</v>
@@ -5470,13 +5503,13 @@
         <v>42</v>
       </c>
       <c r="K64" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="L64" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="M64" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
@@ -5484,10 +5517,10 @@
         <v>229</v>
       </c>
       <c r="E65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F65" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
@@ -5495,7 +5528,7 @@
         <v>77</v>
       </c>
       <c r="C66" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
@@ -5503,10 +5536,10 @@
         <v>129</v>
       </c>
       <c r="F67" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I67" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
@@ -5519,7 +5552,7 @@
         <v>77</v>
       </c>
       <c r="C69" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
@@ -5527,13 +5560,13 @@
         <v>101</v>
       </c>
       <c r="F70" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G70" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="H70" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
@@ -5541,10 +5574,10 @@
         <v>229</v>
       </c>
       <c r="E71" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="F71" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
@@ -5552,7 +5585,7 @@
         <v>77</v>
       </c>
       <c r="C72" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
@@ -5560,10 +5593,10 @@
         <v>129</v>
       </c>
       <c r="F73" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I73" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
@@ -5581,7 +5614,7 @@
         <v>129</v>
       </c>
       <c r="F76" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="I76">
         <v>2</v>
@@ -5607,10 +5640,10 @@
         <v>28</v>
       </c>
       <c r="G80" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H80" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
@@ -5629,7 +5662,7 @@
         <v>29</v>
       </c>
       <c r="F82" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G82" t="s">
         <v>80</v>
@@ -5643,10 +5676,10 @@
         <v>229</v>
       </c>
       <c r="E83" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F83" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
@@ -5654,7 +5687,7 @@
         <v>77</v>
       </c>
       <c r="C84" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
@@ -5662,10 +5695,10 @@
         <v>129</v>
       </c>
       <c r="F85" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I85" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
@@ -5678,7 +5711,7 @@
         <v>77</v>
       </c>
       <c r="C87" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
@@ -5686,10 +5719,10 @@
         <v>129</v>
       </c>
       <c r="F88" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I88" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.25">
@@ -5702,7 +5735,7 @@
         <v>77</v>
       </c>
       <c r="C90" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
@@ -5710,7 +5743,7 @@
         <v>29</v>
       </c>
       <c r="F91" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G91" t="s">
         <v>79</v>
@@ -5739,10 +5772,10 @@
         <v>28</v>
       </c>
       <c r="G95" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H95" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
@@ -5750,7 +5783,7 @@
         <v>28</v>
       </c>
       <c r="G96" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H96" t="s">
         <v>43</v>
@@ -5761,7 +5794,7 @@
         <v>29</v>
       </c>
       <c r="F97" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G97" t="s">
         <v>80</v>
@@ -5775,10 +5808,10 @@
         <v>229</v>
       </c>
       <c r="E98" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F98" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.25">
@@ -5786,7 +5819,7 @@
         <v>77</v>
       </c>
       <c r="C99" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.25">
@@ -5794,10 +5827,10 @@
         <v>129</v>
       </c>
       <c r="F100" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I100" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.25">
@@ -5810,7 +5843,7 @@
         <v>77</v>
       </c>
       <c r="C102" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.25">
@@ -5818,10 +5851,10 @@
         <v>129</v>
       </c>
       <c r="F103" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I103" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.25">
@@ -5834,7 +5867,7 @@
         <v>77</v>
       </c>
       <c r="C105" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.25">
@@ -5842,7 +5875,7 @@
         <v>29</v>
       </c>
       <c r="F106" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G106" t="s">
         <v>79</v>
@@ -5871,10 +5904,10 @@
         <v>28</v>
       </c>
       <c r="G110" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H110" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.25">
@@ -5882,7 +5915,7 @@
         <v>28</v>
       </c>
       <c r="G111" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H111" t="s">
         <v>44</v>
@@ -5893,7 +5926,7 @@
         <v>29</v>
       </c>
       <c r="F112" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G112" t="s">
         <v>80</v>
@@ -5907,10 +5940,10 @@
         <v>229</v>
       </c>
       <c r="E113" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F113" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="114" spans="2:14" x14ac:dyDescent="0.25">
@@ -5918,7 +5951,7 @@
         <v>77</v>
       </c>
       <c r="C114" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="115" spans="2:14" x14ac:dyDescent="0.25">
@@ -5926,10 +5959,10 @@
         <v>129</v>
       </c>
       <c r="F115" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I115" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="116" spans="2:14" x14ac:dyDescent="0.25">
@@ -5942,7 +5975,7 @@
         <v>77</v>
       </c>
       <c r="C117" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="118" spans="2:14" x14ac:dyDescent="0.25">
@@ -5950,10 +5983,10 @@
         <v>129</v>
       </c>
       <c r="F118" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I118" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="119" spans="2:14" x14ac:dyDescent="0.25">
@@ -5966,7 +5999,7 @@
         <v>77</v>
       </c>
       <c r="C120" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="121" spans="2:14" x14ac:dyDescent="0.25">
@@ -5974,7 +6007,7 @@
         <v>29</v>
       </c>
       <c r="F121" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G121" t="s">
         <v>79</v>
@@ -5998,7 +6031,7 @@
         <v>77</v>
       </c>
       <c r="C124" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="125" spans="2:14" x14ac:dyDescent="0.25">
@@ -6011,10 +6044,10 @@
         <v>28</v>
       </c>
       <c r="G126" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H126" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="127" spans="2:14" x14ac:dyDescent="0.25">
@@ -6022,16 +6055,16 @@
         <v>101</v>
       </c>
       <c r="F127" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G127" s="9" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H127" t="s">
         <v>46</v>
       </c>
       <c r="N127" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="128" spans="2:14" x14ac:dyDescent="0.25">
@@ -6039,10 +6072,10 @@
         <v>229</v>
       </c>
       <c r="E128" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="F128" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="G128" s="9"/>
     </row>
@@ -6051,7 +6084,7 @@
         <v>77</v>
       </c>
       <c r="C129" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="G129" s="9"/>
     </row>
@@ -6060,11 +6093,11 @@
         <v>129</v>
       </c>
       <c r="F130" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G130" s="9"/>
       <c r="I130" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
@@ -6089,12 +6122,12 @@
         <v>77</v>
       </c>
       <c r="C134" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B135" s="12" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
@@ -6113,10 +6146,10 @@
         <v>28</v>
       </c>
       <c r="G138" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H138" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
@@ -6124,13 +6157,13 @@
         <v>100</v>
       </c>
       <c r="F139" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G139" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H139" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
@@ -6146,11 +6179,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51D9F90A-DED8-4B84-AE76-A32853D141F5}">
-  <dimension ref="A1:N151"/>
+  <dimension ref="A1:Q151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F81" sqref="F81"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O73" sqref="O73:P73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6168,9 +6201,12 @@
     <col min="12" max="12" width="37.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20.28515625" customWidth="1"/>
+    <col min="15" max="15" width="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>27</v>
       </c>
@@ -6199,22 +6235,31 @@
         <v>26</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>288</v>
-      </c>
       <c r="N1" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+      <c r="O1" s="26" t="s">
+        <v>583</v>
+      </c>
+      <c r="P1" s="26" t="s">
+        <v>584</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="12" t="s">
         <v>12</v>
@@ -6227,18 +6272,18 @@
       <c r="M2" s="10"/>
       <c r="N2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H3" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="D4" s="11" t="s">
         <v>25</v>
@@ -6261,7 +6306,7 @@
       <c r="M4" s="10"/>
       <c r="N4"/>
     </row>
-    <row r="5" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
         <v>13</v>
@@ -6274,7 +6319,7 @@
       <c r="M5" s="10"/>
       <c r="N5"/>
     </row>
-    <row r="6" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="11" t="s">
         <v>77</v>
@@ -6290,10 +6335,10 @@
       <c r="M6" s="10"/>
       <c r="N6"/>
     </row>
-    <row r="7" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="12" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
@@ -6303,7 +6348,7 @@
       <c r="M7" s="10"/>
       <c r="N7"/>
     </row>
-    <row r="8" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="12" t="s">
         <v>78</v>
@@ -6315,8 +6360,11 @@
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
       <c r="N8"/>
-    </row>
-    <row r="9" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+    </row>
+    <row r="9" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
       <c r="B9" s="12" t="s">
         <v>77</v>
@@ -6331,8 +6379,11 @@
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
       <c r="N9"/>
-    </row>
-    <row r="10" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+    </row>
+    <row r="10" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="11" t="s">
         <v>12</v>
@@ -6342,55 +6393,64 @@
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
       <c r="N10"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H11" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="D12" s="11" t="s">
         <v>129</v>
       </c>
       <c r="F12" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I12" t="s">
         <v>318</v>
-      </c>
-      <c r="I12" t="s">
-        <v>319</v>
       </c>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
       <c r="N12"/>
-    </row>
-    <row r="13" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+    </row>
+    <row r="13" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="D13" s="11" t="s">
         <v>101</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G13" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="H13" s="12" t="s">
         <v>320</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>321</v>
       </c>
       <c r="I13" s="10"/>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
       <c r="N13"/>
-    </row>
-    <row r="14" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+    </row>
+    <row r="14" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="11" t="s">
         <v>13</v>
@@ -6402,13 +6462,16 @@
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
       <c r="N14"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>25</v>
       </c>
@@ -6416,13 +6479,13 @@
         <v>47</v>
       </c>
       <c r="F16" t="s">
+        <v>323</v>
+      </c>
+      <c r="G16" t="s">
         <v>324</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>325</v>
-      </c>
-      <c r="H16" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -6436,7 +6499,7 @@
         <v>77</v>
       </c>
       <c r="C18" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -6449,10 +6512,10 @@
         <v>28</v>
       </c>
       <c r="G20" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H20" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -6460,22 +6523,22 @@
         <v>29</v>
       </c>
       <c r="F21" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G21" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H21" t="s">
         <v>238</v>
       </c>
       <c r="K21" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="L21" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="M21" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -6486,7 +6549,7 @@
         <v>230</v>
       </c>
       <c r="F22" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -6494,7 +6557,7 @@
         <v>77</v>
       </c>
       <c r="C23" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -6502,7 +6565,7 @@
         <v>129</v>
       </c>
       <c r="F24" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I24">
         <v>555</v>
@@ -6534,10 +6597,10 @@
         <v>28</v>
       </c>
       <c r="G30" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -6548,13 +6611,13 @@
         <v>48</v>
       </c>
       <c r="F31" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H31" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -6572,10 +6635,10 @@
         <v>28</v>
       </c>
       <c r="G34" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H34" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
@@ -6583,10 +6646,10 @@
         <v>29</v>
       </c>
       <c r="F35" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H35" t="s">
         <v>39</v>
@@ -6597,10 +6660,10 @@
         <v>229</v>
       </c>
       <c r="E36" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F36" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
@@ -6608,7 +6671,7 @@
         <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
@@ -6616,7 +6679,7 @@
         <v>129</v>
       </c>
       <c r="F38" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I38">
         <v>99</v>
@@ -6637,7 +6700,7 @@
         <v>77</v>
       </c>
       <c r="C41" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
@@ -6650,10 +6713,10 @@
         <v>28</v>
       </c>
       <c r="G43" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="H43" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
@@ -6661,10 +6724,10 @@
         <v>28</v>
       </c>
       <c r="G44" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H44" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
@@ -6672,13 +6735,13 @@
         <v>29</v>
       </c>
       <c r="F45" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="H45" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
@@ -6686,10 +6749,10 @@
         <v>229</v>
       </c>
       <c r="E46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F46" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
@@ -6697,7 +6760,7 @@
         <v>77</v>
       </c>
       <c r="C47" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
@@ -6705,71 +6768,77 @@
         <v>129</v>
       </c>
       <c r="F48" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I48">
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
         <v>129</v>
       </c>
       <c r="F50" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="I50">
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
         <v>28</v>
       </c>
       <c r="G54" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H54" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
         <v>28</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H55" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="O55" t="s">
+        <v>585</v>
+      </c>
+      <c r="P55" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
         <v>101</v>
       </c>
       <c r="F56" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G56" t="s">
         <v>80</v>
@@ -6778,64 +6847,64 @@
         <v>42</v>
       </c>
       <c r="K56" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="L56" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="M56" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
         <v>229</v>
       </c>
       <c r="E57" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F57" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>77</v>
       </c>
       <c r="C58" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
         <v>129</v>
       </c>
       <c r="F59" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I59" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>77</v>
       </c>
       <c r="C61" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
         <v>101</v>
       </c>
       <c r="F62" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G62" t="s">
         <v>79</v>
@@ -6844,103 +6913,109 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
         <v>229</v>
       </c>
       <c r="E63" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="F63" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>77</v>
       </c>
       <c r="C64" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
         <v>129</v>
       </c>
       <c r="F65" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I65" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>77</v>
       </c>
       <c r="C69" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
         <v>28</v>
       </c>
       <c r="G71" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="H71" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
         <v>28</v>
       </c>
       <c r="G72" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H72" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
         <v>28</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H73" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="O73" t="s">
+        <v>585</v>
+      </c>
+      <c r="P73" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
         <v>101</v>
       </c>
       <c r="F74" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G74" t="s">
         <v>80</v>
@@ -6949,70 +7024,70 @@
         <v>42</v>
       </c>
       <c r="K74" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="L74" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="M74" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
         <v>229</v>
       </c>
       <c r="E75" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F75" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
         <v>129</v>
       </c>
       <c r="F77" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I77" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>77</v>
       </c>
       <c r="C79" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="80" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
         <v>101</v>
       </c>
       <c r="F80" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G80" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="H80" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
@@ -7020,10 +7095,10 @@
         <v>229</v>
       </c>
       <c r="E81" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="F81" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
@@ -7031,7 +7106,7 @@
         <v>77</v>
       </c>
       <c r="C82" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
@@ -7039,10 +7114,10 @@
         <v>129</v>
       </c>
       <c r="F83" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I83" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
@@ -7060,7 +7135,7 @@
         <v>129</v>
       </c>
       <c r="F86" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="I86">
         <v>2</v>
@@ -7086,10 +7161,10 @@
         <v>28</v>
       </c>
       <c r="G90" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H90" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
@@ -7108,7 +7183,7 @@
         <v>29</v>
       </c>
       <c r="F92" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G92" t="s">
         <v>80</v>
@@ -7122,10 +7197,10 @@
         <v>229</v>
       </c>
       <c r="E93" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F93" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.25">
@@ -7133,7 +7208,7 @@
         <v>77</v>
       </c>
       <c r="C94" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
@@ -7141,10 +7216,10 @@
         <v>129</v>
       </c>
       <c r="F95" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I95" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
@@ -7157,7 +7232,7 @@
         <v>77</v>
       </c>
       <c r="C97" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.25">
@@ -7165,10 +7240,10 @@
         <v>129</v>
       </c>
       <c r="F98" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I98" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.25">
@@ -7181,7 +7256,7 @@
         <v>77</v>
       </c>
       <c r="C100" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.25">
@@ -7189,7 +7264,7 @@
         <v>29</v>
       </c>
       <c r="F101" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G101" t="s">
         <v>79</v>
@@ -7218,10 +7293,10 @@
         <v>28</v>
       </c>
       <c r="G105" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H105" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.25">
@@ -7229,7 +7304,7 @@
         <v>28</v>
       </c>
       <c r="G106" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H106" t="s">
         <v>43</v>
@@ -7240,7 +7315,7 @@
         <v>29</v>
       </c>
       <c r="F107" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G107" t="s">
         <v>80</v>
@@ -7254,10 +7329,10 @@
         <v>229</v>
       </c>
       <c r="E108" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F108" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.25">
@@ -7265,7 +7340,7 @@
         <v>77</v>
       </c>
       <c r="C109" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.25">
@@ -7273,10 +7348,10 @@
         <v>129</v>
       </c>
       <c r="F110" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I110" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.25">
@@ -7289,7 +7364,7 @@
         <v>77</v>
       </c>
       <c r="C112" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.25">
@@ -7297,10 +7372,10 @@
         <v>129</v>
       </c>
       <c r="F113" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I113" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="114" spans="2:9" x14ac:dyDescent="0.25">
@@ -7313,7 +7388,7 @@
         <v>77</v>
       </c>
       <c r="C115" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.25">
@@ -7321,7 +7396,7 @@
         <v>29</v>
       </c>
       <c r="F116" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G116" t="s">
         <v>79</v>
@@ -7350,10 +7425,10 @@
         <v>28</v>
       </c>
       <c r="G120" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H120" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.25">
@@ -7361,7 +7436,7 @@
         <v>28</v>
       </c>
       <c r="G121" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H121" t="s">
         <v>44</v>
@@ -7372,7 +7447,7 @@
         <v>29</v>
       </c>
       <c r="F122" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G122" t="s">
         <v>80</v>
@@ -7386,10 +7461,10 @@
         <v>229</v>
       </c>
       <c r="E123" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F123" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.25">
@@ -7397,7 +7472,7 @@
         <v>77</v>
       </c>
       <c r="C124" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.25">
@@ -7405,10 +7480,10 @@
         <v>129</v>
       </c>
       <c r="F125" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I125" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.25">
@@ -7421,7 +7496,7 @@
         <v>77</v>
       </c>
       <c r="C127" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="128" spans="2:9" x14ac:dyDescent="0.25">
@@ -7429,10 +7504,10 @@
         <v>129</v>
       </c>
       <c r="F128" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I128" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
@@ -7445,7 +7520,7 @@
         <v>77</v>
       </c>
       <c r="C130" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
@@ -7453,7 +7528,7 @@
         <v>29</v>
       </c>
       <c r="F131" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G131" t="s">
         <v>79</v>
@@ -7477,7 +7552,7 @@
         <v>77</v>
       </c>
       <c r="C134" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
@@ -7490,10 +7565,10 @@
         <v>28</v>
       </c>
       <c r="G136" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H136" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
@@ -7501,16 +7576,16 @@
         <v>101</v>
       </c>
       <c r="F137" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G137" s="9" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H137" t="s">
         <v>46</v>
       </c>
       <c r="N137" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
@@ -7518,10 +7593,10 @@
         <v>229</v>
       </c>
       <c r="E138" t="s">
+        <v>567</v>
+      </c>
+      <c r="F138" t="s">
         <v>572</v>
-      </c>
-      <c r="F138" t="s">
-        <v>577</v>
       </c>
       <c r="G138" s="9"/>
     </row>
@@ -7530,7 +7605,7 @@
         <v>77</v>
       </c>
       <c r="C139" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="G139" s="9"/>
     </row>
@@ -7539,11 +7614,11 @@
         <v>129</v>
       </c>
       <c r="F140" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G140" s="9"/>
       <c r="I140" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
@@ -7568,12 +7643,12 @@
         <v>77</v>
       </c>
       <c r="C144" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B145" s="12" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
@@ -7592,10 +7667,10 @@
         <v>28</v>
       </c>
       <c r="G148" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H148" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -7603,13 +7678,13 @@
         <v>100</v>
       </c>
       <c r="F149" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G149" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H149" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -7633,8 +7708,8 @@
   <dimension ref="A1:N201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L85" sqref="L85:M85"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7683,19 +7758,19 @@
         <v>26</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>288</v>
-      </c>
       <c r="N1" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -7713,10 +7788,10 @@
         <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -7725,10 +7800,10 @@
         <v>129</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
@@ -7740,13 +7815,13 @@
         <v>101</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G5" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="H5" s="12" t="s">
         <v>350</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>351</v>
       </c>
       <c r="I5" s="10"/>
       <c r="K5" s="10"/>
@@ -7775,10 +7850,10 @@
         <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H8" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -7883,10 +7958,10 @@
         <v>28</v>
       </c>
       <c r="G20" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H20" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -7900,7 +7975,7 @@
         <v>113</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H21" t="s">
         <v>239</v>
@@ -7921,10 +7996,10 @@
         <v>28</v>
       </c>
       <c r="G24" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H24" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -7935,19 +8010,19 @@
         <v>114</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="H25" t="s">
         <v>240</v>
       </c>
       <c r="K25" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="L25" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="M25" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -7974,10 +8049,10 @@
         <v>28</v>
       </c>
       <c r="G29" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H29" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -7999,10 +8074,10 @@
         <v>229</v>
       </c>
       <c r="E31" t="s">
+        <v>246</v>
+      </c>
+      <c r="F31" t="s">
         <v>247</v>
-      </c>
-      <c r="F31" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -8010,7 +8085,7 @@
         <v>77</v>
       </c>
       <c r="C32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -8059,10 +8134,10 @@
         <v>28</v>
       </c>
       <c r="G39" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H39" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -8076,7 +8151,7 @@
         <v>120</v>
       </c>
       <c r="H40" t="s">
-        <v>242</v>
+        <v>587</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -8094,10 +8169,10 @@
         <v>28</v>
       </c>
       <c r="G43" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H43" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -8108,13 +8183,13 @@
         <v>134</v>
       </c>
       <c r="F44" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>516</v>
+        <v>588</v>
       </c>
       <c r="H44" t="s">
-        <v>517</v>
+        <v>589</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -8132,10 +8207,10 @@
         <v>28</v>
       </c>
       <c r="G47" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H47" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -8149,10 +8224,10 @@
         <v>137</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H48" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
@@ -8171,10 +8246,10 @@
         <v>139</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H50" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
@@ -8192,7 +8267,7 @@
         <v>77</v>
       </c>
       <c r="C53" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
@@ -8205,10 +8280,10 @@
         <v>28</v>
       </c>
       <c r="G55" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H55" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
@@ -8216,10 +8291,10 @@
         <v>28</v>
       </c>
       <c r="G56" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="H56" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
@@ -8227,13 +8302,13 @@
         <v>101</v>
       </c>
       <c r="F57" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="G57" t="s">
+        <v>516</v>
+      </c>
+      <c r="H57" t="s">
         <v>520</v>
-      </c>
-      <c r="H57" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
@@ -8241,10 +8316,10 @@
         <v>229</v>
       </c>
       <c r="E58" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="F58" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
@@ -8252,7 +8327,7 @@
         <v>77</v>
       </c>
       <c r="C59" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
@@ -8260,10 +8335,10 @@
         <v>129</v>
       </c>
       <c r="F60" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="I60" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
@@ -8276,13 +8351,13 @@
         <v>101</v>
       </c>
       <c r="F62" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="G62" t="s">
+        <v>517</v>
+      </c>
+      <c r="H62" t="s">
         <v>521</v>
-      </c>
-      <c r="H62" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
@@ -8290,10 +8365,10 @@
         <v>229</v>
       </c>
       <c r="E63" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="F63" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
@@ -8301,7 +8376,7 @@
         <v>77</v>
       </c>
       <c r="C64" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
@@ -8309,10 +8384,10 @@
         <v>129</v>
       </c>
       <c r="F65" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="I65" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
@@ -8325,13 +8400,13 @@
         <v>101</v>
       </c>
       <c r="F67" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="G67" t="s">
+        <v>518</v>
+      </c>
+      <c r="H67" t="s">
         <v>522</v>
-      </c>
-      <c r="H67" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
@@ -8339,10 +8414,10 @@
         <v>229</v>
       </c>
       <c r="E68" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="F68" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
@@ -8350,7 +8425,7 @@
         <v>77</v>
       </c>
       <c r="C69" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
@@ -8358,10 +8433,10 @@
         <v>129</v>
       </c>
       <c r="F70" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="I70" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
@@ -8374,13 +8449,13 @@
         <v>101</v>
       </c>
       <c r="F72" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="G72" t="s">
+        <v>519</v>
+      </c>
+      <c r="H72" t="s">
         <v>523</v>
-      </c>
-      <c r="H72" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
@@ -8388,10 +8463,10 @@
         <v>229</v>
       </c>
       <c r="E73" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="F73" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
@@ -8399,7 +8474,7 @@
         <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
@@ -8407,10 +8482,10 @@
         <v>129</v>
       </c>
       <c r="F75" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I75" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
@@ -8438,10 +8513,10 @@
         <v>28</v>
       </c>
       <c r="G80" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H80" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
@@ -8455,10 +8530,10 @@
         <v>136</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H81" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
@@ -8476,10 +8551,10 @@
         <v>28</v>
       </c>
       <c r="G84" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H84" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
@@ -8493,10 +8568,10 @@
         <v>135</v>
       </c>
       <c r="G85" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="H85" s="16" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
@@ -8514,10 +8589,10 @@
         <v>28</v>
       </c>
       <c r="G88" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H88" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.25">
@@ -8525,7 +8600,7 @@
         <v>28</v>
       </c>
       <c r="G89" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H89" t="s">
         <v>45</v>
@@ -8550,10 +8625,10 @@
         <v>229</v>
       </c>
       <c r="E91" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F91" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
@@ -8561,7 +8636,7 @@
         <v>77</v>
       </c>
       <c r="C92" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
@@ -8572,7 +8647,7 @@
         <v>140</v>
       </c>
       <c r="I93" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.25">
@@ -8585,7 +8660,7 @@
         <v>77</v>
       </c>
       <c r="C95" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
@@ -8596,7 +8671,7 @@
         <v>140</v>
       </c>
       <c r="I96" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.25">
@@ -8646,10 +8721,10 @@
         <v>28</v>
       </c>
       <c r="G103" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H103" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.25">
@@ -8657,7 +8732,7 @@
         <v>28</v>
       </c>
       <c r="G104" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H104" t="s">
         <v>43</v>
@@ -8682,10 +8757,10 @@
         <v>229</v>
       </c>
       <c r="E106" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F106" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.25">
@@ -8693,7 +8768,7 @@
         <v>77</v>
       </c>
       <c r="C107" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.25">
@@ -8704,7 +8779,7 @@
         <v>143</v>
       </c>
       <c r="I108" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.25">
@@ -8717,7 +8792,7 @@
         <v>77</v>
       </c>
       <c r="C110" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.25">
@@ -8728,7 +8803,7 @@
         <v>143</v>
       </c>
       <c r="I111" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.25">
@@ -8778,10 +8853,10 @@
         <v>28</v>
       </c>
       <c r="G118" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H118" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.25">
@@ -8789,7 +8864,7 @@
         <v>28</v>
       </c>
       <c r="G119" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H119" t="s">
         <v>44</v>
@@ -8814,10 +8889,10 @@
         <v>229</v>
       </c>
       <c r="E121" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F121" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.25">
@@ -8825,7 +8900,7 @@
         <v>77</v>
       </c>
       <c r="C122" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="123" spans="2:9" x14ac:dyDescent="0.25">
@@ -8836,7 +8911,7 @@
         <v>145</v>
       </c>
       <c r="I123" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.25">
@@ -8849,7 +8924,7 @@
         <v>77</v>
       </c>
       <c r="C125" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.25">
@@ -8860,7 +8935,7 @@
         <v>145</v>
       </c>
       <c r="I126" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="127" spans="2:9" x14ac:dyDescent="0.25">
@@ -8910,10 +8985,10 @@
         <v>28</v>
       </c>
       <c r="G133" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H133" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
@@ -8930,7 +9005,7 @@
         <v>148</v>
       </c>
       <c r="H134" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
@@ -8948,10 +9023,10 @@
         <v>28</v>
       </c>
       <c r="G137" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H137" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
@@ -8968,7 +9043,7 @@
         <v>151</v>
       </c>
       <c r="H138" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -8978,13 +9053,13 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B140" t="s">
         <v>77</v>
       </c>
       <c r="C140" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
@@ -8999,10 +9074,10 @@
         <v>28</v>
       </c>
       <c r="G142" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H142" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -9011,49 +9086,49 @@
         <v>28</v>
       </c>
       <c r="G143" t="s">
+        <v>258</v>
+      </c>
+      <c r="H143" t="s">
         <v>259</v>
-      </c>
-      <c r="H143" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="5"/>
       <c r="D144" t="s">
+        <v>260</v>
+      </c>
+      <c r="E144" t="s">
         <v>261</v>
       </c>
-      <c r="E144" t="s">
+      <c r="F144" t="s">
         <v>262</v>
       </c>
-      <c r="F144" t="s">
-        <v>263</v>
-      </c>
       <c r="G144" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H144" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="5"/>
       <c r="D145" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E145" t="s">
+        <v>263</v>
+      </c>
+      <c r="F145" t="s">
         <v>264</v>
       </c>
-      <c r="F145" t="s">
+      <c r="G145" t="s">
+        <v>289</v>
+      </c>
+      <c r="H145" t="s">
+        <v>291</v>
+      </c>
+      <c r="J145" s="16" t="s">
         <v>265</v>
-      </c>
-      <c r="G145" t="s">
-        <v>290</v>
-      </c>
-      <c r="H145" t="s">
-        <v>292</v>
-      </c>
-      <c r="J145" s="16" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
@@ -9062,10 +9137,10 @@
         <v>229</v>
       </c>
       <c r="E146" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F146" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K146" s="16"/>
     </row>
@@ -9075,7 +9150,7 @@
         <v>77</v>
       </c>
       <c r="C147" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K147" s="16"/>
     </row>
@@ -9085,10 +9160,10 @@
         <v>129</v>
       </c>
       <c r="F148" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I148" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K148" s="16"/>
     </row>
@@ -9111,7 +9186,7 @@
         <v>77</v>
       </c>
       <c r="C151" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
@@ -9126,10 +9201,10 @@
         <v>28</v>
       </c>
       <c r="G153" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H153" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
@@ -9138,13 +9213,13 @@
         <v>100</v>
       </c>
       <c r="F154" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G154" t="s">
+        <v>258</v>
+      </c>
+      <c r="H154" t="s">
         <v>259</v>
-      </c>
-      <c r="H154" t="s">
-        <v>260</v>
       </c>
       <c r="J154" s="16"/>
     </row>
@@ -9174,10 +9249,10 @@
         <v>28</v>
       </c>
       <c r="G158" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H158" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
@@ -9189,13 +9264,13 @@
         <v>134</v>
       </c>
       <c r="F159" t="s">
+        <v>269</v>
+      </c>
+      <c r="G159" t="s">
+        <v>392</v>
+      </c>
+      <c r="H159" t="s">
         <v>270</v>
-      </c>
-      <c r="G159" t="s">
-        <v>394</v>
-      </c>
-      <c r="H159" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
@@ -9204,7 +9279,7 @@
         <v>77</v>
       </c>
       <c r="C160" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.25">
@@ -9213,13 +9288,13 @@
         <v>100</v>
       </c>
       <c r="F161" t="s">
+        <v>272</v>
+      </c>
+      <c r="G161" t="s">
+        <v>393</v>
+      </c>
+      <c r="H161" t="s">
         <v>273</v>
-      </c>
-      <c r="G161" t="s">
-        <v>395</v>
-      </c>
-      <c r="H161" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
@@ -9250,10 +9325,10 @@
         <v>28</v>
       </c>
       <c r="G166" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H166" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.25">
@@ -9270,7 +9345,7 @@
         <v>154</v>
       </c>
       <c r="H167" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.25">
@@ -9296,10 +9371,10 @@
         <v>28</v>
       </c>
       <c r="G171" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H171" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
@@ -9351,10 +9426,10 @@
         <v>28</v>
       </c>
       <c r="G177" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H177" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="178" spans="2:14" x14ac:dyDescent="0.25">
@@ -9406,10 +9481,10 @@
         <v>28</v>
       </c>
       <c r="G183" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H183" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="184" spans="2:14" x14ac:dyDescent="0.25">
@@ -9461,10 +9536,10 @@
         <v>28</v>
       </c>
       <c r="G189" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H189" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="190" spans="2:14" x14ac:dyDescent="0.25">
@@ -9530,10 +9605,10 @@
         <v>28</v>
       </c>
       <c r="G199" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H199" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
@@ -9541,13 +9616,13 @@
         <v>100</v>
       </c>
       <c r="F200" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G200" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H200" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
@@ -9613,7 +9688,7 @@
         <v>26</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -9628,10 +9703,10 @@
         <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="H3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -9640,16 +9715,16 @@
         <v>25</v>
       </c>
       <c r="E4" t="s">
+        <v>470</v>
+      </c>
+      <c r="F4" t="s">
+        <v>471</v>
+      </c>
+      <c r="G4" t="s">
         <v>472</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>473</v>
-      </c>
-      <c r="G4" t="s">
-        <v>474</v>
-      </c>
-      <c r="H4" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -9658,16 +9733,16 @@
         <v>25</v>
       </c>
       <c r="E5" t="s">
+        <v>474</v>
+      </c>
+      <c r="F5" t="s">
+        <v>475</v>
+      </c>
+      <c r="G5" t="s">
         <v>476</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>477</v>
-      </c>
-      <c r="G5" t="s">
-        <v>478</v>
-      </c>
-      <c r="H5" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -9688,10 +9763,10 @@
         <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="H8" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -9703,13 +9778,13 @@
         <v>134</v>
       </c>
       <c r="F9" t="s">
+        <v>478</v>
+      </c>
+      <c r="G9" t="s">
+        <v>479</v>
+      </c>
+      <c r="H9" t="s">
         <v>480</v>
-      </c>
-      <c r="G9" t="s">
-        <v>481</v>
-      </c>
-      <c r="H9" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -9721,13 +9796,13 @@
         <v>134</v>
       </c>
       <c r="F10" t="s">
+        <v>481</v>
+      </c>
+      <c r="G10" t="s">
+        <v>482</v>
+      </c>
+      <c r="H10" t="s">
         <v>483</v>
-      </c>
-      <c r="G10" t="s">
-        <v>484</v>
-      </c>
-      <c r="H10" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -9748,10 +9823,10 @@
         <v>28</v>
       </c>
       <c r="G13" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="H13" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -9763,13 +9838,13 @@
         <v>134</v>
       </c>
       <c r="F14" t="s">
+        <v>484</v>
+      </c>
+      <c r="G14" t="s">
+        <v>485</v>
+      </c>
+      <c r="H14" t="s">
         <v>486</v>
-      </c>
-      <c r="G14" t="s">
-        <v>487</v>
-      </c>
-      <c r="H14" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -9778,16 +9853,16 @@
         <v>100</v>
       </c>
       <c r="F15" t="s">
+        <v>487</v>
+      </c>
+      <c r="G15" t="s">
+        <v>488</v>
+      </c>
+      <c r="H15" t="s">
         <v>489</v>
       </c>
-      <c r="G15" t="s">
+      <c r="J15" t="s">
         <v>490</v>
-      </c>
-      <c r="H15" t="s">
-        <v>491</v>
-      </c>
-      <c r="J15" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -9806,10 +9881,10 @@
         <v>28</v>
       </c>
       <c r="G18" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="H18" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -9817,13 +9892,13 @@
         <v>100</v>
       </c>
       <c r="F19" t="s">
+        <v>491</v>
+      </c>
+      <c r="G19" t="s">
+        <v>492</v>
+      </c>
+      <c r="H19" t="s">
         <v>493</v>
-      </c>
-      <c r="G19" t="s">
-        <v>494</v>
-      </c>
-      <c r="H19" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -9831,7 +9906,7 @@
         <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
@@ -9839,10 +9914,10 @@
         <v>129</v>
       </c>
       <c r="F21" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="I21" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
@@ -9855,10 +9930,10 @@
         <v>129</v>
       </c>
       <c r="F23" t="s">
+        <v>507</v>
+      </c>
+      <c r="I23" t="s">
         <v>509</v>
-      </c>
-      <c r="I23" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
@@ -9893,7 +9968,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>26</v>
@@ -9901,50 +9976,50 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="B4" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="B5" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="B6" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="B7" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
   </sheetData>
@@ -10005,10 +10080,10 @@
         <v>94</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -10031,7 +10106,7 @@
         <v>224</v>
       </c>
       <c r="G2" t="s">
-        <v>546</v>
+        <v>591</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>96</v>
@@ -10039,30 +10114,30 @@
     </row>
     <row r="4" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B4" t="s">
+        <v>274</v>
+      </c>
+      <c r="J4" t="s">
         <v>275</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" s="4" t="s">
         <v>276</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B5" t="s">
+        <v>274</v>
+      </c>
+      <c r="J5" t="s">
         <v>275</v>
       </c>
-      <c r="J5" t="s">
-        <v>276</v>
-      </c>
       <c r="K5" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
